--- a/1404.xlsx
+++ b/1404.xlsx
@@ -5,40 +5,41 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\مدیریت ایستگاه\1404\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CD89CF-0D2F-4601-9606-0264EC507AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF52495F-B4AC-4465-8432-88E63B0348CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="صفحه اصلی" sheetId="1" r:id="rId1"/>
-    <sheet name="دفتر روزانه" sheetId="32" r:id="rId2"/>
-    <sheet name="جهت پرینت" sheetId="21" r:id="rId3"/>
-    <sheet name="فرم های خام" sheetId="11" r:id="rId4"/>
-    <sheet name="اطلاعات حساب های ایستگاه" sheetId="14" r:id="rId5"/>
-    <sheet name="مدیریت زونکن یک" sheetId="5" r:id="rId6"/>
-    <sheet name="مدیریت زونکن دو" sheetId="6" r:id="rId7"/>
-    <sheet name="حواله کود مزرعه و باغ" sheetId="25" r:id="rId8"/>
-    <sheet name="زونکن سه - تنخواه" sheetId="8" r:id="rId9"/>
-    <sheet name="خرید کود باغ مرکبات" sheetId="31" r:id="rId10"/>
-    <sheet name="سایر فاکتورهای پرداخت شده" sheetId="16" r:id="rId11"/>
-    <sheet name="خلاصه وضعیت" sheetId="12" r:id="rId12"/>
-    <sheet name="دفتر تنخواه" sheetId="15" r:id="rId13"/>
-    <sheet name="لیست مصالح دیوارکشی" sheetId="24" r:id="rId14"/>
-    <sheet name="لیست کارگری دیوارکشی" sheetId="23" r:id="rId15"/>
-    <sheet name="تنخواه پیمانکاری دیوارکشی" sheetId="22" r:id="rId16"/>
-    <sheet name="علی الحساب موقت" sheetId="13" r:id="rId17"/>
-    <sheet name="زونکن سه - تنخواه - اداری" sheetId="20" r:id="rId18"/>
-    <sheet name="زونکن سه - تنخواه - قبوض" sheetId="19" r:id="rId19"/>
-    <sheet name="زونکن سه - تنخواه - فرم پذیرایی" sheetId="9" r:id="rId20"/>
-    <sheet name="زونکن سه - تنخواه - سوخت" sheetId="18" r:id="rId21"/>
-    <sheet name="زونکن سه - بایگانی - پذیرایی" sheetId="10" r:id="rId22"/>
-    <sheet name="مدیریت زونکن چهار" sheetId="7" r:id="rId23"/>
-    <sheet name="زونکن چهار - لیست مرخص روزانه" sheetId="28" r:id="rId24"/>
-    <sheet name="لیست فعالیت ماهانه همکاران شرکت" sheetId="30" r:id="rId25"/>
-    <sheet name="زونکن سه - لیست مرخص ساعتی" sheetId="29" r:id="rId26"/>
+    <sheet name="شماره گذاری شیت ها" sheetId="33" r:id="rId2"/>
+    <sheet name="دفتر روزانه" sheetId="32" r:id="rId3"/>
+    <sheet name="جهت پرینت" sheetId="21" r:id="rId4"/>
+    <sheet name="فرم های خام" sheetId="11" r:id="rId5"/>
+    <sheet name="اطلاعات حساب های ایستگاه" sheetId="14" r:id="rId6"/>
+    <sheet name="مدیریت زونکن یک" sheetId="5" r:id="rId7"/>
+    <sheet name="مدیریت زونکن دو" sheetId="6" r:id="rId8"/>
+    <sheet name="حواله کود مزرعه و باغ" sheetId="25" r:id="rId9"/>
+    <sheet name="N3 زونکن سه" sheetId="8" r:id="rId10"/>
+    <sheet name="N.31 خرید کود باغ مرکبات" sheetId="31" r:id="rId11"/>
+    <sheet name="سایر فاکتورهای پرداخت شده" sheetId="16" r:id="rId12"/>
+    <sheet name="خلاصه وضعیت" sheetId="12" r:id="rId13"/>
+    <sheet name="دفتر تنخواه" sheetId="15" r:id="rId14"/>
+    <sheet name="لیست مصالح دیوارکشی" sheetId="24" r:id="rId15"/>
+    <sheet name="لیست کارگری دیوارکشی" sheetId="23" r:id="rId16"/>
+    <sheet name="تنخواه پیمانکاری دیوارکشی" sheetId="22" r:id="rId17"/>
+    <sheet name="علی الحساب موقت" sheetId="13" r:id="rId18"/>
+    <sheet name="زونکن سه - تنخواه - اداری" sheetId="20" r:id="rId19"/>
+    <sheet name="زونکن سه - تنخواه - قبوض" sheetId="19" r:id="rId20"/>
+    <sheet name="زونکن سه - تنخواه - فرم پذیرایی" sheetId="9" r:id="rId21"/>
+    <sheet name="زونکن سه - تنخواه - سوخت" sheetId="18" r:id="rId22"/>
+    <sheet name="زونکن سه - بایگانی - پذیرایی" sheetId="10" r:id="rId23"/>
+    <sheet name="مدیریت زونکن چهار" sheetId="7" r:id="rId24"/>
+    <sheet name="زونکن چهار - لیست مرخص روزانه" sheetId="28" r:id="rId25"/>
+    <sheet name="لیست فعالیت ماهانه همکاران شرکت" sheetId="30" r:id="rId26"/>
+    <sheet name="زونکن سه - لیست مرخص ساعتی" sheetId="29" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="244">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -717,9 +718,6 @@
     <t>بدهی به</t>
   </si>
   <si>
-    <t>اصغر وفادار</t>
-  </si>
-  <si>
     <t>مبلغ کل ريال</t>
   </si>
   <si>
@@ -754,6 +752,48 @@
   </si>
   <si>
     <t>آقای محمد فروتن</t>
+  </si>
+  <si>
+    <t>chaparsar</t>
+  </si>
+  <si>
+    <t>chaparsar.rrs@outlook.com</t>
+  </si>
+  <si>
+    <t>شماره گذاری شیت ها</t>
+  </si>
+  <si>
+    <t>زونکن ها</t>
+  </si>
+  <si>
+    <t>N.11</t>
+  </si>
+  <si>
+    <t>N.21</t>
+  </si>
+  <si>
+    <t>N.31</t>
+  </si>
+  <si>
+    <t>N41</t>
+  </si>
+  <si>
+    <t>N.01</t>
+  </si>
+  <si>
+    <t>N.02</t>
+  </si>
+  <si>
+    <t>N.03</t>
+  </si>
+  <si>
+    <t>واریزی دو فاکتور کودهای پتاس و فسفات</t>
+  </si>
+  <si>
+    <t>دفتر روزانه</t>
+  </si>
+  <si>
+    <t>N.04</t>
   </si>
 </sst>
 </file>
@@ -875,7 +915,7 @@
       <charset val="178"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -969,6 +1009,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,7 +1220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1396,13 +1448,34 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1453,13 +1526,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1498,28 +1565,19 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="15" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3892,7 +3950,7 @@
   <dimension ref="I2:R8"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3906,18 +3964,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="9:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
     </row>
     <row r="3" spans="9:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="9:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3984,6 +4042,230 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57F183A-3386-450D-AE91-F3DA30B67E25}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="8" width="25.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="103"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="103"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="106"/>
+      <c r="G5" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="76"/>
+    </row>
+    <row r="11" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B5:E5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{3694DCA0-D0A1-4390-8A04-BD0DA463E7A3}"/>
+    <hyperlink ref="G6" location="'زونکن سه - تنخواه - فرم پذیرایی'!A1" display="پذیرایی" xr:uid="{5C653D19-6D92-4430-8ECC-7F774116C6F7}"/>
+    <hyperlink ref="G10" location="'خلاصه وضعیت'!A1" display="خلاصه وضعیت" xr:uid="{03320E24-0EE2-4F2B-AE6E-758779E3CC2D}"/>
+    <hyperlink ref="H6" location="'زونکن سه - بایگانی - پذیرایی'!A1" display="بایگانی پذیرایی" xr:uid="{CB1E63FB-A118-4DE7-8A0A-D7470D837B94}"/>
+    <hyperlink ref="I6" location="'علی الحساب موقت'!A1" display="علی الحساب موقت" xr:uid="{5FAAFCE6-9255-4966-9EE3-3ECEB1E0879E}"/>
+    <hyperlink ref="G12" location="'دفتر تنخواه'!A1" display="دفتر تنخواه" xr:uid="{E059DBBE-3FE6-4514-A094-F7E6FCE9835E}"/>
+    <hyperlink ref="I7" location="'سایر فاکتورهای پرداخت شده'!A1" display="سایر فاکتورهای پرداخت شده" xr:uid="{1737F1B5-DFE8-4002-82EB-C44F71AB905A}"/>
+    <hyperlink ref="G7" location="'زونکن سه - تنخواه - سوخت'!A1" display="سوخت" xr:uid="{CA289039-73A6-4D59-B9A7-CA4A67E995FC}"/>
+    <hyperlink ref="G8" location="'زونکن سه - تنخواه - قبوض'!A1" display="قبوض" xr:uid="{08369DEC-AF8D-495C-BDB3-6DFF654C0686}"/>
+    <hyperlink ref="G9" location="'زونکن سه - تنخواه - اداری'!A1" display="اداری" xr:uid="{EA6B824F-3FBF-4C45-90AE-C11D35EE63E9}"/>
+    <hyperlink ref="J6" location="'تنخواه پیمانکاری دیوارکشی'!A1" display="تنخواه پیمانکاری دیوارکشی" xr:uid="{7189A019-C564-4F98-8A47-D8BC4D474623}"/>
+    <hyperlink ref="J7" location="'لیست کارگری دیوارکشی'!A1" display="لیست کارگری دیوارکشی" xr:uid="{53206997-9BBF-4503-9D4C-FCB0240C1499}"/>
+    <hyperlink ref="J8" location="'لیست مصالح دیوارکشی'!A1" display="لیست مصالح دیوارکشی" xr:uid="{7BCB0872-1E5C-415F-9F83-433D278358AF}"/>
+    <hyperlink ref="I8" location="'خرید کود باغ مرکبات'!A1" display="خرید کود باغ مرکبات" xr:uid="{8A27CE52-3082-4A16-97D2-191C7523B1E2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23092EF-9DF4-42EA-9EF2-6FB21114714F}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
@@ -3991,7 +4273,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -4024,10 +4306,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="98"/>
+      <c r="I2" s="84"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -4043,8 +4325,8 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="98"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4057,10 +4339,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="102" t="s">
+      <c r="H4" s="107" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="103"/>
+      <c r="I4" s="108"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -4089,12 +4371,12 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
       <c r="E7" s="73"/>
       <c r="F7" s="9"/>
       <c r="G7" s="6"/>
@@ -4119,7 +4401,7 @@
         <v>158</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G8" s="75" t="s">
         <v>217</v>
@@ -4144,9 +4426,7 @@
       <c r="F9" s="39">
         <v>6100000</v>
       </c>
-      <c r="G9" s="114" t="s">
-        <v>218</v>
-      </c>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
@@ -4167,9 +4447,7 @@
       <c r="F10" s="39">
         <v>15000000</v>
       </c>
-      <c r="G10" s="114" t="s">
-        <v>169</v>
-      </c>
+      <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
@@ -4180,7 +4458,7 @@
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
-      <c r="G11" s="114"/>
+      <c r="G11" s="77"/>
     </row>
     <row r="12" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
@@ -4191,7 +4469,7 @@
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
-      <c r="G12" s="114"/>
+      <c r="G12" s="77"/>
     </row>
     <row r="13" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
@@ -4202,7 +4480,7 @@
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
-      <c r="G13" s="114"/>
+      <c r="G13" s="77"/>
     </row>
     <row r="14" spans="1:14" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
@@ -4213,7 +4491,7 @@
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
-      <c r="G14" s="114"/>
+      <c r="G14" s="77"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -4231,7 +4509,7 @@
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
-      <c r="G15" s="114"/>
+      <c r="G15" s="77"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -4435,7 +4713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03590E6F-F524-4F8C-ACD9-635A648ABCF8}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -4476,10 +4754,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="98"/>
+      <c r="I2" s="84"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -4495,10 +4773,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="96" t="s">
+      <c r="H3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="98"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4511,10 +4789,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="102" t="s">
+      <c r="H4" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="103"/>
+      <c r="I4" s="108"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -4529,13 +4807,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -4659,7 +4937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C5079D-A085-4F31-926D-1D8B6D498E67}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -4694,10 +4972,10 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="98"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
         <v>10</v>
@@ -4711,10 +4989,10 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="98"/>
+      <c r="G3" s="84"/>
       <c r="H3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -4725,10 +5003,10 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="F4" s="102" t="s">
+      <c r="F4" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="103"/>
+      <c r="G4" s="108"/>
       <c r="H4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -4741,11 +5019,11 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:12" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:12" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -4822,10 +5100,10 @@
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="105"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="24">
         <f>SUM(C9:C12)</f>
         <v>0</v>
@@ -4848,7 +5126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397A8150-4C95-4F03-85CC-EA5E0B56188A}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -4890,10 +5168,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="98"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -4910,10 +5188,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="96" t="s">
+      <c r="I3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="98"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -4927,10 +5205,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="102" t="s">
+      <c r="I4" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="103"/>
+      <c r="J4" s="108"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -4961,13 +5239,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="27"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -5249,7 +5527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23F2A4A-1ADA-42DA-84DF-FB5510BE189F}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -5293,10 +5571,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="98"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -5313,10 +5591,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="96" t="s">
+      <c r="I3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="98"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -5330,10 +5608,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="102" t="s">
+      <c r="I4" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="103"/>
+      <c r="J4" s="108"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5364,21 +5642,21 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="106" t="s">
+      <c r="I7" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -5694,7 +5972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECC67F4-E01F-456A-965C-D1525789CDAC}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -5738,10 +6016,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="98"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -5758,10 +6036,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="96" t="s">
+      <c r="I3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="98"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -5775,10 +6053,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="102" t="s">
+      <c r="I4" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="103"/>
+      <c r="J4" s="108"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5809,13 +6087,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="60"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -6081,7 +6359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7AE76D-6966-4BB9-B043-ED2E5C3B6D23}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -6125,10 +6403,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="98"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6145,10 +6423,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="96" t="s">
+      <c r="I3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="98"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6162,10 +6440,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="102" t="s">
+      <c r="I4" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="103"/>
+      <c r="J4" s="108"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6196,13 +6474,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="49"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -6490,7 +6768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A001D87-B52D-4BBB-825A-A2D9C74DF962}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -6534,10 +6812,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="98"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6554,10 +6832,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="96" t="s">
+      <c r="I3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="98"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6571,10 +6849,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="102" t="s">
+      <c r="I4" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="103"/>
+      <c r="J4" s="108"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6605,13 +6883,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="17"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -6908,7 +7186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AF6ECC-C25D-4AE4-9D51-65D2BBBC0054}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -6962,10 +7240,10 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="96" t="s">
+      <c r="L2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="98"/>
+      <c r="M2" s="84"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4" t="s">
         <v>10</v>
@@ -6985,10 +7263,10 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="98"/>
+      <c r="M3" s="84"/>
       <c r="N3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -7005,10 +7283,10 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="L4" s="102" t="s">
+      <c r="L4" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="103"/>
+      <c r="M4" s="108"/>
       <c r="N4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -7025,10 +7303,10 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="L5" s="107" t="s">
+      <c r="L5" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="108"/>
+      <c r="M5" s="113"/>
       <c r="N5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -7047,16 +7325,16 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:18" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
       <c r="I7" s="75" t="s">
         <v>207</v>
       </c>
@@ -7431,7 +7709,138 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C1A410-FC7C-489E-923F-4169D4A63975}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B2:N5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="G2" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+    </row>
+    <row r="3" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="119" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+    </row>
+    <row r="4" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="120" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="B3:I3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H4" location="'مدیریت زونکن یک'!A1" display="یک" xr:uid="{5FE9FE58-3527-4026-9FE9-21315B02564B}"/>
+    <hyperlink ref="F4" location="'مدیریت زونکن دو'!A1" display="دو" xr:uid="{2E55D6D8-D527-4D04-8025-712BFAD0DAFB}"/>
+    <hyperlink ref="D4" location="'زونکن سه - تنخواه'!A1" display="سه" xr:uid="{863EFE16-BC07-43F9-8CB6-B9C4C8FE3F71}"/>
+    <hyperlink ref="B4" location="'مدیریت زونکن چهار'!A1" display="چهار" xr:uid="{A032C9B8-DB95-4F3A-899B-8CE6AC6B074C}"/>
+    <hyperlink ref="L4" location="'فرم های خام'!A1" display="فرم های خام" xr:uid="{B61CBFE3-0502-4A24-87C1-B75EE7D3D861}"/>
+    <hyperlink ref="K4" location="'اطلاعات حساب های ایستگاه'!A1" display="اطلاعات حساب های ایستگاه" xr:uid="{62E8C4C2-FBC7-4756-BE75-9B163AA32561}"/>
+    <hyperlink ref="E4" location="'زونکن سه - تنخواه'!A1" display="تنخواه" xr:uid="{55E349AD-7083-44E2-B6AB-FAEB496FFA58}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611E4142-FA06-4F8C-8479-92BC84077D6A}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -7478,10 +7887,10 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="98"/>
+      <c r="L2" s="84"/>
       <c r="M2" s="3"/>
       <c r="N2" s="4" t="s">
         <v>10</v>
@@ -7500,10 +7909,10 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="K3" s="96" t="s">
+      <c r="K3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="98"/>
+      <c r="L3" s="84"/>
       <c r="M3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -7519,10 +7928,10 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="K4" s="102" t="s">
+      <c r="K4" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="103"/>
+      <c r="L4" s="108"/>
       <c r="M4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -7538,10 +7947,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="K5" s="107" t="s">
+      <c r="K5" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="108"/>
+      <c r="L5" s="113"/>
       <c r="M5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -7559,16 +7968,16 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:17" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:17" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -7908,612 +8317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81EF8E5-0ACA-4393-8383-437BB9FC965A}">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:P27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:F27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="25.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-    </row>
-    <row r="4" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="116" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="116" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="117" t="s">
-        <v>224</v>
-      </c>
-      <c r="E4" s="118" t="s">
-        <v>222</v>
-      </c>
-      <c r="F4" s="118" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-    </row>
-    <row r="5" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="39">
-        <v>1</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="115">
-        <v>3000000</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-    </row>
-    <row r="6" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
-        <v>2</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39">
-        <v>15500000</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-    </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="39">
-        <v>3</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="39">
-        <v>15500000</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-    </row>
-    <row r="8" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
-        <v>4</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="39">
-        <v>10000000</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-    </row>
-    <row r="9" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
-        <v>5</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39">
-        <v>1899000</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
-        <v>6</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39">
-        <v>352000</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:16" ht="27" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
-        <v>7</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39">
-        <v>3352000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="27" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
-        <v>8</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="E12" s="39">
-        <v>5000000</v>
-      </c>
-      <c r="F12" s="39"/>
-    </row>
-    <row r="13" spans="1:16" ht="27" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
-        <v>9</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="F13" s="39">
-        <v>1974000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="27" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
-        <v>10</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39">
-        <v>106000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="27" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
-        <v>11</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39">
-        <v>2800000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
-        <v>12</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="115">
-        <v>6100000</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
-        <v>13</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39">
-        <v>1000000</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
-        <v>14</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="115">
-        <v>15000000</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
-        <v>15</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
-        <v>16</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-    </row>
-    <row r="21" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
-        <v>17</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-    </row>
-    <row r="22" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A22" s="39">
-        <v>18</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-    </row>
-    <row r="23" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A23" s="39">
-        <v>19</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-    </row>
-    <row r="24" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
-        <v>20</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-    </row>
-    <row r="25" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A25" s="39">
-        <v>21</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="74"/>
-    </row>
-    <row r="26" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="39">
-        <v>22</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-    </row>
-    <row r="27" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
-        <v>23</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A3:F3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B1" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{EF9E8FAB-220F-4813-93CF-67F1B543C91E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74664C7B-AF9D-4AAA-84CE-5A79A28E0748}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -8554,10 +8358,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="98"/>
+      <c r="I2" s="84"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -8573,10 +8377,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="96" t="s">
+      <c r="H3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="98"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -8589,10 +8393,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="102" t="s">
+      <c r="H4" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="103"/>
+      <c r="I4" s="108"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -8605,10 +8409,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="107" t="s">
+      <c r="H5" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="108"/>
+      <c r="I5" s="113"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -8623,13 +8427,13 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -8873,13 +8677,13 @@
       <c r="E29" s="16"/>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A41" s="78" t="s">
+      <c r="A41" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
     </row>
     <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -9110,7 +8914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E05E92-F6C6-4B7D-8902-B6A7A2B70891}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -9159,10 +8963,10 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="J2" s="96" t="s">
+      <c r="J2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="98"/>
+      <c r="K2" s="84"/>
       <c r="L2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -9177,10 +8981,10 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="J3" s="96" t="s">
+      <c r="J3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="98"/>
+      <c r="K3" s="84"/>
       <c r="L3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -9195,10 +8999,10 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="J4" s="102" t="s">
+      <c r="J4" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="103"/>
+      <c r="K4" s="108"/>
       <c r="L4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -9213,10 +9017,10 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="J5" s="107" t="s">
+      <c r="J5" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="108"/>
+      <c r="K5" s="113"/>
       <c r="L5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -9233,15 +9037,15 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -9545,7 +9349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4824894-99A7-468B-A8A6-2B99A48AF766}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -9588,10 +9392,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="98"/>
+      <c r="I2" s="84"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -9604,10 +9408,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="96" t="s">
+      <c r="H3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="98"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -9620,10 +9424,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="107" t="s">
+      <c r="H4" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="108"/>
+      <c r="I4" s="113"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -9636,10 +9440,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="102" t="s">
+      <c r="H5" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="103"/>
+      <c r="I5" s="108"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -9663,13 +9467,13 @@
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -9980,7 +9784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F6B1EE-0CDB-40D5-AA97-407B3D9B5EAB}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -10006,10 +9810,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="109" t="s">
+      <c r="K2" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="110"/>
+      <c r="L2" s="115"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -10056,7 +9860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306C899E-EDF2-4E78-9E17-5B8A229DB2C4}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -10099,10 +9903,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="85"/>
+      <c r="I2" s="92"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10115,10 +9919,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="109" t="s">
+      <c r="H3" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="110"/>
+      <c r="I3" s="115"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10133,13 +9937,13 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -10455,7 +10259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930F3AE4-F05A-41F7-94FE-13D5DDEE4B2A}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -10497,10 +10301,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="85"/>
+      <c r="I2" s="92"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10512,10 +10316,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="109" t="s">
+      <c r="H3" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="110"/>
+      <c r="I3" s="115"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10529,20 +10333,20 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
     </row>
     <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="118" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="72"/>
       <c r="F6" s="72"/>
       <c r="G6" s="72"/>
@@ -10588,11 +10392,11 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="116" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="71"/>
@@ -10741,11 +10545,11 @@
       <c r="J20" s="72"/>
     </row>
     <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="116" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
       <c r="E21" s="72"/>
       <c r="F21" s="72"/>
       <c r="G21" s="72"/>
@@ -10787,20 +10591,20 @@
       <c r="J24" s="68"/>
     </row>
     <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
     </row>
     <row r="26" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="113" t="s">
+      <c r="A26" s="118" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
     </row>
     <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="B27"/>
@@ -10824,11 +10628,11 @@
       <c r="D29"/>
     </row>
     <row r="30" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="116" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
       <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
@@ -10922,11 +10726,11 @@
       <c r="D40" s="72"/>
     </row>
     <row r="41" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="112" t="s">
+      <c r="B41" s="116" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -10951,7 +10755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F82A5-E35F-4FD7-BC9C-13B5DFE62BF2}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -10989,10 +10793,10 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="85"/>
+      <c r="H2" s="92"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
         <v>10</v>
@@ -11007,10 +10811,10 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="109" t="s">
+      <c r="G3" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="110"/>
+      <c r="H3" s="115"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -11024,12 +10828,12 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -11321,6 +11125,619 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81EF8E5-0ACA-4393-8383-437BB9FC965A}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="25.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A3" s="85" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+    </row>
+    <row r="4" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+    </row>
+    <row r="5" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="78">
+        <v>3000000</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+    </row>
+    <row r="6" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="39">
+        <v>2</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39">
+        <v>15500000</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+    </row>
+    <row r="7" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="39">
+        <v>3</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="39">
+        <v>15500000</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+    </row>
+    <row r="8" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
+        <v>4</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="39">
+        <v>10000000</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+    </row>
+    <row r="9" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>5</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39">
+        <v>1899000</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
+        <v>6</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39">
+        <v>352000</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
+        <v>7</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39">
+        <v>3352000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
+        <v>8</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" s="39">
+        <v>5000000</v>
+      </c>
+      <c r="F12" s="39"/>
+    </row>
+    <row r="13" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <v>9</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="F13" s="39">
+        <v>1974000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
+        <v>10</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39">
+        <v>106000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <v>11</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>12</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39">
+        <v>6100000</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
+        <v>13</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39">
+        <v>1000000</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>14</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39">
+        <v>15000000</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <v>15</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="39">
+        <v>21100000</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <v>16</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
+        <v>17</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A22" s="39">
+        <v>18</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
+        <v>19</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
+        <v>20</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
+        <v>21</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="74"/>
+    </row>
+    <row r="26" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
+        <v>22</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
+        <v>23</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{EF9E8FAB-220F-4813-93CF-67F1B543C91E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CF95F5-D50B-45C5-B798-426572AEAFA8}">
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
@@ -11345,12 +11762,12 @@
     <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
     </row>
     <row r="4" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -11396,13 +11813,13 @@
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11777,8 +12194,8 @@
       <c r="A122" s="20"/>
     </row>
     <row r="125" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A125" s="78"/>
-      <c r="B125" s="78"/>
+      <c r="A125" s="86"/>
+      <c r="B125" s="86"/>
     </row>
     <row r="126" spans="1:2" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
@@ -11879,7 +12296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A8DF90-1687-4F6F-A8F8-4C81FF7A5D87}">
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
@@ -11922,10 +12339,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="81"/>
+      <c r="I2" s="88"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -11941,10 +12358,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="83"/>
+      <c r="I3" s="90"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -11973,13 +12390,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -12253,13 +12670,13 @@
       <c r="N30" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -12483,14 +12900,14 @@
       <c r="F54" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A57" s="79" t="s">
+      <c r="A57" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="79"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
     </row>
     <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -12712,12 +13129,12 @@
       <c r="F78" s="20"/>
     </row>
     <row r="82" spans="1:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="A82" s="79" t="s">
+      <c r="A82" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="79"/>
-      <c r="C82" s="79"/>
-      <c r="D82" s="79"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
     </row>
     <row r="83" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
@@ -12894,15 +13311,15 @@
       <c r="D103" s="22"/>
     </row>
     <row r="106" spans="1:7" ht="27" x14ac:dyDescent="0.25">
-      <c r="A106" s="78" t="s">
+      <c r="A106" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="78"/>
-      <c r="C106" s="78"/>
-      <c r="D106" s="78"/>
-      <c r="E106" s="78"/>
-      <c r="F106" s="78"/>
-      <c r="G106" s="78"/>
+      <c r="B106" s="86"/>
+      <c r="C106" s="86"/>
+      <c r="D106" s="86"/>
+      <c r="E106" s="86"/>
+      <c r="F106" s="86"/>
+      <c r="G106" s="86"/>
     </row>
     <row r="107" spans="1:7" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
@@ -13152,16 +13569,16 @@
       <c r="G127" s="20"/>
     </row>
     <row r="130" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A130" s="78" t="s">
+      <c r="A130" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="B130" s="78"/>
-      <c r="C130" s="78"/>
-      <c r="D130" s="78"/>
-      <c r="E130" s="78"/>
-      <c r="F130" s="78"/>
-      <c r="G130" s="78"/>
-      <c r="H130" s="78"/>
+      <c r="B130" s="86"/>
+      <c r="C130" s="86"/>
+      <c r="D130" s="86"/>
+      <c r="E130" s="86"/>
+      <c r="F130" s="86"/>
+      <c r="G130" s="86"/>
+      <c r="H130" s="86"/>
     </row>
     <row r="131" spans="1:8" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
@@ -13430,13 +13847,13 @@
       <c r="H151" s="10"/>
     </row>
     <row r="155" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A155" s="78" t="s">
+      <c r="A155" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="B155" s="78"/>
-      <c r="C155" s="78"/>
-      <c r="D155" s="78"/>
-      <c r="E155" s="78"/>
+      <c r="B155" s="86"/>
+      <c r="C155" s="86"/>
+      <c r="D155" s="86"/>
+      <c r="E155" s="86"/>
       <c r="F155" s="63"/>
     </row>
     <row r="156" spans="1:8" ht="27" x14ac:dyDescent="0.25">
@@ -13660,13 +14077,13 @@
       <c r="F176" s="39"/>
     </row>
     <row r="179" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A179" s="78" t="s">
+      <c r="A179" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="B179" s="78"/>
-      <c r="C179" s="78"/>
-      <c r="D179" s="78"/>
-      <c r="E179" s="78"/>
+      <c r="B179" s="86"/>
+      <c r="C179" s="86"/>
+      <c r="D179" s="86"/>
+      <c r="E179" s="86"/>
       <c r="F179" s="66"/>
     </row>
     <row r="180" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -13886,32 +14303,32 @@
       <c r="F200" s="39"/>
     </row>
     <row r="204" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A204" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="B204" s="79"/>
-      <c r="C204" s="79"/>
-      <c r="D204" s="79"/>
-      <c r="E204" s="79"/>
-      <c r="F204" s="79"/>
+      <c r="A204" s="85" t="s">
+        <v>219</v>
+      </c>
+      <c r="B204" s="85"/>
+      <c r="C204" s="85"/>
+      <c r="D204" s="85"/>
+      <c r="E204" s="85"/>
+      <c r="F204" s="85"/>
     </row>
     <row r="205" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A205" s="116" t="s">
+      <c r="A205" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B205" s="116" t="s">
+      <c r="B205" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C205" s="116" t="s">
+      <c r="C205" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="D205" s="117" t="s">
-        <v>224</v>
-      </c>
-      <c r="E205" s="118" t="s">
-        <v>222</v>
-      </c>
-      <c r="F205" s="118" t="s">
+      <c r="D205" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="E205" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="F205" s="81" t="s">
         <v>127</v>
       </c>
     </row>
@@ -13926,10 +14343,10 @@
         <v>121</v>
       </c>
       <c r="D206" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E206" s="19"/>
-      <c r="F206" s="115">
+      <c r="F206" s="78">
         <v>3000000</v>
       </c>
     </row>
@@ -13941,10 +14358,10 @@
         <v>171</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E207" s="39"/>
       <c r="F207" s="39">
@@ -13959,7 +14376,7 @@
         <v>52</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D208" s="21" t="s">
         <v>96</v>
@@ -13977,7 +14394,7 @@
         <v>52</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D209" s="21" t="s">
         <v>96</v>
@@ -14043,10 +14460,10 @@
         <v>132</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E213" s="39">
         <v>5000000</v>
@@ -14108,13 +14525,13 @@
         <v>156</v>
       </c>
       <c r="C217" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D217" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E217" s="39"/>
-      <c r="F217" s="115">
+      <c r="F217" s="78">
         <v>6100000</v>
       </c>
     </row>
@@ -14142,13 +14559,13 @@
         <v>210</v>
       </c>
       <c r="C219" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D219" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="D219" s="21" t="s">
-        <v>230</v>
-      </c>
       <c r="E219" s="39"/>
-      <c r="F219" s="115">
+      <c r="F219" s="78">
         <v>15000000</v>
       </c>
     </row>
@@ -14434,7 +14851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F98942-1382-4532-BD9E-C7CD60D35BE9}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -14442,7 +14859,7 @@
   <dimension ref="I1:Q25"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14461,10 +14878,10 @@
   <sheetData>
     <row r="1" spans="10:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="85"/>
+      <c r="K2" s="92"/>
       <c r="L2" s="3"/>
       <c r="M2" s="4" t="s">
         <v>10</v>
@@ -14484,7 +14901,9 @@
       </c>
     </row>
     <row r="5" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="K5" s="37" t="s">
         <v>61</v>
       </c>
@@ -14496,17 +14915,19 @@
       </c>
     </row>
     <row r="7" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="K7" s="37" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="10:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="84" t="s">
+      <c r="J12" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="85"/>
+      <c r="K12" s="92"/>
     </row>
     <row r="13" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J13" s="2">
@@ -14577,7 +14998,7 @@
       </c>
     </row>
     <row r="24" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="86" t="s">
+      <c r="I24" s="93" t="s">
         <v>76</v>
       </c>
       <c r="J24" s="2">
@@ -14588,7 +15009,7 @@
       </c>
     </row>
     <row r="25" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="87"/>
+      <c r="I25" s="94"/>
       <c r="J25" s="2" t="s">
         <v>74</v>
       </c>
@@ -14604,13 +15025,14 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{DFF3124D-C577-461E-AA82-ED7F77244908}"/>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{0441308A-2E7A-4005-9934-E15FFE8FA6BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CC9E9A-5CBB-4229-9FBD-A58E0519FAA9}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
@@ -14635,10 +15057,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="88" t="s">
+      <c r="K2" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="89"/>
+      <c r="L2" s="96"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -14689,16 +15111,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2048FEE-3399-40DE-A28A-5C279080E45C}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
-    </sheetView>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14716,10 +15136,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="90" t="s">
+      <c r="K2" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="91"/>
+      <c r="L2" s="98"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -14772,14 +15192,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2DB39D-3131-4E2F-B906-B453417A2FF8}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A9" workbookViewId="0"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14813,10 +15233,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="93"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -14833,10 +15253,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="92" t="s">
+      <c r="I3" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="93"/>
+      <c r="J3" s="100"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -14850,10 +15270,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="94" t="s">
+      <c r="I4" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="95"/>
+      <c r="J4" s="102"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -14884,13 +15304,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -15190,228 +15610,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57F183A-3386-450D-AE91-F3DA30B67E25}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="8" width="25.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="97"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="96" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="97"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="99" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
-      <c r="G5" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="76"/>
-    </row>
-    <row r="11" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B5:E5"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{3694DCA0-D0A1-4390-8A04-BD0DA463E7A3}"/>
-    <hyperlink ref="G6" location="'زونکن سه - تنخواه - فرم پذیرایی'!A1" display="پذیرایی" xr:uid="{5C653D19-6D92-4430-8ECC-7F774116C6F7}"/>
-    <hyperlink ref="G10" location="'خلاصه وضعیت'!A1" display="خلاصه وضعیت" xr:uid="{03320E24-0EE2-4F2B-AE6E-758779E3CC2D}"/>
-    <hyperlink ref="H6" location="'زونکن سه - بایگانی - پذیرایی'!A1" display="بایگانی پذیرایی" xr:uid="{CB1E63FB-A118-4DE7-8A0A-D7470D837B94}"/>
-    <hyperlink ref="I6" location="'علی الحساب موقت'!A1" display="علی الحساب موقت" xr:uid="{5FAAFCE6-9255-4966-9EE3-3ECEB1E0879E}"/>
-    <hyperlink ref="G12" location="'دفتر تنخواه'!A1" display="دفتر تنخواه" xr:uid="{E059DBBE-3FE6-4514-A094-F7E6FCE9835E}"/>
-    <hyperlink ref="I7" location="'سایر فاکتورهای پرداخت شده'!A1" display="سایر فاکتورهای پرداخت شده" xr:uid="{1737F1B5-DFE8-4002-82EB-C44F71AB905A}"/>
-    <hyperlink ref="G7" location="'زونکن سه - تنخواه - سوخت'!A1" display="سوخت" xr:uid="{CA289039-73A6-4D59-B9A7-CA4A67E995FC}"/>
-    <hyperlink ref="G8" location="'زونکن سه - تنخواه - قبوض'!A1" display="قبوض" xr:uid="{08369DEC-AF8D-495C-BDB3-6DFF654C0686}"/>
-    <hyperlink ref="G9" location="'زونکن سه - تنخواه - اداری'!A1" display="اداری" xr:uid="{EA6B824F-3FBF-4C45-90AE-C11D35EE63E9}"/>
-    <hyperlink ref="J6" location="'تنخواه پیمانکاری دیوارکشی'!A1" display="تنخواه پیمانکاری دیوارکشی" xr:uid="{7189A019-C564-4F98-8A47-D8BC4D474623}"/>
-    <hyperlink ref="J7" location="'لیست کارگری دیوارکشی'!A1" display="لیست کارگری دیوارکشی" xr:uid="{53206997-9BBF-4503-9D4C-FCB0240C1499}"/>
-    <hyperlink ref="J8" location="'لیست مصالح دیوارکشی'!A1" display="لیست مصالح دیوارکشی" xr:uid="{7BCB0872-1E5C-415F-9F83-433D278358AF}"/>
-    <hyperlink ref="I8" location="'خرید کود باغ مرکبات'!A1" display="خرید کود باغ مرکبات" xr:uid="{8A27CE52-3082-4A16-97D2-191C7523B1E2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF52495F-B4AC-4465-8432-88E63B0348CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CEFBD5-6CC7-456A-B26E-E53261DE1413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="246">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -794,6 +794,12 @@
   </si>
   <si>
     <t>N.04</t>
+  </si>
+  <si>
+    <t>کود فسفات</t>
+  </si>
+  <si>
+    <t>کود پتاس</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1469,13 @@
     <xf numFmtId="0" fontId="6" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1573,12 +1585,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3950,7 +3956,7 @@
   <dimension ref="I2:R8"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3964,18 +3970,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="9:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
     </row>
     <row r="3" spans="9:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="9:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4036,6 +4042,7 @@
     <hyperlink ref="O4" location="'فرم های خام'!A1" display="فرم های خام" xr:uid="{9D678144-E325-4478-810D-3961278E4149}"/>
     <hyperlink ref="O5" location="'اطلاعات حساب های ایستگاه'!A1" display="اطلاعات حساب های ایستگاه" xr:uid="{AA8CC3E6-5253-4C5F-95AE-394D78979893}"/>
     <hyperlink ref="L7" location="'زونکن سه - تنخواه'!A1" display="تنخواه" xr:uid="{57666A52-B254-49AB-B917-6412878AD607}"/>
+    <hyperlink ref="K7:L7" location="'N3 زونکن سه'!A1" display="سه" xr:uid="{33595FBF-E1B9-4DCA-9828-AB4A8BAFE1A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4049,7 +4056,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4071,11 +4078,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="84"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="86"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -4083,11 +4090,11 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="84"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4096,12 +4103,12 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="108"/>
       <c r="G5" s="5" t="s">
         <v>212</v>
       </c>
@@ -4306,10 +4313,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
+      <c r="I2" s="86"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -4325,8 +4332,8 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="84"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4339,10 +4346,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="107" t="s">
+      <c r="H4" s="109" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="108"/>
+      <c r="I4" s="110"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -4371,12 +4378,12 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="88" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
       <c r="E7" s="73"/>
       <c r="F7" s="9"/>
       <c r="G7" s="6"/>
@@ -4720,8 +4727,8 @@
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -4754,10 +4761,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="84"/>
+      <c r="I2" s="86"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -4773,10 +4780,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="84"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4789,10 +4796,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="107" t="s">
+      <c r="H4" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="108"/>
+      <c r="I4" s="110"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -4807,13 +4814,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -4879,25 +4886,38 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:14" s="7" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
         <v>3</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="E10" s="29"/>
+      <c r="B10" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="39">
+        <v>6100000</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
         <v>4</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
+      <c r="D11" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="39">
+        <v>15000000</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
@@ -4972,10 +4992,10 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="84"/>
+      <c r="G2" s="86"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
         <v>10</v>
@@ -4989,10 +5009,10 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="84"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -5003,10 +5023,10 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="F4" s="107" t="s">
+      <c r="F4" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="108"/>
+      <c r="G4" s="110"/>
       <c r="H4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -5019,11 +5039,11 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:12" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:12" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -5100,10 +5120,10 @@
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="110"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="24">
         <f>SUM(C9:C12)</f>
         <v>0</v>
@@ -5168,10 +5188,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="84"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -5188,10 +5208,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="84"/>
+      <c r="J3" s="86"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -5205,10 +5225,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="107" t="s">
+      <c r="I4" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="108"/>
+      <c r="J4" s="110"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5239,13 +5259,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="27"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -5571,10 +5591,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="84"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -5591,10 +5611,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="84"/>
+      <c r="J3" s="86"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -5608,10 +5628,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="107" t="s">
+      <c r="I4" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="108"/>
+      <c r="J4" s="110"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5642,21 +5662,21 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="111" t="s">
+      <c r="I7" s="113" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -6016,10 +6036,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="84"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6036,10 +6056,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="84"/>
+      <c r="J3" s="86"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6053,10 +6073,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="107" t="s">
+      <c r="I4" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="108"/>
+      <c r="J4" s="110"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6087,13 +6107,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="60"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -6403,10 +6423,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="84"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6423,10 +6443,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="84"/>
+      <c r="J3" s="86"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6440,10 +6460,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="107" t="s">
+      <c r="I4" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="108"/>
+      <c r="J4" s="110"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6474,13 +6494,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="49"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -6776,7 +6796,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -6812,10 +6832,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="84"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6832,10 +6852,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="84"/>
+      <c r="J3" s="86"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6849,10 +6869,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="107" t="s">
+      <c r="I4" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="108"/>
+      <c r="J4" s="110"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6883,13 +6903,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="17"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -7240,10 +7260,10 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="83" t="s">
+      <c r="L2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="84"/>
+      <c r="M2" s="86"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4" t="s">
         <v>10</v>
@@ -7263,10 +7283,10 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="L3" s="83" t="s">
+      <c r="L3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="84"/>
+      <c r="M3" s="86"/>
       <c r="N3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -7283,10 +7303,10 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="L4" s="107" t="s">
+      <c r="L4" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="108"/>
+      <c r="M4" s="110"/>
       <c r="N4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -7303,10 +7323,10 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="L5" s="112" t="s">
+      <c r="L5" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="113"/>
+      <c r="M5" s="115"/>
       <c r="N5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -7325,16 +7345,16 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:18" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
       <c r="I7" s="75" t="s">
         <v>207</v>
       </c>
@@ -7735,28 +7755,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="83" t="s">
         <v>232</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
     </row>
     <row r="3" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="84" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
     </row>
     <row r="4" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
@@ -7792,7 +7812,7 @@
       <c r="L4" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="120" t="s">
+      <c r="M4" s="82" t="s">
         <v>242</v>
       </c>
     </row>
@@ -7887,10 +7907,10 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="K2" s="83" t="s">
+      <c r="K2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="84"/>
+      <c r="L2" s="86"/>
       <c r="M2" s="3"/>
       <c r="N2" s="4" t="s">
         <v>10</v>
@@ -7909,10 +7929,10 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="84"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -7928,10 +7948,10 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="K4" s="107" t="s">
+      <c r="K4" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="108"/>
+      <c r="L4" s="110"/>
       <c r="M4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -7947,10 +7967,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="K5" s="112" t="s">
+      <c r="K5" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="113"/>
+      <c r="L5" s="115"/>
       <c r="M5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -7968,16 +7988,16 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:17" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:17" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -8358,10 +8378,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="84"/>
+      <c r="I2" s="86"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -8377,10 +8397,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="84"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -8393,10 +8413,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="107" t="s">
+      <c r="H4" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="108"/>
+      <c r="I4" s="110"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -8409,10 +8429,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="112" t="s">
+      <c r="H5" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="113"/>
+      <c r="I5" s="115"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -8427,13 +8447,13 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -8677,13 +8697,13 @@
       <c r="E29" s="16"/>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A41" s="86" t="s">
+      <c r="A41" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
     </row>
     <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -8963,10 +8983,10 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="J2" s="83" t="s">
+      <c r="J2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="84"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -8981,10 +9001,10 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="84"/>
+      <c r="K3" s="86"/>
       <c r="L3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -8999,10 +9019,10 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="J4" s="107" t="s">
+      <c r="J4" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="108"/>
+      <c r="K4" s="110"/>
       <c r="L4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -9017,10 +9037,10 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="J5" s="112" t="s">
+      <c r="J5" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="113"/>
+      <c r="K5" s="115"/>
       <c r="L5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -9037,15 +9057,15 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -9392,10 +9412,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="84"/>
+      <c r="I2" s="86"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -9408,10 +9428,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="84"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -9424,10 +9444,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="112" t="s">
+      <c r="H4" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="113"/>
+      <c r="I4" s="115"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -9440,10 +9460,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="107" t="s">
+      <c r="H5" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="108"/>
+      <c r="I5" s="110"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -9467,13 +9487,13 @@
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -9810,10 +9830,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="114" t="s">
+      <c r="K2" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="115"/>
+      <c r="L2" s="117"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -9903,10 +9923,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="92"/>
+      <c r="I2" s="94"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -9919,10 +9939,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="114" t="s">
+      <c r="H3" s="116" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="115"/>
+      <c r="I3" s="117"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -9937,13 +9957,13 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="88" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -10301,10 +10321,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="92"/>
+      <c r="I2" s="94"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10316,10 +10336,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="114" t="s">
+      <c r="H3" s="116" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="115"/>
+      <c r="I3" s="117"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10333,20 +10353,20 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="119" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
     </row>
     <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="120" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
       <c r="E6" s="72"/>
       <c r="F6" s="72"/>
       <c r="G6" s="72"/>
@@ -10392,11 +10412,11 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="71"/>
@@ -10545,11 +10565,11 @@
       <c r="J20" s="72"/>
     </row>
     <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
       <c r="E21" s="72"/>
       <c r="F21" s="72"/>
       <c r="G21" s="72"/>
@@ -10591,20 +10611,20 @@
       <c r="J24" s="68"/>
     </row>
     <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="119" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
     </row>
     <row r="26" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="118" t="s">
+      <c r="A26" s="120" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
     </row>
     <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="B27"/>
@@ -10628,11 +10648,11 @@
       <c r="D29"/>
     </row>
     <row r="30" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="116" t="s">
+      <c r="B30" s="118" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
       <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
@@ -10726,11 +10746,11 @@
       <c r="D40" s="72"/>
     </row>
     <row r="41" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="116" t="s">
+      <c r="B41" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -10793,10 +10813,10 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="92"/>
+      <c r="H2" s="94"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
         <v>10</v>
@@ -10811,10 +10831,10 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="116" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="115"/>
+      <c r="H3" s="117"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -10828,12 +10848,12 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -11131,7 +11151,7 @@
   </sheetPr>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -11172,22 +11192,22 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="74"/>
@@ -11762,12 +11782,12 @@
     <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
     </row>
     <row r="4" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -11813,13 +11833,13 @@
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12194,8 +12214,8 @@
       <c r="A122" s="20"/>
     </row>
     <row r="125" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A125" s="86"/>
-      <c r="B125" s="86"/>
+      <c r="A125" s="88"/>
+      <c r="B125" s="88"/>
     </row>
     <row r="126" spans="1:2" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
@@ -12339,10 +12359,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="88"/>
+      <c r="I2" s="90"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -12358,10 +12378,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="89" t="s">
+      <c r="H3" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="90"/>
+      <c r="I3" s="92"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -12390,13 +12410,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -12670,13 +12690,13 @@
       <c r="N30" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A33" s="86" t="s">
+      <c r="A33" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -12900,14 +12920,14 @@
       <c r="F54" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A57" s="85" t="s">
+      <c r="A57" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
     </row>
     <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -13129,12 +13149,12 @@
       <c r="F78" s="20"/>
     </row>
     <row r="82" spans="1:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="A82" s="85" t="s">
+      <c r="A82" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="85"/>
-      <c r="C82" s="85"/>
-      <c r="D82" s="85"/>
+      <c r="B82" s="87"/>
+      <c r="C82" s="87"/>
+      <c r="D82" s="87"/>
     </row>
     <row r="83" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
@@ -13311,15 +13331,15 @@
       <c r="D103" s="22"/>
     </row>
     <row r="106" spans="1:7" ht="27" x14ac:dyDescent="0.25">
-      <c r="A106" s="86" t="s">
+      <c r="A106" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="86"/>
-      <c r="C106" s="86"/>
-      <c r="D106" s="86"/>
-      <c r="E106" s="86"/>
-      <c r="F106" s="86"/>
-      <c r="G106" s="86"/>
+      <c r="B106" s="88"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="88"/>
     </row>
     <row r="107" spans="1:7" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
@@ -13569,16 +13589,16 @@
       <c r="G127" s="20"/>
     </row>
     <row r="130" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A130" s="86" t="s">
+      <c r="A130" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="B130" s="86"/>
-      <c r="C130" s="86"/>
-      <c r="D130" s="86"/>
-      <c r="E130" s="86"/>
-      <c r="F130" s="86"/>
-      <c r="G130" s="86"/>
-      <c r="H130" s="86"/>
+      <c r="B130" s="88"/>
+      <c r="C130" s="88"/>
+      <c r="D130" s="88"/>
+      <c r="E130" s="88"/>
+      <c r="F130" s="88"/>
+      <c r="G130" s="88"/>
+      <c r="H130" s="88"/>
     </row>
     <row r="131" spans="1:8" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
@@ -13847,13 +13867,13 @@
       <c r="H151" s="10"/>
     </row>
     <row r="155" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A155" s="86" t="s">
+      <c r="A155" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="B155" s="86"/>
-      <c r="C155" s="86"/>
-      <c r="D155" s="86"/>
-      <c r="E155" s="86"/>
+      <c r="B155" s="88"/>
+      <c r="C155" s="88"/>
+      <c r="D155" s="88"/>
+      <c r="E155" s="88"/>
       <c r="F155" s="63"/>
     </row>
     <row r="156" spans="1:8" ht="27" x14ac:dyDescent="0.25">
@@ -14077,13 +14097,13 @@
       <c r="F176" s="39"/>
     </row>
     <row r="179" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A179" s="86" t="s">
+      <c r="A179" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="B179" s="86"/>
-      <c r="C179" s="86"/>
-      <c r="D179" s="86"/>
-      <c r="E179" s="86"/>
+      <c r="B179" s="88"/>
+      <c r="C179" s="88"/>
+      <c r="D179" s="88"/>
+      <c r="E179" s="88"/>
       <c r="F179" s="66"/>
     </row>
     <row r="180" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -14303,14 +14323,14 @@
       <c r="F200" s="39"/>
     </row>
     <row r="204" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A204" s="85" t="s">
+      <c r="A204" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="B204" s="85"/>
-      <c r="C204" s="85"/>
-      <c r="D204" s="85"/>
-      <c r="E204" s="85"/>
-      <c r="F204" s="85"/>
+      <c r="B204" s="87"/>
+      <c r="C204" s="87"/>
+      <c r="D204" s="87"/>
+      <c r="E204" s="87"/>
+      <c r="F204" s="87"/>
     </row>
     <row r="205" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A205" s="79" t="s">
@@ -14831,17 +14851,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A57:F57"/>
     <mergeCell ref="A204:F204"/>
     <mergeCell ref="A179:E179"/>
     <mergeCell ref="A155:E155"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A130:H130"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A57:F57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{4987F818-AF2F-473D-9BF0-CB7F883A883A}"/>
@@ -14878,10 +14898,10 @@
   <sheetData>
     <row r="1" spans="10:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="92"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="3"/>
       <c r="M2" s="4" t="s">
         <v>10</v>
@@ -14924,10 +14944,10 @@
     </row>
     <row r="11" spans="10:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="91" t="s">
+      <c r="J12" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="92"/>
+      <c r="K12" s="94"/>
     </row>
     <row r="13" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J13" s="2">
@@ -14998,7 +15018,7 @@
       </c>
     </row>
     <row r="24" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="93" t="s">
+      <c r="I24" s="95" t="s">
         <v>76</v>
       </c>
       <c r="J24" s="2">
@@ -15009,7 +15029,7 @@
       </c>
     </row>
     <row r="25" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="94"/>
+      <c r="I25" s="96"/>
       <c r="J25" s="2" t="s">
         <v>74</v>
       </c>
@@ -15057,10 +15077,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="95" t="s">
+      <c r="K2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="96"/>
+      <c r="L2" s="98"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -15136,10 +15156,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="97" t="s">
+      <c r="K2" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="98"/>
+      <c r="L2" s="100"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -15199,7 +15219,9 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15233,10 +15255,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="100"/>
+      <c r="J2" s="102"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -15253,10 +15275,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="99" t="s">
+      <c r="I3" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="100"/>
+      <c r="J3" s="102"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -15270,10 +15292,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="101" t="s">
+      <c r="I4" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="102"/>
+      <c r="J4" s="104"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -15304,13 +15326,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CEFBD5-6CC7-456A-B26E-E53261DE1413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE20581-7A3C-443C-A118-A2277E5E64A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <sheet name="حواله کود مزرعه و باغ" sheetId="25" r:id="rId9"/>
     <sheet name="N3 زونکن سه" sheetId="8" r:id="rId10"/>
     <sheet name="N.31 خرید کود باغ مرکبات" sheetId="31" r:id="rId11"/>
-    <sheet name="سایر فاکتورهای پرداخت شده" sheetId="16" r:id="rId12"/>
-    <sheet name="خلاصه وضعیت" sheetId="12" r:id="rId13"/>
-    <sheet name="دفتر تنخواه" sheetId="15" r:id="rId14"/>
-    <sheet name="لیست مصالح دیوارکشی" sheetId="24" r:id="rId15"/>
+    <sheet name="لیست مصالح دیوارکشیN.32" sheetId="24" r:id="rId12"/>
+    <sheet name="سایر فاکتورهای پرداخت شده" sheetId="16" r:id="rId13"/>
+    <sheet name="خلاصه وضعیت" sheetId="12" r:id="rId14"/>
+    <sheet name="دفتر تنخواه" sheetId="15" r:id="rId15"/>
     <sheet name="لیست کارگری دیوارکشی" sheetId="23" r:id="rId16"/>
     <sheet name="تنخواه پیمانکاری دیوارکشی" sheetId="22" r:id="rId17"/>
     <sheet name="علی الحساب موقت" sheetId="13" r:id="rId18"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="247">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -800,6 +800,9 @@
   </si>
   <si>
     <t>کود پتاس</t>
+  </si>
+  <si>
+    <t>N.32</t>
   </si>
 </sst>
 </file>
@@ -3955,9 +3958,7 @@
   </sheetPr>
   <dimension ref="I2:R8"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
+    <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4056,7 +4057,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4721,14 +4722,465 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23F2A4A-1ADA-42DA-84DF-FB5510BE189F}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13" style="9" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="I2" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="86"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="I3" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="86"/>
+      <c r="K3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="I4" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="110"/>
+      <c r="K4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="113" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="28"/>
+    </row>
+    <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="64"/>
+    </row>
+    <row r="9" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>1</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="39">
+        <v>100</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="64"/>
+    </row>
+    <row r="10" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
+        <v>2</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="39">
+        <v>25590</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="64"/>
+    </row>
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
+        <v>3</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="39">
+        <v>250</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="64"/>
+    </row>
+    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
+        <v>4</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="39">
+        <v>24880</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="65"/>
+    </row>
+    <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <v>5</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="39">
+        <v>250</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+    </row>
+    <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
+        <v>6</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="39">
+        <v>500</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+    </row>
+    <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <v>7</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+    </row>
+    <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>8</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+    </row>
+    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
+        <v>9</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+    </row>
+    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>10</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+    </row>
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <v>11</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+    </row>
+    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <v>12</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+    </row>
+    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
+        <v>13</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+    </row>
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A22" s="39">
+        <v>14</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+    </row>
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
+        <v>15</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
+        <v>16</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+    </row>
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
+        <v>17</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+    </row>
+    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
+        <v>18</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+    </row>
+    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
+        <v>19</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+    </row>
+    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
+        <v>20</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="I7:K7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="L2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{453BD70F-20B0-4E58-A176-FC25C3AE90C8}"/>
+    <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{B0FD323F-2076-4EAB-A5C0-74D9B40EE584}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03590E6F-F524-4F8C-ACD9-635A648ABCF8}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -4957,7 +5409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C5079D-A085-4F31-926D-1D8B6D498E67}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -5146,7 +5598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397A8150-4C95-4F03-85CC-EA5E0B56188A}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -5541,451 +5993,6 @@
   <hyperlinks>
     <hyperlink ref="L2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{ADBC4931-DEAE-4AFD-A795-5C3378B34E82}"/>
     <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{85F4E13A-52D5-4F5F-BB3E-4250FCAED43E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23F2A4A-1ADA-42DA-84DF-FB5510BE189F}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:O28"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13" style="9" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="I2" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="86"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="I3" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="86"/>
-      <c r="K3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="I4" s="109" t="s">
-        <v>145</v>
-      </c>
-      <c r="J4" s="110"/>
-      <c r="K4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="113" t="s">
-        <v>151</v>
-      </c>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="28"/>
-    </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" s="64"/>
-    </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
-        <v>1</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="39">
-        <v>100</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="64"/>
-    </row>
-    <row r="10" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
-        <v>2</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="39">
-        <v>25590</v>
-      </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="64"/>
-    </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
-        <v>3</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="39">
-        <v>250</v>
-      </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="64"/>
-    </row>
-    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
-        <v>4</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="39">
-        <v>24880</v>
-      </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="65"/>
-    </row>
-    <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
-        <v>5</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="39">
-        <v>250</v>
-      </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-    </row>
-    <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
-        <v>6</v>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-    </row>
-    <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
-        <v>7</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-    </row>
-    <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
-        <v>8</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-    </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
-        <v>9</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-    </row>
-    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
-        <v>10</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-    </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
-        <v>11</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-    </row>
-    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
-        <v>12</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-    </row>
-    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
-        <v>13</v>
-      </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-    </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A22" s="39">
-        <v>14</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-    </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A23" s="39">
-        <v>15</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-    </row>
-    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
-        <v>16</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-    </row>
-    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A25" s="39">
-        <v>17</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-    </row>
-    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="39">
-        <v>18</v>
-      </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-    </row>
-    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
-        <v>19</v>
-      </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-    </row>
-    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A28" s="39">
-        <v>20</v>
-      </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="I7:K7"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="L2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{453BD70F-20B0-4E58-A176-FC25C3AE90C8}"/>
-    <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{B0FD323F-2076-4EAB-A5C0-74D9B40EE584}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7734,10 +7741,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B2:N5"/>
+  <dimension ref="B2:N6"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7840,6 +7847,11 @@
       </c>
       <c r="M5" s="1" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE20581-7A3C-443C-A118-A2277E5E64A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783A3E10-A208-4D94-B38D-5B2FE637D0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
     <sheet name="N3 زونکن سه" sheetId="8" r:id="rId10"/>
     <sheet name="N.31 خرید کود باغ مرکبات" sheetId="31" r:id="rId11"/>
     <sheet name="لیست مصالح دیوارکشیN.32" sheetId="24" r:id="rId12"/>
-    <sheet name="سایر فاکتورهای پرداخت شده" sheetId="16" r:id="rId13"/>
-    <sheet name="خلاصه وضعیت" sheetId="12" r:id="rId14"/>
-    <sheet name="دفتر تنخواه" sheetId="15" r:id="rId15"/>
-    <sheet name="لیست کارگری دیوارکشی" sheetId="23" r:id="rId16"/>
+    <sheet name="لیست کارگری دیوارکشیN.33" sheetId="23" r:id="rId13"/>
+    <sheet name="سایر فاکتورهای پرداخت شده" sheetId="16" r:id="rId14"/>
+    <sheet name="خلاصه وضعیت" sheetId="12" r:id="rId15"/>
+    <sheet name="دفتر تنخواه" sheetId="15" r:id="rId16"/>
     <sheet name="تنخواه پیمانکاری دیوارکشی" sheetId="22" r:id="rId17"/>
     <sheet name="علی الحساب موقت" sheetId="13" r:id="rId18"/>
     <sheet name="زونکن سه - تنخواه - اداری" sheetId="20" r:id="rId19"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="251">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -803,6 +803,18 @@
   </si>
   <si>
     <t>N.32</t>
+  </si>
+  <si>
+    <t>1404/02/06</t>
+  </si>
+  <si>
+    <t>هوشنگ کیائی + برادر داوود</t>
+  </si>
+  <si>
+    <t>صبح</t>
+  </si>
+  <si>
+    <t>1404/02/04</t>
   </si>
 </sst>
 </file>
@@ -1559,13 +1571,13 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3958,7 +3970,9 @@
   </sheetPr>
   <dimension ref="I2:R8"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4057,7 +4071,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4728,8 +4742,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -4846,11 +4860,11 @@
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="113" t="s">
+      <c r="I7" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -5011,9 +5025,15 @@
       <c r="A15" s="39">
         <v>7</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="39">
+        <v>500</v>
+      </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
       <c r="I15" s="65"/>
@@ -5173,6 +5193,399 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECC67F4-E01F-456A-965C-D1525789CDAC}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="27" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13" style="9" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="6"/>
+    <col min="12" max="12" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="I2" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="86"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="I3" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="86"/>
+      <c r="K3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="I4" s="109" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" s="110"/>
+      <c r="K4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>1</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="39">
+        <v>2</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
+        <v>2</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="39">
+        <v>2</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
+        <v>3</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="39">
+        <v>2</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
+        <v>4</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+    </row>
+    <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <v>5</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+    </row>
+    <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
+        <v>6</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <v>7</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+    </row>
+    <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>8</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+    </row>
+    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
+        <v>9</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+    </row>
+    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>10</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+    </row>
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <v>11</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+    </row>
+    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <v>12</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+    </row>
+    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
+        <v>13</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+    </row>
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A22" s="39">
+        <v>14</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+    </row>
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
+        <v>15</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
+        <v>16</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+    </row>
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
+        <v>17</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+    </row>
+    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
+        <v>18</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+    </row>
+    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
+        <v>19</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+    </row>
+    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
+        <v>20</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="L2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{63FAB3B5-BDDE-475A-B405-B3A904B2124C}"/>
+    <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{222970F7-877D-4191-B67C-78F0AA6BFC47}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03590E6F-F524-4F8C-ACD9-635A648ABCF8}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -5409,7 +5822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C5079D-A085-4F31-926D-1D8B6D498E67}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -5572,10 +5985,10 @@
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="112"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="24">
         <f>SUM(C9:C12)</f>
         <v>0</v>
@@ -5598,7 +6011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397A8150-4C95-4F03-85CC-EA5E0B56188A}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -5993,393 +6406,6 @@
   <hyperlinks>
     <hyperlink ref="L2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{ADBC4931-DEAE-4AFD-A795-5C3378B34E82}"/>
     <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{85F4E13A-52D5-4F5F-BB3E-4250FCAED43E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECC67F4-E01F-456A-965C-D1525789CDAC}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:O28"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="27" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13" style="9" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="6"/>
-    <col min="12" max="12" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="I2" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="86"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="I3" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="86"/>
-      <c r="K3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="I4" s="109" t="s">
-        <v>133</v>
-      </c>
-      <c r="J4" s="110"/>
-      <c r="K4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
-        <v>1</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="39">
-        <v>2</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
-        <v>2</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="39">
-        <v>2</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
-        <v>3</v>
-      </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
-        <v>4</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-    </row>
-    <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
-        <v>5</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-    </row>
-    <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
-        <v>6</v>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-    </row>
-    <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
-        <v>7</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-    </row>
-    <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
-        <v>8</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-    </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
-        <v>9</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-    </row>
-    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
-        <v>10</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-    </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
-        <v>11</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-    </row>
-    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
-        <v>12</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-    </row>
-    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
-        <v>13</v>
-      </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-    </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A22" s="39">
-        <v>14</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-    </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A23" s="39">
-        <v>15</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-    </row>
-    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
-        <v>16</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-    </row>
-    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A25" s="39">
-        <v>17</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-    </row>
-    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="39">
-        <v>18</v>
-      </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-    </row>
-    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
-        <v>19</v>
-      </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-    </row>
-    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A28" s="39">
-        <v>20</v>
-      </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A7:E7"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="L2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{63FAB3B5-BDDE-475A-B405-B3A904B2124C}"/>
-    <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{222970F7-877D-4191-B67C-78F0AA6BFC47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7743,7 +7769,7 @@
   </sheetPr>
   <dimension ref="B2:N6"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783A3E10-A208-4D94-B38D-5B2FE637D0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D271B059-3F57-44EA-8A80-C932ADD59AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -4071,7 +4071,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4742,8 +4742,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -5012,7 +5012,7 @@
         <v>148</v>
       </c>
       <c r="D14" s="39">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
@@ -5032,7 +5032,7 @@
         <v>148</v>
       </c>
       <c r="D15" s="39">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
@@ -5199,7 +5199,9 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14889,17 +14891,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A57:F57"/>
     <mergeCell ref="A204:F204"/>
     <mergeCell ref="A179:E179"/>
     <mergeCell ref="A155:E155"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A130:H130"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A57:F57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{4987F818-AF2F-473D-9BF0-CB7F883A883A}"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D271B059-3F57-44EA-8A80-C932ADD59AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACEFE7C-0712-4BAA-8C2D-3F41BE55AA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="12885" tabRatio="902" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,11 @@
     <sheet name="N.31 خرید کود باغ مرکبات" sheetId="31" r:id="rId11"/>
     <sheet name="لیست مصالح دیوارکشیN.32" sheetId="24" r:id="rId12"/>
     <sheet name="لیست کارگری دیوارکشیN.33" sheetId="23" r:id="rId13"/>
-    <sheet name="سایر فاکتورهای پرداخت شده" sheetId="16" r:id="rId14"/>
-    <sheet name="خلاصه وضعیت" sheetId="12" r:id="rId15"/>
-    <sheet name="دفتر تنخواه" sheetId="15" r:id="rId16"/>
-    <sheet name="تنخواه پیمانکاری دیوارکشی" sheetId="22" r:id="rId17"/>
-    <sheet name="علی الحساب موقت" sheetId="13" r:id="rId18"/>
+    <sheet name="N.34 علی الحساب موقت" sheetId="13" r:id="rId14"/>
+    <sheet name="سایر فاکتورهای پرداخت شده" sheetId="16" r:id="rId15"/>
+    <sheet name="خلاصه وضعیت" sheetId="12" r:id="rId16"/>
+    <sheet name="دفتر تنخواه" sheetId="15" r:id="rId17"/>
+    <sheet name="تنخواه پیمانکاری دیوارکشی" sheetId="22" r:id="rId18"/>
     <sheet name="زونکن سه - تنخواه - اداری" sheetId="20" r:id="rId19"/>
     <sheet name="زونکن سه - تنخواه - قبوض" sheetId="19" r:id="rId20"/>
     <sheet name="زونکن سه - تنخواه - فرم پذیرایی" sheetId="9" r:id="rId21"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="256">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -815,6 +815,21 @@
   </si>
   <si>
     <t>1404/02/04</t>
+  </si>
+  <si>
+    <t>1404/02/07</t>
+  </si>
+  <si>
+    <t>قبض آب</t>
+  </si>
+  <si>
+    <t>تلفن 4913</t>
+  </si>
+  <si>
+    <t>تلفن 4919</t>
+  </si>
+  <si>
+    <t>تلفن 3314</t>
   </si>
 </sst>
 </file>
@@ -825,7 +840,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,6 +949,12 @@
       <color theme="1"/>
       <name val="B Zar"/>
       <charset val="178"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="19">
@@ -4071,7 +4092,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4742,8 +4763,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -5588,6 +5609,461 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A001D87-B52D-4BBB-825A-A2D9C74DF962}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="9" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="6"/>
+    <col min="12" max="12" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="I2" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="86"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="I3" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="86"/>
+      <c r="K3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="I4" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="110"/>
+      <c r="K4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>1</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="39">
+        <v>10000000</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39">
+        <f>D9</f>
+        <v>10000000</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
+        <v>2</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39">
+        <v>1899000</v>
+      </c>
+      <c r="F10" s="39">
+        <f>F9-E10</f>
+        <v>8101000</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
+        <v>3</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39">
+        <v>352000</v>
+      </c>
+      <c r="F11" s="39">
+        <f t="shared" ref="F11:F17" si="0">F10-E11</f>
+        <v>7749000</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
+        <v>4</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39">
+        <v>3352000</v>
+      </c>
+      <c r="F12" s="39">
+        <f t="shared" si="0"/>
+        <v>4397000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <v>5</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39">
+        <v>1000000</v>
+      </c>
+      <c r="F13" s="39">
+        <f t="shared" si="0"/>
+        <v>3397000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
+        <v>6</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39">
+        <v>2960000</v>
+      </c>
+      <c r="F14" s="39">
+        <f t="shared" si="0"/>
+        <v>437000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <v>7</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39">
+        <v>334000</v>
+      </c>
+      <c r="F15" s="39">
+        <f t="shared" si="0"/>
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>8</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39">
+        <v>334000</v>
+      </c>
+      <c r="F16" s="39">
+        <f t="shared" si="0"/>
+        <v>-231000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
+        <v>9</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39">
+        <v>334000</v>
+      </c>
+      <c r="F17" s="39">
+        <f t="shared" si="0"/>
+        <v>-565000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>10</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+    </row>
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <v>11</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+    </row>
+    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <v>12</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+    </row>
+    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
+        <v>13</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+    </row>
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A22" s="39">
+        <v>14</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+    </row>
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
+        <v>15</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
+        <v>16</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+    </row>
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
+        <v>17</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+    </row>
+    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
+        <v>18</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+    </row>
+    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
+        <v>19</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+    </row>
+    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
+        <v>20</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{18E479A0-C8FD-4293-AF74-E6D18BD3EBAF}"/>
+    <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{CD3FC5BE-D291-4EE9-BD24-4A249B0FBE7C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03590E6F-F524-4F8C-ACD9-635A648ABCF8}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -5824,7 +6300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C5079D-A085-4F31-926D-1D8B6D498E67}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -6013,7 +6489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397A8150-4C95-4F03-85CC-EA5E0B56188A}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -6414,7 +6890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7AE76D-6966-4BB9-B043-ED2E5C3B6D23}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -6817,424 +7293,6 @@
   <hyperlinks>
     <hyperlink ref="L2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{0E937C88-4427-4DB9-911F-9ECF29C8B6E1}"/>
     <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{0F6CCBB5-3572-4C33-90EB-64EB5F24F7E3}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A001D87-B52D-4BBB-825A-A2D9C74DF962}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:O28"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="9" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="6"/>
-    <col min="12" max="12" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="I2" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="86"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="I3" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="86"/>
-      <c r="K3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="I4" s="109" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="110"/>
-      <c r="K4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
-        <v>1</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="39">
-        <v>10000000</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39">
-        <f>D9</f>
-        <v>10000000</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
-        <v>2</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39">
-        <v>1899000</v>
-      </c>
-      <c r="F10" s="39">
-        <f>F9-E10</f>
-        <v>8101000</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
-        <v>3</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39">
-        <v>352000</v>
-      </c>
-      <c r="F11" s="39">
-        <f t="shared" ref="F11:F13" si="0">F10-E11</f>
-        <v>7749000</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
-        <v>4</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39">
-        <v>3352000</v>
-      </c>
-      <c r="F12" s="39">
-        <f t="shared" si="0"/>
-        <v>4397000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
-        <v>5</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39">
-        <v>1000000</v>
-      </c>
-      <c r="F13" s="39">
-        <f t="shared" si="0"/>
-        <v>3397000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
-        <v>6</v>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-    </row>
-    <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
-        <v>7</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-    </row>
-    <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
-        <v>8</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-    </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
-        <v>9</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-    </row>
-    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
-        <v>10</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-    </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
-        <v>11</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-    </row>
-    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
-        <v>12</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-    </row>
-    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
-        <v>13</v>
-      </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-    </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A22" s="39">
-        <v>14</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-    </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A23" s="39">
-        <v>15</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-    </row>
-    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
-        <v>16</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-    </row>
-    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A25" s="39">
-        <v>17</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-    </row>
-    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="39">
-        <v>18</v>
-      </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-    </row>
-    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
-        <v>19</v>
-      </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-    </row>
-    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A28" s="39">
-        <v>20</v>
-      </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A7:E7"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="L2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{18E479A0-C8FD-4293-AF74-E6D18BD3EBAF}"/>
-    <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{CD3FC5BE-D291-4EE9-BD24-4A249B0FBE7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACEFE7C-0712-4BAA-8C2D-3F41BE55AA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF085A47-C51A-45A3-91AF-93C35A8921B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="12885" tabRatio="902" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="12885" tabRatio="902" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="256">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -5220,8 +5220,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -5416,7 +5416,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>249</v>
+        <v>136</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="9"/>
@@ -5426,10 +5426,18 @@
       <c r="A12" s="39">
         <v>4</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="39">
+        <v>2</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>249</v>
+      </c>
       <c r="F12" s="39"/>
     </row>
     <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
@@ -5615,7 +5623,7 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF085A47-C51A-45A3-91AF-93C35A8921B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB4F949-0058-4704-B84B-8A829FCA94A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="12885" tabRatio="902" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="اطلاعات حساب های ایستگاه" sheetId="14" r:id="rId6"/>
     <sheet name="مدیریت زونکن یک" sheetId="5" r:id="rId7"/>
     <sheet name="مدیریت زونکن دو" sheetId="6" r:id="rId8"/>
-    <sheet name="حواله کود مزرعه و باغ" sheetId="25" r:id="rId9"/>
+    <sheet name="N.21 حواله کود مزرعه و باغ" sheetId="25" r:id="rId9"/>
     <sheet name="N3 زونکن سه" sheetId="8" r:id="rId10"/>
     <sheet name="N.31 خرید کود باغ مرکبات" sheetId="31" r:id="rId11"/>
     <sheet name="لیست مصالح دیوارکشیN.32" sheetId="24" r:id="rId12"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="265">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -830,6 +830,33 @@
   </si>
   <si>
     <t>تلفن 3314</t>
+  </si>
+  <si>
+    <t>صدور حواله کود اوره</t>
+  </si>
+  <si>
+    <t>اوره</t>
+  </si>
+  <si>
+    <t>فسفات به مرکبات تعلق نمیگیرد</t>
+  </si>
+  <si>
+    <t>پیمانکار به اندازه نیاز خودش تحویل گرفت</t>
+  </si>
+  <si>
+    <t>از سهمیه پیمانکار گرفتیم چون نیاز نداشت</t>
+  </si>
+  <si>
+    <t>سهمیه باغ می باشد</t>
+  </si>
+  <si>
+    <t>پیمانکار درخواست سهمیه کود پتاس را نداشت</t>
+  </si>
+  <si>
+    <t>N.33</t>
+  </si>
+  <si>
+    <t>N.34</t>
   </si>
 </sst>
 </file>
@@ -3992,7 +4019,7 @@
   <dimension ref="I2:R8"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5220,8 +5247,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -7835,10 +7862,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B2:N6"/>
+  <dimension ref="B2:N8"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7948,11 +7975,22 @@
         <v>246</v>
       </c>
     </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="B3:I3"/>
   </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H4" location="'مدیریت زونکن یک'!A1" display="یک" xr:uid="{5FE9FE58-3527-4026-9FE9-21315B02564B}"/>
     <hyperlink ref="F4" location="'مدیریت زونکن دو'!A1" display="دو" xr:uid="{2E55D6D8-D527-4D04-8025-712BFAD0DAFB}"/>
@@ -15244,7 +15282,9 @@
   </sheetPr>
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15325,8 +15365,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -15336,7 +15376,7 @@
     <col min="3" max="4" width="27" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13" style="9" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="25.140625" style="6" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="6"/>
@@ -15465,7 +15505,9 @@
       <c r="F8" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -15487,7 +15529,9 @@
       <c r="F9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>258</v>
+      </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -15509,7 +15553,9 @@
       <c r="F10" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>260</v>
+      </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -15531,7 +15577,9 @@
       <c r="F11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>259</v>
+      </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
@@ -15553,6 +15601,9 @@
       <c r="F12" s="21" t="s">
         <v>142</v>
       </c>
+      <c r="G12" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
@@ -15573,26 +15624,49 @@
       <c r="F13" s="21" t="s">
         <v>142</v>
       </c>
+      <c r="G13" s="9" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>6</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
+      <c r="B14" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" s="39">
+        <v>600</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>7</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+      <c r="B15" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15" s="39">
+        <v>100</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="39">

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB4F949-0058-4704-B84B-8A829FCA94A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E78715-F3B3-40E0-AA01-2AB9DB220978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="صفحه اصلی" sheetId="1" r:id="rId1"/>
     <sheet name="شماره گذاری شیت ها" sheetId="33" r:id="rId2"/>
-    <sheet name="دفتر روزانه" sheetId="32" r:id="rId3"/>
+    <sheet name="N.04 دفتر روزانه" sheetId="32" r:id="rId3"/>
     <sheet name="جهت پرینت" sheetId="21" r:id="rId4"/>
     <sheet name="فرم های خام" sheetId="11" r:id="rId5"/>
     <sheet name="اطلاعات حساب های ایستگاه" sheetId="14" r:id="rId6"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="268">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -857,6 +857,15 @@
   </si>
   <si>
     <t>N.34</t>
+  </si>
+  <si>
+    <t>هزینه قبض آّب</t>
+  </si>
+  <si>
+    <t>هزینه قبض تلفن</t>
+  </si>
+  <si>
+    <t>طلب محمد فروتن از تنخواه علی الحساب</t>
   </si>
 </sst>
 </file>
@@ -5651,7 +5660,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -7864,8 +7873,8 @@
   </sheetPr>
   <dimension ref="B2:N8"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11296,8 +11305,8 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -11732,11 +11741,17 @@
       <c r="A20" s="39">
         <v>16</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
+      <c r="B20" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>265</v>
+      </c>
       <c r="D20" s="21"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
+      <c r="F20" s="39">
+        <v>2960000</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -11752,11 +11767,17 @@
       <c r="A21" s="39">
         <v>17</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>266</v>
+      </c>
       <c r="D21" s="21"/>
       <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
+      <c r="F21" s="39">
+        <v>334000</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -11772,11 +11793,17 @@
       <c r="A22" s="39">
         <v>18</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>266</v>
+      </c>
       <c r="D22" s="21"/>
       <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
+      <c r="F22" s="39">
+        <v>334000</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -11792,11 +11819,17 @@
       <c r="A23" s="39">
         <v>19</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>266</v>
+      </c>
       <c r="D23" s="21"/>
       <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
+      <c r="F23" s="39">
+        <v>334000</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -11812,11 +11845,17 @@
       <c r="A24" s="39">
         <v>20</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
+      <c r="B24" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>267</v>
+      </c>
       <c r="D24" s="21"/>
       <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
+      <c r="F24" s="78">
+        <v>565000</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -15365,7 +15404,7 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E78715-F3B3-40E0-AA01-2AB9DB220978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E200ABDE-C459-4BF9-A676-BACE5F65E9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
     <sheet name="لیست مصالح دیوارکشیN.32" sheetId="24" r:id="rId12"/>
     <sheet name="لیست کارگری دیوارکشیN.33" sheetId="23" r:id="rId13"/>
     <sheet name="N.34 علی الحساب موقت" sheetId="13" r:id="rId14"/>
-    <sheet name="سایر فاکتورهای پرداخت شده" sheetId="16" r:id="rId15"/>
-    <sheet name="خلاصه وضعیت" sheetId="12" r:id="rId16"/>
-    <sheet name="دفتر تنخواه" sheetId="15" r:id="rId17"/>
-    <sheet name="تنخواه پیمانکاری دیوارکشی" sheetId="22" r:id="rId18"/>
+    <sheet name="N.35 تنخواه پیمانکاری دیوارکشی" sheetId="22" r:id="rId15"/>
+    <sheet name="سایر فاکتورهای پرداخت شده" sheetId="16" r:id="rId16"/>
+    <sheet name="خلاصه وضعیت" sheetId="12" r:id="rId17"/>
+    <sheet name="دفتر تنخواه" sheetId="15" r:id="rId18"/>
     <sheet name="زونکن سه - تنخواه - اداری" sheetId="20" r:id="rId19"/>
     <sheet name="زونکن سه - تنخواه - قبوض" sheetId="19" r:id="rId20"/>
     <sheet name="زونکن سه - تنخواه - فرم پذیرایی" sheetId="9" r:id="rId21"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="270">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -866,6 +866,12 @@
   </si>
   <si>
     <t>طلب محمد فروتن از تنخواه علی الحساب</t>
+  </si>
+  <si>
+    <t>1404/01/07</t>
+  </si>
+  <si>
+    <t>خرید نوشیدنی کیک</t>
   </si>
 </sst>
 </file>
@@ -4028,7 +4034,7 @@
   <dimension ref="I2:R8"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4128,7 +4134,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6108,6 +6114,433 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7AE76D-6966-4BB9-B043-ED2E5C3B6D23}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13" style="9" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="6"/>
+    <col min="12" max="12" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="I2" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="86"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="I3" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="86"/>
+      <c r="K3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="I4" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" s="110"/>
+      <c r="K4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>1</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="39">
+        <v>5000000</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39">
+        <f>D9</f>
+        <v>5000000</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
+        <v>2</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39">
+        <v>1974000</v>
+      </c>
+      <c r="F10" s="39">
+        <f>F9-E10</f>
+        <v>3026000</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
+        <v>3</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39">
+        <v>106000</v>
+      </c>
+      <c r="F11" s="39">
+        <f>F10-E11</f>
+        <v>2920000</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
+        <v>4</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39">
+        <v>2800000</v>
+      </c>
+      <c r="F12" s="39">
+        <f>F11-E12</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <v>5</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39">
+        <v>90000</v>
+      </c>
+      <c r="F13" s="39">
+        <f t="shared" ref="F13:F14" si="0">F12-E13</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
+        <v>6</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39">
+        <v>1060000</v>
+      </c>
+      <c r="F14" s="39">
+        <f t="shared" si="0"/>
+        <v>-1030000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <v>7</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+    </row>
+    <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>8</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+    </row>
+    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
+        <v>9</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+    </row>
+    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>10</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+    </row>
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <v>11</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+    </row>
+    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <v>12</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+    </row>
+    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
+        <v>13</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+    </row>
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A22" s="39">
+        <v>14</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+    </row>
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
+        <v>15</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
+        <v>16</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+    </row>
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
+        <v>17</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+    </row>
+    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
+        <v>18</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+    </row>
+    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
+        <v>19</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+    </row>
+    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
+        <v>20</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="L2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{0E937C88-4427-4DB9-911F-9ECF29C8B6E1}"/>
+    <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{0F6CCBB5-3572-4C33-90EB-64EB5F24F7E3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03590E6F-F524-4F8C-ACD9-635A648ABCF8}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -6344,7 +6777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C5079D-A085-4F31-926D-1D8B6D498E67}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -6533,7 +6966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397A8150-4C95-4F03-85CC-EA5E0B56188A}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -6928,415 +7361,6 @@
   <hyperlinks>
     <hyperlink ref="L2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{ADBC4931-DEAE-4AFD-A795-5C3378B34E82}"/>
     <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{85F4E13A-52D5-4F5F-BB3E-4250FCAED43E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7AE76D-6966-4BB9-B043-ED2E5C3B6D23}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:O28"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13" style="9" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="6"/>
-    <col min="12" max="12" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="I2" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="86"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="I3" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="86"/>
-      <c r="K3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="I4" s="109" t="s">
-        <v>129</v>
-      </c>
-      <c r="J4" s="110"/>
-      <c r="K4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
-        <v>1</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="39">
-        <v>5000000</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39">
-        <f>D9</f>
-        <v>5000000</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
-        <v>2</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39">
-        <v>1974000</v>
-      </c>
-      <c r="F10" s="39">
-        <f>F9-E10</f>
-        <v>3026000</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
-        <v>3</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39">
-        <v>106000</v>
-      </c>
-      <c r="F11" s="39">
-        <f>F10-E11</f>
-        <v>2920000</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
-        <v>4</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39">
-        <v>2800000</v>
-      </c>
-      <c r="F12" s="39">
-        <f>F11-E12</f>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
-        <v>5</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-    </row>
-    <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
-        <v>6</v>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-    </row>
-    <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
-        <v>7</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-    </row>
-    <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
-        <v>8</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-    </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
-        <v>9</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-    </row>
-    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
-        <v>10</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-    </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
-        <v>11</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-    </row>
-    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
-        <v>12</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-    </row>
-    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
-        <v>13</v>
-      </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-    </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A22" s="39">
-        <v>14</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-    </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A23" s="39">
-        <v>15</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-    </row>
-    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
-        <v>16</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-    </row>
-    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A25" s="39">
-        <v>17</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-    </row>
-    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="39">
-        <v>18</v>
-      </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-    </row>
-    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
-        <v>19</v>
-      </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-    </row>
-    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A28" s="39">
-        <v>20</v>
-      </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A7:E7"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="L2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{0E937C88-4427-4DB9-911F-9ECF29C8B6E1}"/>
-    <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{0F6CCBB5-3572-4C33-90EB-64EB5F24F7E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7873,7 +7897,7 @@
   </sheetPr>
   <dimension ref="B2:N8"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -15034,17 +15058,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A57:F57"/>
     <mergeCell ref="A204:F204"/>
     <mergeCell ref="A179:E179"/>
     <mergeCell ref="A155:E155"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A130:H130"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A57:F57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{4987F818-AF2F-473D-9BF0-CB7F883A883A}"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E200ABDE-C459-4BF9-A676-BACE5F65E9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E6EFB6-3F81-474B-8487-4AF24E757891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="271">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -872,6 +872,9 @@
   </si>
   <si>
     <t>خرید نوشیدنی کیک</t>
+  </si>
+  <si>
+    <t>خرید نوشیدنی + کیک</t>
   </si>
 </sst>
 </file>
@@ -4033,9 +4036,7 @@
   </sheetPr>
   <dimension ref="I2:R8"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
+    <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4133,9 +4134,7 @@
   </sheetPr>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6120,8 +6119,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -11326,11 +11325,11 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -11895,11 +11894,17 @@
       <c r="A25" s="39">
         <v>21</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
+      <c r="B25" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>138</v>
+      </c>
       <c r="D25" s="21"/>
       <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
+      <c r="F25" s="39">
+        <v>90000</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -11915,11 +11920,17 @@
       <c r="A26" s="39">
         <v>22</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
+      <c r="B26" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>270</v>
+      </c>
       <c r="D26" s="21"/>
       <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
+      <c r="F26" s="39">
+        <v>1060000</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -11950,6 +11961,196 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
+        <v>24</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+      <c r="A29" s="39">
+        <v>25</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+      <c r="A30" s="39">
+        <v>26</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+      <c r="A31" s="39">
+        <v>27</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+      <c r="A32" s="39">
+        <v>28</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A33" s="39">
+        <v>29</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A34" s="39">
+        <v>30</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A35" s="39">
+        <v>31</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A36" s="39">
+        <v>32</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A37" s="39">
+        <v>33</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A38" s="39">
+        <v>34</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A39" s="39">
+        <v>35</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A40" s="39">
+        <v>36</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A41" s="39">
+        <v>37</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A42" s="39">
+        <v>38</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A43" s="39">
+        <v>39</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A44" s="39">
+        <v>40</v>
+      </c>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>41</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>42</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E6EFB6-3F81-474B-8487-4AF24E757891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA79B23-ACB9-4679-952C-A08223F48337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="272">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -875,6 +875,9 @@
   </si>
   <si>
     <t>خرید نوشیدنی + کیک</t>
+  </si>
+  <si>
+    <t>دفتر روزانه 1404</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1667,6 +1670,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -11328,8 +11337,8 @@
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -11368,8 +11377,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="86"/>
+      <c r="H2" s="121" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2" s="122"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA79B23-ACB9-4679-952C-A08223F48337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4858A942-5C32-449F-AB1A-427A636B7DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="278">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -787,9 +787,6 @@
     <t>N.03</t>
   </si>
   <si>
-    <t>واریزی دو فاکتور کودهای پتاس و فسفات</t>
-  </si>
-  <si>
     <t>دفتر روزانه</t>
   </si>
   <si>
@@ -865,9 +862,6 @@
     <t>هزینه قبض تلفن</t>
   </si>
   <si>
-    <t>طلب محمد فروتن از تنخواه علی الحساب</t>
-  </si>
-  <si>
     <t>1404/01/07</t>
   </si>
   <si>
@@ -877,7 +871,31 @@
     <t>خرید نوشیدنی + کیک</t>
   </si>
   <si>
-    <t>دفتر روزانه 1404</t>
+    <t>تنخواه ایستگاه</t>
+  </si>
+  <si>
+    <t>تنخواه دیوارکشی آقای سعیدی</t>
+  </si>
+  <si>
+    <t>تنخواه علی الحساب آقای جعفری</t>
+  </si>
+  <si>
+    <t>بستانکاری ريال</t>
+  </si>
+  <si>
+    <t>بدهکاری ريال</t>
+  </si>
+  <si>
+    <t>صندوق تنخواه علی الحساب آقای جعفری</t>
+  </si>
+  <si>
+    <t>واریزی دو فاکتور کود، اصغر وفادار و محمد فروتن</t>
+  </si>
+  <si>
+    <t>پرداخت کننده</t>
+  </si>
+  <si>
+    <t>واریزکننده</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1023,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1114,8 +1132,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1305,12 +1341,123 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1529,9 +1676,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1670,10 +1814,88 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="20" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="21" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="14" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4045,7 +4267,9 @@
   </sheetPr>
   <dimension ref="I2:R8"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4058,18 +4282,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="9:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
     </row>
     <row r="3" spans="9:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="9:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4143,7 +4367,9 @@
   </sheetPr>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4164,11 +4390,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="105"/>
-      <c r="I2" s="86"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -4176,11 +4402,11 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="105"/>
-      <c r="I3" s="86"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4189,12 +4415,12 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="108"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="107"/>
       <c r="G5" s="5" t="s">
         <v>212</v>
       </c>
@@ -4320,7 +4546,7 @@
       <c r="G10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="76"/>
+      <c r="H10" s="75"/>
     </row>
     <row r="11" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G11" s="2" t="s">
@@ -4399,10 +4625,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="86"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -4418,8 +4644,8 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="86"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4432,10 +4658,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="109" t="s">
+      <c r="H4" s="108" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="110"/>
+      <c r="I4" s="109"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -4464,12 +4690,12 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7" s="73"/>
       <c r="F7" s="9"/>
       <c r="G7" s="6"/>
@@ -4496,7 +4722,7 @@
       <c r="F8" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="G8" s="75" t="s">
+      <c r="G8" s="74" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4519,7 +4745,7 @@
       <c r="F9" s="39">
         <v>6100000</v>
       </c>
-      <c r="G9" s="77"/>
+      <c r="G9" s="76"/>
     </row>
     <row r="10" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
@@ -4540,7 +4766,7 @@
       <c r="F10" s="39">
         <v>15000000</v>
       </c>
-      <c r="G10" s="77"/>
+      <c r="G10" s="76"/>
     </row>
     <row r="11" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
@@ -4551,7 +4777,7 @@
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
-      <c r="G11" s="77"/>
+      <c r="G11" s="76"/>
     </row>
     <row r="12" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
@@ -4562,7 +4788,7 @@
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
-      <c r="G12" s="77"/>
+      <c r="G12" s="76"/>
     </row>
     <row r="13" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
@@ -4573,7 +4799,7 @@
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
-      <c r="G13" s="77"/>
+      <c r="G13" s="76"/>
     </row>
     <row r="14" spans="1:14" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
@@ -4584,7 +4810,7 @@
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
-      <c r="G14" s="77"/>
+      <c r="G14" s="76"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -4602,7 +4828,7 @@
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
-      <c r="G15" s="77"/>
+      <c r="G15" s="76"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -4850,10 +5076,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="86"/>
+      <c r="J2" s="85"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -4870,10 +5096,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="85" t="s">
+      <c r="I3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="86"/>
+      <c r="J3" s="85"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -4887,10 +5113,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="109" t="s">
+      <c r="I4" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="110"/>
+      <c r="J4" s="109"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -4921,21 +5147,21 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="111" t="s">
+      <c r="I7" s="110" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -5097,7 +5323,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>148</v>
@@ -5307,10 +5533,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="86"/>
+      <c r="J2" s="85"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -5327,10 +5553,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="85" t="s">
+      <c r="I3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="86"/>
+      <c r="J3" s="85"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -5344,10 +5570,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="109" t="s">
+      <c r="I4" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="110"/>
+      <c r="J4" s="109"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5378,13 +5604,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="60"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -5457,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>247</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>248</v>
       </c>
       <c r="D11" s="39">
         <v>2</v>
@@ -5477,16 +5703,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D12" s="39">
         <v>2</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F12" s="39"/>
     </row>
@@ -5710,10 +5936,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="86"/>
+      <c r="J2" s="85"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -5730,10 +5956,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="85" t="s">
+      <c r="I3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="86"/>
+      <c r="J3" s="85"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -5747,10 +5973,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="109" t="s">
+      <c r="I4" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="110"/>
+      <c r="J4" s="109"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5781,13 +6007,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="17"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -5923,10 +6149,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="39" t="s">
         <v>251</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>252</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="39">
@@ -5942,10 +6168,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D15" s="39"/>
       <c r="E15" s="39">
@@ -5961,10 +6187,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D16" s="39"/>
       <c r="E16" s="39">
@@ -5980,10 +6206,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D17" s="39"/>
       <c r="E17" s="39">
@@ -6165,10 +6391,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="86"/>
+      <c r="J2" s="85"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6185,10 +6411,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="85" t="s">
+      <c r="I3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="86"/>
+      <c r="J3" s="85"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6202,10 +6428,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="109" t="s">
+      <c r="I4" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="110"/>
+      <c r="J4" s="109"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6236,13 +6462,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="49"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -6359,7 +6585,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>138</v>
@@ -6378,10 +6604,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="39">
@@ -6589,10 +6815,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="86"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -6608,10 +6834,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="86"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -6624,10 +6850,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="109" t="s">
+      <c r="H4" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="110"/>
+      <c r="I4" s="109"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -6642,13 +6868,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -6725,7 +6951,7 @@
         <v>96</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E10" s="39">
         <v>6100000</v>
@@ -6741,7 +6967,7 @@
       <c r="B11" s="30"/>
       <c r="C11" s="21"/>
       <c r="D11" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E11" s="39">
         <v>15000000</v>
@@ -6820,10 +7046,10 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="86"/>
+      <c r="G2" s="85"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
         <v>10</v>
@@ -6837,10 +7063,10 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="85"/>
       <c r="H3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -6851,10 +7077,10 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="F4" s="109" t="s">
+      <c r="F4" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="110"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -6867,11 +7093,11 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:12" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:12" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -6948,10 +7174,10 @@
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="113"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="24">
         <f>SUM(C9:C12)</f>
         <v>0</v>
@@ -7016,10 +7242,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="86"/>
+      <c r="J2" s="85"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -7036,10 +7262,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="85" t="s">
+      <c r="I3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="86"/>
+      <c r="J3" s="85"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -7053,10 +7279,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="109" t="s">
+      <c r="I4" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="110"/>
+      <c r="J4" s="109"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -7087,13 +7313,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="27"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -7429,10 +7655,10 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="85" t="s">
+      <c r="L2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="86"/>
+      <c r="M2" s="85"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4" t="s">
         <v>10</v>
@@ -7452,10 +7678,10 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="L3" s="85" t="s">
+      <c r="L3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="86"/>
+      <c r="M3" s="85"/>
       <c r="N3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -7472,10 +7698,10 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="L4" s="109" t="s">
+      <c r="L4" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="110"/>
+      <c r="M4" s="109"/>
       <c r="N4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -7492,10 +7718,10 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="115"/>
+      <c r="M5" s="114"/>
       <c r="N5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -7514,17 +7740,17 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:18" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="75" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="74" t="s">
         <v>207</v>
       </c>
       <c r="J7" s="9"/>
@@ -7554,7 +7780,7 @@
       <c r="H8" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="I8" s="75" t="s">
+      <c r="I8" s="74" t="s">
         <v>205</v>
       </c>
       <c r="J8" s="9"/>
@@ -7924,28 +8150,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="82" t="s">
         <v>232</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
     </row>
     <row r="3" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
     </row>
     <row r="4" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
@@ -7981,8 +8207,8 @@
       <c r="L4" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="82" t="s">
-        <v>242</v>
+      <c r="M4" s="81" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -8008,22 +8234,22 @@
         <v>240</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -8092,10 +8318,10 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="K2" s="85" t="s">
+      <c r="K2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="86"/>
+      <c r="L2" s="85"/>
       <c r="M2" s="3"/>
       <c r="N2" s="4" t="s">
         <v>10</v>
@@ -8114,10 +8340,10 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="K3" s="85" t="s">
+      <c r="K3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="86"/>
+      <c r="L3" s="85"/>
       <c r="M3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -8133,10 +8359,10 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="K4" s="109" t="s">
+      <c r="K4" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="110"/>
+      <c r="L4" s="109"/>
       <c r="M4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -8152,10 +8378,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="K5" s="114" t="s">
+      <c r="K5" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="115"/>
+      <c r="L5" s="114"/>
       <c r="M5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -8173,16 +8399,16 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:17" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:17" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -8563,10 +8789,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="86"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -8582,10 +8808,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="86"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -8598,10 +8824,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="109" t="s">
+      <c r="H4" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="110"/>
+      <c r="I4" s="109"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -8614,10 +8840,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="114" t="s">
+      <c r="H5" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="115"/>
+      <c r="I5" s="114"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -8632,13 +8858,13 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -8882,13 +9108,13 @@
       <c r="E29" s="16"/>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A41" s="88" t="s">
+      <c r="A41" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
     </row>
     <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -9168,10 +9394,10 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="J2" s="85" t="s">
+      <c r="J2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="86"/>
+      <c r="K2" s="85"/>
       <c r="L2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -9186,10 +9412,10 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="J3" s="85" t="s">
+      <c r="J3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="86"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -9204,10 +9430,10 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="J4" s="109" t="s">
+      <c r="J4" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="110"/>
+      <c r="K4" s="109"/>
       <c r="L4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -9222,10 +9448,10 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="J5" s="114" t="s">
+      <c r="J5" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="115"/>
+      <c r="K5" s="114"/>
       <c r="L5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -9242,15 +9468,15 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -9597,10 +9823,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="86"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -9613,10 +9839,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="86"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -9629,10 +9855,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="114" t="s">
+      <c r="H4" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="115"/>
+      <c r="I4" s="114"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -9645,10 +9871,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="110"/>
+      <c r="I5" s="109"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -9672,13 +9898,13 @@
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -10015,10 +10241,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="116" t="s">
+      <c r="K2" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="117"/>
+      <c r="L2" s="116"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -10108,10 +10334,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="94"/>
+      <c r="I2" s="93"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10124,10 +10350,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="116" t="s">
+      <c r="H3" s="115" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="117"/>
+      <c r="I3" s="116"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10142,13 +10368,13 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -10506,10 +10732,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="94"/>
+      <c r="I2" s="93"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10521,10 +10747,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="116" t="s">
+      <c r="H3" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="117"/>
+      <c r="I3" s="116"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10538,20 +10764,20 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
     </row>
     <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="119" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
       <c r="E6" s="72"/>
       <c r="F6" s="72"/>
       <c r="G6" s="72"/>
@@ -10597,11 +10823,11 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="117" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="71"/>
@@ -10750,11 +10976,11 @@
       <c r="J20" s="72"/>
     </row>
     <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="117" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
       <c r="E21" s="72"/>
       <c r="F21" s="72"/>
       <c r="G21" s="72"/>
@@ -10796,20 +11022,20 @@
       <c r="J24" s="68"/>
     </row>
     <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B25" s="119" t="s">
+      <c r="B25" s="118" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
     </row>
     <row r="26" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="120" t="s">
+      <c r="A26" s="119" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
     </row>
     <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="B27"/>
@@ -10833,11 +11059,11 @@
       <c r="D29"/>
     </row>
     <row r="30" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="118" t="s">
+      <c r="B30" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
       <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
@@ -10931,11 +11157,11 @@
       <c r="D40" s="72"/>
     </row>
     <row r="41" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="118" t="s">
+      <c r="B41" s="117" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -10998,10 +11224,10 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="G2" s="93" t="s">
+      <c r="G2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="94"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
         <v>10</v>
@@ -11016,10 +11242,10 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="116" t="s">
+      <c r="G3" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="117"/>
+      <c r="H3" s="116"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -11033,12 +11259,12 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -11334,843 +11560,1108 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="25.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="126" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="126" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="126" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="127" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="127" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="127" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45" customWidth="1"/>
+    <col min="13" max="13" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+    </row>
+    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="130" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="131" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" s="135"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="137" t="s">
+        <v>271</v>
+      </c>
+      <c r="J2" s="138"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="141" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="142"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="144" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" s="144" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="145" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="146" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" s="146" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" s="147" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="148" t="s">
+        <v>272</v>
+      </c>
+      <c r="J3" s="148" t="s">
+        <v>273</v>
+      </c>
+      <c r="K3" s="148" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="149"/>
+      <c r="M3" s="141" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A4" s="39">
+        <v>1</v>
+      </c>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="121">
+        <v>0</v>
+      </c>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="122">
+        <v>0</v>
+      </c>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122">
+        <f>I4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+    </row>
+    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
+        <v>2</v>
+      </c>
+      <c r="B5" s="123" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121">
+        <f>(H4+F5)-G5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122">
+        <v>3000000</v>
+      </c>
+      <c r="K5" s="122">
+        <f>(K4+I5)-J5</f>
+        <v>-3000000</v>
+      </c>
+      <c r="L5" s="124" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5" s="123" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="39">
+        <v>3</v>
+      </c>
+      <c r="B6" s="123" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121">
+        <f t="shared" ref="H6:H25" si="0">(H5+F6)-G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122">
+        <v>15500000</v>
+      </c>
+      <c r="K6" s="122">
+        <f t="shared" ref="K6:K23" si="1">(K5+I6)-J6</f>
+        <v>-18500000</v>
+      </c>
+      <c r="L6" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="M6" s="123" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="39">
+        <v>4</v>
+      </c>
+      <c r="B7" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="122">
+        <v>15500000</v>
+      </c>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122">
+        <f t="shared" si="1"/>
+        <v>-3000000</v>
+      </c>
+      <c r="L7" s="123" t="s">
+        <v>226</v>
+      </c>
+      <c r="M7" s="123" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
+        <v>5</v>
+      </c>
+      <c r="B8" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="122">
+        <v>10000000</v>
+      </c>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122">
+        <f t="shared" si="1"/>
+        <v>7000000</v>
+      </c>
+      <c r="L8" s="123" t="s">
+        <v>220</v>
+      </c>
+      <c r="M8" s="123" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>6</v>
+      </c>
+      <c r="B9" s="123" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122">
+        <v>1899000</v>
+      </c>
+      <c r="K9" s="122">
+        <f t="shared" si="1"/>
+        <v>5101000</v>
+      </c>
+      <c r="L9" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="123" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
+        <v>7</v>
+      </c>
+      <c r="B10" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122">
+        <v>352000</v>
+      </c>
+      <c r="K10" s="122">
+        <f t="shared" si="1"/>
+        <v>4749000</v>
+      </c>
+      <c r="L10" s="123" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" s="123"/>
+    </row>
+    <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
+        <v>8</v>
+      </c>
+      <c r="B11" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122">
+        <v>3352000</v>
+      </c>
+      <c r="K11" s="122">
+        <f t="shared" si="1"/>
+        <v>1397000</v>
+      </c>
+      <c r="L11" s="123" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="123"/>
+    </row>
+    <row r="12" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
+        <v>9</v>
+      </c>
+      <c r="B12" s="123" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="121">
+        <v>5000000</v>
+      </c>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122">
+        <f t="shared" si="1"/>
+        <v>1397000</v>
+      </c>
+      <c r="L12" s="123" t="s">
+        <v>220</v>
+      </c>
+      <c r="M12" s="123" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
         <v>10</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="H2" s="121" t="s">
-        <v>271</v>
-      </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-    </row>
-    <row r="4" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="B13" s="123" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121">
+        <v>1974000</v>
+      </c>
+      <c r="H13" s="121">
+        <f t="shared" si="0"/>
+        <v>3026000</v>
+      </c>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122">
+        <f t="shared" si="1"/>
+        <v>1397000</v>
+      </c>
+      <c r="L13" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" s="123"/>
+    </row>
+    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
+        <v>11</v>
+      </c>
+      <c r="B14" s="123" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121">
+        <v>106000</v>
+      </c>
+      <c r="H14" s="121">
+        <f t="shared" si="0"/>
+        <v>2920000</v>
+      </c>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122">
+        <f t="shared" si="1"/>
+        <v>1397000</v>
+      </c>
+      <c r="L14" s="123" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" s="123"/>
+    </row>
+    <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <v>12</v>
+      </c>
+      <c r="B15" s="123" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121">
+        <v>2800000</v>
+      </c>
+      <c r="H15" s="121">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122">
+        <f t="shared" si="1"/>
+        <v>1397000</v>
+      </c>
+      <c r="L15" s="123" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" s="123"/>
+    </row>
+    <row r="16" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>13</v>
+      </c>
+      <c r="B16" s="123" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122">
+        <v>6100000</v>
+      </c>
+      <c r="K16" s="122">
+        <f t="shared" si="1"/>
+        <v>-4703000</v>
+      </c>
+      <c r="L16" s="123" t="s">
+        <v>227</v>
+      </c>
+      <c r="M16" s="123" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
+        <v>14</v>
+      </c>
+      <c r="B17" s="123" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121">
+        <f>(H16+F17)-G17</f>
+        <v>120000</v>
+      </c>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122">
+        <v>1000000</v>
+      </c>
+      <c r="K17" s="122">
+        <f t="shared" si="1"/>
+        <v>-5703000</v>
+      </c>
+      <c r="L17" s="123" t="s">
+        <v>211</v>
+      </c>
+      <c r="M17" s="123"/>
+    </row>
+    <row r="18" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>15</v>
+      </c>
+      <c r="B18" s="123" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122">
+        <v>15000000</v>
+      </c>
+      <c r="K18" s="122">
+        <f t="shared" si="1"/>
+        <v>-20703000</v>
+      </c>
+      <c r="L18" s="123" t="s">
+        <v>228</v>
+      </c>
+      <c r="M18" s="123" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <v>16</v>
+      </c>
+      <c r="B19" s="123" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="I19" s="122">
+        <v>21100000</v>
+      </c>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122">
+        <f t="shared" si="1"/>
+        <v>397000</v>
+      </c>
+      <c r="L19" s="123" t="s">
+        <v>275</v>
+      </c>
+      <c r="M19" s="123" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <v>17</v>
+      </c>
+      <c r="B20" s="123" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122">
+        <v>2960000</v>
+      </c>
+      <c r="K20" s="122">
+        <f t="shared" si="1"/>
+        <v>-2563000</v>
+      </c>
+      <c r="L20" s="123" t="s">
+        <v>264</v>
+      </c>
+      <c r="M20" s="123"/>
+    </row>
+    <row r="21" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
+        <v>18</v>
+      </c>
+      <c r="B21" s="123" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122">
+        <v>334000</v>
+      </c>
+      <c r="K21" s="122">
+        <f t="shared" si="1"/>
+        <v>-2897000</v>
+      </c>
+      <c r="L21" s="123" t="s">
+        <v>265</v>
+      </c>
+      <c r="M21" s="123"/>
+    </row>
+    <row r="22" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A22" s="39">
+        <v>19</v>
+      </c>
+      <c r="B22" s="123" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122">
+        <v>334000</v>
+      </c>
+      <c r="K22" s="122">
+        <f t="shared" si="1"/>
+        <v>-3231000</v>
+      </c>
+      <c r="L22" s="123" t="s">
+        <v>265</v>
+      </c>
+      <c r="M22" s="123"/>
+    </row>
+    <row r="23" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
+        <v>20</v>
+      </c>
+      <c r="B23" s="123" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122">
+        <v>334000</v>
+      </c>
+      <c r="K23" s="122">
+        <f t="shared" si="1"/>
+        <v>-3565000</v>
+      </c>
+      <c r="L23" s="123" t="s">
+        <v>265</v>
+      </c>
+      <c r="M23" s="123"/>
+    </row>
+    <row r="24" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
+        <v>22</v>
+      </c>
+      <c r="B24" s="123" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121">
+        <v>90000</v>
+      </c>
+      <c r="H24" s="121">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="123" t="s">
+        <v>138</v>
+      </c>
+      <c r="M24" s="123"/>
+    </row>
+    <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
+        <v>23</v>
+      </c>
+      <c r="B25" s="123" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121">
+        <v>1060000</v>
+      </c>
+      <c r="H25" s="121">
+        <f t="shared" si="0"/>
+        <v>-1030000</v>
+      </c>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="123" t="s">
+        <v>268</v>
+      </c>
+      <c r="M25" s="123"/>
+    </row>
+    <row r="26" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
         <v>24</v>
       </c>
-      <c r="C4" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>223</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-    </row>
-    <row r="5" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="39">
-        <v>1</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="78">
-        <v>3000000</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-    </row>
-    <row r="6" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
-        <v>2</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39">
-        <v>15500000</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-    </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="39">
-        <v>3</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="39">
-        <v>15500000</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-    </row>
-    <row r="8" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
-        <v>4</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="39">
-        <v>10000000</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-    </row>
-    <row r="9" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
-        <v>5</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39">
-        <v>1899000</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
-        <v>6</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39">
-        <v>352000</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:16" ht="27" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
-        <v>7</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39">
-        <v>3352000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="27" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
-        <v>8</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="E12" s="39">
-        <v>5000000</v>
-      </c>
-      <c r="F12" s="39"/>
-    </row>
-    <row r="13" spans="1:16" ht="27" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
-        <v>9</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="F13" s="39">
-        <v>1974000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="27" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
-        <v>10</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39">
-        <v>106000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="27" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
-        <v>11</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39">
-        <v>2800000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
-        <v>12</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39">
-        <v>6100000</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
-        <v>13</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39">
-        <v>1000000</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
-        <v>14</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39">
-        <v>15000000</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
-        <v>15</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="39">
-        <v>21100000</v>
-      </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
-        <v>16</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39">
-        <v>2960000</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-    </row>
-    <row r="21" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
-        <v>17</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39">
-        <v>334000</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-    </row>
-    <row r="22" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A22" s="39">
-        <v>18</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39">
-        <v>334000</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-    </row>
-    <row r="23" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A23" s="39">
-        <v>19</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39">
-        <v>334000</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-    </row>
-    <row r="24" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
-        <v>20</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="78">
-        <v>565000</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-    </row>
-    <row r="25" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A25" s="39">
-        <v>21</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39">
-        <v>90000</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="74"/>
-    </row>
-    <row r="26" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="39">
-        <v>22</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39">
-        <v>1060000</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-    </row>
-    <row r="27" spans="1:16" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="B26" s="123"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="123"/>
+    </row>
+    <row r="27" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
-        <v>23</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-    </row>
-    <row r="28" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B27" s="123"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="123"/>
+    </row>
+    <row r="28" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
-        <v>24</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B28" s="123"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="123"/>
+    </row>
+    <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
-        <v>25</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="B29" s="123"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123"/>
+    </row>
+    <row r="30" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
-        <v>26</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-    </row>
-    <row r="31" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="B30" s="123"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="123"/>
+    </row>
+    <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
-        <v>27</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-    </row>
-    <row r="32" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="B31" s="123"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="123"/>
+    </row>
+    <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
-        <v>28</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="B32" s="123"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="121"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+    </row>
+    <row r="33" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
-        <v>29</v>
-      </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="B33" s="123"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
+    </row>
+    <row r="34" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
-        <v>30</v>
-      </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="B34" s="123"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+    </row>
+    <row r="35" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
-        <v>31</v>
-      </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="B35" s="123"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="122"/>
+      <c r="K35" s="122"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="123"/>
+    </row>
+    <row r="36" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
-        <v>32</v>
-      </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="B36" s="123"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="122"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="123"/>
+    </row>
+    <row r="37" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
-        <v>33</v>
-      </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="B37" s="123"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="122"/>
+      <c r="K37" s="122"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="123"/>
+    </row>
+    <row r="38" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
-        <v>34</v>
-      </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="B38" s="123"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="122"/>
+      <c r="J38" s="122"/>
+      <c r="K38" s="122"/>
+      <c r="L38" s="123"/>
+      <c r="M38" s="123"/>
+    </row>
+    <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
-        <v>35</v>
-      </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="B39" s="123"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="122"/>
+      <c r="K39" s="122"/>
+      <c r="L39" s="123"/>
+      <c r="M39" s="123"/>
+    </row>
+    <row r="40" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
-        <v>36</v>
-      </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="B40" s="123"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="122"/>
+      <c r="K40" s="122"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="123"/>
+    </row>
+    <row r="41" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
-        <v>37</v>
-      </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="B41" s="123"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="121"/>
+      <c r="I41" s="122"/>
+      <c r="J41" s="122"/>
+      <c r="K41" s="122"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="123"/>
+    </row>
+    <row r="42" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
-        <v>38</v>
-      </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="B42" s="123"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="121"/>
+      <c r="H42" s="121"/>
+      <c r="I42" s="122"/>
+      <c r="J42" s="122"/>
+      <c r="K42" s="122"/>
+      <c r="L42" s="123"/>
+      <c r="M42" s="123"/>
+    </row>
+    <row r="43" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
-        <v>39</v>
-      </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="B43" s="123"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="123"/>
+    </row>
+    <row r="44" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
-        <v>40</v>
-      </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="B44" s="123"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="122"/>
+      <c r="J44" s="122"/>
+      <c r="K44" s="122"/>
+      <c r="L44" s="123"/>
+      <c r="M44" s="123"/>
+    </row>
+    <row r="45" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
-        <v>41</v>
-      </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A46" s="39">
-        <v>42</v>
-      </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="123"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="121"/>
+      <c r="H45" s="121"/>
+      <c r="I45" s="122"/>
+      <c r="J45" s="122"/>
+      <c r="K45" s="122"/>
+      <c r="L45" s="123"/>
+      <c r="M45" s="123"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A3:F3"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="L2:L3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B1" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{EF9E8FAB-220F-4813-93CF-67F1B543C91E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12201,12 +12692,12 @@
     <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
     </row>
     <row r="4" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -12252,13 +12743,13 @@
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
       <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12633,8 +13124,8 @@
       <c r="A122" s="20"/>
     </row>
     <row r="125" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A125" s="88"/>
-      <c r="B125" s="88"/>
+      <c r="A125" s="87"/>
+      <c r="B125" s="87"/>
     </row>
     <row r="126" spans="1:2" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
@@ -12778,10 +13269,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="90"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -12797,10 +13288,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="91" t="s">
+      <c r="H3" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="92"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -12829,13 +13320,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -13109,13 +13600,13 @@
       <c r="N30" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -13339,14 +13830,14 @@
       <c r="F54" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A57" s="87" t="s">
+      <c r="A57" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="87"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="86"/>
     </row>
     <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -13568,12 +14059,12 @@
       <c r="F78" s="20"/>
     </row>
     <row r="82" spans="1:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="A82" s="87" t="s">
+      <c r="A82" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="87"/>
-      <c r="C82" s="87"/>
-      <c r="D82" s="87"/>
+      <c r="B82" s="86"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="86"/>
     </row>
     <row r="83" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
@@ -13750,15 +14241,15 @@
       <c r="D103" s="22"/>
     </row>
     <row r="106" spans="1:7" ht="27" x14ac:dyDescent="0.25">
-      <c r="A106" s="88" t="s">
+      <c r="A106" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="88"/>
-      <c r="C106" s="88"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="88"/>
-      <c r="F106" s="88"/>
-      <c r="G106" s="88"/>
+      <c r="B106" s="87"/>
+      <c r="C106" s="87"/>
+      <c r="D106" s="87"/>
+      <c r="E106" s="87"/>
+      <c r="F106" s="87"/>
+      <c r="G106" s="87"/>
     </row>
     <row r="107" spans="1:7" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
@@ -14008,16 +14499,16 @@
       <c r="G127" s="20"/>
     </row>
     <row r="130" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A130" s="88" t="s">
+      <c r="A130" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="B130" s="88"/>
-      <c r="C130" s="88"/>
-      <c r="D130" s="88"/>
-      <c r="E130" s="88"/>
-      <c r="F130" s="88"/>
-      <c r="G130" s="88"/>
-      <c r="H130" s="88"/>
+      <c r="B130" s="87"/>
+      <c r="C130" s="87"/>
+      <c r="D130" s="87"/>
+      <c r="E130" s="87"/>
+      <c r="F130" s="87"/>
+      <c r="G130" s="87"/>
+      <c r="H130" s="87"/>
     </row>
     <row r="131" spans="1:8" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
@@ -14286,13 +14777,13 @@
       <c r="H151" s="10"/>
     </row>
     <row r="155" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A155" s="88" t="s">
+      <c r="A155" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="B155" s="88"/>
-      <c r="C155" s="88"/>
-      <c r="D155" s="88"/>
-      <c r="E155" s="88"/>
+      <c r="B155" s="87"/>
+      <c r="C155" s="87"/>
+      <c r="D155" s="87"/>
+      <c r="E155" s="87"/>
       <c r="F155" s="63"/>
     </row>
     <row r="156" spans="1:8" ht="27" x14ac:dyDescent="0.25">
@@ -14516,13 +15007,13 @@
       <c r="F176" s="39"/>
     </row>
     <row r="179" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A179" s="88" t="s">
+      <c r="A179" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="B179" s="88"/>
-      <c r="C179" s="88"/>
-      <c r="D179" s="88"/>
-      <c r="E179" s="88"/>
+      <c r="B179" s="87"/>
+      <c r="C179" s="87"/>
+      <c r="D179" s="87"/>
+      <c r="E179" s="87"/>
       <c r="F179" s="66"/>
     </row>
     <row r="180" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -14742,32 +15233,32 @@
       <c r="F200" s="39"/>
     </row>
     <row r="204" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A204" s="87" t="s">
+      <c r="A204" s="86" t="s">
         <v>219</v>
       </c>
-      <c r="B204" s="87"/>
-      <c r="C204" s="87"/>
-      <c r="D204" s="87"/>
-      <c r="E204" s="87"/>
-      <c r="F204" s="87"/>
+      <c r="B204" s="86"/>
+      <c r="C204" s="86"/>
+      <c r="D204" s="86"/>
+      <c r="E204" s="86"/>
+      <c r="F204" s="86"/>
     </row>
     <row r="205" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A205" s="79" t="s">
+      <c r="A205" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B205" s="79" t="s">
+      <c r="B205" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C205" s="79" t="s">
+      <c r="C205" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D205" s="80" t="s">
+      <c r="D205" s="79" t="s">
         <v>223</v>
       </c>
-      <c r="E205" s="81" t="s">
+      <c r="E205" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="F205" s="81" t="s">
+      <c r="F205" s="80" t="s">
         <v>127</v>
       </c>
     </row>
@@ -14785,7 +15276,7 @@
         <v>224</v>
       </c>
       <c r="E206" s="19"/>
-      <c r="F206" s="78">
+      <c r="F206" s="77">
         <v>3000000</v>
       </c>
     </row>
@@ -14970,7 +15461,7 @@
         <v>224</v>
       </c>
       <c r="E217" s="39"/>
-      <c r="F217" s="78">
+      <c r="F217" s="77">
         <v>6100000</v>
       </c>
     </row>
@@ -15004,7 +15495,7 @@
         <v>229</v>
       </c>
       <c r="E219" s="39"/>
-      <c r="F219" s="78">
+      <c r="F219" s="77">
         <v>15000000</v>
       </c>
     </row>
@@ -15317,10 +15808,10 @@
   <sheetData>
     <row r="1" spans="10:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="94"/>
+      <c r="K2" s="93"/>
       <c r="L2" s="3"/>
       <c r="M2" s="4" t="s">
         <v>10</v>
@@ -15363,10 +15854,10 @@
     </row>
     <row r="11" spans="10:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="93" t="s">
+      <c r="J12" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="94"/>
+      <c r="K12" s="93"/>
     </row>
     <row r="13" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J13" s="2">
@@ -15437,7 +15928,7 @@
       </c>
     </row>
     <row r="24" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="95" t="s">
+      <c r="I24" s="94" t="s">
         <v>76</v>
       </c>
       <c r="J24" s="2">
@@ -15448,7 +15939,7 @@
       </c>
     </row>
     <row r="25" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="96"/>
+      <c r="I25" s="95"/>
       <c r="J25" s="2" t="s">
         <v>74</v>
       </c>
@@ -15496,10 +15987,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="97" t="s">
+      <c r="K2" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="98"/>
+      <c r="L2" s="97"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -15577,10 +16068,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="99" t="s">
+      <c r="K2" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="100"/>
+      <c r="L2" s="99"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -15676,10 +16167,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="102"/>
+      <c r="J2" s="101"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -15696,10 +16187,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="101" t="s">
+      <c r="I3" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="102"/>
+      <c r="J3" s="101"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -15713,10 +16204,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="103" t="s">
+      <c r="I4" s="102" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="104"/>
+      <c r="J4" s="103"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -15747,13 +16238,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -15805,7 +16296,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -15829,7 +16320,7 @@
         <v>142</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -15853,7 +16344,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -15877,7 +16368,7 @@
         <v>142</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
@@ -15900,7 +16391,7 @@
         <v>142</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
@@ -15908,13 +16399,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>256</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>257</v>
       </c>
       <c r="E14" s="39">
         <v>600</v>
@@ -15928,13 +16419,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C15" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="39" t="s">
         <v>256</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>257</v>
       </c>
       <c r="E15" s="39">
         <v>100</v>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4858A942-5C32-449F-AB1A-427A636B7DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEA2CD5-8BC7-4061-8B68-1035F1436B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="صفحه اصلی" sheetId="1" r:id="rId1"/>
-    <sheet name="شماره گذاری شیت ها" sheetId="33" r:id="rId2"/>
-    <sheet name="N.04 دفتر روزانه" sheetId="32" r:id="rId3"/>
-    <sheet name="جهت پرینت" sheetId="21" r:id="rId4"/>
+    <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
+    <sheet name="N.02 شماره گذاری شیت ها" sheetId="33" r:id="rId2"/>
+    <sheet name="جهت پرینت" sheetId="21" r:id="rId3"/>
+    <sheet name="N.04 دفتر روزانه" sheetId="32" r:id="rId4"/>
     <sheet name="فرم های خام" sheetId="11" r:id="rId5"/>
     <sheet name="اطلاعات حساب های ایستگاه" sheetId="14" r:id="rId6"/>
     <sheet name="مدیریت زونکن یک" sheetId="5" r:id="rId7"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="282">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -896,6 +896,18 @@
   </si>
   <si>
     <t>واریزکننده</t>
+  </si>
+  <si>
+    <t>پرینت موقت</t>
+  </si>
+  <si>
+    <t>جهت پرینت</t>
+  </si>
+  <si>
+    <t>N.05</t>
+  </si>
+  <si>
+    <t>N.06</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1700,9 +1712,6 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1896,6 +1905,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4267,8 +4285,8 @@
   </sheetPr>
   <dimension ref="I2:R8"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" rightToLeft="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4276,24 +4294,24 @@
     <col min="1" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="15" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="9:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
     </row>
     <row r="3" spans="9:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="9:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4303,8 +4321,8 @@
       <c r="L4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="33" t="s">
-        <v>47</v>
+      <c r="N4" s="149" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="9:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4314,8 +4332,8 @@
       <c r="L5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="36" t="s">
-        <v>59</v>
+      <c r="N5" s="81" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="9:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4325,6 +4343,9 @@
       <c r="L6" s="54" t="s">
         <v>13</v>
       </c>
+      <c r="N6" s="81" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="7" spans="9:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K7" s="51" t="s">
@@ -4333,6 +4354,9 @@
       <c r="L7" s="50" t="s">
         <v>11</v>
       </c>
+      <c r="N7" s="33" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="9:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K8" s="53" t="s">
@@ -4341,18 +4365,18 @@
       <c r="L8" s="52" t="s">
         <v>164</v>
       </c>
+      <c r="N8" s="36" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I2:R2"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="K5" location="'مدیریت زونکن یک'!A1" display="یک" xr:uid="{3E765EC4-2BB2-45F9-9F1F-3B66E97DA67E}"/>
     <hyperlink ref="K6" location="'مدیریت زونکن دو'!A1" display="دو" xr:uid="{A9175444-BF3F-4E7B-8687-221910F7B689}"/>
     <hyperlink ref="K7" location="'زونکن سه - تنخواه'!A1" display="سه" xr:uid="{5CA2A2DE-CDB1-40D0-87A2-07B581620A56}"/>
     <hyperlink ref="K8" location="'مدیریت زونکن چهار'!A1" display="چهار" xr:uid="{659D1C56-70FE-44A1-B4A3-CA285C86F75E}"/>
-    <hyperlink ref="O4" location="'فرم های خام'!A1" display="فرم های خام" xr:uid="{9D678144-E325-4478-810D-3961278E4149}"/>
-    <hyperlink ref="O5" location="'اطلاعات حساب های ایستگاه'!A1" display="اطلاعات حساب های ایستگاه" xr:uid="{AA8CC3E6-5253-4C5F-95AE-394D78979893}"/>
+    <hyperlink ref="N7" location="'فرم های خام'!A1" display="فرم های خام" xr:uid="{9D678144-E325-4478-810D-3961278E4149}"/>
+    <hyperlink ref="N8" location="'اطلاعات حساب های ایستگاه'!A1" display="اطلاعات حساب های ایستگاه" xr:uid="{AA8CC3E6-5253-4C5F-95AE-394D78979893}"/>
     <hyperlink ref="L7" location="'زونکن سه - تنخواه'!A1" display="تنخواه" xr:uid="{57666A52-B254-49AB-B917-6412878AD607}"/>
     <hyperlink ref="K7:L7" location="'N3 زونکن سه'!A1" display="سه" xr:uid="{33595FBF-E1B9-4DCA-9828-AB4A8BAFE1A3}"/>
   </hyperlinks>
@@ -4390,11 +4414,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="104"/>
-      <c r="I2" s="85"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="84"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -4402,11 +4426,11 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="104"/>
-      <c r="I3" s="85"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4415,12 +4439,12 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="107"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="106"/>
       <c r="G5" s="5" t="s">
         <v>212</v>
       </c>
@@ -4625,10 +4649,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="85"/>
+      <c r="I2" s="84"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -4644,8 +4668,8 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="85"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4658,10 +4682,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="107" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="109"/>
+      <c r="I4" s="108"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -4690,12 +4714,12 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
       <c r="E7" s="73"/>
       <c r="F7" s="9"/>
       <c r="G7" s="6"/>
@@ -5076,10 +5100,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="85"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -5096,10 +5120,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="85"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -5113,10 +5137,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="109"/>
+      <c r="J4" s="108"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5147,21 +5171,21 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -5533,10 +5557,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="85"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -5553,10 +5577,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="85"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -5570,10 +5594,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="109"/>
+      <c r="J4" s="108"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5604,13 +5628,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="60"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -5936,10 +5960,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="85"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -5956,10 +5980,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="85"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -5973,10 +5997,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="109"/>
+      <c r="J4" s="108"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6007,13 +6031,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="17"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -6391,10 +6415,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="85"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6411,10 +6435,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="85"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6428,10 +6452,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="109"/>
+      <c r="J4" s="108"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6462,13 +6486,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="49"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -6815,10 +6839,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="85"/>
+      <c r="I2" s="84"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -6834,10 +6858,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="85"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -6850,10 +6874,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="109"/>
+      <c r="I4" s="108"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -6868,13 +6892,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -7046,10 +7070,10 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="85"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
         <v>10</v>
@@ -7063,10 +7087,10 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="85"/>
+      <c r="G3" s="84"/>
       <c r="H3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -7077,10 +7101,10 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="109"/>
+      <c r="G4" s="108"/>
       <c r="H4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -7093,11 +7117,11 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:12" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:12" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -7174,10 +7198,10 @@
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="112"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="24">
         <f>SUM(C9:C12)</f>
         <v>0</v>
@@ -7242,10 +7266,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="85"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -7262,10 +7286,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="85"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -7279,10 +7303,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="109"/>
+      <c r="J4" s="108"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -7313,13 +7337,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="27"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -7655,10 +7679,10 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="84" t="s">
+      <c r="L2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="85"/>
+      <c r="M2" s="84"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4" t="s">
         <v>10</v>
@@ -7678,10 +7702,10 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="L3" s="84" t="s">
+      <c r="L3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="85"/>
+      <c r="M3" s="84"/>
       <c r="N3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -7698,10 +7722,10 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="L4" s="108" t="s">
+      <c r="L4" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="109"/>
+      <c r="M4" s="108"/>
       <c r="N4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -7718,10 +7742,10 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="L5" s="113" t="s">
+      <c r="L5" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="114"/>
+      <c r="M5" s="113"/>
       <c r="N5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -7740,16 +7764,16 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:18" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
       <c r="I7" s="74" t="s">
         <v>207</v>
       </c>
@@ -8129,10 +8153,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B2:N8"/>
+  <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8142,38 +8166,40 @@
     <col min="4" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="10.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="G2" s="82" t="s">
+    <row r="2" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-    </row>
-    <row r="3" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="83" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="2:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-    </row>
-    <row r="4" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+    </row>
+    <row r="4" spans="2:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
         <v>4</v>
       </c>
@@ -8198,20 +8224,14 @@
       <c r="I4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="81" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L4" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>237</v>
       </c>
@@ -8224,37 +8244,56 @@
       <c r="I5" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="151" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K6" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K7" s="81" t="s">
+        <v>241</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>263</v>
       </c>
+      <c r="K8" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G2:N2"/>
+  <mergeCells count="1">
     <mergeCell ref="B3:I3"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
@@ -8263,8 +8302,8 @@
     <hyperlink ref="F4" location="'مدیریت زونکن دو'!A1" display="دو" xr:uid="{2E55D6D8-D527-4D04-8025-712BFAD0DAFB}"/>
     <hyperlink ref="D4" location="'زونکن سه - تنخواه'!A1" display="سه" xr:uid="{863EFE16-BC07-43F9-8CB6-B9C4C8FE3F71}"/>
     <hyperlink ref="B4" location="'مدیریت زونکن چهار'!A1" display="چهار" xr:uid="{A032C9B8-DB95-4F3A-899B-8CE6AC6B074C}"/>
-    <hyperlink ref="L4" location="'فرم های خام'!A1" display="فرم های خام" xr:uid="{B61CBFE3-0502-4A24-87C1-B75EE7D3D861}"/>
-    <hyperlink ref="K4" location="'اطلاعات حساب های ایستگاه'!A1" display="اطلاعات حساب های ایستگاه" xr:uid="{62E8C4C2-FBC7-4756-BE75-9B163AA32561}"/>
+    <hyperlink ref="K8" location="'فرم های خام'!A1" display="فرم های خام" xr:uid="{B61CBFE3-0502-4A24-87C1-B75EE7D3D861}"/>
+    <hyperlink ref="K9" location="'اطلاعات حساب های ایستگاه'!A1" display="اطلاعات حساب های ایستگاه" xr:uid="{62E8C4C2-FBC7-4756-BE75-9B163AA32561}"/>
     <hyperlink ref="E4" location="'زونکن سه - تنخواه'!A1" display="تنخواه" xr:uid="{55E349AD-7083-44E2-B6AB-FAEB496FFA58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8318,10 +8357,10 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="K2" s="84" t="s">
+      <c r="K2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="85"/>
+      <c r="L2" s="84"/>
       <c r="M2" s="3"/>
       <c r="N2" s="4" t="s">
         <v>10</v>
@@ -8340,10 +8379,10 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="K3" s="84" t="s">
+      <c r="K3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="85"/>
+      <c r="L3" s="84"/>
       <c r="M3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -8359,10 +8398,10 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="109"/>
+      <c r="L4" s="108"/>
       <c r="M4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -8378,10 +8417,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="K5" s="113" t="s">
+      <c r="K5" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="114"/>
+      <c r="L5" s="113"/>
       <c r="M5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -8399,16 +8438,16 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:17" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:17" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -8789,10 +8828,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="85"/>
+      <c r="I2" s="84"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -8808,10 +8847,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="85"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -8824,10 +8863,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="109"/>
+      <c r="I4" s="108"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -8840,10 +8879,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="113" t="s">
+      <c r="H5" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="114"/>
+      <c r="I5" s="113"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -8858,13 +8897,13 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -9108,13 +9147,13 @@
       <c r="E29" s="16"/>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
     </row>
     <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -9394,10 +9433,10 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="85"/>
+      <c r="K2" s="84"/>
       <c r="L2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -9412,10 +9451,10 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="85"/>
+      <c r="K3" s="84"/>
       <c r="L3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -9430,10 +9469,10 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="J4" s="108" t="s">
+      <c r="J4" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="109"/>
+      <c r="K4" s="108"/>
       <c r="L4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -9448,10 +9487,10 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="J5" s="113" t="s">
+      <c r="J5" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="114"/>
+      <c r="K5" s="113"/>
       <c r="L5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -9468,15 +9507,15 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -9823,10 +9862,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="85"/>
+      <c r="I2" s="84"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -9839,10 +9878,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="85"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -9855,10 +9894,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="113" t="s">
+      <c r="H4" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="114"/>
+      <c r="I4" s="113"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -9871,10 +9910,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="108" t="s">
+      <c r="H5" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="109"/>
+      <c r="I5" s="108"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -9898,13 +9937,13 @@
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -10241,10 +10280,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="115" t="s">
+      <c r="K2" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="116"/>
+      <c r="L2" s="115"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -10334,10 +10373,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="93"/>
+      <c r="I2" s="92"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10350,10 +10389,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="115" t="s">
+      <c r="H3" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="116"/>
+      <c r="I3" s="115"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10368,13 +10407,13 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -10732,10 +10771,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="93"/>
+      <c r="I2" s="92"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10747,10 +10786,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="115" t="s">
+      <c r="H3" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="116"/>
+      <c r="I3" s="115"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10764,20 +10803,20 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
     </row>
     <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="118" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="72"/>
       <c r="F6" s="72"/>
       <c r="G6" s="72"/>
@@ -10823,11 +10862,11 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="116" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="71"/>
@@ -10976,11 +11015,11 @@
       <c r="J20" s="72"/>
     </row>
     <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="116" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
       <c r="E21" s="72"/>
       <c r="F21" s="72"/>
       <c r="G21" s="72"/>
@@ -11022,20 +11061,20 @@
       <c r="J24" s="68"/>
     </row>
     <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
     </row>
     <row r="26" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="119" t="s">
+      <c r="A26" s="118" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
     </row>
     <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="B27"/>
@@ -11059,11 +11098,11 @@
       <c r="D29"/>
     </row>
     <row r="30" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="117" t="s">
+      <c r="B30" s="116" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
       <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
@@ -11157,11 +11196,11 @@
       <c r="D40" s="72"/>
     </row>
     <row r="41" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="117" t="s">
+      <c r="B41" s="116" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11224,10 +11263,10 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="93"/>
+      <c r="H2" s="92"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
         <v>10</v>
@@ -11242,10 +11281,10 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="116"/>
+      <c r="H3" s="115"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -11259,12 +11298,12 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -11556,1118 +11595,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81EF8E5-0ACA-4393-8383-437BB9FC965A}">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:M45"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="126" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="126" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="126" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="127" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="127" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="127" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45" customWidth="1"/>
-    <col min="13" max="13" width="37" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-    </row>
-    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="131" t="s">
-        <v>269</v>
-      </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134" t="s">
-        <v>270</v>
-      </c>
-      <c r="G2" s="135"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="137" t="s">
-        <v>271</v>
-      </c>
-      <c r="J2" s="138"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="140" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="141" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="142"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="144" t="s">
-        <v>272</v>
-      </c>
-      <c r="D3" s="144" t="s">
-        <v>273</v>
-      </c>
-      <c r="E3" s="145" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="146" t="s">
-        <v>272</v>
-      </c>
-      <c r="G3" s="146" t="s">
-        <v>273</v>
-      </c>
-      <c r="H3" s="147" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="148" t="s">
-        <v>272</v>
-      </c>
-      <c r="J3" s="148" t="s">
-        <v>273</v>
-      </c>
-      <c r="K3" s="148" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="149"/>
-      <c r="M3" s="141" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
-        <v>1</v>
-      </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="121">
-        <v>0</v>
-      </c>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121">
-        <f>F4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="122">
-        <v>0</v>
-      </c>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122">
-        <f>I4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-    </row>
-    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="39">
-        <v>2</v>
-      </c>
-      <c r="B5" s="123" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121">
-        <f>(H4+F5)-G5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122">
-        <v>3000000</v>
-      </c>
-      <c r="K5" s="122">
-        <f>(K4+I5)-J5</f>
-        <v>-3000000</v>
-      </c>
-      <c r="L5" s="124" t="s">
-        <v>121</v>
-      </c>
-      <c r="M5" s="123" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
-        <v>3</v>
-      </c>
-      <c r="B6" s="123" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121">
-        <f t="shared" ref="H6:H25" si="0">(H5+F6)-G6</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122">
-        <v>15500000</v>
-      </c>
-      <c r="K6" s="122">
-        <f t="shared" ref="K6:K23" si="1">(K5+I6)-J6</f>
-        <v>-18500000</v>
-      </c>
-      <c r="L6" s="123" t="s">
-        <v>222</v>
-      </c>
-      <c r="M6" s="123" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="39">
-        <v>4</v>
-      </c>
-      <c r="B7" s="123" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="122">
-        <v>15500000</v>
-      </c>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122">
-        <f t="shared" si="1"/>
-        <v>-3000000</v>
-      </c>
-      <c r="L7" s="123" t="s">
-        <v>226</v>
-      </c>
-      <c r="M7" s="123" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
-        <v>5</v>
-      </c>
-      <c r="B8" s="123" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="122">
-        <v>10000000</v>
-      </c>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122">
-        <f t="shared" si="1"/>
-        <v>7000000</v>
-      </c>
-      <c r="L8" s="123" t="s">
-        <v>220</v>
-      </c>
-      <c r="M8" s="123" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
-        <v>6</v>
-      </c>
-      <c r="B9" s="123" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122">
-        <v>1899000</v>
-      </c>
-      <c r="K9" s="122">
-        <f t="shared" si="1"/>
-        <v>5101000</v>
-      </c>
-      <c r="L9" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="123" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
-        <v>7</v>
-      </c>
-      <c r="B10" s="123" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122">
-        <v>352000</v>
-      </c>
-      <c r="K10" s="122">
-        <f t="shared" si="1"/>
-        <v>4749000</v>
-      </c>
-      <c r="L10" s="123" t="s">
-        <v>123</v>
-      </c>
-      <c r="M10" s="123"/>
-    </row>
-    <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
-        <v>8</v>
-      </c>
-      <c r="B11" s="123" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122">
-        <v>3352000</v>
-      </c>
-      <c r="K11" s="122">
-        <f t="shared" si="1"/>
-        <v>1397000</v>
-      </c>
-      <c r="L11" s="123" t="s">
-        <v>124</v>
-      </c>
-      <c r="M11" s="123"/>
-    </row>
-    <row r="12" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
-        <v>9</v>
-      </c>
-      <c r="B12" s="123" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="121">
-        <v>5000000</v>
-      </c>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121">
-        <f t="shared" si="0"/>
-        <v>5000000</v>
-      </c>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122">
-        <f t="shared" si="1"/>
-        <v>1397000</v>
-      </c>
-      <c r="L12" s="123" t="s">
-        <v>220</v>
-      </c>
-      <c r="M12" s="123" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
-        <v>10</v>
-      </c>
-      <c r="B13" s="123" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121">
-        <v>1974000</v>
-      </c>
-      <c r="H13" s="121">
-        <f t="shared" si="0"/>
-        <v>3026000</v>
-      </c>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122">
-        <f t="shared" si="1"/>
-        <v>1397000</v>
-      </c>
-      <c r="L13" s="123" t="s">
-        <v>137</v>
-      </c>
-      <c r="M13" s="123"/>
-    </row>
-    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
-        <v>11</v>
-      </c>
-      <c r="B14" s="123" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121">
-        <v>106000</v>
-      </c>
-      <c r="H14" s="121">
-        <f t="shared" si="0"/>
-        <v>2920000</v>
-      </c>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122">
-        <f t="shared" si="1"/>
-        <v>1397000</v>
-      </c>
-      <c r="L14" s="123" t="s">
-        <v>138</v>
-      </c>
-      <c r="M14" s="123"/>
-    </row>
-    <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
-        <v>12</v>
-      </c>
-      <c r="B15" s="123" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121">
-        <v>2800000</v>
-      </c>
-      <c r="H15" s="121">
-        <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122">
-        <f t="shared" si="1"/>
-        <v>1397000</v>
-      </c>
-      <c r="L15" s="123" t="s">
-        <v>141</v>
-      </c>
-      <c r="M15" s="123"/>
-    </row>
-    <row r="16" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
-        <v>13</v>
-      </c>
-      <c r="B16" s="123" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121">
-        <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122">
-        <v>6100000</v>
-      </c>
-      <c r="K16" s="122">
-        <f t="shared" si="1"/>
-        <v>-4703000</v>
-      </c>
-      <c r="L16" s="123" t="s">
-        <v>227</v>
-      </c>
-      <c r="M16" s="123" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
-        <v>14</v>
-      </c>
-      <c r="B17" s="123" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121">
-        <f>(H16+F17)-G17</f>
-        <v>120000</v>
-      </c>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122">
-        <v>1000000</v>
-      </c>
-      <c r="K17" s="122">
-        <f t="shared" si="1"/>
-        <v>-5703000</v>
-      </c>
-      <c r="L17" s="123" t="s">
-        <v>211</v>
-      </c>
-      <c r="M17" s="123"/>
-    </row>
-    <row r="18" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
-        <v>15</v>
-      </c>
-      <c r="B18" s="123" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121">
-        <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122">
-        <v>15000000</v>
-      </c>
-      <c r="K18" s="122">
-        <f t="shared" si="1"/>
-        <v>-20703000</v>
-      </c>
-      <c r="L18" s="123" t="s">
-        <v>228</v>
-      </c>
-      <c r="M18" s="123" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
-        <v>16</v>
-      </c>
-      <c r="B19" s="123" t="s">
-        <v>210</v>
-      </c>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121">
-        <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-      <c r="I19" s="122">
-        <v>21100000</v>
-      </c>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122">
-        <f t="shared" si="1"/>
-        <v>397000</v>
-      </c>
-      <c r="L19" s="123" t="s">
-        <v>275</v>
-      </c>
-      <c r="M19" s="123" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
-        <v>17</v>
-      </c>
-      <c r="B20" s="123" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121">
-        <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122">
-        <v>2960000</v>
-      </c>
-      <c r="K20" s="122">
-        <f t="shared" si="1"/>
-        <v>-2563000</v>
-      </c>
-      <c r="L20" s="123" t="s">
-        <v>264</v>
-      </c>
-      <c r="M20" s="123"/>
-    </row>
-    <row r="21" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
-        <v>18</v>
-      </c>
-      <c r="B21" s="123" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121">
-        <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122">
-        <v>334000</v>
-      </c>
-      <c r="K21" s="122">
-        <f t="shared" si="1"/>
-        <v>-2897000</v>
-      </c>
-      <c r="L21" s="123" t="s">
-        <v>265</v>
-      </c>
-      <c r="M21" s="123"/>
-    </row>
-    <row r="22" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A22" s="39">
-        <v>19</v>
-      </c>
-      <c r="B22" s="123" t="s">
-        <v>250</v>
-      </c>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121">
-        <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122">
-        <v>334000</v>
-      </c>
-      <c r="K22" s="122">
-        <f t="shared" si="1"/>
-        <v>-3231000</v>
-      </c>
-      <c r="L22" s="123" t="s">
-        <v>265</v>
-      </c>
-      <c r="M22" s="123"/>
-    </row>
-    <row r="23" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A23" s="39">
-        <v>20</v>
-      </c>
-      <c r="B23" s="123" t="s">
-        <v>250</v>
-      </c>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121">
-        <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122">
-        <v>334000</v>
-      </c>
-      <c r="K23" s="122">
-        <f t="shared" si="1"/>
-        <v>-3565000</v>
-      </c>
-      <c r="L23" s="123" t="s">
-        <v>265</v>
-      </c>
-      <c r="M23" s="123"/>
-    </row>
-    <row r="24" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
-        <v>22</v>
-      </c>
-      <c r="B24" s="123" t="s">
-        <v>250</v>
-      </c>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121">
-        <v>90000</v>
-      </c>
-      <c r="H24" s="121">
-        <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="123" t="s">
-        <v>138</v>
-      </c>
-      <c r="M24" s="123"/>
-    </row>
-    <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A25" s="39">
-        <v>23</v>
-      </c>
-      <c r="B25" s="123" t="s">
-        <v>250</v>
-      </c>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121">
-        <v>1060000</v>
-      </c>
-      <c r="H25" s="121">
-        <f t="shared" si="0"/>
-        <v>-1030000</v>
-      </c>
-      <c r="I25" s="122"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="123" t="s">
-        <v>268</v>
-      </c>
-      <c r="M25" s="123"/>
-    </row>
-    <row r="26" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="39">
-        <v>24</v>
-      </c>
-      <c r="B26" s="123"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="123"/>
-    </row>
-    <row r="27" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
-        <v>25</v>
-      </c>
-      <c r="B27" s="123"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="122"/>
-      <c r="K27" s="122"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="123"/>
-    </row>
-    <row r="28" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A28" s="39">
-        <v>26</v>
-      </c>
-      <c r="B28" s="123"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="122"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="123"/>
-    </row>
-    <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A29" s="39">
-        <v>27</v>
-      </c>
-      <c r="B29" s="123"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="123"/>
-    </row>
-    <row r="30" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A30" s="39">
-        <v>28</v>
-      </c>
-      <c r="B30" s="123"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="123"/>
-      <c r="M30" s="123"/>
-    </row>
-    <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A31" s="39">
-        <v>29</v>
-      </c>
-      <c r="B31" s="123"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="123"/>
-    </row>
-    <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A32" s="39">
-        <v>30</v>
-      </c>
-      <c r="B32" s="123"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="122"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
-    </row>
-    <row r="33" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A33" s="39">
-        <v>31</v>
-      </c>
-      <c r="B33" s="123"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="122"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-    </row>
-    <row r="34" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A34" s="39">
-        <v>32</v>
-      </c>
-      <c r="B34" s="123"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="123"/>
-    </row>
-    <row r="35" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A35" s="39">
-        <v>33</v>
-      </c>
-      <c r="B35" s="123"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="122"/>
-      <c r="J35" s="122"/>
-      <c r="K35" s="122"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="123"/>
-    </row>
-    <row r="36" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A36" s="39">
-        <v>34</v>
-      </c>
-      <c r="B36" s="123"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="122"/>
-      <c r="K36" s="122"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="123"/>
-    </row>
-    <row r="37" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A37" s="39">
-        <v>35</v>
-      </c>
-      <c r="B37" s="123"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="122"/>
-      <c r="J37" s="122"/>
-      <c r="K37" s="122"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="123"/>
-    </row>
-    <row r="38" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A38" s="39">
-        <v>36</v>
-      </c>
-      <c r="B38" s="123"/>
-      <c r="C38" s="120"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="122"/>
-      <c r="J38" s="122"/>
-      <c r="K38" s="122"/>
-      <c r="L38" s="123"/>
-      <c r="M38" s="123"/>
-    </row>
-    <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A39" s="39">
-        <v>37</v>
-      </c>
-      <c r="B39" s="123"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="122"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="123"/>
-      <c r="M39" s="123"/>
-    </row>
-    <row r="40" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A40" s="39">
-        <v>38</v>
-      </c>
-      <c r="B40" s="123"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="122"/>
-      <c r="J40" s="122"/>
-      <c r="K40" s="122"/>
-      <c r="L40" s="123"/>
-      <c r="M40" s="123"/>
-    </row>
-    <row r="41" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A41" s="39">
-        <v>39</v>
-      </c>
-      <c r="B41" s="123"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="121"/>
-      <c r="I41" s="122"/>
-      <c r="J41" s="122"/>
-      <c r="K41" s="122"/>
-      <c r="L41" s="123"/>
-      <c r="M41" s="123"/>
-    </row>
-    <row r="42" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A42" s="39">
-        <v>40</v>
-      </c>
-      <c r="B42" s="123"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="121"/>
-      <c r="G42" s="121"/>
-      <c r="H42" s="121"/>
-      <c r="I42" s="122"/>
-      <c r="J42" s="122"/>
-      <c r="K42" s="122"/>
-      <c r="L42" s="123"/>
-      <c r="M42" s="123"/>
-    </row>
-    <row r="43" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A43" s="39">
-        <v>41</v>
-      </c>
-      <c r="B43" s="123"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="122"/>
-      <c r="J43" s="122"/>
-      <c r="K43" s="122"/>
-      <c r="L43" s="123"/>
-      <c r="M43" s="123"/>
-    </row>
-    <row r="44" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A44" s="39">
-        <v>42</v>
-      </c>
-      <c r="B44" s="123"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="122"/>
-      <c r="K44" s="122"/>
-      <c r="L44" s="123"/>
-      <c r="M44" s="123"/>
-    </row>
-    <row r="45" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A45" s="39">
-        <v>43</v>
-      </c>
-      <c r="B45" s="123"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="121"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="121"/>
-      <c r="I45" s="122"/>
-      <c r="J45" s="122"/>
-      <c r="K45" s="122"/>
-      <c r="L45" s="123"/>
-      <c r="M45" s="123"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="L2:L3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CF95F5-D50B-45C5-B798-426572AEAFA8}">
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
@@ -12692,12 +11619,12 @@
     <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
     </row>
     <row r="4" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -12743,13 +11670,13 @@
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13124,8 +12051,8 @@
       <c r="A122" s="20"/>
     </row>
     <row r="125" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A125" s="87"/>
-      <c r="B125" s="87"/>
+      <c r="A125" s="86"/>
+      <c r="B125" s="86"/>
     </row>
     <row r="126" spans="1:2" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
@@ -13223,6 +12150,1118 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81EF8E5-0ACA-4393-8383-437BB9FC965A}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:M45"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="124" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="124" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="124" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="126" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="126" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="126" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45" customWidth="1"/>
+    <col min="13" max="13" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="127" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+    </row>
+    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="130" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" s="134"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="136" t="s">
+        <v>271</v>
+      </c>
+      <c r="J2" s="137"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="139" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="140" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="141"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="143" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" s="143" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="144" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="145" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" s="145" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" s="146" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="147" t="s">
+        <v>272</v>
+      </c>
+      <c r="J3" s="147" t="s">
+        <v>273</v>
+      </c>
+      <c r="K3" s="147" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="148"/>
+      <c r="M3" s="140" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A4" s="39">
+        <v>1</v>
+      </c>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120">
+        <v>0</v>
+      </c>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="121">
+        <v>0</v>
+      </c>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121">
+        <f>I4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+    </row>
+    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
+        <v>2</v>
+      </c>
+      <c r="B5" s="122" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120">
+        <f>(H4+F5)-G5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121">
+        <v>3000000</v>
+      </c>
+      <c r="K5" s="121">
+        <f>(K4+I5)-J5</f>
+        <v>-3000000</v>
+      </c>
+      <c r="L5" s="123" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5" s="122" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="39">
+        <v>3</v>
+      </c>
+      <c r="B6" s="122" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120">
+        <f t="shared" ref="H6:H25" si="0">(H5+F6)-G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121">
+        <v>15500000</v>
+      </c>
+      <c r="K6" s="121">
+        <f t="shared" ref="K6:K23" si="1">(K5+I6)-J6</f>
+        <v>-18500000</v>
+      </c>
+      <c r="L6" s="122" t="s">
+        <v>222</v>
+      </c>
+      <c r="M6" s="122" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="39">
+        <v>4</v>
+      </c>
+      <c r="B7" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="121">
+        <v>15500000</v>
+      </c>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121">
+        <f t="shared" si="1"/>
+        <v>-3000000</v>
+      </c>
+      <c r="L7" s="122" t="s">
+        <v>226</v>
+      </c>
+      <c r="M7" s="122" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
+        <v>5</v>
+      </c>
+      <c r="B8" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="121">
+        <v>10000000</v>
+      </c>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121">
+        <f t="shared" si="1"/>
+        <v>7000000</v>
+      </c>
+      <c r="L8" s="122" t="s">
+        <v>220</v>
+      </c>
+      <c r="M8" s="122" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>6</v>
+      </c>
+      <c r="B9" s="122" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121">
+        <v>1899000</v>
+      </c>
+      <c r="K9" s="121">
+        <f t="shared" si="1"/>
+        <v>5101000</v>
+      </c>
+      <c r="L9" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="122" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
+        <v>7</v>
+      </c>
+      <c r="B10" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121">
+        <v>352000</v>
+      </c>
+      <c r="K10" s="121">
+        <f t="shared" si="1"/>
+        <v>4749000</v>
+      </c>
+      <c r="L10" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" s="122"/>
+    </row>
+    <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
+        <v>8</v>
+      </c>
+      <c r="B11" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121">
+        <v>3352000</v>
+      </c>
+      <c r="K11" s="121">
+        <f t="shared" si="1"/>
+        <v>1397000</v>
+      </c>
+      <c r="L11" s="122" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="122"/>
+    </row>
+    <row r="12" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
+        <v>9</v>
+      </c>
+      <c r="B12" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="120">
+        <v>5000000</v>
+      </c>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121">
+        <f t="shared" si="1"/>
+        <v>1397000</v>
+      </c>
+      <c r="L12" s="122" t="s">
+        <v>220</v>
+      </c>
+      <c r="M12" s="122" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <v>10</v>
+      </c>
+      <c r="B13" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120">
+        <v>1974000</v>
+      </c>
+      <c r="H13" s="120">
+        <f t="shared" si="0"/>
+        <v>3026000</v>
+      </c>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121">
+        <f t="shared" si="1"/>
+        <v>1397000</v>
+      </c>
+      <c r="L13" s="122" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" s="122"/>
+    </row>
+    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
+        <v>11</v>
+      </c>
+      <c r="B14" s="122" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120">
+        <v>106000</v>
+      </c>
+      <c r="H14" s="120">
+        <f t="shared" si="0"/>
+        <v>2920000</v>
+      </c>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121">
+        <f t="shared" si="1"/>
+        <v>1397000</v>
+      </c>
+      <c r="L14" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" s="122"/>
+    </row>
+    <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <v>12</v>
+      </c>
+      <c r="B15" s="122" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120">
+        <v>2800000</v>
+      </c>
+      <c r="H15" s="120">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121">
+        <f t="shared" si="1"/>
+        <v>1397000</v>
+      </c>
+      <c r="L15" s="122" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" s="122"/>
+    </row>
+    <row r="16" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>13</v>
+      </c>
+      <c r="B16" s="122" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121">
+        <v>6100000</v>
+      </c>
+      <c r="K16" s="121">
+        <f t="shared" si="1"/>
+        <v>-4703000</v>
+      </c>
+      <c r="L16" s="122" t="s">
+        <v>227</v>
+      </c>
+      <c r="M16" s="122" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
+        <v>14</v>
+      </c>
+      <c r="B17" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120">
+        <f>(H16+F17)-G17</f>
+        <v>120000</v>
+      </c>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121">
+        <v>1000000</v>
+      </c>
+      <c r="K17" s="121">
+        <f t="shared" si="1"/>
+        <v>-5703000</v>
+      </c>
+      <c r="L17" s="122" t="s">
+        <v>211</v>
+      </c>
+      <c r="M17" s="122"/>
+    </row>
+    <row r="18" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>15</v>
+      </c>
+      <c r="B18" s="122" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121">
+        <v>15000000</v>
+      </c>
+      <c r="K18" s="121">
+        <f t="shared" si="1"/>
+        <v>-20703000</v>
+      </c>
+      <c r="L18" s="122" t="s">
+        <v>228</v>
+      </c>
+      <c r="M18" s="122" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <v>16</v>
+      </c>
+      <c r="B19" s="122" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="I19" s="121">
+        <v>21100000</v>
+      </c>
+      <c r="J19" s="121"/>
+      <c r="K19" s="121">
+        <f t="shared" si="1"/>
+        <v>397000</v>
+      </c>
+      <c r="L19" s="122" t="s">
+        <v>275</v>
+      </c>
+      <c r="M19" s="122" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <v>17</v>
+      </c>
+      <c r="B20" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121">
+        <v>2960000</v>
+      </c>
+      <c r="K20" s="121">
+        <f t="shared" si="1"/>
+        <v>-2563000</v>
+      </c>
+      <c r="L20" s="122" t="s">
+        <v>264</v>
+      </c>
+      <c r="M20" s="122"/>
+    </row>
+    <row r="21" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
+        <v>18</v>
+      </c>
+      <c r="B21" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121">
+        <v>334000</v>
+      </c>
+      <c r="K21" s="121">
+        <f t="shared" si="1"/>
+        <v>-2897000</v>
+      </c>
+      <c r="L21" s="122" t="s">
+        <v>265</v>
+      </c>
+      <c r="M21" s="122"/>
+    </row>
+    <row r="22" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A22" s="39">
+        <v>19</v>
+      </c>
+      <c r="B22" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="I22" s="121"/>
+      <c r="J22" s="121">
+        <v>334000</v>
+      </c>
+      <c r="K22" s="121">
+        <f t="shared" si="1"/>
+        <v>-3231000</v>
+      </c>
+      <c r="L22" s="122" t="s">
+        <v>265</v>
+      </c>
+      <c r="M22" s="122"/>
+    </row>
+    <row r="23" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
+        <v>20</v>
+      </c>
+      <c r="B23" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="I23" s="121"/>
+      <c r="J23" s="121">
+        <v>334000</v>
+      </c>
+      <c r="K23" s="121">
+        <f t="shared" si="1"/>
+        <v>-3565000</v>
+      </c>
+      <c r="L23" s="122" t="s">
+        <v>265</v>
+      </c>
+      <c r="M23" s="122"/>
+    </row>
+    <row r="24" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
+        <v>22</v>
+      </c>
+      <c r="B24" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120">
+        <v>90000</v>
+      </c>
+      <c r="H24" s="120">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="M24" s="122"/>
+    </row>
+    <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
+        <v>23</v>
+      </c>
+      <c r="B25" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120">
+        <v>1060000</v>
+      </c>
+      <c r="H25" s="120">
+        <f t="shared" si="0"/>
+        <v>-1030000</v>
+      </c>
+      <c r="I25" s="121"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="121"/>
+      <c r="L25" s="122" t="s">
+        <v>268</v>
+      </c>
+      <c r="M25" s="122"/>
+    </row>
+    <row r="26" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
+        <v>24</v>
+      </c>
+      <c r="B26" s="122"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="122"/>
+    </row>
+    <row r="27" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
+        <v>25</v>
+      </c>
+      <c r="B27" s="122"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="122"/>
+    </row>
+    <row r="28" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
+        <v>26</v>
+      </c>
+      <c r="B28" s="122"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="122"/>
+    </row>
+    <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A29" s="39">
+        <v>27</v>
+      </c>
+      <c r="B29" s="122"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="122"/>
+      <c r="M29" s="122"/>
+    </row>
+    <row r="30" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A30" s="39">
+        <v>28</v>
+      </c>
+      <c r="B30" s="122"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="122"/>
+    </row>
+    <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A31" s="39">
+        <v>29</v>
+      </c>
+      <c r="B31" s="122"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="121"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="122"/>
+    </row>
+    <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A32" s="39">
+        <v>30</v>
+      </c>
+      <c r="B32" s="122"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="121"/>
+      <c r="K32" s="121"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="122"/>
+    </row>
+    <row r="33" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A33" s="39">
+        <v>31</v>
+      </c>
+      <c r="B33" s="122"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
+      <c r="K33" s="121"/>
+      <c r="L33" s="122"/>
+      <c r="M33" s="122"/>
+    </row>
+    <row r="34" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A34" s="39">
+        <v>32</v>
+      </c>
+      <c r="B34" s="122"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="121"/>
+      <c r="K34" s="121"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="122"/>
+    </row>
+    <row r="35" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A35" s="39">
+        <v>33</v>
+      </c>
+      <c r="B35" s="122"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="121"/>
+      <c r="K35" s="121"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="122"/>
+    </row>
+    <row r="36" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A36" s="39">
+        <v>34</v>
+      </c>
+      <c r="B36" s="122"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="121"/>
+      <c r="K36" s="121"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="122"/>
+    </row>
+    <row r="37" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A37" s="39">
+        <v>35</v>
+      </c>
+      <c r="B37" s="122"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="121"/>
+      <c r="K37" s="121"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="122"/>
+    </row>
+    <row r="38" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A38" s="39">
+        <v>36</v>
+      </c>
+      <c r="B38" s="122"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="121"/>
+      <c r="L38" s="122"/>
+      <c r="M38" s="122"/>
+    </row>
+    <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A39" s="39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="122"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="121"/>
+      <c r="K39" s="121"/>
+      <c r="L39" s="122"/>
+      <c r="M39" s="122"/>
+    </row>
+    <row r="40" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A40" s="39">
+        <v>38</v>
+      </c>
+      <c r="B40" s="122"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="121"/>
+      <c r="K40" s="121"/>
+      <c r="L40" s="122"/>
+      <c r="M40" s="122"/>
+    </row>
+    <row r="41" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A41" s="39">
+        <v>39</v>
+      </c>
+      <c r="B41" s="122"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="121"/>
+      <c r="J41" s="121"/>
+      <c r="K41" s="121"/>
+      <c r="L41" s="122"/>
+      <c r="M41" s="122"/>
+    </row>
+    <row r="42" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A42" s="39">
+        <v>40</v>
+      </c>
+      <c r="B42" s="122"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="121"/>
+      <c r="K42" s="121"/>
+      <c r="L42" s="122"/>
+      <c r="M42" s="122"/>
+    </row>
+    <row r="43" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A43" s="39">
+        <v>41</v>
+      </c>
+      <c r="B43" s="122"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="121"/>
+      <c r="K43" s="121"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="122"/>
+    </row>
+    <row r="44" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A44" s="39">
+        <v>42</v>
+      </c>
+      <c r="B44" s="122"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="121"/>
+      <c r="K44" s="121"/>
+      <c r="L44" s="122"/>
+      <c r="M44" s="122"/>
+    </row>
+    <row r="45" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>43</v>
+      </c>
+      <c r="B45" s="122"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="121"/>
+      <c r="J45" s="121"/>
+      <c r="K45" s="121"/>
+      <c r="L45" s="122"/>
+      <c r="M45" s="122"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="L2:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13269,10 +13308,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="89"/>
+      <c r="I2" s="88"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -13288,10 +13327,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="90" t="s">
+      <c r="H3" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="91"/>
+      <c r="I3" s="90"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -13320,13 +13359,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -13600,13 +13639,13 @@
       <c r="N30" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -13830,14 +13869,14 @@
       <c r="F54" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A57" s="86" t="s">
+      <c r="A57" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="86"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
     </row>
     <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -14059,12 +14098,12 @@
       <c r="F78" s="20"/>
     </row>
     <row r="82" spans="1:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="A82" s="86" t="s">
+      <c r="A82" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="86"/>
-      <c r="C82" s="86"/>
-      <c r="D82" s="86"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
     </row>
     <row r="83" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
@@ -14241,15 +14280,15 @@
       <c r="D103" s="22"/>
     </row>
     <row r="106" spans="1:7" ht="27" x14ac:dyDescent="0.25">
-      <c r="A106" s="87" t="s">
+      <c r="A106" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="87"/>
-      <c r="C106" s="87"/>
-      <c r="D106" s="87"/>
-      <c r="E106" s="87"/>
-      <c r="F106" s="87"/>
-      <c r="G106" s="87"/>
+      <c r="B106" s="86"/>
+      <c r="C106" s="86"/>
+      <c r="D106" s="86"/>
+      <c r="E106" s="86"/>
+      <c r="F106" s="86"/>
+      <c r="G106" s="86"/>
     </row>
     <row r="107" spans="1:7" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
@@ -14499,16 +14538,16 @@
       <c r="G127" s="20"/>
     </row>
     <row r="130" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A130" s="87" t="s">
+      <c r="A130" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="B130" s="87"/>
-      <c r="C130" s="87"/>
-      <c r="D130" s="87"/>
-      <c r="E130" s="87"/>
-      <c r="F130" s="87"/>
-      <c r="G130" s="87"/>
-      <c r="H130" s="87"/>
+      <c r="B130" s="86"/>
+      <c r="C130" s="86"/>
+      <c r="D130" s="86"/>
+      <c r="E130" s="86"/>
+      <c r="F130" s="86"/>
+      <c r="G130" s="86"/>
+      <c r="H130" s="86"/>
     </row>
     <row r="131" spans="1:8" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
@@ -14777,13 +14816,13 @@
       <c r="H151" s="10"/>
     </row>
     <row r="155" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A155" s="87" t="s">
+      <c r="A155" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="B155" s="87"/>
-      <c r="C155" s="87"/>
-      <c r="D155" s="87"/>
-      <c r="E155" s="87"/>
+      <c r="B155" s="86"/>
+      <c r="C155" s="86"/>
+      <c r="D155" s="86"/>
+      <c r="E155" s="86"/>
       <c r="F155" s="63"/>
     </row>
     <row r="156" spans="1:8" ht="27" x14ac:dyDescent="0.25">
@@ -15007,13 +15046,13 @@
       <c r="F176" s="39"/>
     </row>
     <row r="179" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A179" s="87" t="s">
+      <c r="A179" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="B179" s="87"/>
-      <c r="C179" s="87"/>
-      <c r="D179" s="87"/>
-      <c r="E179" s="87"/>
+      <c r="B179" s="86"/>
+      <c r="C179" s="86"/>
+      <c r="D179" s="86"/>
+      <c r="E179" s="86"/>
       <c r="F179" s="66"/>
     </row>
     <row r="180" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -15233,14 +15272,14 @@
       <c r="F200" s="39"/>
     </row>
     <row r="204" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A204" s="86" t="s">
+      <c r="A204" s="85" t="s">
         <v>219</v>
       </c>
-      <c r="B204" s="86"/>
-      <c r="C204" s="86"/>
-      <c r="D204" s="86"/>
-      <c r="E204" s="86"/>
-      <c r="F204" s="86"/>
+      <c r="B204" s="85"/>
+      <c r="C204" s="85"/>
+      <c r="D204" s="85"/>
+      <c r="E204" s="85"/>
+      <c r="F204" s="85"/>
     </row>
     <row r="205" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A205" s="78" t="s">
@@ -15808,10 +15847,10 @@
   <sheetData>
     <row r="1" spans="10:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="92" t="s">
+      <c r="J2" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="93"/>
+      <c r="K2" s="92"/>
       <c r="L2" s="3"/>
       <c r="M2" s="4" t="s">
         <v>10</v>
@@ -15854,10 +15893,10 @@
     </row>
     <row r="11" spans="10:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="92" t="s">
+      <c r="J12" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="93"/>
+      <c r="K12" s="92"/>
     </row>
     <row r="13" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J13" s="2">
@@ -15928,7 +15967,7 @@
       </c>
     </row>
     <row r="24" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="94" t="s">
+      <c r="I24" s="93" t="s">
         <v>76</v>
       </c>
       <c r="J24" s="2">
@@ -15939,7 +15978,7 @@
       </c>
     </row>
     <row r="25" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="95"/>
+      <c r="I25" s="94"/>
       <c r="J25" s="2" t="s">
         <v>74</v>
       </c>
@@ -15987,10 +16026,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="97"/>
+      <c r="L2" s="96"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -16068,10 +16107,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="98" t="s">
+      <c r="K2" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="99"/>
+      <c r="L2" s="98"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -16167,10 +16206,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="101"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -16187,10 +16226,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="100" t="s">
+      <c r="I3" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="101"/>
+      <c r="J3" s="100"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -16204,10 +16243,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="102" t="s">
+      <c r="I4" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="103"/>
+      <c r="J4" s="102"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -16238,13 +16277,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEA2CD5-8BC7-4061-8B68-1035F1436B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7BE88E-2B50-4C36-9F42-6B8B12DF9C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
     <sheet name="N.02 شماره گذاری شیت ها" sheetId="33" r:id="rId2"/>
-    <sheet name="جهت پرینت" sheetId="21" r:id="rId3"/>
+    <sheet name="  پرینت موقت N.03" sheetId="21" r:id="rId3"/>
     <sheet name="N.04 دفتر روزانه" sheetId="32" r:id="rId4"/>
-    <sheet name="فرم های خام" sheetId="11" r:id="rId5"/>
-    <sheet name="اطلاعات حساب های ایستگاه" sheetId="14" r:id="rId6"/>
+    <sheet name="فرم های خام N.05" sheetId="11" r:id="rId5"/>
+    <sheet name="اطلاعات حساب های ایستگاه N.06" sheetId="14" r:id="rId6"/>
     <sheet name="مدیریت زونکن یک" sheetId="5" r:id="rId7"/>
     <sheet name="مدیریت زونکن دو" sheetId="6" r:id="rId8"/>
     <sheet name="N.21 حواله کود مزرعه و باغ" sheetId="25" r:id="rId9"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="282">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -898,9 +898,6 @@
     <t>واریزکننده</t>
   </si>
   <si>
-    <t>پرینت موقت</t>
-  </si>
-  <si>
     <t>جهت پرینت</t>
   </si>
   <si>
@@ -908,6 +905,9 @@
   </si>
   <si>
     <t>N.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> پرینت موقت</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1035,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1162,8 +1162,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1464,12 +1470,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1712,6 +1727,9 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1907,13 +1925,25 @@
     <xf numFmtId="0" fontId="12" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4283,102 +4313,107 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="I2:R8"/>
+  <dimension ref="D2:L8"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="15" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="9:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="I2" s="3" t="s">
+    <row r="2" spans="4:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="9:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="9:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K4" s="59" t="s">
+    </row>
+    <row r="3" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="58" t="s">
+      <c r="G4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="149" t="s">
+      <c r="I4" s="151" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="9:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K5" s="57" t="s">
+    <row r="5" spans="4:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="G5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="81" t="s">
+      <c r="I5" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="81" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="9:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K6" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="81" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="9:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K7" s="51" t="s">
+    <row r="7" spans="4:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="50" t="s">
+      <c r="G7" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="I7" s="33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="9:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K8" s="53" t="s">
+    <row r="8" spans="4:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="52" t="s">
+      <c r="G8" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="N8" s="36" t="s">
+      <c r="I8" s="36" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:K2"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K5" location="'مدیریت زونکن یک'!A1" display="یک" xr:uid="{3E765EC4-2BB2-45F9-9F1F-3B66E97DA67E}"/>
-    <hyperlink ref="K6" location="'مدیریت زونکن دو'!A1" display="دو" xr:uid="{A9175444-BF3F-4E7B-8687-221910F7B689}"/>
-    <hyperlink ref="K7" location="'زونکن سه - تنخواه'!A1" display="سه" xr:uid="{5CA2A2DE-CDB1-40D0-87A2-07B581620A56}"/>
-    <hyperlink ref="K8" location="'مدیریت زونکن چهار'!A1" display="چهار" xr:uid="{659D1C56-70FE-44A1-B4A3-CA285C86F75E}"/>
-    <hyperlink ref="N7" location="'فرم های خام'!A1" display="فرم های خام" xr:uid="{9D678144-E325-4478-810D-3961278E4149}"/>
-    <hyperlink ref="N8" location="'اطلاعات حساب های ایستگاه'!A1" display="اطلاعات حساب های ایستگاه" xr:uid="{AA8CC3E6-5253-4C5F-95AE-394D78979893}"/>
-    <hyperlink ref="L7" location="'زونکن سه - تنخواه'!A1" display="تنخواه" xr:uid="{57666A52-B254-49AB-B917-6412878AD607}"/>
-    <hyperlink ref="K7:L7" location="'N3 زونکن سه'!A1" display="سه" xr:uid="{33595FBF-E1B9-4DCA-9828-AB4A8BAFE1A3}"/>
+    <hyperlink ref="F5" location="'مدیریت زونکن یک'!A1" display="یک" xr:uid="{3E765EC4-2BB2-45F9-9F1F-3B66E97DA67E}"/>
+    <hyperlink ref="F6" location="'مدیریت زونکن دو'!A1" display="دو" xr:uid="{A9175444-BF3F-4E7B-8687-221910F7B689}"/>
+    <hyperlink ref="F7" location="'زونکن سه - تنخواه'!A1" display="سه" xr:uid="{5CA2A2DE-CDB1-40D0-87A2-07B581620A56}"/>
+    <hyperlink ref="F8" location="'مدیریت زونکن چهار'!A1" display="چهار" xr:uid="{659D1C56-70FE-44A1-B4A3-CA285C86F75E}"/>
+    <hyperlink ref="G7" location="'زونکن سه - تنخواه'!A1" display="تنخواه" xr:uid="{57666A52-B254-49AB-B917-6412878AD607}"/>
+    <hyperlink ref="F7:G7" location="'N3 زونکن سه'!A1" display="سه" xr:uid="{33595FBF-E1B9-4DCA-9828-AB4A8BAFE1A3}"/>
+    <hyperlink ref="I7" location="'فرم های خام N.05'!A1" display="فرم های خام" xr:uid="{0C0D8D0B-207F-41D3-9185-F3558CBCAE5D}"/>
+    <hyperlink ref="I8" location="'اطلاعات حساب های ایستگاه N.06'!A1" display="اطلاعات حساب های ایستگاه" xr:uid="{8C26FEF0-294D-4C1D-807F-E550D65FCD50}"/>
+    <hyperlink ref="I4" location="'N.02 شماره گذاری شیت ها'!A1" display="شماره گذاری شیت ها" xr:uid="{26410F45-F7AA-4002-A4E6-B13A0D8E8691}"/>
+    <hyperlink ref="I5" location="'  پرینت موقت N.03'!A1" display=" پرینت موقت" xr:uid="{4D08E541-A9D3-4A6E-9B59-F8FACFAEA18D}"/>
+    <hyperlink ref="I6" location="'N.04 دفتر روزانه'!A1" display="دفتر روزانه" xr:uid="{2F15208A-110D-43A6-88F8-BA510B6F22E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4414,11 +4449,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="84"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -4426,11 +4461,11 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="84"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4439,12 +4474,12 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="107"/>
       <c r="G5" s="5" t="s">
         <v>212</v>
       </c>
@@ -4649,10 +4684,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="84"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -4668,8 +4703,8 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4682,10 +4717,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="107" t="s">
+      <c r="H4" s="108" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="108"/>
+      <c r="I4" s="109"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -4714,12 +4749,12 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7" s="73"/>
       <c r="F7" s="9"/>
       <c r="G7" s="6"/>
@@ -5100,10 +5135,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="84"/>
+      <c r="J2" s="85"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -5120,10 +5155,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="84"/>
+      <c r="J3" s="85"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -5137,10 +5172,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="107" t="s">
+      <c r="I4" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="108"/>
+      <c r="J4" s="109"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5171,21 +5206,21 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="109" t="s">
+      <c r="I7" s="110" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -5557,10 +5592,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="84"/>
+      <c r="J2" s="85"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -5577,10 +5612,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="84"/>
+      <c r="J3" s="85"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -5594,10 +5629,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="107" t="s">
+      <c r="I4" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="108"/>
+      <c r="J4" s="109"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5628,13 +5663,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="60"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -5960,10 +5995,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="84"/>
+      <c r="J2" s="85"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -5980,10 +6015,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="84"/>
+      <c r="J3" s="85"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -5997,10 +6032,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="107" t="s">
+      <c r="I4" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="108"/>
+      <c r="J4" s="109"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6031,13 +6066,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="17"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -6415,10 +6450,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="84"/>
+      <c r="J2" s="85"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6435,10 +6470,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="84"/>
+      <c r="J3" s="85"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6452,10 +6487,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="107" t="s">
+      <c r="I4" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="108"/>
+      <c r="J4" s="109"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6486,13 +6521,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="49"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -6839,10 +6874,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="84"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -6858,10 +6893,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="84"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -6874,10 +6909,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="107" t="s">
+      <c r="H4" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="108"/>
+      <c r="I4" s="109"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -6892,13 +6927,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -7070,10 +7105,10 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="84"/>
+      <c r="G2" s="85"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
         <v>10</v>
@@ -7087,10 +7122,10 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="84"/>
+      <c r="G3" s="85"/>
       <c r="H3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -7101,10 +7136,10 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="F4" s="107" t="s">
+      <c r="F4" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -7117,11 +7152,11 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:12" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:12" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -7198,10 +7233,10 @@
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="111"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="24">
         <f>SUM(C9:C12)</f>
         <v>0</v>
@@ -7266,10 +7301,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="84"/>
+      <c r="J2" s="85"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -7286,10 +7321,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="84"/>
+      <c r="J3" s="85"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -7303,10 +7338,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="107" t="s">
+      <c r="I4" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="108"/>
+      <c r="J4" s="109"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -7337,13 +7372,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="27"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -7679,10 +7714,10 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="83" t="s">
+      <c r="L2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="84"/>
+      <c r="M2" s="85"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4" t="s">
         <v>10</v>
@@ -7702,10 +7737,10 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="L3" s="83" t="s">
+      <c r="L3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="84"/>
+      <c r="M3" s="85"/>
       <c r="N3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -7722,10 +7757,10 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="L4" s="107" t="s">
+      <c r="L4" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="108"/>
+      <c r="M4" s="109"/>
       <c r="N4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -7742,10 +7777,10 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="L5" s="112" t="s">
+      <c r="L5" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="113"/>
+      <c r="M5" s="114"/>
       <c r="N5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -7764,16 +7799,16 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:18" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
       <c r="I7" s="74" t="s">
         <v>207</v>
       </c>
@@ -8153,15 +8188,16 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B2:O9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -8174,7 +8210,12 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
       <c r="G2" s="3" t="s">
         <v>232</v>
       </c>
@@ -8187,19 +8228,19 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="2:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="82" t="s">
+    <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-    </row>
-    <row r="4" spans="2:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+    </row>
+    <row r="4" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
         <v>4</v>
       </c>
@@ -8231,7 +8272,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>237</v>
       </c>
@@ -8251,18 +8292,18 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="K6" s="33" t="s">
-        <v>279</v>
+      <c r="K6" s="152" t="s">
+        <v>278</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>262</v>
       </c>
@@ -8273,7 +8314,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>263</v>
       </c>
@@ -8281,15 +8322,15 @@
         <v>47</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K9" s="36" t="s">
         <v>59</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -8305,6 +8346,7 @@
     <hyperlink ref="K8" location="'فرم های خام'!A1" display="فرم های خام" xr:uid="{B61CBFE3-0502-4A24-87C1-B75EE7D3D861}"/>
     <hyperlink ref="K9" location="'اطلاعات حساب های ایستگاه'!A1" display="اطلاعات حساب های ایستگاه" xr:uid="{62E8C4C2-FBC7-4756-BE75-9B163AA32561}"/>
     <hyperlink ref="E4" location="'زونکن سه - تنخواه'!A1" display="تنخواه" xr:uid="{55E349AD-7083-44E2-B6AB-FAEB496FFA58}"/>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{8DB2D9B0-82A4-4AA0-8093-2DB0A2D6849B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8357,10 +8399,10 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="K2" s="83" t="s">
+      <c r="K2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="84"/>
+      <c r="L2" s="85"/>
       <c r="M2" s="3"/>
       <c r="N2" s="4" t="s">
         <v>10</v>
@@ -8379,10 +8421,10 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="84"/>
+      <c r="L3" s="85"/>
       <c r="M3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -8398,10 +8440,10 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="K4" s="107" t="s">
+      <c r="K4" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="108"/>
+      <c r="L4" s="109"/>
       <c r="M4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -8417,10 +8459,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="K5" s="112" t="s">
+      <c r="K5" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="113"/>
+      <c r="L5" s="114"/>
       <c r="M5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -8438,16 +8480,16 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:17" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:17" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -8828,10 +8870,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="84"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -8847,10 +8889,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="84"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -8863,10 +8905,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="107" t="s">
+      <c r="H4" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="108"/>
+      <c r="I4" s="109"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -8879,10 +8921,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="112" t="s">
+      <c r="H5" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="113"/>
+      <c r="I5" s="114"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -8897,13 +8939,13 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -9147,13 +9189,13 @@
       <c r="E29" s="16"/>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A41" s="86" t="s">
+      <c r="A41" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
     </row>
     <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -9433,10 +9475,10 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="J2" s="83" t="s">
+      <c r="J2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="84"/>
+      <c r="K2" s="85"/>
       <c r="L2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -9451,10 +9493,10 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -9469,10 +9511,10 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="J4" s="107" t="s">
+      <c r="J4" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="108"/>
+      <c r="K4" s="109"/>
       <c r="L4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -9487,10 +9529,10 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="J5" s="112" t="s">
+      <c r="J5" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="113"/>
+      <c r="K5" s="114"/>
       <c r="L5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -9507,15 +9549,15 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -9862,10 +9904,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="84"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -9878,10 +9920,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="84"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -9894,10 +9936,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="112" t="s">
+      <c r="H4" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="113"/>
+      <c r="I4" s="114"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -9910,10 +9952,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="107" t="s">
+      <c r="H5" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="108"/>
+      <c r="I5" s="109"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -9937,13 +9979,13 @@
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -10280,10 +10322,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="114" t="s">
+      <c r="K2" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="115"/>
+      <c r="L2" s="116"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -10373,10 +10415,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="92"/>
+      <c r="I2" s="93"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10389,10 +10431,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="114" t="s">
+      <c r="H3" s="115" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="115"/>
+      <c r="I3" s="116"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10407,13 +10449,13 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -10771,10 +10813,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="92"/>
+      <c r="I2" s="93"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10786,10 +10828,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="114" t="s">
+      <c r="H3" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="115"/>
+      <c r="I3" s="116"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10803,20 +10845,20 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
     </row>
     <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="119" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
       <c r="E6" s="72"/>
       <c r="F6" s="72"/>
       <c r="G6" s="72"/>
@@ -10862,11 +10904,11 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="117" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="71"/>
@@ -11015,11 +11057,11 @@
       <c r="J20" s="72"/>
     </row>
     <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="117" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
       <c r="E21" s="72"/>
       <c r="F21" s="72"/>
       <c r="G21" s="72"/>
@@ -11061,20 +11103,20 @@
       <c r="J24" s="68"/>
     </row>
     <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="118" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
     </row>
     <row r="26" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="118" t="s">
+      <c r="A26" s="119" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
     </row>
     <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="B27"/>
@@ -11098,11 +11140,11 @@
       <c r="D29"/>
     </row>
     <row r="30" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="116" t="s">
+      <c r="B30" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
       <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
@@ -11196,11 +11238,11 @@
       <c r="D40" s="72"/>
     </row>
     <row r="41" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="116" t="s">
+      <c r="B41" s="117" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11263,10 +11305,10 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="92"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
         <v>10</v>
@@ -11281,10 +11323,10 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="115"/>
+      <c r="H3" s="116"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -11298,12 +11340,12 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -11597,17 +11639,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CF95F5-D50B-45C5-B798-426572AEAFA8}">
   <sheetPr>
-    <tabColor theme="7" tint="-0.499984740745262"/>
+    <tabColor theme="2" tint="-0.749992370372631"/>
   </sheetPr>
   <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
@@ -11616,15 +11656,19 @@
     <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="150" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
     </row>
     <row r="4" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -11670,13 +11714,13 @@
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
       <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12051,8 +12095,8 @@
       <c r="A122" s="20"/>
     </row>
     <row r="125" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A125" s="86"/>
-      <c r="B125" s="86"/>
+      <c r="A125" s="87"/>
+      <c r="B125" s="87"/>
     </row>
     <row r="126" spans="1:2" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
@@ -12148,6 +12192,9 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A8:E8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{0B23C7AC-7FA2-4F27-8443-D8573954918D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12162,104 +12209,106 @@
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="124" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="124" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="124" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="126" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="126" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="126" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="126" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="126" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="126" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="127" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="127" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="127" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="45" customWidth="1"/>
     <col min="13" max="13" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="153" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="154"/>
+      <c r="C1" s="128" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="131" t="s">
         <v>269</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="133" t="s">
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134" t="s">
         <v>270</v>
       </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="136" t="s">
+      <c r="G2" s="135"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="137" t="s">
         <v>271</v>
       </c>
-      <c r="J2" s="137"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="139" t="s">
+      <c r="J2" s="138"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="140" t="s">
+      <c r="M2" s="141" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="141"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="143" t="s">
+      <c r="A3" s="142"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="144" t="s">
         <v>272</v>
       </c>
-      <c r="D3" s="143" t="s">
+      <c r="D3" s="144" t="s">
         <v>273</v>
       </c>
-      <c r="E3" s="144" t="s">
+      <c r="E3" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="146" t="s">
         <v>272</v>
       </c>
-      <c r="G3" s="145" t="s">
+      <c r="G3" s="146" t="s">
         <v>273</v>
       </c>
-      <c r="H3" s="146" t="s">
+      <c r="H3" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="147" t="s">
+      <c r="I3" s="148" t="s">
         <v>272</v>
       </c>
-      <c r="J3" s="147" t="s">
+      <c r="J3" s="148" t="s">
         <v>273</v>
       </c>
-      <c r="K3" s="147" t="s">
+      <c r="K3" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="148"/>
-      <c r="M3" s="140" t="s">
+      <c r="L3" s="149"/>
+      <c r="M3" s="141" t="s">
         <v>276</v>
       </c>
     </row>
@@ -12267,56 +12316,56 @@
       <c r="A4" s="39">
         <v>1</v>
       </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120">
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="121">
         <v>0</v>
       </c>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120">
+      <c r="G4" s="121"/>
+      <c r="H4" s="121">
         <f>F4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="121">
+      <c r="I4" s="122">
         <v>0</v>
       </c>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121">
+      <c r="J4" s="122"/>
+      <c r="K4" s="122">
         <f>I4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
     </row>
     <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>2</v>
       </c>
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120">
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121">
         <f>(H4+F5)-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121">
+      <c r="I5" s="122"/>
+      <c r="J5" s="122">
         <v>3000000</v>
       </c>
-      <c r="K5" s="121">
+      <c r="K5" s="122">
         <f>(K4+I5)-J5</f>
         <v>-3000000</v>
       </c>
-      <c r="L5" s="123" t="s">
+      <c r="L5" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="M5" s="122" t="s">
+      <c r="M5" s="123" t="s">
         <v>224</v>
       </c>
     </row>
@@ -12324,30 +12373,30 @@
       <c r="A6" s="39">
         <v>3</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="123" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120">
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121">
         <f t="shared" ref="H6:H25" si="0">(H5+F6)-G6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121">
+      <c r="I6" s="122"/>
+      <c r="J6" s="122">
         <v>15500000</v>
       </c>
-      <c r="K6" s="121">
+      <c r="K6" s="122">
         <f t="shared" ref="K6:K23" si="1">(K5+I6)-J6</f>
         <v>-18500000</v>
       </c>
-      <c r="L6" s="122" t="s">
+      <c r="L6" s="123" t="s">
         <v>222</v>
       </c>
-      <c r="M6" s="122" t="s">
+      <c r="M6" s="123" t="s">
         <v>224</v>
       </c>
     </row>
@@ -12355,30 +12404,30 @@
       <c r="A7" s="39">
         <v>4</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120">
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="121">
+      <c r="I7" s="122">
         <v>15500000</v>
       </c>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121">
+      <c r="J7" s="122"/>
+      <c r="K7" s="122">
         <f t="shared" si="1"/>
         <v>-3000000</v>
       </c>
-      <c r="L7" s="122" t="s">
+      <c r="L7" s="123" t="s">
         <v>226</v>
       </c>
-      <c r="M7" s="122" t="s">
+      <c r="M7" s="123" t="s">
         <v>96</v>
       </c>
     </row>
@@ -12386,30 +12435,30 @@
       <c r="A8" s="39">
         <v>5</v>
       </c>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120">
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="121">
+      <c r="I8" s="122">
         <v>10000000</v>
       </c>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121">
+      <c r="J8" s="122"/>
+      <c r="K8" s="122">
         <f t="shared" si="1"/>
         <v>7000000</v>
       </c>
-      <c r="L8" s="122" t="s">
+      <c r="L8" s="123" t="s">
         <v>220</v>
       </c>
-      <c r="M8" s="122" t="s">
+      <c r="M8" s="123" t="s">
         <v>96</v>
       </c>
     </row>
@@ -12417,30 +12466,30 @@
       <c r="A9" s="39">
         <v>6</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120">
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121">
+      <c r="I9" s="122"/>
+      <c r="J9" s="122">
         <v>1899000</v>
       </c>
-      <c r="K9" s="121">
+      <c r="K9" s="122">
         <f t="shared" si="1"/>
         <v>5101000</v>
       </c>
-      <c r="L9" s="122" t="s">
+      <c r="L9" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="122" t="s">
+      <c r="M9" s="123" t="s">
         <v>274</v>
       </c>
     </row>
@@ -12448,88 +12497,88 @@
       <c r="A10" s="39">
         <v>7</v>
       </c>
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="123" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120">
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121">
+      <c r="I10" s="122"/>
+      <c r="J10" s="122">
         <v>352000</v>
       </c>
-      <c r="K10" s="121">
+      <c r="K10" s="122">
         <f t="shared" si="1"/>
         <v>4749000</v>
       </c>
-      <c r="L10" s="122" t="s">
+      <c r="L10" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="M10" s="122"/>
+      <c r="M10" s="123"/>
     </row>
     <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>8</v>
       </c>
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="123" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120">
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121">
+      <c r="I11" s="122"/>
+      <c r="J11" s="122">
         <v>3352000</v>
       </c>
-      <c r="K11" s="121">
+      <c r="K11" s="122">
         <f t="shared" si="1"/>
         <v>1397000</v>
       </c>
-      <c r="L11" s="122" t="s">
+      <c r="L11" s="123" t="s">
         <v>124</v>
       </c>
-      <c r="M11" s="122"/>
+      <c r="M11" s="123"/>
     </row>
     <row r="12" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>9</v>
       </c>
-      <c r="B12" s="122" t="s">
+      <c r="B12" s="123" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="120">
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="121">
         <v>5000000</v>
       </c>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120">
+      <c r="G12" s="121"/>
+      <c r="H12" s="121">
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121">
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122">
         <f t="shared" si="1"/>
         <v>1397000</v>
       </c>
-      <c r="L12" s="122" t="s">
+      <c r="L12" s="123" t="s">
         <v>220</v>
       </c>
-      <c r="M12" s="122" t="s">
+      <c r="M12" s="123" t="s">
         <v>225</v>
       </c>
     </row>
@@ -12537,117 +12586,117 @@
       <c r="A13" s="39">
         <v>10</v>
       </c>
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="123" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120">
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121">
         <v>1974000</v>
       </c>
-      <c r="H13" s="120">
+      <c r="H13" s="121">
         <f t="shared" si="0"/>
         <v>3026000</v>
       </c>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121">
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122">
         <f t="shared" si="1"/>
         <v>1397000</v>
       </c>
-      <c r="L13" s="122" t="s">
+      <c r="L13" s="123" t="s">
         <v>137</v>
       </c>
-      <c r="M13" s="122"/>
+      <c r="M13" s="123"/>
     </row>
     <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>11</v>
       </c>
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120">
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121">
         <v>106000</v>
       </c>
-      <c r="H14" s="120">
+      <c r="H14" s="121">
         <f t="shared" si="0"/>
         <v>2920000</v>
       </c>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121">
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122">
         <f t="shared" si="1"/>
         <v>1397000</v>
       </c>
-      <c r="L14" s="122" t="s">
+      <c r="L14" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="M14" s="122"/>
+      <c r="M14" s="123"/>
     </row>
     <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>12</v>
       </c>
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120">
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121">
         <v>2800000</v>
       </c>
-      <c r="H15" s="120">
+      <c r="H15" s="121">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121">
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122">
         <f t="shared" si="1"/>
         <v>1397000</v>
       </c>
-      <c r="L15" s="122" t="s">
+      <c r="L15" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="M15" s="122"/>
+      <c r="M15" s="123"/>
     </row>
     <row r="16" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>13</v>
       </c>
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120">
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121">
+      <c r="I16" s="122"/>
+      <c r="J16" s="122">
         <v>6100000</v>
       </c>
-      <c r="K16" s="121">
+      <c r="K16" s="122">
         <f t="shared" si="1"/>
         <v>-4703000</v>
       </c>
-      <c r="L16" s="122" t="s">
+      <c r="L16" s="123" t="s">
         <v>227</v>
       </c>
-      <c r="M16" s="122" t="s">
+      <c r="M16" s="123" t="s">
         <v>224</v>
       </c>
     </row>
@@ -12655,59 +12704,59 @@
       <c r="A17" s="39">
         <v>14</v>
       </c>
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120">
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121">
         <f>(H16+F17)-G17</f>
         <v>120000</v>
       </c>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121">
+      <c r="I17" s="122"/>
+      <c r="J17" s="122">
         <v>1000000</v>
       </c>
-      <c r="K17" s="121">
+      <c r="K17" s="122">
         <f t="shared" si="1"/>
         <v>-5703000</v>
       </c>
-      <c r="L17" s="122" t="s">
+      <c r="L17" s="123" t="s">
         <v>211</v>
       </c>
-      <c r="M17" s="122"/>
+      <c r="M17" s="123"/>
     </row>
     <row r="18" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>15</v>
       </c>
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="123" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120">
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121">
+      <c r="I18" s="122"/>
+      <c r="J18" s="122">
         <v>15000000</v>
       </c>
-      <c r="K18" s="121">
+      <c r="K18" s="122">
         <f t="shared" si="1"/>
         <v>-20703000</v>
       </c>
-      <c r="L18" s="122" t="s">
+      <c r="L18" s="123" t="s">
         <v>228</v>
       </c>
-      <c r="M18" s="122" t="s">
+      <c r="M18" s="123" t="s">
         <v>229</v>
       </c>
     </row>
@@ -12715,30 +12764,30 @@
       <c r="A19" s="39">
         <v>16</v>
       </c>
-      <c r="B19" s="122" t="s">
+      <c r="B19" s="123" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120">
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I19" s="121">
+      <c r="I19" s="122">
         <v>21100000</v>
       </c>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121">
+      <c r="J19" s="122"/>
+      <c r="K19" s="122">
         <f t="shared" si="1"/>
         <v>397000</v>
       </c>
-      <c r="L19" s="122" t="s">
+      <c r="L19" s="123" t="s">
         <v>275</v>
       </c>
-      <c r="M19" s="122" t="s">
+      <c r="M19" s="123" t="s">
         <v>96</v>
       </c>
     </row>
@@ -12746,520 +12795,524 @@
       <c r="A20" s="39">
         <v>17</v>
       </c>
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="123" t="s">
         <v>250</v>
       </c>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120">
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121">
+      <c r="I20" s="122"/>
+      <c r="J20" s="122">
         <v>2960000</v>
       </c>
-      <c r="K20" s="121">
+      <c r="K20" s="122">
         <f t="shared" si="1"/>
         <v>-2563000</v>
       </c>
-      <c r="L20" s="122" t="s">
+      <c r="L20" s="123" t="s">
         <v>264</v>
       </c>
-      <c r="M20" s="122"/>
+      <c r="M20" s="123"/>
     </row>
     <row r="21" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>18</v>
       </c>
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="123" t="s">
         <v>250</v>
       </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120">
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121">
+      <c r="I21" s="122"/>
+      <c r="J21" s="122">
         <v>334000</v>
       </c>
-      <c r="K21" s="121">
+      <c r="K21" s="122">
         <f t="shared" si="1"/>
         <v>-2897000</v>
       </c>
-      <c r="L21" s="122" t="s">
+      <c r="L21" s="123" t="s">
         <v>265</v>
       </c>
-      <c r="M21" s="122"/>
+      <c r="M21" s="123"/>
     </row>
     <row r="22" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>19</v>
       </c>
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="123" t="s">
         <v>250</v>
       </c>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120">
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121">
+      <c r="I22" s="122"/>
+      <c r="J22" s="122">
         <v>334000</v>
       </c>
-      <c r="K22" s="121">
+      <c r="K22" s="122">
         <f t="shared" si="1"/>
         <v>-3231000</v>
       </c>
-      <c r="L22" s="122" t="s">
+      <c r="L22" s="123" t="s">
         <v>265</v>
       </c>
-      <c r="M22" s="122"/>
+      <c r="M22" s="123"/>
     </row>
     <row r="23" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>20</v>
       </c>
-      <c r="B23" s="122" t="s">
+      <c r="B23" s="123" t="s">
         <v>250</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120">
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I23" s="121"/>
-      <c r="J23" s="121">
+      <c r="I23" s="122"/>
+      <c r="J23" s="122">
         <v>334000</v>
       </c>
-      <c r="K23" s="121">
+      <c r="K23" s="122">
         <f t="shared" si="1"/>
         <v>-3565000</v>
       </c>
-      <c r="L23" s="122" t="s">
+      <c r="L23" s="123" t="s">
         <v>265</v>
       </c>
-      <c r="M23" s="122"/>
+      <c r="M23" s="123"/>
     </row>
     <row r="24" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>22</v>
       </c>
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="123" t="s">
         <v>250</v>
       </c>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120">
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121">
         <v>90000</v>
       </c>
-      <c r="H24" s="120">
+      <c r="H24" s="121">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="I24" s="121"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="122" t="s">
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="M24" s="122"/>
+      <c r="M24" s="123"/>
     </row>
     <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>23</v>
       </c>
-      <c r="B25" s="122" t="s">
+      <c r="B25" s="123" t="s">
         <v>250</v>
       </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120">
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121">
         <v>1060000</v>
       </c>
-      <c r="H25" s="120">
+      <c r="H25" s="121">
         <f t="shared" si="0"/>
         <v>-1030000</v>
       </c>
-      <c r="I25" s="121"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="121"/>
-      <c r="L25" s="122" t="s">
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="123" t="s">
         <v>268</v>
       </c>
-      <c r="M25" s="122"/>
+      <c r="M25" s="123"/>
     </row>
     <row r="26" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>24</v>
       </c>
-      <c r="B26" s="122"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="122"/>
-      <c r="M26" s="122"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="123"/>
     </row>
     <row r="27" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>25</v>
       </c>
-      <c r="B27" s="122"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="122"/>
-      <c r="M27" s="122"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="123"/>
     </row>
     <row r="28" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>26</v>
       </c>
-      <c r="B28" s="122"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="122"/>
-      <c r="M28" s="122"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="123"/>
     </row>
     <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>27</v>
       </c>
-      <c r="B29" s="122"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="122"/>
-      <c r="M29" s="122"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123"/>
     </row>
     <row r="30" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <v>28</v>
       </c>
-      <c r="B30" s="122"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="122"/>
-      <c r="M30" s="122"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="123"/>
     </row>
     <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>29</v>
       </c>
-      <c r="B31" s="122"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="122"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="123"/>
     </row>
     <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>30</v>
       </c>
-      <c r="B32" s="122"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="121"/>
-      <c r="K32" s="121"/>
-      <c r="L32" s="122"/>
-      <c r="M32" s="122"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="121"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
     </row>
     <row r="33" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <v>31</v>
       </c>
-      <c r="B33" s="122"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="121"/>
-      <c r="K33" s="121"/>
-      <c r="L33" s="122"/>
-      <c r="M33" s="122"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
     </row>
     <row r="34" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>32</v>
       </c>
-      <c r="B34" s="122"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="121"/>
-      <c r="K34" s="121"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
     </row>
     <row r="35" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>33</v>
       </c>
-      <c r="B35" s="122"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="121"/>
-      <c r="K35" s="121"/>
-      <c r="L35" s="122"/>
-      <c r="M35" s="122"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="122"/>
+      <c r="K35" s="122"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="123"/>
     </row>
     <row r="36" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>34</v>
       </c>
-      <c r="B36" s="122"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="121"/>
-      <c r="K36" s="121"/>
-      <c r="L36" s="122"/>
-      <c r="M36" s="122"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="122"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="123"/>
     </row>
     <row r="37" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <v>35</v>
       </c>
-      <c r="B37" s="122"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="121"/>
-      <c r="K37" s="121"/>
-      <c r="L37" s="122"/>
-      <c r="M37" s="122"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="122"/>
+      <c r="K37" s="122"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="123"/>
     </row>
     <row r="38" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>36</v>
       </c>
-      <c r="B38" s="122"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="121"/>
-      <c r="K38" s="121"/>
-      <c r="L38" s="122"/>
-      <c r="M38" s="122"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="122"/>
+      <c r="J38" s="122"/>
+      <c r="K38" s="122"/>
+      <c r="L38" s="123"/>
+      <c r="M38" s="123"/>
     </row>
     <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <v>37</v>
       </c>
-      <c r="B39" s="122"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="121"/>
-      <c r="K39" s="121"/>
-      <c r="L39" s="122"/>
-      <c r="M39" s="122"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="122"/>
+      <c r="K39" s="122"/>
+      <c r="L39" s="123"/>
+      <c r="M39" s="123"/>
     </row>
     <row r="40" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <v>38</v>
       </c>
-      <c r="B40" s="122"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="121"/>
-      <c r="K40" s="121"/>
-      <c r="L40" s="122"/>
-      <c r="M40" s="122"/>
+      <c r="B40" s="123"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="122"/>
+      <c r="K40" s="122"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="123"/>
     </row>
     <row r="41" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <v>39</v>
       </c>
-      <c r="B41" s="122"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="121"/>
-      <c r="K41" s="121"/>
-      <c r="L41" s="122"/>
-      <c r="M41" s="122"/>
+      <c r="B41" s="123"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="121"/>
+      <c r="I41" s="122"/>
+      <c r="J41" s="122"/>
+      <c r="K41" s="122"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="123"/>
     </row>
     <row r="42" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <v>40</v>
       </c>
-      <c r="B42" s="122"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="121"/>
-      <c r="J42" s="121"/>
-      <c r="K42" s="121"/>
-      <c r="L42" s="122"/>
-      <c r="M42" s="122"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="121"/>
+      <c r="H42" s="121"/>
+      <c r="I42" s="122"/>
+      <c r="J42" s="122"/>
+      <c r="K42" s="122"/>
+      <c r="L42" s="123"/>
+      <c r="M42" s="123"/>
     </row>
     <row r="43" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <v>41</v>
       </c>
-      <c r="B43" s="122"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="121"/>
-      <c r="K43" s="121"/>
-      <c r="L43" s="122"/>
-      <c r="M43" s="122"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="123"/>
     </row>
     <row r="44" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <v>42</v>
       </c>
-      <c r="B44" s="122"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="119"/>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="121"/>
-      <c r="K44" s="121"/>
-      <c r="L44" s="122"/>
-      <c r="M44" s="122"/>
+      <c r="B44" s="123"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="122"/>
+      <c r="J44" s="122"/>
+      <c r="K44" s="122"/>
+      <c r="L44" s="123"/>
+      <c r="M44" s="123"/>
     </row>
     <row r="45" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <v>43</v>
       </c>
-      <c r="B45" s="122"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="120"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="121"/>
-      <c r="J45" s="121"/>
-      <c r="K45" s="121"/>
-      <c r="L45" s="122"/>
-      <c r="M45" s="122"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="121"/>
+      <c r="H45" s="121"/>
+      <c r="I45" s="122"/>
+      <c r="J45" s="122"/>
+      <c r="K45" s="122"/>
+      <c r="L45" s="123"/>
+      <c r="M45" s="123"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="8">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{C9A86160-01A7-4FFF-AE85-83614874BA51}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13271,10 +13324,10 @@
     <tabColor theme="7" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:M245"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -13288,55 +13341,52 @@
     <col min="7" max="7" width="13.7109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="13" style="6" customWidth="1"/>
     <col min="9" max="9" width="25.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="6"/>
-    <col min="11" max="11" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
+    <col min="10" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="155" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="156"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="88"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="89" t="s">
+      <c r="H3" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="90"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -13346,11 +13396,11 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -13358,17 +13408,17 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="86" t="s">
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
@@ -13386,7 +13436,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:14" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -13398,7 +13448,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:14" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2</v>
       </c>
@@ -13408,7 +13458,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:14" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>3</v>
       </c>
@@ -13418,7 +13468,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>4</v>
       </c>
@@ -13427,7 +13477,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>5</v>
       </c>
@@ -13436,7 +13486,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>6</v>
       </c>
@@ -13445,7 +13495,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>7</v>
       </c>
@@ -13454,7 +13504,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>8</v>
       </c>
@@ -13463,7 +13513,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>9</v>
       </c>
@@ -13472,7 +13522,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>10</v>
       </c>
@@ -13481,7 +13531,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>11</v>
       </c>
@@ -13490,7 +13540,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>12</v>
       </c>
@@ -13499,7 +13549,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>13</v>
       </c>
@@ -13508,7 +13558,7 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>14</v>
       </c>
@@ -13517,7 +13567,7 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>15</v>
       </c>
@@ -13526,7 +13576,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>16</v>
       </c>
@@ -13535,7 +13585,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>17</v>
       </c>
@@ -13544,7 +13594,7 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>18</v>
       </c>
@@ -13553,7 +13603,7 @@
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:14" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>19</v>
       </c>
@@ -13568,9 +13618,8 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="1:14" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>20</v>
       </c>
@@ -13585,9 +13634,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="1:14" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>21</v>
       </c>
@@ -13602,9 +13650,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="1:14" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:13" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>22</v>
       </c>
@@ -13619,9 +13666,8 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="1:14" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="19" t="s">
@@ -13636,16 +13682,15 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A33" s="86" t="s">
+      <c r="A33" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -13869,14 +13914,14 @@
       <c r="F54" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A57" s="85" t="s">
+      <c r="A57" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="86"/>
     </row>
     <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -14098,12 +14143,12 @@
       <c r="F78" s="20"/>
     </row>
     <row r="82" spans="1:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="A82" s="85" t="s">
+      <c r="A82" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="85"/>
-      <c r="C82" s="85"/>
-      <c r="D82" s="85"/>
+      <c r="B82" s="86"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="86"/>
     </row>
     <row r="83" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
@@ -14280,15 +14325,15 @@
       <c r="D103" s="22"/>
     </row>
     <row r="106" spans="1:7" ht="27" x14ac:dyDescent="0.25">
-      <c r="A106" s="86" t="s">
+      <c r="A106" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="86"/>
-      <c r="C106" s="86"/>
-      <c r="D106" s="86"/>
-      <c r="E106" s="86"/>
-      <c r="F106" s="86"/>
-      <c r="G106" s="86"/>
+      <c r="B106" s="87"/>
+      <c r="C106" s="87"/>
+      <c r="D106" s="87"/>
+      <c r="E106" s="87"/>
+      <c r="F106" s="87"/>
+      <c r="G106" s="87"/>
     </row>
     <row r="107" spans="1:7" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
@@ -14538,16 +14583,16 @@
       <c r="G127" s="20"/>
     </row>
     <row r="130" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A130" s="86" t="s">
+      <c r="A130" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="B130" s="86"/>
-      <c r="C130" s="86"/>
-      <c r="D130" s="86"/>
-      <c r="E130" s="86"/>
-      <c r="F130" s="86"/>
-      <c r="G130" s="86"/>
-      <c r="H130" s="86"/>
+      <c r="B130" s="87"/>
+      <c r="C130" s="87"/>
+      <c r="D130" s="87"/>
+      <c r="E130" s="87"/>
+      <c r="F130" s="87"/>
+      <c r="G130" s="87"/>
+      <c r="H130" s="87"/>
     </row>
     <row r="131" spans="1:8" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
@@ -14816,13 +14861,13 @@
       <c r="H151" s="10"/>
     </row>
     <row r="155" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A155" s="86" t="s">
+      <c r="A155" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="B155" s="86"/>
-      <c r="C155" s="86"/>
-      <c r="D155" s="86"/>
-      <c r="E155" s="86"/>
+      <c r="B155" s="87"/>
+      <c r="C155" s="87"/>
+      <c r="D155" s="87"/>
+      <c r="E155" s="87"/>
       <c r="F155" s="63"/>
     </row>
     <row r="156" spans="1:8" ht="27" x14ac:dyDescent="0.25">
@@ -15046,13 +15091,13 @@
       <c r="F176" s="39"/>
     </row>
     <row r="179" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A179" s="86" t="s">
+      <c r="A179" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="B179" s="86"/>
-      <c r="C179" s="86"/>
-      <c r="D179" s="86"/>
-      <c r="E179" s="86"/>
+      <c r="B179" s="87"/>
+      <c r="C179" s="87"/>
+      <c r="D179" s="87"/>
+      <c r="E179" s="87"/>
       <c r="F179" s="66"/>
     </row>
     <row r="180" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -15272,14 +15317,14 @@
       <c r="F200" s="39"/>
     </row>
     <row r="204" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A204" s="85" t="s">
+      <c r="A204" s="86" t="s">
         <v>219</v>
       </c>
-      <c r="B204" s="85"/>
-      <c r="C204" s="85"/>
-      <c r="D204" s="85"/>
-      <c r="E204" s="85"/>
-      <c r="F204" s="85"/>
+      <c r="B204" s="86"/>
+      <c r="C204" s="86"/>
+      <c r="D204" s="86"/>
+      <c r="E204" s="86"/>
+      <c r="F204" s="86"/>
     </row>
     <row r="205" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A205" s="78" t="s">
@@ -15799,7 +15844,8 @@
       <c r="F245" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="A6:E6"/>
@@ -15813,7 +15859,7 @@
     <mergeCell ref="A130:H130"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{4987F818-AF2F-473D-9BF0-CB7F883A883A}"/>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{9E228265-015F-4ED7-804E-491796425E13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="11" orientation="portrait" r:id="rId1"/>
@@ -15825,10 +15871,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="I1:Q25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15840,28 +15886,28 @@
     <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="52.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="91" t="s">
+    <row r="1" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="155" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="156"/>
+    </row>
+    <row r="2" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="92"/>
+      <c r="K2" s="93"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="10:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J4" s="2" t="s">
         <v>64</v>
       </c>
@@ -15869,7 +15915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J5" s="2" t="s">
         <v>231</v>
       </c>
@@ -15877,13 +15923,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J7" s="2" t="s">
         <v>230</v>
       </c>
@@ -15891,14 +15937,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="10:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="91" t="s">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="92"/>
-    </row>
-    <row r="13" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="93"/>
+    </row>
+    <row r="13" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J13" s="2">
         <v>9038222887</v>
       </c>
@@ -15906,7 +15952,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J14" s="2">
         <v>9038221585</v>
       </c>
@@ -15914,7 +15960,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J15" s="38">
         <v>6917153214223</v>
       </c>
@@ -15922,7 +15968,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="10:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J16" s="38">
         <v>1160454305915</v>
       </c>
@@ -15967,7 +16013,7 @@
       </c>
     </row>
     <row r="24" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="93" t="s">
+      <c r="I24" s="94" t="s">
         <v>76</v>
       </c>
       <c r="J24" s="2">
@@ -15978,7 +16024,7 @@
       </c>
     </row>
     <row r="25" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="94"/>
+      <c r="I25" s="95"/>
       <c r="J25" s="2" t="s">
         <v>74</v>
       </c>
@@ -15987,14 +16033,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{DFF3124D-C577-461E-AA82-ED7F77244908}"/>
     <hyperlink ref="J5" r:id="rId1" xr:uid="{0441308A-2E7A-4005-9934-E15FFE8FA6BA}"/>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{0FF75F95-B9E3-4DA5-A7BA-89449A718557}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
@@ -16026,10 +16073,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="95" t="s">
+      <c r="K2" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="96"/>
+      <c r="L2" s="97"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -16107,10 +16154,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="97" t="s">
+      <c r="K2" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="98"/>
+      <c r="L2" s="99"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -16206,10 +16253,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="100"/>
+      <c r="J2" s="101"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -16226,10 +16273,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="99" t="s">
+      <c r="I3" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="100"/>
+      <c r="J3" s="101"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -16243,10 +16290,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="101" t="s">
+      <c r="I4" s="102" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="102"/>
+      <c r="J4" s="103"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -16277,13 +16324,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7BE88E-2B50-4C36-9F42-6B8B12DF9C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9D6ED1-48F1-489C-8247-60EE828346F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="284">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -908,6 +908,12 @@
   </si>
   <si>
     <t xml:space="preserve"> پرینت موقت</t>
+  </si>
+  <si>
+    <t>1404/02/08</t>
+  </si>
+  <si>
+    <t>خرید تخم مرغ</t>
   </si>
 </sst>
 </file>
@@ -918,7 +924,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1033,6 +1039,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="B Titr"/>
+      <charset val="178"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1480,11 +1499,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1727,22 +1747,112 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="20" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="21" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="14" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1793,7 +1903,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1841,114 +1957,25 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="19" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="20" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="21" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="14" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4315,9 +4342,7 @@
   </sheetPr>
   <dimension ref="D2:L8"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView showGridLines="0" rightToLeft="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4330,16 +4355,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4350,7 +4375,7 @@
       <c r="G4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="151" t="s">
+      <c r="I4" s="97" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4361,7 +4386,7 @@
       <c r="G5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="152" t="s">
+      <c r="I5" s="98" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4449,11 +4474,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="104"/>
-      <c r="I2" s="85"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="138"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -4461,11 +4486,11 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="104"/>
-      <c r="I3" s="85"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="138"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4474,12 +4499,12 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="107"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="141"/>
       <c r="G5" s="5" t="s">
         <v>212</v>
       </c>
@@ -4684,10 +4709,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="85"/>
+      <c r="I2" s="138"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -4703,8 +4728,8 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="85"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="138"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4717,10 +4742,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="142" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="109"/>
+      <c r="I4" s="143"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -4749,12 +4774,12 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="101" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
       <c r="E7" s="73"/>
       <c r="F7" s="9"/>
       <c r="G7" s="6"/>
@@ -5135,10 +5160,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="85"/>
+      <c r="J2" s="138"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -5155,10 +5180,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="85"/>
+      <c r="J3" s="138"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -5172,10 +5197,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="109"/>
+      <c r="J4" s="143"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5206,21 +5231,21 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="144" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -5592,10 +5617,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="85"/>
+      <c r="J2" s="138"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -5612,10 +5637,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="85"/>
+      <c r="J3" s="138"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -5629,10 +5654,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="142" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="109"/>
+      <c r="J4" s="143"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5663,13 +5688,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
       <c r="F7" s="60"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -5995,10 +6020,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="85"/>
+      <c r="J2" s="138"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6015,10 +6040,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="85"/>
+      <c r="J3" s="138"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6032,10 +6057,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="109"/>
+      <c r="J4" s="143"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6066,13 +6091,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
       <c r="F7" s="17"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -6413,8 +6438,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -6433,10 +6458,14 @@
     <col min="13" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="158" t="s">
+        <v>241</v>
+      </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -6450,14 +6479,11 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="85"/>
+      <c r="J2" s="138"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -6470,10 +6496,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="85"/>
+      <c r="J3" s="138"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6487,10 +6513,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="142" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="109"/>
+      <c r="J4" s="143"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6521,13 +6547,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
       <c r="F7" s="49"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -6593,7 +6619,7 @@
         <v>1974000</v>
       </c>
       <c r="F10" s="39">
-        <f>F9-E10</f>
+        <f>(F9+D10)-E10</f>
         <v>3026000</v>
       </c>
       <c r="G10" s="9"/>
@@ -6614,7 +6640,7 @@
         <v>106000</v>
       </c>
       <c r="F11" s="39">
-        <f>F10-E11</f>
+        <f>(F10+D11)-E11</f>
         <v>2920000</v>
       </c>
       <c r="G11" s="9"/>
@@ -6635,7 +6661,7 @@
         <v>2800000</v>
       </c>
       <c r="F12" s="39">
-        <f>F11-E12</f>
+        <f t="shared" ref="F12:F14" si="0">(F11+D12)-E12</f>
         <v>120000</v>
       </c>
     </row>
@@ -6654,7 +6680,7 @@
         <v>90000</v>
       </c>
       <c r="F13" s="39">
-        <f t="shared" ref="F13:F14" si="0">F12-E13</f>
+        <f t="shared" si="0"/>
         <v>30000</v>
       </c>
     </row>
@@ -6681,21 +6707,39 @@
       <c r="A15" s="39">
         <v>7</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="39">
+        <v>5000000</v>
+      </c>
       <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+      <c r="F15" s="39">
+        <f>(F14+D15)-E15</f>
+        <v>3970000</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>8</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="85" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>283</v>
+      </c>
       <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="E16" s="39">
+        <v>1200000</v>
+      </c>
+      <c r="F16" s="39">
+        <f>(F15+D16)-E16</f>
+        <v>2770000</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
@@ -6825,8 +6869,9 @@
     <mergeCell ref="A7:E7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{0E937C88-4427-4DB9-911F-9ECF29C8B6E1}"/>
     <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{0F6CCBB5-3572-4C33-90EB-64EB5F24F7E3}"/>
+    <hyperlink ref="B1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{0E937C88-4427-4DB9-911F-9ECF29C8B6E1}"/>
+    <hyperlink ref="C1" location="'N.04 دفتر روزانه'!A1" display="دفتر روزانه" xr:uid="{996220C2-EF8C-477F-949C-9BA170C46597}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6874,10 +6919,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="85"/>
+      <c r="I2" s="138"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -6893,10 +6938,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="85"/>
+      <c r="I3" s="138"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -6909,10 +6954,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="109"/>
+      <c r="I4" s="143"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -6927,13 +6972,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -7105,10 +7150,10 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="85"/>
+      <c r="G2" s="138"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
         <v>10</v>
@@ -7122,10 +7167,10 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="85"/>
+      <c r="G3" s="138"/>
       <c r="H3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -7136,10 +7181,10 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="109"/>
+      <c r="G4" s="143"/>
       <c r="H4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -7152,11 +7197,11 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:12" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:12" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -7233,10 +7278,10 @@
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="112"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="24">
         <f>SUM(C9:C12)</f>
         <v>0</v>
@@ -7301,10 +7346,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="85"/>
+      <c r="J2" s="138"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -7321,10 +7366,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="85"/>
+      <c r="J3" s="138"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -7338,10 +7383,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="109"/>
+      <c r="J4" s="143"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -7372,13 +7417,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
       <c r="F7" s="27"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -7714,10 +7759,10 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="84" t="s">
+      <c r="L2" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="85"/>
+      <c r="M2" s="138"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4" t="s">
         <v>10</v>
@@ -7737,10 +7782,10 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="L3" s="84" t="s">
+      <c r="L3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="85"/>
+      <c r="M3" s="138"/>
       <c r="N3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -7757,10 +7802,10 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="L4" s="108" t="s">
+      <c r="L4" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="109"/>
+      <c r="M4" s="143"/>
       <c r="N4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -7777,10 +7822,10 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="L5" s="113" t="s">
+      <c r="L5" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="114"/>
+      <c r="M5" s="148"/>
       <c r="N5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -7799,16 +7844,16 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:18" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
       <c r="I7" s="74" t="s">
         <v>207</v>
       </c>
@@ -8211,7 +8256,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="96" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8229,16 +8274,16 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="100" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
@@ -8265,7 +8310,7 @@
       <c r="I4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="150" t="s">
+      <c r="K4" s="96" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -8285,7 +8330,7 @@
       <c r="I5" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="K5" s="151" t="s">
+      <c r="K5" s="97" t="s">
         <v>232</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -8296,7 +8341,7 @@
       <c r="E6" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="K6" s="152" t="s">
+      <c r="K6" s="98" t="s">
         <v>278</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -8399,10 +8444,10 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="K2" s="84" t="s">
+      <c r="K2" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="85"/>
+      <c r="L2" s="138"/>
       <c r="M2" s="3"/>
       <c r="N2" s="4" t="s">
         <v>10</v>
@@ -8421,10 +8466,10 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="K3" s="84" t="s">
+      <c r="K3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="85"/>
+      <c r="L3" s="138"/>
       <c r="M3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -8440,10 +8485,10 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="109"/>
+      <c r="L4" s="143"/>
       <c r="M4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -8459,10 +8504,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="K5" s="113" t="s">
+      <c r="K5" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="114"/>
+      <c r="L5" s="148"/>
       <c r="M5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -8480,16 +8525,16 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:17" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:17" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -8870,10 +8915,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="85"/>
+      <c r="I2" s="138"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -8889,10 +8934,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="85"/>
+      <c r="I3" s="138"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -8905,10 +8950,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="109"/>
+      <c r="I4" s="143"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -8921,10 +8966,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="113" t="s">
+      <c r="H5" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="114"/>
+      <c r="I5" s="148"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -8939,13 +8984,13 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -9189,13 +9234,13 @@
       <c r="E29" s="16"/>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
     </row>
     <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -9475,10 +9520,10 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="85"/>
+      <c r="K2" s="138"/>
       <c r="L2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -9493,10 +9538,10 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="85"/>
+      <c r="K3" s="138"/>
       <c r="L3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -9511,10 +9556,10 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="J4" s="108" t="s">
+      <c r="J4" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="109"/>
+      <c r="K4" s="143"/>
       <c r="L4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -9529,10 +9574,10 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="J5" s="113" t="s">
+      <c r="J5" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="114"/>
+      <c r="K5" s="148"/>
       <c r="L5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -9549,15 +9594,15 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -9904,10 +9949,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="85"/>
+      <c r="I2" s="138"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -9920,10 +9965,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="85"/>
+      <c r="I3" s="138"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -9936,10 +9981,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="113" t="s">
+      <c r="H4" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="114"/>
+      <c r="I4" s="148"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -9952,10 +9997,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="108" t="s">
+      <c r="H5" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="109"/>
+      <c r="I5" s="143"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -9979,13 +10024,13 @@
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -10322,10 +10367,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="115" t="s">
+      <c r="K2" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="116"/>
+      <c r="L2" s="150"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -10415,10 +10460,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="93"/>
+      <c r="I2" s="125"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10431,10 +10476,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="115" t="s">
+      <c r="H3" s="149" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="116"/>
+      <c r="I3" s="150"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10449,13 +10494,13 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="101" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -10813,10 +10858,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="93"/>
+      <c r="I2" s="125"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10828,10 +10873,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="115" t="s">
+      <c r="H3" s="149" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="116"/>
+      <c r="I3" s="150"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10845,20 +10890,20 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="152" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
     </row>
     <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="153" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
       <c r="E6" s="72"/>
       <c r="F6" s="72"/>
       <c r="G6" s="72"/>
@@ -10904,11 +10949,11 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="151" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="71"/>
@@ -11057,11 +11102,11 @@
       <c r="J20" s="72"/>
     </row>
     <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="151" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
       <c r="E21" s="72"/>
       <c r="F21" s="72"/>
       <c r="G21" s="72"/>
@@ -11103,20 +11148,20 @@
       <c r="J24" s="68"/>
     </row>
     <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="152" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
     </row>
     <row r="26" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="119" t="s">
+      <c r="A26" s="153" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
     </row>
     <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="B27"/>
@@ -11140,11 +11185,11 @@
       <c r="D29"/>
     </row>
     <row r="30" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="117" t="s">
+      <c r="B30" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
       <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
@@ -11238,11 +11283,11 @@
       <c r="D40" s="72"/>
     </row>
     <row r="41" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="117" t="s">
+      <c r="B41" s="151" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11305,10 +11350,10 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="93"/>
+      <c r="H2" s="125"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
         <v>10</v>
@@ -11323,10 +11368,10 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="149" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="116"/>
+      <c r="H3" s="150"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -11340,12 +11385,12 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -11657,18 +11702,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="96" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
     </row>
     <row r="4" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -11714,13 +11759,13 @@
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
       <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12095,8 +12140,8 @@
       <c r="A122" s="20"/>
     </row>
     <row r="125" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A125" s="87"/>
-      <c r="B125" s="87"/>
+      <c r="A125" s="101"/>
+      <c r="B125" s="101"/>
     </row>
     <row r="126" spans="1:2" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
@@ -12208,107 +12253,107 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="126" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="126" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="126" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="127" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="127" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="127" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="87" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="87" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="87" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="88" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="89" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="89" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="89" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="45" customWidth="1"/>
     <col min="13" max="13" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="128" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="103" t="s">
         <v>269</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134" t="s">
+      <c r="D2" s="104"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="154" t="s">
         <v>270</v>
       </c>
-      <c r="G2" s="135"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="137" t="s">
+      <c r="G2" s="155"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="106" t="s">
         <v>271</v>
       </c>
-      <c r="J2" s="138"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="140" t="s">
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="141" t="s">
+      <c r="M2" s="90" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="142"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="144" t="s">
+      <c r="A3" s="112"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="D3" s="144" t="s">
+      <c r="D3" s="91" t="s">
         <v>273</v>
       </c>
-      <c r="E3" s="145" t="s">
+      <c r="E3" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="93" t="s">
         <v>272</v>
       </c>
-      <c r="G3" s="146" t="s">
+      <c r="G3" s="93" t="s">
         <v>273</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="148" t="s">
+      <c r="I3" s="95" t="s">
         <v>272</v>
       </c>
-      <c r="J3" s="148" t="s">
+      <c r="J3" s="95" t="s">
         <v>273</v>
       </c>
-      <c r="K3" s="148" t="s">
+      <c r="K3" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="149"/>
-      <c r="M3" s="141" t="s">
+      <c r="L3" s="114"/>
+      <c r="M3" s="90" t="s">
         <v>276</v>
       </c>
     </row>
@@ -12316,56 +12361,56 @@
       <c r="A4" s="39">
         <v>1</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="121">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83">
         <v>0</v>
       </c>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121">
+      <c r="G4" s="83"/>
+      <c r="H4" s="83">
         <f>F4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="122">
+      <c r="I4" s="84">
         <v>0</v>
       </c>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122">
+      <c r="J4" s="84"/>
+      <c r="K4" s="84">
         <f>I4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
     </row>
     <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>2</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121">
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83">
         <f>(H4+F5)-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122">
+      <c r="I5" s="84"/>
+      <c r="J5" s="84">
         <v>3000000</v>
       </c>
-      <c r="K5" s="122">
+      <c r="K5" s="84">
         <f>(K4+I5)-J5</f>
         <v>-3000000</v>
       </c>
-      <c r="L5" s="124" t="s">
+      <c r="L5" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="M5" s="123" t="s">
+      <c r="M5" s="85" t="s">
         <v>224</v>
       </c>
     </row>
@@ -12373,30 +12418,30 @@
       <c r="A6" s="39">
         <v>3</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121">
-        <f t="shared" ref="H6:H25" si="0">(H5+F6)-G6</f>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83">
+        <f t="shared" ref="H6:H27" si="0">(H5+F6)-G6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122">
+      <c r="I6" s="84"/>
+      <c r="J6" s="84">
         <v>15500000</v>
       </c>
-      <c r="K6" s="122">
+      <c r="K6" s="84">
         <f t="shared" ref="K6:K23" si="1">(K5+I6)-J6</f>
         <v>-18500000</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="M6" s="123" t="s">
+      <c r="M6" s="85" t="s">
         <v>224</v>
       </c>
     </row>
@@ -12404,30 +12449,30 @@
       <c r="A7" s="39">
         <v>4</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121">
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="122">
+      <c r="I7" s="84">
         <v>15500000</v>
       </c>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122">
+      <c r="J7" s="84"/>
+      <c r="K7" s="84">
         <f t="shared" si="1"/>
         <v>-3000000</v>
       </c>
-      <c r="L7" s="123" t="s">
+      <c r="L7" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="M7" s="123" t="s">
+      <c r="M7" s="85" t="s">
         <v>96</v>
       </c>
     </row>
@@ -12435,30 +12480,30 @@
       <c r="A8" s="39">
         <v>5</v>
       </c>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121">
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="122">
+      <c r="I8" s="84">
         <v>10000000</v>
       </c>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122">
+      <c r="J8" s="84"/>
+      <c r="K8" s="84">
         <f t="shared" si="1"/>
         <v>7000000</v>
       </c>
-      <c r="L8" s="123" t="s">
+      <c r="L8" s="85" t="s">
         <v>220</v>
       </c>
-      <c r="M8" s="123" t="s">
+      <c r="M8" s="85" t="s">
         <v>96</v>
       </c>
     </row>
@@ -12466,30 +12511,30 @@
       <c r="A9" s="39">
         <v>6</v>
       </c>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121">
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122">
+      <c r="I9" s="84"/>
+      <c r="J9" s="84">
         <v>1899000</v>
       </c>
-      <c r="K9" s="122">
+      <c r="K9" s="84">
         <f t="shared" si="1"/>
         <v>5101000</v>
       </c>
-      <c r="L9" s="123" t="s">
+      <c r="L9" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="123" t="s">
+      <c r="M9" s="85" t="s">
         <v>274</v>
       </c>
     </row>
@@ -12497,88 +12542,88 @@
       <c r="A10" s="39">
         <v>7</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121">
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122">
+      <c r="I10" s="84"/>
+      <c r="J10" s="84">
         <v>352000</v>
       </c>
-      <c r="K10" s="122">
+      <c r="K10" s="84">
         <f t="shared" si="1"/>
         <v>4749000</v>
       </c>
-      <c r="L10" s="123" t="s">
+      <c r="L10" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="M10" s="123"/>
+      <c r="M10" s="85"/>
     </row>
     <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>8</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121">
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122">
+      <c r="I11" s="84"/>
+      <c r="J11" s="84">
         <v>3352000</v>
       </c>
-      <c r="K11" s="122">
+      <c r="K11" s="84">
         <f t="shared" si="1"/>
         <v>1397000</v>
       </c>
-      <c r="L11" s="123" t="s">
+      <c r="L11" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="M11" s="123"/>
+      <c r="M11" s="85"/>
     </row>
     <row r="12" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>9</v>
       </c>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="121">
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="83">
         <v>5000000</v>
       </c>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121">
+      <c r="G12" s="83"/>
+      <c r="H12" s="83">
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122">
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84">
         <f t="shared" si="1"/>
         <v>1397000</v>
       </c>
-      <c r="L12" s="123" t="s">
+      <c r="L12" s="85" t="s">
         <v>220</v>
       </c>
-      <c r="M12" s="123" t="s">
+      <c r="M12" s="85" t="s">
         <v>225</v>
       </c>
     </row>
@@ -12586,117 +12631,117 @@
       <c r="A13" s="39">
         <v>10</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121">
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83">
         <v>1974000</v>
       </c>
-      <c r="H13" s="121">
+      <c r="H13" s="83">
         <f t="shared" si="0"/>
         <v>3026000</v>
       </c>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122">
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84">
         <f t="shared" si="1"/>
         <v>1397000</v>
       </c>
-      <c r="L13" s="123" t="s">
+      <c r="L13" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="M13" s="123"/>
+      <c r="M13" s="85"/>
     </row>
     <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>11</v>
       </c>
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121">
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83">
         <v>106000</v>
       </c>
-      <c r="H14" s="121">
+      <c r="H14" s="83">
         <f t="shared" si="0"/>
         <v>2920000</v>
       </c>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122">
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84">
         <f t="shared" si="1"/>
         <v>1397000</v>
       </c>
-      <c r="L14" s="123" t="s">
+      <c r="L14" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="M14" s="123"/>
+      <c r="M14" s="85"/>
     </row>
     <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>12</v>
       </c>
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121">
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83">
         <v>2800000</v>
       </c>
-      <c r="H15" s="121">
+      <c r="H15" s="83">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122">
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84">
         <f t="shared" si="1"/>
         <v>1397000</v>
       </c>
-      <c r="L15" s="123" t="s">
+      <c r="L15" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="M15" s="123"/>
+      <c r="M15" s="85"/>
     </row>
     <row r="16" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>13</v>
       </c>
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121">
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122">
+      <c r="I16" s="84"/>
+      <c r="J16" s="84">
         <v>6100000</v>
       </c>
-      <c r="K16" s="122">
+      <c r="K16" s="84">
         <f t="shared" si="1"/>
         <v>-4703000</v>
       </c>
-      <c r="L16" s="123" t="s">
+      <c r="L16" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="M16" s="123" t="s">
+      <c r="M16" s="85" t="s">
         <v>224</v>
       </c>
     </row>
@@ -12704,59 +12749,59 @@
       <c r="A17" s="39">
         <v>14</v>
       </c>
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121">
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83">
         <f>(H16+F17)-G17</f>
         <v>120000</v>
       </c>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122">
+      <c r="I17" s="84"/>
+      <c r="J17" s="84">
         <v>1000000</v>
       </c>
-      <c r="K17" s="122">
+      <c r="K17" s="84">
         <f t="shared" si="1"/>
         <v>-5703000</v>
       </c>
-      <c r="L17" s="123" t="s">
+      <c r="L17" s="85" t="s">
         <v>211</v>
       </c>
-      <c r="M17" s="123"/>
+      <c r="M17" s="85"/>
     </row>
     <row r="18" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>15</v>
       </c>
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121">
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122">
+      <c r="I18" s="84"/>
+      <c r="J18" s="84">
         <v>15000000</v>
       </c>
-      <c r="K18" s="122">
+      <c r="K18" s="84">
         <f t="shared" si="1"/>
         <v>-20703000</v>
       </c>
-      <c r="L18" s="123" t="s">
+      <c r="L18" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="M18" s="123" t="s">
+      <c r="M18" s="85" t="s">
         <v>229</v>
       </c>
     </row>
@@ -12764,30 +12809,30 @@
       <c r="A19" s="39">
         <v>16</v>
       </c>
-      <c r="B19" s="123" t="s">
+      <c r="B19" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121">
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I19" s="122">
+      <c r="I19" s="84">
         <v>21100000</v>
       </c>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122">
+      <c r="J19" s="84"/>
+      <c r="K19" s="84">
         <f t="shared" si="1"/>
         <v>397000</v>
       </c>
-      <c r="L19" s="123" t="s">
+      <c r="L19" s="85" t="s">
         <v>275</v>
       </c>
-      <c r="M19" s="123" t="s">
+      <c r="M19" s="85" t="s">
         <v>96</v>
       </c>
     </row>
@@ -12795,523 +12840,544 @@
       <c r="A20" s="39">
         <v>17</v>
       </c>
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="85" t="s">
         <v>250</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121">
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122">
+      <c r="I20" s="84"/>
+      <c r="J20" s="84">
         <v>2960000</v>
       </c>
-      <c r="K20" s="122">
+      <c r="K20" s="84">
         <f t="shared" si="1"/>
         <v>-2563000</v>
       </c>
-      <c r="L20" s="123" t="s">
+      <c r="L20" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="M20" s="123"/>
+      <c r="M20" s="85"/>
     </row>
     <row r="21" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>18</v>
       </c>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="85" t="s">
         <v>250</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121">
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122">
+      <c r="I21" s="84"/>
+      <c r="J21" s="84">
         <v>334000</v>
       </c>
-      <c r="K21" s="122">
+      <c r="K21" s="84">
         <f t="shared" si="1"/>
         <v>-2897000</v>
       </c>
-      <c r="L21" s="123" t="s">
+      <c r="L21" s="85" t="s">
         <v>265</v>
       </c>
-      <c r="M21" s="123"/>
+      <c r="M21" s="85"/>
     </row>
     <row r="22" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>19</v>
       </c>
-      <c r="B22" s="123" t="s">
+      <c r="B22" s="85" t="s">
         <v>250</v>
       </c>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121">
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122">
+      <c r="I22" s="84"/>
+      <c r="J22" s="84">
         <v>334000</v>
       </c>
-      <c r="K22" s="122">
+      <c r="K22" s="84">
         <f t="shared" si="1"/>
         <v>-3231000</v>
       </c>
-      <c r="L22" s="123" t="s">
+      <c r="L22" s="85" t="s">
         <v>265</v>
       </c>
-      <c r="M22" s="123"/>
+      <c r="M22" s="85"/>
     </row>
     <row r="23" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>20</v>
       </c>
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="85" t="s">
         <v>250</v>
       </c>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121">
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122">
+      <c r="I23" s="84"/>
+      <c r="J23" s="84">
         <v>334000</v>
       </c>
-      <c r="K23" s="122">
+      <c r="K23" s="84">
         <f t="shared" si="1"/>
         <v>-3565000</v>
       </c>
-      <c r="L23" s="123" t="s">
+      <c r="L23" s="85" t="s">
         <v>265</v>
       </c>
-      <c r="M23" s="123"/>
+      <c r="M23" s="85"/>
     </row>
     <row r="24" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>22</v>
       </c>
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="85" t="s">
         <v>250</v>
       </c>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121">
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83">
         <v>90000</v>
       </c>
-      <c r="H24" s="121">
+      <c r="H24" s="83">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="123" t="s">
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="M24" s="123"/>
+      <c r="M24" s="85"/>
     </row>
     <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>23</v>
       </c>
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="85" t="s">
         <v>250</v>
       </c>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121">
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83">
         <v>1060000</v>
       </c>
-      <c r="H25" s="121">
+      <c r="H25" s="83">
         <f t="shared" si="0"/>
         <v>-1030000</v>
       </c>
-      <c r="I25" s="122"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="123" t="s">
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="M25" s="123"/>
+      <c r="M25" s="85"/>
     </row>
     <row r="26" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>24</v>
       </c>
-      <c r="B26" s="123"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="123"/>
+      <c r="B26" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="83">
+        <v>5000000</v>
+      </c>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83">
+        <f t="shared" si="0"/>
+        <v>3970000</v>
+      </c>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="M26" s="85" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>25</v>
       </c>
-      <c r="B27" s="123"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="122"/>
-      <c r="K27" s="122"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="123"/>
+      <c r="B27" s="85" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83">
+        <v>1200000</v>
+      </c>
+      <c r="H27" s="83">
+        <f t="shared" si="0"/>
+        <v>2770000</v>
+      </c>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="85" t="s">
+        <v>283</v>
+      </c>
+      <c r="M27" s="85"/>
     </row>
     <row r="28" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>26</v>
       </c>
-      <c r="B28" s="123"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="122"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="123"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
     </row>
     <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>27</v>
       </c>
-      <c r="B29" s="123"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="123"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
     </row>
     <row r="30" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <v>28</v>
       </c>
-      <c r="B30" s="123"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="123"/>
-      <c r="M30" s="123"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
     </row>
     <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>29</v>
       </c>
-      <c r="B31" s="123"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="123"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
     </row>
     <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>30</v>
       </c>
-      <c r="B32" s="123"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="122"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
     </row>
     <row r="33" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <v>31</v>
       </c>
-      <c r="B33" s="123"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="122"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
     </row>
     <row r="34" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>32</v>
       </c>
-      <c r="B34" s="123"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="123"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
     </row>
     <row r="35" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>33</v>
       </c>
-      <c r="B35" s="123"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="122"/>
-      <c r="J35" s="122"/>
-      <c r="K35" s="122"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="123"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
     </row>
     <row r="36" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>34</v>
       </c>
-      <c r="B36" s="123"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="122"/>
-      <c r="K36" s="122"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="123"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
     </row>
     <row r="37" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <v>35</v>
       </c>
-      <c r="B37" s="123"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="122"/>
-      <c r="J37" s="122"/>
-      <c r="K37" s="122"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="123"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
     </row>
     <row r="38" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>36</v>
       </c>
-      <c r="B38" s="123"/>
-      <c r="C38" s="120"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="122"/>
-      <c r="J38" s="122"/>
-      <c r="K38" s="122"/>
-      <c r="L38" s="123"/>
-      <c r="M38" s="123"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
     </row>
     <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <v>37</v>
       </c>
-      <c r="B39" s="123"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="122"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="123"/>
-      <c r="M39" s="123"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
     </row>
     <row r="40" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <v>38</v>
       </c>
-      <c r="B40" s="123"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="122"/>
-      <c r="J40" s="122"/>
-      <c r="K40" s="122"/>
-      <c r="L40" s="123"/>
-      <c r="M40" s="123"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
     </row>
     <row r="41" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <v>39</v>
       </c>
-      <c r="B41" s="123"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="121"/>
-      <c r="I41" s="122"/>
-      <c r="J41" s="122"/>
-      <c r="K41" s="122"/>
-      <c r="L41" s="123"/>
-      <c r="M41" s="123"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
     </row>
     <row r="42" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <v>40</v>
       </c>
-      <c r="B42" s="123"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="121"/>
-      <c r="G42" s="121"/>
-      <c r="H42" s="121"/>
-      <c r="I42" s="122"/>
-      <c r="J42" s="122"/>
-      <c r="K42" s="122"/>
-      <c r="L42" s="123"/>
-      <c r="M42" s="123"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
     </row>
     <row r="43" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <v>41</v>
       </c>
-      <c r="B43" s="123"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="122"/>
-      <c r="J43" s="122"/>
-      <c r="K43" s="122"/>
-      <c r="L43" s="123"/>
-      <c r="M43" s="123"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
     </row>
     <row r="44" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <v>42</v>
       </c>
-      <c r="B44" s="123"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="122"/>
-      <c r="K44" s="122"/>
-      <c r="L44" s="123"/>
-      <c r="M44" s="123"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
     </row>
     <row r="45" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <v>43</v>
       </c>
-      <c r="B45" s="123"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="121"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="121"/>
-      <c r="I45" s="122"/>
-      <c r="J45" s="122"/>
-      <c r="K45" s="122"/>
-      <c r="L45" s="123"/>
-      <c r="M45" s="123"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{C9A86160-01A7-4FFF-AE85-83614874BA51}"/>
+    <hyperlink ref="F2:H2" location="'N.35 تنخواه پیمانکاری دیوارکشی'!A1" display="تنخواه دیوارکشی آقای سعیدی" xr:uid="{1B951EA9-90AF-4C68-B11E-FE74F818619A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13345,10 +13411,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="156"/>
+      <c r="B1" s="119"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -13361,10 +13427,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="89"/>
+      <c r="I2" s="121"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -13377,10 +13443,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="90" t="s">
+      <c r="H3" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="91"/>
+      <c r="I3" s="123"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -13409,13 +13475,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -13684,13 +13750,13 @@
       <c r="M30" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -13914,14 +13980,14 @@
       <c r="F54" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A57" s="86" t="s">
+      <c r="A57" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="86"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="102"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="102"/>
+      <c r="F57" s="102"/>
     </row>
     <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -14143,12 +14209,12 @@
       <c r="F78" s="20"/>
     </row>
     <row r="82" spans="1:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="A82" s="86" t="s">
+      <c r="A82" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="86"/>
-      <c r="C82" s="86"/>
-      <c r="D82" s="86"/>
+      <c r="B82" s="102"/>
+      <c r="C82" s="102"/>
+      <c r="D82" s="102"/>
     </row>
     <row r="83" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
@@ -14325,15 +14391,15 @@
       <c r="D103" s="22"/>
     </row>
     <row r="106" spans="1:7" ht="27" x14ac:dyDescent="0.25">
-      <c r="A106" s="87" t="s">
+      <c r="A106" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="87"/>
-      <c r="C106" s="87"/>
-      <c r="D106" s="87"/>
-      <c r="E106" s="87"/>
-      <c r="F106" s="87"/>
-      <c r="G106" s="87"/>
+      <c r="B106" s="101"/>
+      <c r="C106" s="101"/>
+      <c r="D106" s="101"/>
+      <c r="E106" s="101"/>
+      <c r="F106" s="101"/>
+      <c r="G106" s="101"/>
     </row>
     <row r="107" spans="1:7" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
@@ -14583,16 +14649,16 @@
       <c r="G127" s="20"/>
     </row>
     <row r="130" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A130" s="87" t="s">
+      <c r="A130" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="B130" s="87"/>
-      <c r="C130" s="87"/>
-      <c r="D130" s="87"/>
-      <c r="E130" s="87"/>
-      <c r="F130" s="87"/>
-      <c r="G130" s="87"/>
-      <c r="H130" s="87"/>
+      <c r="B130" s="101"/>
+      <c r="C130" s="101"/>
+      <c r="D130" s="101"/>
+      <c r="E130" s="101"/>
+      <c r="F130" s="101"/>
+      <c r="G130" s="101"/>
+      <c r="H130" s="101"/>
     </row>
     <row r="131" spans="1:8" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
@@ -14861,13 +14927,13 @@
       <c r="H151" s="10"/>
     </row>
     <row r="155" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A155" s="87" t="s">
+      <c r="A155" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="B155" s="87"/>
-      <c r="C155" s="87"/>
-      <c r="D155" s="87"/>
-      <c r="E155" s="87"/>
+      <c r="B155" s="101"/>
+      <c r="C155" s="101"/>
+      <c r="D155" s="101"/>
+      <c r="E155" s="101"/>
       <c r="F155" s="63"/>
     </row>
     <row r="156" spans="1:8" ht="27" x14ac:dyDescent="0.25">
@@ -15091,13 +15157,13 @@
       <c r="F176" s="39"/>
     </row>
     <row r="179" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A179" s="87" t="s">
+      <c r="A179" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="B179" s="87"/>
-      <c r="C179" s="87"/>
-      <c r="D179" s="87"/>
-      <c r="E179" s="87"/>
+      <c r="B179" s="101"/>
+      <c r="C179" s="101"/>
+      <c r="D179" s="101"/>
+      <c r="E179" s="101"/>
       <c r="F179" s="66"/>
     </row>
     <row r="180" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -15317,14 +15383,14 @@
       <c r="F200" s="39"/>
     </row>
     <row r="204" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A204" s="86" t="s">
+      <c r="A204" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="B204" s="86"/>
-      <c r="C204" s="86"/>
-      <c r="D204" s="86"/>
-      <c r="E204" s="86"/>
-      <c r="F204" s="86"/>
+      <c r="B204" s="102"/>
+      <c r="C204" s="102"/>
+      <c r="D204" s="102"/>
+      <c r="E204" s="102"/>
+      <c r="F204" s="102"/>
     </row>
     <row r="205" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A205" s="78" t="s">
@@ -15845,11 +15911,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="A204:F204"/>
     <mergeCell ref="A179:E179"/>
@@ -15857,6 +15918,11 @@
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A130:H130"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{9E228265-015F-4ED7-804E-491796425E13}"/>
@@ -15890,16 +15956,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="156"/>
+      <c r="B1" s="119"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="92" t="s">
+      <c r="J2" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="93"/>
+      <c r="K2" s="125"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -15939,10 +16005,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="92" t="s">
+      <c r="J12" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="93"/>
+      <c r="K12" s="125"/>
     </row>
     <row r="13" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J13" s="2">
@@ -16013,7 +16079,7 @@
       </c>
     </row>
     <row r="24" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="94" t="s">
+      <c r="I24" s="126" t="s">
         <v>76</v>
       </c>
       <c r="J24" s="2">
@@ -16024,7 +16090,7 @@
       </c>
     </row>
     <row r="25" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="95"/>
+      <c r="I25" s="127"/>
       <c r="J25" s="2" t="s">
         <v>74</v>
       </c>
@@ -16073,10 +16139,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="97"/>
+      <c r="L2" s="129"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -16154,10 +16220,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="98" t="s">
+      <c r="K2" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="99"/>
+      <c r="L2" s="131"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -16253,10 +16319,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="101"/>
+      <c r="J2" s="133"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -16273,10 +16339,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="100" t="s">
+      <c r="I3" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="101"/>
+      <c r="J3" s="133"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -16290,10 +16356,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="102" t="s">
+      <c r="I4" s="134" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="103"/>
+      <c r="J4" s="135"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -16324,13 +16390,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9D6ED1-48F1-489C-8247-60EE828346F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27058A54-BA97-4ECE-B36A-BC09C504F554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="284">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -4342,7 +4342,9 @@
   </sheetPr>
   <dimension ref="D2:L8"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" rightToLeft="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4452,7 +4454,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5123,8 +5125,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -5426,9 +5428,15 @@
       <c r="A16" s="39">
         <v>8</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="B16" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="39">
+        <v>600</v>
+      </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
       <c r="I16" s="65"/>
@@ -6438,8 +6446,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -12253,8 +12261,8 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:H2"/>
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27058A54-BA97-4ECE-B36A-BC09C504F554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD9BDE7-1F25-4FFB-A631-2D739D276021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="284">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -862,9 +862,6 @@
     <t>هزینه قبض تلفن</t>
   </si>
   <si>
-    <t>1404/01/07</t>
-  </si>
-  <si>
     <t>خرید نوشیدنی کیک</t>
   </si>
   <si>
@@ -914,6 +911,9 @@
   </si>
   <si>
     <t>خرید تخم مرغ</t>
+  </si>
+  <si>
+    <t>هوشنگ کیائی + داوود + بهرام</t>
   </si>
 </sst>
 </file>
@@ -4389,7 +4389,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="4:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4454,7 +4454,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5125,8 +5125,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -5589,7 +5589,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -5804,7 +5804,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>248</v>
+        <v>136</v>
       </c>
       <c r="F12" s="39"/>
     </row>
@@ -5812,10 +5812,18 @@
       <c r="A13" s="39">
         <v>5</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" s="39">
+        <v>3</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>248</v>
+      </c>
       <c r="F13" s="39"/>
     </row>
     <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
@@ -5992,7 +6000,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -6446,8 +6454,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -6678,7 +6686,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>138</v>
@@ -6697,10 +6705,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="39" t="s">
         <v>266</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>267</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="39">
@@ -6735,10 +6743,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" s="39" t="s">
         <v>282</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>283</v>
       </c>
       <c r="D16" s="39"/>
       <c r="E16" s="39">
@@ -8350,7 +8358,7 @@
         <v>245</v>
       </c>
       <c r="K6" s="98" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>240</v>
@@ -8375,7 +8383,7 @@
         <v>47</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8383,7 +8391,7 @@
         <v>59</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -12309,17 +12317,17 @@
         <v>24</v>
       </c>
       <c r="C2" s="103" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D2" s="104"/>
       <c r="E2" s="105"/>
       <c r="F2" s="154" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G2" s="155"/>
       <c r="H2" s="156"/>
       <c r="I2" s="106" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J2" s="107"/>
       <c r="K2" s="108"/>
@@ -12327,42 +12335,42 @@
         <v>22</v>
       </c>
       <c r="M2" s="90" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="112"/>
       <c r="B3" s="110"/>
       <c r="C3" s="91" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="91" t="s">
         <v>272</v>
-      </c>
-      <c r="D3" s="91" t="s">
-        <v>273</v>
       </c>
       <c r="E3" s="92" t="s">
         <v>57</v>
       </c>
       <c r="F3" s="93" t="s">
+        <v>271</v>
+      </c>
+      <c r="G3" s="93" t="s">
         <v>272</v>
-      </c>
-      <c r="G3" s="93" t="s">
-        <v>273</v>
       </c>
       <c r="H3" s="94" t="s">
         <v>57</v>
       </c>
       <c r="I3" s="95" t="s">
+        <v>271</v>
+      </c>
+      <c r="J3" s="95" t="s">
         <v>272</v>
-      </c>
-      <c r="J3" s="95" t="s">
-        <v>273</v>
       </c>
       <c r="K3" s="95" t="s">
         <v>57</v>
       </c>
       <c r="L3" s="114"/>
       <c r="M3" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.25">
@@ -12543,7 +12551,7 @@
         <v>56</v>
       </c>
       <c r="M9" s="85" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="27" x14ac:dyDescent="0.25">
@@ -12838,7 +12846,7 @@
         <v>397000</v>
       </c>
       <c r="L19" s="85" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M19" s="85" t="s">
         <v>96</v>
@@ -13008,7 +13016,7 @@
       <c r="J25" s="84"/>
       <c r="K25" s="84"/>
       <c r="L25" s="85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M25" s="85"/>
     </row>
@@ -13045,7 +13053,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C27" s="82"/>
       <c r="D27" s="82"/>
@@ -13062,7 +13070,7 @@
       <c r="J27" s="84"/>
       <c r="K27" s="84"/>
       <c r="L27" s="85" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M27" s="85"/>
     </row>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD9BDE7-1F25-4FFB-A631-2D739D276021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E30436C-BB81-43F2-9F87-933DC78C8719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="15" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -6454,8 +6454,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -7730,7 +7730,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -9929,7 +9929,7 @@
   </sheetPr>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E30436C-BB81-43F2-9F87-933DC78C8719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917B52BB-B46E-4304-B761-159AA9064036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="15" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="285">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -914,6 +914,9 @@
   </si>
   <si>
     <t>هوشنگ کیائی + داوود + بهرام</t>
+  </si>
+  <si>
+    <t>تحویل کامل</t>
   </si>
 </sst>
 </file>
@@ -1792,6 +1795,12 @@
     <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1804,6 +1813,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1811,6 +1835,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1832,21 +1865,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1956,21 +1974,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4357,16 +4360,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4476,11 +4479,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="136" t="s">
+      <c r="G2" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="137"/>
-      <c r="I2" s="138"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="143"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -4488,11 +4491,11 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="137"/>
-      <c r="I3" s="138"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="143"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4501,12 +4504,12 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="141"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="146"/>
       <c r="G5" s="5" t="s">
         <v>212</v>
       </c>
@@ -4711,10 +4714,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="138"/>
+      <c r="I2" s="143"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -4730,8 +4733,8 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="138"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="143"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4744,10 +4747,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="142" t="s">
+      <c r="H4" s="147" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="143"/>
+      <c r="I4" s="148"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -4776,12 +4779,12 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="73"/>
       <c r="F7" s="9"/>
       <c r="G7" s="6"/>
@@ -5162,10 +5165,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="136" t="s">
+      <c r="I2" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="138"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -5182,10 +5185,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="136" t="s">
+      <c r="I3" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="138"/>
+      <c r="J3" s="143"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -5199,10 +5202,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="142" t="s">
+      <c r="I4" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="143"/>
+      <c r="J4" s="148"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5233,21 +5236,21 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="144" t="s">
+      <c r="I7" s="149" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="149"/>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -5625,10 +5628,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="136" t="s">
+      <c r="I2" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="138"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -5645,10 +5648,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="136" t="s">
+      <c r="I3" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="138"/>
+      <c r="J3" s="143"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -5662,10 +5665,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="142" t="s">
+      <c r="I4" s="147" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="143"/>
+      <c r="J4" s="148"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5696,13 +5699,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
       <c r="F7" s="60"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -6036,10 +6039,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="136" t="s">
+      <c r="I2" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="138"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6056,10 +6059,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="136" t="s">
+      <c r="I3" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="138"/>
+      <c r="J3" s="143"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6073,10 +6076,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="142" t="s">
+      <c r="I4" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="143"/>
+      <c r="J4" s="148"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6107,13 +6110,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
       <c r="F7" s="17"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -6476,10 +6479,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A1" s="8"/>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="158" t="s">
+      <c r="C1" s="100" t="s">
         <v>241</v>
       </c>
       <c r="D1" s="8"/>
@@ -6495,10 +6498,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="136" t="s">
+      <c r="I2" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="138"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -6512,10 +6515,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="136" t="s">
+      <c r="I3" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="138"/>
+      <c r="J3" s="143"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6529,10 +6532,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="142" t="s">
+      <c r="I4" s="147" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="143"/>
+      <c r="J4" s="148"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6563,13 +6566,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
       <c r="F7" s="49"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -6935,10 +6938,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="138"/>
+      <c r="I2" s="143"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -6954,10 +6957,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="136" t="s">
+      <c r="H3" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="138"/>
+      <c r="I3" s="143"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -6970,10 +6973,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="142" t="s">
+      <c r="H4" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="143"/>
+      <c r="I4" s="148"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -6988,13 +6991,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -7166,10 +7169,10 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="F2" s="136" t="s">
+      <c r="F2" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="138"/>
+      <c r="G2" s="143"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
         <v>10</v>
@@ -7183,10 +7186,10 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="F3" s="136" t="s">
+      <c r="F3" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="138"/>
+      <c r="G3" s="143"/>
       <c r="H3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -7197,10 +7200,10 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="143"/>
+      <c r="G4" s="148"/>
       <c r="H4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -7213,11 +7216,11 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:12" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:12" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -7294,10 +7297,10 @@
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="145" t="s">
+      <c r="A13" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="146"/>
+      <c r="B13" s="151"/>
       <c r="C13" s="24">
         <f>SUM(C9:C12)</f>
         <v>0</v>
@@ -7362,10 +7365,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="136" t="s">
+      <c r="I2" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="138"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -7382,10 +7385,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="136" t="s">
+      <c r="I3" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="138"/>
+      <c r="J3" s="143"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -7399,10 +7402,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="142" t="s">
+      <c r="I4" s="147" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="143"/>
+      <c r="J4" s="148"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -7433,13 +7436,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
       <c r="F7" s="27"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -7775,10 +7778,10 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="136" t="s">
+      <c r="L2" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="138"/>
+      <c r="M2" s="143"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4" t="s">
         <v>10</v>
@@ -7798,10 +7801,10 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="L3" s="136" t="s">
+      <c r="L3" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="138"/>
+      <c r="M3" s="143"/>
       <c r="N3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -7818,10 +7821,10 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="L4" s="142" t="s">
+      <c r="L4" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="143"/>
+      <c r="M4" s="148"/>
       <c r="N4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -7838,10 +7841,10 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="L5" s="147" t="s">
+      <c r="L5" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="148"/>
+      <c r="M5" s="153"/>
       <c r="N5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -7860,16 +7863,16 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:18" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
       <c r="I7" s="74" t="s">
         <v>207</v>
       </c>
@@ -8290,16 +8293,16 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="102" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
@@ -8460,10 +8463,10 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="K2" s="136" t="s">
+      <c r="K2" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="138"/>
+      <c r="L2" s="143"/>
       <c r="M2" s="3"/>
       <c r="N2" s="4" t="s">
         <v>10</v>
@@ -8482,10 +8485,10 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="K3" s="136" t="s">
+      <c r="K3" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="138"/>
+      <c r="L3" s="143"/>
       <c r="M3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -8501,10 +8504,10 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="K4" s="142" t="s">
+      <c r="K4" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="143"/>
+      <c r="L4" s="148"/>
       <c r="M4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -8520,10 +8523,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="K5" s="147" t="s">
+      <c r="K5" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="148"/>
+      <c r="L5" s="153"/>
       <c r="M5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -8541,16 +8544,16 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:17" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:17" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -8931,10 +8934,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="138"/>
+      <c r="I2" s="143"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -8950,10 +8953,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="136" t="s">
+      <c r="H3" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="138"/>
+      <c r="I3" s="143"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -8966,10 +8969,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="142" t="s">
+      <c r="H4" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="143"/>
+      <c r="I4" s="148"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -8982,10 +8985,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="147" t="s">
+      <c r="H5" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="148"/>
+      <c r="I5" s="153"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -9000,13 +9003,13 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -9250,13 +9253,13 @@
       <c r="E29" s="16"/>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A41" s="101" t="s">
+      <c r="A41" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="101"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
     </row>
     <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -9536,10 +9539,10 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="J2" s="136" t="s">
+      <c r="J2" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="138"/>
+      <c r="K2" s="143"/>
       <c r="L2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -9554,10 +9557,10 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="J3" s="136" t="s">
+      <c r="J3" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="138"/>
+      <c r="K3" s="143"/>
       <c r="L3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -9572,10 +9575,10 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="J4" s="142" t="s">
+      <c r="J4" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="143"/>
+      <c r="K4" s="148"/>
       <c r="L4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -9590,10 +9593,10 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="J5" s="147" t="s">
+      <c r="J5" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="148"/>
+      <c r="K5" s="153"/>
       <c r="L5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -9610,15 +9613,15 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -9929,7 +9932,7 @@
   </sheetPr>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -9965,10 +9968,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="138"/>
+      <c r="I2" s="143"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -9981,10 +9984,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="136" t="s">
+      <c r="H3" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="138"/>
+      <c r="I3" s="143"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -9997,10 +10000,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="147" t="s">
+      <c r="H4" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="148"/>
+      <c r="I4" s="153"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -10013,10 +10016,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="142" t="s">
+      <c r="H5" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="143"/>
+      <c r="I5" s="148"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -10040,13 +10043,13 @@
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -10383,10 +10386,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="149" t="s">
+      <c r="K2" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="150"/>
+      <c r="L2" s="155"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -10476,10 +10479,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="125"/>
+      <c r="I2" s="130"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10492,10 +10495,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="149" t="s">
+      <c r="H3" s="154" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="150"/>
+      <c r="I3" s="155"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10510,13 +10513,13 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="103" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -10874,10 +10877,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="125"/>
+      <c r="I2" s="130"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10889,10 +10892,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="149" t="s">
+      <c r="H3" s="154" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="150"/>
+      <c r="I3" s="155"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10906,20 +10909,20 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
     </row>
     <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="153" t="s">
+      <c r="A6" s="158" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="153"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
       <c r="E6" s="72"/>
       <c r="F6" s="72"/>
       <c r="G6" s="72"/>
@@ -10965,11 +10968,11 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="156" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="71"/>
@@ -11118,11 +11121,11 @@
       <c r="J20" s="72"/>
     </row>
     <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="151" t="s">
+      <c r="B21" s="156" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="156"/>
       <c r="E21" s="72"/>
       <c r="F21" s="72"/>
       <c r="G21" s="72"/>
@@ -11164,20 +11167,20 @@
       <c r="J24" s="68"/>
     </row>
     <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B25" s="152" t="s">
+      <c r="B25" s="157" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="152"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="152"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
     </row>
     <row r="26" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="153" t="s">
+      <c r="A26" s="158" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="153"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="158"/>
     </row>
     <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="B27"/>
@@ -11201,11 +11204,11 @@
       <c r="D29"/>
     </row>
     <row r="30" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="151" t="s">
+      <c r="B30" s="156" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="151"/>
-      <c r="D30" s="151"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="156"/>
       <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
@@ -11299,11 +11302,11 @@
       <c r="D40" s="72"/>
     </row>
     <row r="41" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="151" t="s">
+      <c r="B41" s="156" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="151"/>
-      <c r="D41" s="151"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11366,10 +11369,10 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="G2" s="124" t="s">
+      <c r="G2" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="125"/>
+      <c r="H2" s="130"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
         <v>10</v>
@@ -11384,10 +11387,10 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="154" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="150"/>
+      <c r="H3" s="155"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -11401,12 +11404,12 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -11724,12 +11727,12 @@
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
     </row>
     <row r="4" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -11775,13 +11778,13 @@
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
       <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12156,8 +12159,8 @@
       <c r="A122" s="20"/>
     </row>
     <row r="125" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A125" s="101"/>
-      <c r="B125" s="101"/>
+      <c r="A125" s="103"/>
+      <c r="B125" s="103"/>
     </row>
     <row r="126" spans="1:2" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
@@ -12291,47 +12294,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="115" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="107" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="154" t="s">
+      <c r="D2" s="111"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="113" t="s">
         <v>269</v>
       </c>
-      <c r="G2" s="155"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="106" t="s">
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="113" t="s">
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="105" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="90" t="s">
@@ -12339,8 +12342,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="112"/>
-      <c r="B3" s="110"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="91" t="s">
         <v>271</v>
       </c>
@@ -12368,7 +12371,7 @@
       <c r="K3" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="114"/>
+      <c r="L3" s="106"/>
       <c r="M3" s="90" t="s">
         <v>275</v>
       </c>
@@ -13427,10 +13430,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="119"/>
+      <c r="B1" s="124"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -13443,10 +13446,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="121"/>
+      <c r="I2" s="126"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -13459,10 +13462,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="122" t="s">
+      <c r="H3" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="123"/>
+      <c r="I3" s="128"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -13491,13 +13494,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -13766,13 +13769,13 @@
       <c r="M30" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A33" s="101" t="s">
+      <c r="A33" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -13996,14 +13999,14 @@
       <c r="F54" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A57" s="102" t="s">
+      <c r="A57" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="102"/>
-      <c r="C57" s="102"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
-      <c r="F57" s="102"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
     </row>
     <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -14225,12 +14228,12 @@
       <c r="F78" s="20"/>
     </row>
     <row r="82" spans="1:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="A82" s="102" t="s">
+      <c r="A82" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="102"/>
-      <c r="C82" s="102"/>
-      <c r="D82" s="102"/>
+      <c r="B82" s="104"/>
+      <c r="C82" s="104"/>
+      <c r="D82" s="104"/>
     </row>
     <row r="83" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
@@ -14407,15 +14410,15 @@
       <c r="D103" s="22"/>
     </row>
     <row r="106" spans="1:7" ht="27" x14ac:dyDescent="0.25">
-      <c r="A106" s="101" t="s">
+      <c r="A106" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="101"/>
-      <c r="C106" s="101"/>
-      <c r="D106" s="101"/>
-      <c r="E106" s="101"/>
-      <c r="F106" s="101"/>
-      <c r="G106" s="101"/>
+      <c r="B106" s="103"/>
+      <c r="C106" s="103"/>
+      <c r="D106" s="103"/>
+      <c r="E106" s="103"/>
+      <c r="F106" s="103"/>
+      <c r="G106" s="103"/>
     </row>
     <row r="107" spans="1:7" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
@@ -14665,16 +14668,16 @@
       <c r="G127" s="20"/>
     </row>
     <row r="130" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A130" s="101" t="s">
+      <c r="A130" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="B130" s="101"/>
-      <c r="C130" s="101"/>
-      <c r="D130" s="101"/>
-      <c r="E130" s="101"/>
-      <c r="F130" s="101"/>
-      <c r="G130" s="101"/>
-      <c r="H130" s="101"/>
+      <c r="B130" s="103"/>
+      <c r="C130" s="103"/>
+      <c r="D130" s="103"/>
+      <c r="E130" s="103"/>
+      <c r="F130" s="103"/>
+      <c r="G130" s="103"/>
+      <c r="H130" s="103"/>
     </row>
     <row r="131" spans="1:8" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
@@ -14943,13 +14946,13 @@
       <c r="H151" s="10"/>
     </row>
     <row r="155" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A155" s="101" t="s">
+      <c r="A155" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="B155" s="101"/>
-      <c r="C155" s="101"/>
-      <c r="D155" s="101"/>
-      <c r="E155" s="101"/>
+      <c r="B155" s="103"/>
+      <c r="C155" s="103"/>
+      <c r="D155" s="103"/>
+      <c r="E155" s="103"/>
       <c r="F155" s="63"/>
     </row>
     <row r="156" spans="1:8" ht="27" x14ac:dyDescent="0.25">
@@ -15173,13 +15176,13 @@
       <c r="F176" s="39"/>
     </row>
     <row r="179" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A179" s="101" t="s">
+      <c r="A179" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="B179" s="101"/>
-      <c r="C179" s="101"/>
-      <c r="D179" s="101"/>
-      <c r="E179" s="101"/>
+      <c r="B179" s="103"/>
+      <c r="C179" s="103"/>
+      <c r="D179" s="103"/>
+      <c r="E179" s="103"/>
       <c r="F179" s="66"/>
     </row>
     <row r="180" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -15399,14 +15402,14 @@
       <c r="F200" s="39"/>
     </row>
     <row r="204" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A204" s="102" t="s">
+      <c r="A204" s="104" t="s">
         <v>219</v>
       </c>
-      <c r="B204" s="102"/>
-      <c r="C204" s="102"/>
-      <c r="D204" s="102"/>
-      <c r="E204" s="102"/>
-      <c r="F204" s="102"/>
+      <c r="B204" s="104"/>
+      <c r="C204" s="104"/>
+      <c r="D204" s="104"/>
+      <c r="E204" s="104"/>
+      <c r="F204" s="104"/>
     </row>
     <row r="205" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A205" s="78" t="s">
@@ -15927,6 +15930,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="A204:F204"/>
     <mergeCell ref="A179:E179"/>
@@ -15934,11 +15942,6 @@
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A130:H130"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{9E228265-015F-4ED7-804E-491796425E13}"/>
@@ -15972,16 +15975,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="119"/>
+      <c r="B1" s="124"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="124" t="s">
+      <c r="J2" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="125"/>
+      <c r="K2" s="130"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -16021,10 +16024,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="124" t="s">
+      <c r="J12" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="125"/>
+      <c r="K12" s="130"/>
     </row>
     <row r="13" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J13" s="2">
@@ -16095,7 +16098,7 @@
       </c>
     </row>
     <row r="24" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="126" t="s">
+      <c r="I24" s="131" t="s">
         <v>76</v>
       </c>
       <c r="J24" s="2">
@@ -16106,7 +16109,7 @@
       </c>
     </row>
     <row r="25" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="127"/>
+      <c r="I25" s="132"/>
       <c r="J25" s="2" t="s">
         <v>74</v>
       </c>
@@ -16155,10 +16158,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="128" t="s">
+      <c r="K2" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="129"/>
+      <c r="L2" s="134"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -16236,10 +16239,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="130" t="s">
+      <c r="K2" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="131"/>
+      <c r="L2" s="136"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -16299,8 +16302,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -16335,10 +16338,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="132" t="s">
+      <c r="I2" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="133"/>
+      <c r="J2" s="138"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -16355,10 +16358,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="133"/>
+      <c r="J3" s="138"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -16372,10 +16375,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="134" t="s">
+      <c r="I4" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="135"/>
+      <c r="J4" s="140"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -16406,13 +16409,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -16606,21 +16609,44 @@
       <c r="A16" s="39">
         <v>8</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="B16" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="39">
+        <v>600</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>9</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="B17" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17" s="39">
+        <v>100</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="39">

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917B52BB-B46E-4304-B761-159AA9064036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB4D2E9-EFAF-47B5-8E19-7D9BFE4D9E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="288">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -917,6 +917,15 @@
   </si>
   <si>
     <t>تحویل کامل</t>
+  </si>
+  <si>
+    <t>خرید شوینده و سایروسایل</t>
+  </si>
+  <si>
+    <t>خرید شوینده و سایر وسایل</t>
+  </si>
+  <si>
+    <t>فروتن</t>
   </si>
 </sst>
 </file>
@@ -4457,7 +4466,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5591,7 +5600,7 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -6002,15 +6011,15 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="9" bestFit="1" customWidth="1"/>
@@ -6203,7 +6212,7 @@
         <v>352000</v>
       </c>
       <c r="F11" s="39">
-        <f t="shared" ref="F11:F17" si="0">F10-E11</f>
+        <f t="shared" ref="F11:F18" si="0">F10-E11</f>
         <v>7749000</v>
       </c>
       <c r="G11" s="9"/>
@@ -6327,11 +6336,20 @@
       <c r="A18" s="39">
         <v>10</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
+      <c r="B18" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>285</v>
+      </c>
       <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="E18" s="39">
+        <v>5267000</v>
+      </c>
+      <c r="F18" s="39">
+        <f t="shared" si="0"/>
+        <v>-5832000</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
@@ -12271,9 +12289,9 @@
   </sheetPr>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12454,7 +12472,7 @@
         <v>15500000</v>
       </c>
       <c r="K6" s="84">
-        <f t="shared" ref="K6:K23" si="1">(K5+I6)-J6</f>
+        <f t="shared" ref="K6:K28" si="1">(K5+I6)-J6</f>
         <v>-18500000</v>
       </c>
       <c r="L6" s="85" t="s">
@@ -12991,7 +13009,10 @@
       </c>
       <c r="I24" s="84"/>
       <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
+      <c r="K24" s="84">
+        <f t="shared" si="1"/>
+        <v>-3565000</v>
+      </c>
       <c r="L24" s="85" t="s">
         <v>138</v>
       </c>
@@ -13017,7 +13038,10 @@
       </c>
       <c r="I25" s="84"/>
       <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
+      <c r="K25" s="84">
+        <f t="shared" si="1"/>
+        <v>-3565000</v>
+      </c>
       <c r="L25" s="85" t="s">
         <v>267</v>
       </c>
@@ -13043,7 +13067,10 @@
       </c>
       <c r="I26" s="84"/>
       <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
+      <c r="K26" s="84">
+        <f t="shared" si="1"/>
+        <v>-3565000</v>
+      </c>
       <c r="L26" s="85" t="s">
         <v>131</v>
       </c>
@@ -13071,7 +13098,10 @@
       </c>
       <c r="I27" s="84"/>
       <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
+      <c r="K27" s="84">
+        <f t="shared" si="1"/>
+        <v>-3565000</v>
+      </c>
       <c r="L27" s="85" t="s">
         <v>282</v>
       </c>
@@ -13081,7 +13111,9 @@
       <c r="A28" s="39">
         <v>26</v>
       </c>
-      <c r="B28" s="85"/>
+      <c r="B28" s="85" t="s">
+        <v>281</v>
+      </c>
       <c r="C28" s="82"/>
       <c r="D28" s="82"/>
       <c r="E28" s="82"/>
@@ -13089,10 +13121,19 @@
       <c r="G28" s="83"/>
       <c r="H28" s="83"/>
       <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
+      <c r="J28" s="84">
+        <v>5267000</v>
+      </c>
+      <c r="K28" s="84">
+        <f t="shared" si="1"/>
+        <v>-8832000</v>
+      </c>
+      <c r="L28" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="M28" s="85" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
@@ -16302,7 +16343,7 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB4D2E9-EFAF-47B5-8E19-7D9BFE4D9E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5E5FE5-F797-4043-B4FE-C57F897CD77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="290">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -926,6 +926,12 @@
   </si>
   <si>
     <t>فروتن</t>
+  </si>
+  <si>
+    <t>کود اوره مرکبات</t>
+  </si>
+  <si>
+    <t>وفادار</t>
   </si>
 </sst>
 </file>
@@ -4689,8 +4695,8 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -4870,12 +4876,24 @@
       <c r="A11" s="39">
         <v>6</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="76"/>
+      <c r="B11" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="11">
+        <v>100</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="39">
+        <v>8000000</v>
+      </c>
+      <c r="G11" s="76" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
@@ -12287,11 +12305,11 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
+    <sheetView showGridLines="0" rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12472,7 +12490,7 @@
         <v>15500000</v>
       </c>
       <c r="K6" s="84">
-        <f t="shared" ref="K6:K28" si="1">(K5+I6)-J6</f>
+        <f t="shared" ref="K6:K29" si="1">(K5+I6)-J6</f>
         <v>-18500000</v>
       </c>
       <c r="L6" s="85" t="s">
@@ -13108,9 +13126,7 @@
       <c r="M27" s="85"/>
     </row>
     <row r="28" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A28" s="39">
-        <v>26</v>
-      </c>
+      <c r="A28" s="39"/>
       <c r="B28" s="85" t="s">
         <v>281</v>
       </c>
@@ -13122,24 +13138,26 @@
       <c r="H28" s="83"/>
       <c r="I28" s="84"/>
       <c r="J28" s="84">
-        <v>5267000</v>
+        <v>8000000</v>
       </c>
       <c r="K28" s="84">
         <f t="shared" si="1"/>
-        <v>-8832000</v>
+        <v>-11565000</v>
       </c>
       <c r="L28" s="85" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M28" s="85" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
-        <v>27</v>
-      </c>
-      <c r="B29" s="85"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="85" t="s">
+        <v>281</v>
+      </c>
       <c r="C29" s="82"/>
       <c r="D29" s="82"/>
       <c r="E29" s="82"/>
@@ -13147,14 +13165,23 @@
       <c r="G29" s="83"/>
       <c r="H29" s="83"/>
       <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
+      <c r="J29" s="84">
+        <v>5267000</v>
+      </c>
+      <c r="K29" s="84">
+        <f t="shared" si="1"/>
+        <v>-16832000</v>
+      </c>
+      <c r="L29" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="M29" s="85" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="30" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="85"/>
       <c r="C30" s="82"/>
@@ -13171,7 +13198,7 @@
     </row>
     <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="85"/>
       <c r="C31" s="82"/>
@@ -13188,7 +13215,7 @@
     </row>
     <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="85"/>
       <c r="C32" s="82"/>
@@ -13205,7 +13232,7 @@
     </row>
     <row r="33" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="85"/>
       <c r="C33" s="82"/>
@@ -13222,7 +13249,7 @@
     </row>
     <row r="34" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="85"/>
       <c r="C34" s="82"/>
@@ -13239,7 +13266,7 @@
     </row>
     <row r="35" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="85"/>
       <c r="C35" s="82"/>
@@ -13256,7 +13283,7 @@
     </row>
     <row r="36" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="85"/>
       <c r="C36" s="82"/>
@@ -13273,7 +13300,7 @@
     </row>
     <row r="37" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="85"/>
       <c r="C37" s="82"/>
@@ -13290,7 +13317,7 @@
     </row>
     <row r="38" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="85"/>
       <c r="C38" s="82"/>
@@ -13307,7 +13334,7 @@
     </row>
     <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="85"/>
       <c r="C39" s="82"/>
@@ -13324,7 +13351,7 @@
     </row>
     <row r="40" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="85"/>
       <c r="C40" s="82"/>
@@ -13341,7 +13368,7 @@
     </row>
     <row r="41" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="85"/>
       <c r="C41" s="82"/>
@@ -13358,7 +13385,7 @@
     </row>
     <row r="42" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="85"/>
       <c r="C42" s="82"/>
@@ -13375,7 +13402,7 @@
     </row>
     <row r="43" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="85"/>
       <c r="C43" s="82"/>
@@ -13392,7 +13419,7 @@
     </row>
     <row r="44" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="85"/>
       <c r="C44" s="82"/>
@@ -13409,7 +13436,7 @@
     </row>
     <row r="45" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="85"/>
       <c r="C45" s="82"/>
@@ -13423,6 +13450,23 @@
       <c r="K45" s="84"/>
       <c r="L45" s="85"/>
       <c r="M45" s="85"/>
+    </row>
+    <row r="46" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>43</v>
+      </c>
+      <c r="B46" s="85"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5E5FE5-F797-4043-B4FE-C57F897CD77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C2C783-FBFA-4C66-ACD7-15E570052D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -4695,8 +4695,8 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -6029,8 +6029,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:E18"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C2C783-FBFA-4C66-ACD7-15E570052D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0220FF-B271-41E4-A64A-1E56CED3B25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="292">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -932,6 +932,12 @@
   </si>
   <si>
     <t>وفادار</t>
+  </si>
+  <si>
+    <t>1404/02/09</t>
+  </si>
+  <si>
+    <t>بعدازظهر</t>
   </si>
 </sst>
 </file>
@@ -5155,7 +5161,7 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -5618,8 +5624,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -5860,10 +5866,18 @@
       <c r="A14" s="39">
         <v>6</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
+      <c r="B14" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D14" s="39">
+        <v>3</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>291</v>
+      </c>
       <c r="F14" s="39"/>
     </row>
     <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
@@ -6029,7 +6043,7 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -12308,7 +12322,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
@@ -16015,11 +16029,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="A204:F204"/>
     <mergeCell ref="A179:E179"/>
@@ -16027,6 +16036,11 @@
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A130:H130"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{9E228265-015F-4ED7-804E-491796425E13}"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0220FF-B271-41E4-A64A-1E56CED3B25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91811B08-B4E1-495B-92D9-6E2352945A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -805,9 +805,6 @@
     <t>1404/02/06</t>
   </si>
   <si>
-    <t>هوشنگ کیائی + برادر داوود</t>
-  </si>
-  <si>
     <t>صبح</t>
   </si>
   <si>
@@ -938,6 +935,9 @@
   </si>
   <si>
     <t>بعدازظهر</t>
+  </si>
+  <si>
+    <t>هوشنگ کیائی + بهرام</t>
   </si>
 </sst>
 </file>
@@ -4413,7 +4413,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="4:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4883,10 +4883,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D11" s="11">
         <v>100</v>
@@ -4898,7 +4898,7 @@
         <v>8000000</v>
       </c>
       <c r="G11" s="76" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="27" x14ac:dyDescent="0.25">
@@ -5445,7 +5445,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>148</v>
@@ -5465,7 +5465,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C16" s="39" t="s">
         <v>148</v>
@@ -5625,7 +5625,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -5814,7 +5814,7 @@
         <v>246</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="D11" s="39">
         <v>2</v>
@@ -5831,10 +5831,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="D12" s="39">
         <v>2</v>
@@ -5849,16 +5849,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D13" s="39">
         <v>3</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F13" s="39"/>
     </row>
@@ -5867,16 +5867,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D14" s="39">
         <v>3</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F14" s="39"/>
     </row>
@@ -6293,10 +6293,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="39" t="s">
         <v>250</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>251</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="39">
@@ -6312,10 +6312,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D15" s="39"/>
       <c r="E15" s="39">
@@ -6331,10 +6331,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D16" s="39"/>
       <c r="E16" s="39">
@@ -6350,10 +6350,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D17" s="39"/>
       <c r="E17" s="39">
@@ -6369,10 +6369,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D18" s="39"/>
       <c r="E18" s="39">
@@ -6739,7 +6739,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>138</v>
@@ -6758,10 +6758,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="39">
@@ -6777,7 +6777,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="85" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>131</v>
@@ -6796,10 +6796,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" s="39" t="s">
         <v>281</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>282</v>
       </c>
       <c r="D16" s="39"/>
       <c r="E16" s="39">
@@ -8411,7 +8411,7 @@
         <v>245</v>
       </c>
       <c r="K6" s="98" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>240</v>
@@ -8419,7 +8419,7 @@
     </row>
     <row r="7" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K7" s="81" t="s">
         <v>241</v>
@@ -8430,13 +8430,13 @@
     </row>
     <row r="8" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K8" s="33" t="s">
         <v>47</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8444,7 +8444,7 @@
         <v>59</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -12370,17 +12370,17 @@
         <v>24</v>
       </c>
       <c r="C2" s="110" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2" s="111"/>
       <c r="E2" s="112"/>
       <c r="F2" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G2" s="114"/>
       <c r="H2" s="115"/>
       <c r="I2" s="116" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J2" s="117"/>
       <c r="K2" s="118"/>
@@ -12388,42 +12388,42 @@
         <v>22</v>
       </c>
       <c r="M2" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="122"/>
       <c r="B3" s="120"/>
       <c r="C3" s="91" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="91" t="s">
         <v>271</v>
-      </c>
-      <c r="D3" s="91" t="s">
-        <v>272</v>
       </c>
       <c r="E3" s="92" t="s">
         <v>57</v>
       </c>
       <c r="F3" s="93" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" s="93" t="s">
         <v>271</v>
-      </c>
-      <c r="G3" s="93" t="s">
-        <v>272</v>
       </c>
       <c r="H3" s="94" t="s">
         <v>57</v>
       </c>
       <c r="I3" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="J3" s="95" t="s">
         <v>271</v>
-      </c>
-      <c r="J3" s="95" t="s">
-        <v>272</v>
       </c>
       <c r="K3" s="95" t="s">
         <v>57</v>
       </c>
       <c r="L3" s="106"/>
       <c r="M3" s="90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.25">
@@ -12604,7 +12604,7 @@
         <v>56</v>
       </c>
       <c r="M9" s="85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="27" x14ac:dyDescent="0.25">
@@ -12899,7 +12899,7 @@
         <v>397000</v>
       </c>
       <c r="L19" s="85" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M19" s="85" t="s">
         <v>96</v>
@@ -12910,7 +12910,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="85" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C20" s="82"/>
       <c r="D20" s="82"/>
@@ -12930,7 +12930,7 @@
         <v>-2563000</v>
       </c>
       <c r="L20" s="85" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M20" s="85"/>
     </row>
@@ -12939,7 +12939,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="85" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C21" s="82"/>
       <c r="D21" s="82"/>
@@ -12959,7 +12959,7 @@
         <v>-2897000</v>
       </c>
       <c r="L21" s="85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M21" s="85"/>
     </row>
@@ -12968,7 +12968,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="85" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C22" s="82"/>
       <c r="D22" s="82"/>
@@ -12988,7 +12988,7 @@
         <v>-3231000</v>
       </c>
       <c r="L22" s="85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M22" s="85"/>
     </row>
@@ -12997,7 +12997,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="85" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C23" s="82"/>
       <c r="D23" s="82"/>
@@ -13017,7 +13017,7 @@
         <v>-3565000</v>
       </c>
       <c r="L23" s="85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M23" s="85"/>
     </row>
@@ -13026,7 +13026,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="85" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C24" s="82"/>
       <c r="D24" s="82"/>
@@ -13055,7 +13055,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="85" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C25" s="82"/>
       <c r="D25" s="82"/>
@@ -13075,7 +13075,7 @@
         <v>-3565000</v>
       </c>
       <c r="L25" s="85" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M25" s="85"/>
     </row>
@@ -13084,7 +13084,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="85" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C26" s="82"/>
       <c r="D26" s="82"/>
@@ -13115,7 +13115,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C27" s="82"/>
       <c r="D27" s="82"/>
@@ -13135,14 +13135,14 @@
         <v>-3565000</v>
       </c>
       <c r="L27" s="85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M27" s="85"/>
     </row>
     <row r="28" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C28" s="82"/>
       <c r="D28" s="82"/>
@@ -13159,10 +13159,10 @@
         <v>-11565000</v>
       </c>
       <c r="L28" s="85" t="s">
+        <v>287</v>
+      </c>
+      <c r="M28" s="85" t="s">
         <v>288</v>
-      </c>
-      <c r="M28" s="85" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.25">
@@ -13170,7 +13170,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C29" s="82"/>
       <c r="D29" s="82"/>
@@ -13187,10 +13187,10 @@
         <v>-16832000</v>
       </c>
       <c r="L29" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="M29" s="85" t="s">
         <v>286</v>
-      </c>
-      <c r="M29" s="85" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="27" x14ac:dyDescent="0.25">
@@ -16029,6 +16029,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="A204:F204"/>
     <mergeCell ref="A179:E179"/>
@@ -16036,11 +16041,6 @@
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A130:H130"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{9E228265-015F-4ED7-804E-491796425E13}"/>
@@ -16566,7 +16566,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -16590,7 +16590,7 @@
         <v>142</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -16614,7 +16614,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -16638,7 +16638,7 @@
         <v>142</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
@@ -16661,7 +16661,7 @@
         <v>142</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
@@ -16669,13 +16669,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>255</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>256</v>
       </c>
       <c r="E14" s="39">
         <v>600</v>
@@ -16689,13 +16689,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C15" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="39" t="s">
         <v>255</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>256</v>
       </c>
       <c r="E15" s="39">
         <v>100</v>
@@ -16709,13 +16709,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>162</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E16" s="39">
         <v>600</v>
@@ -16724,7 +16724,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -16732,13 +16732,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>162</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E17" s="39">
         <v>100</v>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91811B08-B4E1-495B-92D9-6E2352945A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D925E60-8167-4B97-B250-97719147CF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -19,27 +19,28 @@
     <sheet name="N.04 دفتر روزانه" sheetId="32" r:id="rId4"/>
     <sheet name="فرم های خام N.05" sheetId="11" r:id="rId5"/>
     <sheet name="اطلاعات حساب های ایستگاه N.06" sheetId="14" r:id="rId6"/>
-    <sheet name="مدیریت زونکن یک" sheetId="5" r:id="rId7"/>
-    <sheet name="مدیریت زونکن دو" sheetId="6" r:id="rId8"/>
-    <sheet name="N.21 حواله کود مزرعه و باغ" sheetId="25" r:id="rId9"/>
-    <sheet name="N3 زونکن سه" sheetId="8" r:id="rId10"/>
-    <sheet name="N.31 خرید کود باغ مرکبات" sheetId="31" r:id="rId11"/>
-    <sheet name="لیست مصالح دیوارکشیN.32" sheetId="24" r:id="rId12"/>
-    <sheet name="لیست کارگری دیوارکشیN.33" sheetId="23" r:id="rId13"/>
-    <sheet name="N.34 علی الحساب موقت" sheetId="13" r:id="rId14"/>
-    <sheet name="N.35 تنخواه پیمانکاری دیوارکشی" sheetId="22" r:id="rId15"/>
-    <sheet name="سایر فاکتورهای پرداخت شده" sheetId="16" r:id="rId16"/>
-    <sheet name="خلاصه وضعیت" sheetId="12" r:id="rId17"/>
-    <sheet name="دفتر تنخواه" sheetId="15" r:id="rId18"/>
-    <sheet name="زونکن سه - تنخواه - اداری" sheetId="20" r:id="rId19"/>
-    <sheet name="زونکن سه - تنخواه - قبوض" sheetId="19" r:id="rId20"/>
-    <sheet name="زونکن سه - تنخواه - فرم پذیرایی" sheetId="9" r:id="rId21"/>
-    <sheet name="زونکن سه - تنخواه - سوخت" sheetId="18" r:id="rId22"/>
-    <sheet name="زونکن سه - بایگانی - پذیرایی" sheetId="10" r:id="rId23"/>
-    <sheet name="مدیریت زونکن چهار" sheetId="7" r:id="rId24"/>
-    <sheet name="زونکن چهار - لیست مرخص روزانه" sheetId="28" r:id="rId25"/>
-    <sheet name="لیست فعالیت ماهانه همکاران شرکت" sheetId="30" r:id="rId26"/>
-    <sheet name="زونکن سه - لیست مرخص ساعتی" sheetId="29" r:id="rId27"/>
+    <sheet name="زونکن یک N1" sheetId="5" r:id="rId7"/>
+    <sheet name="ظهور خوشه N.11" sheetId="34" r:id="rId8"/>
+    <sheet name="مدیریت زونکن دو" sheetId="6" r:id="rId9"/>
+    <sheet name="N.21 حواله کود مزرعه و باغ" sheetId="25" r:id="rId10"/>
+    <sheet name="N3 زونکن سه" sheetId="8" r:id="rId11"/>
+    <sheet name="N.31 خرید کود باغ مرکبات" sheetId="31" r:id="rId12"/>
+    <sheet name="لیست مصالح دیوارکشیN.32" sheetId="24" r:id="rId13"/>
+    <sheet name="لیست کارگری دیوارکشیN.33" sheetId="23" r:id="rId14"/>
+    <sheet name="N.34 علی الحساب موقت" sheetId="13" r:id="rId15"/>
+    <sheet name="N.35 تنخواه پیمانکاری دیوارکشی" sheetId="22" r:id="rId16"/>
+    <sheet name="سایر فاکتورهای پرداخت شده" sheetId="16" r:id="rId17"/>
+    <sheet name="خلاصه وضعیت" sheetId="12" r:id="rId18"/>
+    <sheet name="دفتر تنخواه" sheetId="15" r:id="rId19"/>
+    <sheet name="زونکن سه - تنخواه - اداری" sheetId="20" r:id="rId20"/>
+    <sheet name="زونکن سه - تنخواه - قبوض" sheetId="19" r:id="rId21"/>
+    <sheet name="زونکن سه - تنخواه - فرم پذیرایی" sheetId="9" r:id="rId22"/>
+    <sheet name="زونکن سه - تنخواه - سوخت" sheetId="18" r:id="rId23"/>
+    <sheet name="زونکن سه - بایگانی - پذیرایی" sheetId="10" r:id="rId24"/>
+    <sheet name="مدیریت زونکن چهار" sheetId="7" r:id="rId25"/>
+    <sheet name="زونکن چهار - لیست مرخص روزانه" sheetId="28" r:id="rId26"/>
+    <sheet name="لیست فعالیت ماهانه همکاران شرکت" sheetId="30" r:id="rId27"/>
+    <sheet name="زونکن سه - لیست مرخص ساعتی" sheetId="29" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="307">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -938,17 +939,63 @@
   </si>
   <si>
     <t>هوشنگ کیائی + بهرام</t>
+  </si>
+  <si>
+    <t>ظهور خوشه</t>
+  </si>
+  <si>
+    <t>ارتفاع بوته تعداد پنجه</t>
+  </si>
+  <si>
+    <t>وزن درصد رطوبت</t>
+  </si>
+  <si>
+    <t>وزن هزاردانه</t>
+  </si>
+  <si>
+    <t>آمل - ناحیه ای</t>
+  </si>
+  <si>
+    <t>تاریخ نشاکاری :</t>
+  </si>
+  <si>
+    <t>نام لاین</t>
+  </si>
+  <si>
+    <t>50 درصد گلدهی</t>
+  </si>
+  <si>
+    <t>زمان رسیدن</t>
+  </si>
+  <si>
+    <t>ملاحظات</t>
+  </si>
+  <si>
+    <t>جدول ظهور خوشه</t>
+  </si>
+  <si>
+    <t>نام محقق</t>
+  </si>
+  <si>
+    <t>تعداد تیمار</t>
+  </si>
+  <si>
+    <t>تفاضل تاریخ نشاکاری و پنجاه درصد گلدهی بعلاوه 30 روز برابر با زمان رسیدن</t>
+  </si>
+  <si>
+    <t>1404/02/10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0000\/00\/00"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1075,6 +1122,26 @@
     <font>
       <sz val="14"/>
       <name val="B Titr"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="B Zar"/>
       <charset val="178"/>
     </font>
   </fonts>
@@ -1212,7 +1279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1522,13 +1589,191 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1822,6 +2067,63 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1922,6 +2224,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4367,7 +4687,7 @@
   <dimension ref="D2:L8"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4381,16 +4701,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4471,6 +4791,485 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2DB39D-3131-4E2F-B906-B453417A2FF8}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="9" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="6"/>
+    <col min="12" max="12" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="I2" s="162" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="163"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="I3" s="162" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="163"/>
+      <c r="K3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="I4" s="164" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="165"/>
+      <c r="K4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="122" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>1</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="21">
+        <v>450</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
+        <v>2</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="21">
+        <v>100</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
+        <v>3</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="21">
+        <v>100</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
+        <v>4</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="21">
+        <v>100</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="21">
+        <v>100</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
+        <v>6</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="39">
+        <v>600</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <v>7</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="39">
+        <v>100</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>8</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="39">
+        <v>600</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E17" s="39">
+        <v>100</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>10</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+    </row>
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <v>11</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+    </row>
+    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <v>12</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+    </row>
+    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
+        <v>13</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+    </row>
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A22" s="39">
+        <v>14</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+    </row>
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
+        <v>15</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
+        <v>16</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+    </row>
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
+        <v>17</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+    </row>
+    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
+        <v>18</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+    </row>
+    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
+        <v>19</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+    </row>
+    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
+        <v>20</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="L2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{646D7D3D-BFDF-4DDD-9D6A-1A131F6BC3F2}"/>
+    <hyperlink ref="I2:J2" location="'مدیریت زونکن دو'!A1" display="زونکن شماره دو" xr:uid="{E2DA4D76-2DD8-468F-BC85-1193DCE6296C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57F183A-3386-450D-AE91-F3DA30B67E25}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -4500,11 +5299,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="141" t="s">
+      <c r="G2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="143"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -4512,11 +5311,11 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="141" t="s">
+      <c r="G3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="142"/>
-      <c r="I3" s="143"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4525,12 +5324,12 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="146"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="171"/>
       <c r="G5" s="5" t="s">
         <v>212</v>
       </c>
@@ -4694,7 +5493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23092EF-9DF4-42EA-9EF2-6FB21114714F}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
@@ -4735,10 +5534,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="141" t="s">
+      <c r="H2" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="143"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -4754,8 +5553,8 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="143"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4768,10 +5567,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="147" t="s">
+      <c r="H4" s="172" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="148"/>
+      <c r="I4" s="173"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -4800,12 +5599,12 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="122" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
       <c r="E7" s="73"/>
       <c r="F7" s="9"/>
       <c r="G7" s="6"/>
@@ -5154,7 +5953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23F2A4A-1ADA-42DA-84DF-FB5510BE189F}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -5198,10 +5997,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="141" t="s">
+      <c r="I2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="143"/>
+      <c r="J2" s="168"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -5218,10 +6017,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="141" t="s">
+      <c r="I3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="143"/>
+      <c r="J3" s="168"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -5235,10 +6034,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="147" t="s">
+      <c r="I4" s="172" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="148"/>
+      <c r="J4" s="173"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5269,21 +6068,21 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="149" t="s">
+      <c r="I7" s="174" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="149"/>
+      <c r="J7" s="174"/>
+      <c r="K7" s="174"/>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -5617,15 +6416,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECC67F4-E01F-456A-965C-D1525789CDAC}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -5661,10 +6460,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="141" t="s">
+      <c r="I2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="143"/>
+      <c r="J2" s="168"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -5681,10 +6480,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="141" t="s">
+      <c r="I3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="143"/>
+      <c r="J3" s="168"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -5698,10 +6497,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="147" t="s">
+      <c r="I4" s="172" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="148"/>
+      <c r="J4" s="173"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5732,13 +6531,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="122" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
       <c r="F7" s="60"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -6036,7 +6835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A001D87-B52D-4BBB-825A-A2D9C74DF962}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -6080,10 +6879,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="141" t="s">
+      <c r="I2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="143"/>
+      <c r="J2" s="168"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6100,10 +6899,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="141" t="s">
+      <c r="I3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="143"/>
+      <c r="J3" s="168"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6117,10 +6916,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="147" t="s">
+      <c r="I4" s="172" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="148"/>
+      <c r="J4" s="173"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6151,13 +6950,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
       <c r="F7" s="17"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -6500,15 +7299,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7AE76D-6966-4BB9-B043-ED2E5C3B6D23}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -6548,10 +7347,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="141" t="s">
+      <c r="I2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="143"/>
+      <c r="J2" s="168"/>
       <c r="K2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -6565,10 +7364,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="141" t="s">
+      <c r="I3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="143"/>
+      <c r="J3" s="168"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6582,10 +7381,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="147" t="s">
+      <c r="I4" s="172" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="148"/>
+      <c r="J4" s="173"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6616,13 +7415,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
       <c r="F7" s="49"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -6814,11 +7613,20 @@
       <c r="A17" s="39">
         <v>9</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
+      <c r="B17" s="85" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>265</v>
+      </c>
       <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="E17" s="39">
+        <v>907000</v>
+      </c>
+      <c r="F17" s="39">
+        <f>(F16+D17)-E17</f>
+        <v>1863000</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
@@ -6947,7 +7755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03590E6F-F524-4F8C-ACD9-635A648ABCF8}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -6988,10 +7796,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="141" t="s">
+      <c r="H2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="143"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -7007,10 +7815,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="141" t="s">
+      <c r="H3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="143"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -7023,10 +7831,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="147" t="s">
+      <c r="H4" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="148"/>
+      <c r="I4" s="173"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -7041,13 +7849,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -7184,7 +7992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C5079D-A085-4F31-926D-1D8B6D498E67}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -7219,10 +8027,10 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="F2" s="141" t="s">
+      <c r="F2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="143"/>
+      <c r="G2" s="168"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
         <v>10</v>
@@ -7236,10 +8044,10 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="F3" s="141" t="s">
+      <c r="F3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="143"/>
+      <c r="G3" s="168"/>
       <c r="H3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -7250,10 +8058,10 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="F4" s="147" t="s">
+      <c r="F4" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="148"/>
+      <c r="G4" s="173"/>
       <c r="H4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -7266,11 +8074,11 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:12" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:12" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -7347,10 +8155,10 @@
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="150" t="s">
+      <c r="A13" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="151"/>
+      <c r="B13" s="176"/>
       <c r="C13" s="24">
         <f>SUM(C9:C12)</f>
         <v>0</v>
@@ -7373,7 +8181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397A8150-4C95-4F03-85CC-EA5E0B56188A}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -7415,10 +8223,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="141" t="s">
+      <c r="I2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="143"/>
+      <c r="J2" s="168"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -7435,10 +8243,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="141" t="s">
+      <c r="I3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="143"/>
+      <c r="J3" s="168"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -7452,10 +8260,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="147" t="s">
+      <c r="I4" s="172" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="148"/>
+      <c r="J4" s="173"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -7486,13 +8294,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
       <c r="F7" s="27"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -7774,7 +8582,176 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C1A410-FC7C-489E-923F-4169D4A63975}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="121" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+    </row>
+    <row r="4" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K5" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K6" s="98" t="s">
+        <v>276</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K7" s="81" t="s">
+        <v>241</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H4" location="'مدیریت زونکن یک'!A1" display="یک" xr:uid="{5FE9FE58-3527-4026-9FE9-21315B02564B}"/>
+    <hyperlink ref="F4" location="'مدیریت زونکن دو'!A1" display="دو" xr:uid="{2E55D6D8-D527-4D04-8025-712BFAD0DAFB}"/>
+    <hyperlink ref="D4" location="'زونکن سه - تنخواه'!A1" display="سه" xr:uid="{863EFE16-BC07-43F9-8CB6-B9C4C8FE3F71}"/>
+    <hyperlink ref="B4" location="'مدیریت زونکن چهار'!A1" display="چهار" xr:uid="{A032C9B8-DB95-4F3A-899B-8CE6AC6B074C}"/>
+    <hyperlink ref="K8" location="'فرم های خام'!A1" display="فرم های خام" xr:uid="{B61CBFE3-0502-4A24-87C1-B75EE7D3D861}"/>
+    <hyperlink ref="K9" location="'اطلاعات حساب های ایستگاه'!A1" display="اطلاعات حساب های ایستگاه" xr:uid="{62E8C4C2-FBC7-4756-BE75-9B163AA32561}"/>
+    <hyperlink ref="E4" location="'زونکن سه - تنخواه'!A1" display="تنخواه" xr:uid="{55E349AD-7083-44E2-B6AB-FAEB496FFA58}"/>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{8DB2D9B0-82A4-4AA0-8093-2DB0A2D6849B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AF6ECC-C25D-4AE4-9D51-65D2BBBC0054}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -7828,10 +8805,10 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="141" t="s">
+      <c r="L2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="143"/>
+      <c r="M2" s="168"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4" t="s">
         <v>10</v>
@@ -7851,10 +8828,10 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="L3" s="141" t="s">
+      <c r="L3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="143"/>
+      <c r="M3" s="168"/>
       <c r="N3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -7871,10 +8848,10 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="L4" s="147" t="s">
+      <c r="L4" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="148"/>
+      <c r="M4" s="173"/>
       <c r="N4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -7891,10 +8868,10 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="L5" s="152" t="s">
+      <c r="L5" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="153"/>
+      <c r="M5" s="178"/>
       <c r="N5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -7913,16 +8890,16 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:18" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="122" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
       <c r="I7" s="74" t="s">
         <v>207</v>
       </c>
@@ -8297,176 +9274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C1A410-FC7C-489E-923F-4169D4A63975}">
-  <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="G2" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="102" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-    </row>
-    <row r="4" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K5" s="97" t="s">
-        <v>232</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="K6" s="98" t="s">
-        <v>276</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K7" s="81" t="s">
-        <v>241</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K9" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:I3"/>
-  </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H4" location="'مدیریت زونکن یک'!A1" display="یک" xr:uid="{5FE9FE58-3527-4026-9FE9-21315B02564B}"/>
-    <hyperlink ref="F4" location="'مدیریت زونکن دو'!A1" display="دو" xr:uid="{2E55D6D8-D527-4D04-8025-712BFAD0DAFB}"/>
-    <hyperlink ref="D4" location="'زونکن سه - تنخواه'!A1" display="سه" xr:uid="{863EFE16-BC07-43F9-8CB6-B9C4C8FE3F71}"/>
-    <hyperlink ref="B4" location="'مدیریت زونکن چهار'!A1" display="چهار" xr:uid="{A032C9B8-DB95-4F3A-899B-8CE6AC6B074C}"/>
-    <hyperlink ref="K8" location="'فرم های خام'!A1" display="فرم های خام" xr:uid="{B61CBFE3-0502-4A24-87C1-B75EE7D3D861}"/>
-    <hyperlink ref="K9" location="'اطلاعات حساب های ایستگاه'!A1" display="اطلاعات حساب های ایستگاه" xr:uid="{62E8C4C2-FBC7-4756-BE75-9B163AA32561}"/>
-    <hyperlink ref="E4" location="'زونکن سه - تنخواه'!A1" display="تنخواه" xr:uid="{55E349AD-7083-44E2-B6AB-FAEB496FFA58}"/>
-    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{8DB2D9B0-82A4-4AA0-8093-2DB0A2D6849B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611E4142-FA06-4F8C-8479-92BC84077D6A}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -8513,10 +9321,10 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="K2" s="141" t="s">
+      <c r="K2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="143"/>
+      <c r="L2" s="168"/>
       <c r="M2" s="3"/>
       <c r="N2" s="4" t="s">
         <v>10</v>
@@ -8535,10 +9343,10 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="K3" s="141" t="s">
+      <c r="K3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="143"/>
+      <c r="L3" s="168"/>
       <c r="M3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -8554,10 +9362,10 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="K4" s="147" t="s">
+      <c r="K4" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="148"/>
+      <c r="L4" s="173"/>
       <c r="M4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -8573,10 +9381,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="K5" s="152" t="s">
+      <c r="K5" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="153"/>
+      <c r="L5" s="178"/>
       <c r="M5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -8594,16 +9402,16 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:17" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:17" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -8943,7 +9751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74664C7B-AF9D-4AAA-84CE-5A79A28E0748}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -8984,10 +9792,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="141" t="s">
+      <c r="H2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="143"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -9003,10 +9811,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="141" t="s">
+      <c r="H3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="143"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -9019,10 +9827,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="147" t="s">
+      <c r="H4" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="148"/>
+      <c r="I4" s="173"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -9035,10 +9843,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="152" t="s">
+      <c r="H5" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="153"/>
+      <c r="I5" s="178"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -9053,13 +9861,13 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -9303,13 +10111,13 @@
       <c r="E29" s="16"/>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A41" s="103" t="s">
+      <c r="A41" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
     </row>
     <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -9540,7 +10348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E05E92-F6C6-4B7D-8902-B6A7A2B70891}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -9589,10 +10397,10 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="J2" s="141" t="s">
+      <c r="J2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="143"/>
+      <c r="K2" s="168"/>
       <c r="L2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -9607,10 +10415,10 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="J3" s="141" t="s">
+      <c r="J3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="143"/>
+      <c r="K3" s="168"/>
       <c r="L3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -9625,10 +10433,10 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="J4" s="147" t="s">
+      <c r="J4" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="148"/>
+      <c r="K4" s="173"/>
       <c r="L4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -9643,10 +10451,10 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="J5" s="152" t="s">
+      <c r="J5" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="153"/>
+      <c r="K5" s="178"/>
       <c r="L5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -9663,15 +10471,15 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="122" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -9975,7 +10783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4824894-99A7-468B-A8A6-2B99A48AF766}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -10018,10 +10826,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="141" t="s">
+      <c r="H2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="143"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10034,10 +10842,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="141" t="s">
+      <c r="H3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="143"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10050,10 +10858,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="152" t="s">
+      <c r="H4" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="153"/>
+      <c r="I4" s="178"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -10066,10 +10874,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="147" t="s">
+      <c r="H5" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="148"/>
+      <c r="I5" s="173"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -10093,13 +10901,13 @@
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -10410,7 +11218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F6B1EE-0CDB-40D5-AA97-407B3D9B5EAB}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -10436,10 +11244,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="154" t="s">
+      <c r="K2" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="155"/>
+      <c r="L2" s="180"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -10486,7 +11294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306C899E-EDF2-4E78-9E17-5B8A229DB2C4}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -10529,10 +11337,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="130"/>
+      <c r="I2" s="149"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10545,10 +11353,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="154" t="s">
+      <c r="H3" s="179" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="155"/>
+      <c r="I3" s="180"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10563,13 +11371,13 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="122" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -10885,7 +11693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930F3AE4-F05A-41F7-94FE-13D5DDEE4B2A}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -10927,10 +11735,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="130"/>
+      <c r="I2" s="149"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10942,10 +11750,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="154" t="s">
+      <c r="H3" s="179" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="155"/>
+      <c r="I3" s="180"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10959,20 +11767,20 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="182" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
     </row>
     <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="183" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="158"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
+      <c r="B6" s="183"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
       <c r="E6" s="72"/>
       <c r="F6" s="72"/>
       <c r="G6" s="72"/>
@@ -11018,11 +11826,11 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="181" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="71"/>
@@ -11171,11 +11979,11 @@
       <c r="J20" s="72"/>
     </row>
     <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="156" t="s">
+      <c r="B21" s="181" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="181"/>
       <c r="E21" s="72"/>
       <c r="F21" s="72"/>
       <c r="G21" s="72"/>
@@ -11217,20 +12025,20 @@
       <c r="J24" s="68"/>
     </row>
     <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B25" s="157" t="s">
+      <c r="B25" s="182" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="157"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
     </row>
     <row r="26" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="158" t="s">
+      <c r="A26" s="183" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="158"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="158"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="183"/>
     </row>
     <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="B27"/>
@@ -11254,11 +12062,11 @@
       <c r="D29"/>
     </row>
     <row r="30" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="156" t="s">
+      <c r="B30" s="181" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="181"/>
       <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
@@ -11352,11 +12160,11 @@
       <c r="D40" s="72"/>
     </row>
     <row r="41" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="156" t="s">
+      <c r="B41" s="181" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="156"/>
-      <c r="D41" s="156"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11381,7 +12189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F82A5-E35F-4FD7-BC9C-13B5DFE62BF2}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -11419,10 +12227,10 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="G2" s="129" t="s">
+      <c r="G2" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="130"/>
+      <c r="H2" s="149"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
         <v>10</v>
@@ -11437,10 +12245,10 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="154" t="s">
+      <c r="G3" s="179" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="155"/>
+      <c r="H3" s="180"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -11454,12 +12262,12 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="122" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -11777,12 +12585,12 @@
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
     </row>
     <row r="4" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -11828,13 +12636,13 @@
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="122" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
       <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12209,8 +13017,8 @@
       <c r="A122" s="20"/>
     </row>
     <row r="125" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A125" s="103"/>
-      <c r="B125" s="103"/>
+      <c r="A125" s="122"/>
+      <c r="B125" s="122"/>
     </row>
     <row r="126" spans="1:2" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
@@ -12322,8 +13130,8 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
+      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12344,47 +13152,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="107" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="126" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="129" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="113" t="s">
+      <c r="D2" s="130"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132" t="s">
         <v>268</v>
       </c>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116" t="s">
+      <c r="G2" s="133"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="135" t="s">
         <v>269</v>
       </c>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="105" t="s">
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="124" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="90" t="s">
@@ -12392,8 +13200,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="120"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="139"/>
       <c r="C3" s="91" t="s">
         <v>270</v>
       </c>
@@ -12421,7 +13229,7 @@
       <c r="K3" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="106"/>
+      <c r="L3" s="125"/>
       <c r="M3" s="90" t="s">
         <v>274</v>
       </c>
@@ -12496,7 +13304,7 @@
       <c r="F6" s="83"/>
       <c r="G6" s="83"/>
       <c r="H6" s="83">
-        <f t="shared" ref="H6:H27" si="0">(H5+F6)-G6</f>
+        <f t="shared" ref="H6:H30" si="0">(H5+F6)-G6</f>
         <v>0</v>
       </c>
       <c r="I6" s="84"/>
@@ -13149,7 +13957,10 @@
       <c r="E28" s="82"/>
       <c r="F28" s="83"/>
       <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
+      <c r="H28" s="83">
+        <f t="shared" si="0"/>
+        <v>2770000</v>
+      </c>
       <c r="I28" s="84"/>
       <c r="J28" s="84">
         <v>8000000</v>
@@ -13177,7 +13988,10 @@
       <c r="E29" s="82"/>
       <c r="F29" s="83"/>
       <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
+      <c r="H29" s="83">
+        <f t="shared" si="0"/>
+        <v>2770000</v>
+      </c>
       <c r="I29" s="84"/>
       <c r="J29" s="84">
         <v>5267000</v>
@@ -13197,18 +14011,29 @@
       <c r="A30" s="39">
         <v>27</v>
       </c>
-      <c r="B30" s="85"/>
+      <c r="B30" s="85" t="s">
+        <v>306</v>
+      </c>
       <c r="C30" s="82"/>
       <c r="D30" s="82"/>
       <c r="E30" s="82"/>
       <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
+      <c r="G30" s="83">
+        <v>907000</v>
+      </c>
+      <c r="H30" s="83">
+        <f t="shared" si="0"/>
+        <v>1863000</v>
+      </c>
       <c r="I30" s="84"/>
       <c r="J30" s="84"/>
       <c r="K30" s="84"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
+      <c r="L30" s="85" t="s">
+        <v>266</v>
+      </c>
+      <c r="M30" s="85" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
@@ -13529,10 +14354,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="124"/>
+      <c r="B1" s="143"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -13545,10 +14370,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="125" t="s">
+      <c r="H2" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="126"/>
+      <c r="I2" s="145"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -13561,10 +14386,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="127" t="s">
+      <c r="H3" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="128"/>
+      <c r="I3" s="147"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -13593,13 +14418,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -13868,13 +14693,13 @@
       <c r="M30" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A33" s="103" t="s">
+      <c r="A33" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -14098,14 +14923,14 @@
       <c r="F54" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A57" s="104" t="s">
+      <c r="A57" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="104"/>
-      <c r="C57" s="104"/>
-      <c r="D57" s="104"/>
-      <c r="E57" s="104"/>
-      <c r="F57" s="104"/>
+      <c r="B57" s="123"/>
+      <c r="C57" s="123"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="123"/>
+      <c r="F57" s="123"/>
     </row>
     <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -14327,12 +15152,12 @@
       <c r="F78" s="20"/>
     </row>
     <row r="82" spans="1:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="A82" s="104" t="s">
+      <c r="A82" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="104"/>
-      <c r="C82" s="104"/>
-      <c r="D82" s="104"/>
+      <c r="B82" s="123"/>
+      <c r="C82" s="123"/>
+      <c r="D82" s="123"/>
     </row>
     <row r="83" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
@@ -14509,15 +15334,15 @@
       <c r="D103" s="22"/>
     </row>
     <row r="106" spans="1:7" ht="27" x14ac:dyDescent="0.25">
-      <c r="A106" s="103" t="s">
+      <c r="A106" s="122" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="103"/>
-      <c r="C106" s="103"/>
-      <c r="D106" s="103"/>
-      <c r="E106" s="103"/>
-      <c r="F106" s="103"/>
-      <c r="G106" s="103"/>
+      <c r="B106" s="122"/>
+      <c r="C106" s="122"/>
+      <c r="D106" s="122"/>
+      <c r="E106" s="122"/>
+      <c r="F106" s="122"/>
+      <c r="G106" s="122"/>
     </row>
     <row r="107" spans="1:7" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
@@ -14767,16 +15592,16 @@
       <c r="G127" s="20"/>
     </row>
     <row r="130" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A130" s="103" t="s">
+      <c r="A130" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="B130" s="103"/>
-      <c r="C130" s="103"/>
-      <c r="D130" s="103"/>
-      <c r="E130" s="103"/>
-      <c r="F130" s="103"/>
-      <c r="G130" s="103"/>
-      <c r="H130" s="103"/>
+      <c r="B130" s="122"/>
+      <c r="C130" s="122"/>
+      <c r="D130" s="122"/>
+      <c r="E130" s="122"/>
+      <c r="F130" s="122"/>
+      <c r="G130" s="122"/>
+      <c r="H130" s="122"/>
     </row>
     <row r="131" spans="1:8" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
@@ -15045,13 +15870,13 @@
       <c r="H151" s="10"/>
     </row>
     <row r="155" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A155" s="103" t="s">
+      <c r="A155" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="B155" s="103"/>
-      <c r="C155" s="103"/>
-      <c r="D155" s="103"/>
-      <c r="E155" s="103"/>
+      <c r="B155" s="122"/>
+      <c r="C155" s="122"/>
+      <c r="D155" s="122"/>
+      <c r="E155" s="122"/>
       <c r="F155" s="63"/>
     </row>
     <row r="156" spans="1:8" ht="27" x14ac:dyDescent="0.25">
@@ -15275,13 +16100,13 @@
       <c r="F176" s="39"/>
     </row>
     <row r="179" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A179" s="103" t="s">
+      <c r="A179" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="B179" s="103"/>
-      <c r="C179" s="103"/>
-      <c r="D179" s="103"/>
-      <c r="E179" s="103"/>
+      <c r="B179" s="122"/>
+      <c r="C179" s="122"/>
+      <c r="D179" s="122"/>
+      <c r="E179" s="122"/>
       <c r="F179" s="66"/>
     </row>
     <row r="180" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -15501,14 +16326,14 @@
       <c r="F200" s="39"/>
     </row>
     <row r="204" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A204" s="104" t="s">
+      <c r="A204" s="123" t="s">
         <v>219</v>
       </c>
-      <c r="B204" s="104"/>
-      <c r="C204" s="104"/>
-      <c r="D204" s="104"/>
-      <c r="E204" s="104"/>
-      <c r="F204" s="104"/>
+      <c r="B204" s="123"/>
+      <c r="C204" s="123"/>
+      <c r="D204" s="123"/>
+      <c r="E204" s="123"/>
+      <c r="F204" s="123"/>
     </row>
     <row r="205" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A205" s="78" t="s">
@@ -16074,16 +16899,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="124"/>
+      <c r="B1" s="143"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="129" t="s">
+      <c r="J2" s="148" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="130"/>
+      <c r="K2" s="149"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -16123,10 +16948,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="129" t="s">
+      <c r="J12" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="130"/>
+      <c r="K12" s="149"/>
     </row>
     <row r="13" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J13" s="2">
@@ -16197,7 +17022,7 @@
       </c>
     </row>
     <row r="24" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="131" t="s">
+      <c r="I24" s="150" t="s">
         <v>76</v>
       </c>
       <c r="J24" s="2">
@@ -16208,7 +17033,7 @@
       </c>
     </row>
     <row r="25" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="132"/>
+      <c r="I25" s="151"/>
       <c r="J25" s="2" t="s">
         <v>74</v>
       </c>
@@ -16239,13 +17064,16 @@
   </sheetPr>
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="9.140625" style="1"/>
-    <col min="11" max="12" width="25.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="1"/>
     <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
@@ -16257,10 +17085,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="133" t="s">
+      <c r="K2" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="134"/>
+      <c r="L2" s="153"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -16269,34 +17097,32 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="K4" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K5" s="2" t="s">
-        <v>1</v>
+        <v>294</v>
       </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K6" s="2" t="s">
-        <v>2</v>
+        <v>293</v>
       </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K7" s="2" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K8" s="2" t="s">
-        <v>4</v>
+        <v>295</v>
       </c>
       <c r="L8" s="2"/>
     </row>
@@ -16312,6 +17138,291 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F697B8F-1EC9-4454-8B53-8BF8C96D3EB4}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="25.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="6"/>
+    <col min="11" max="11" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="H2" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="155"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="H3" s="156" t="s">
+        <v>292</v>
+      </c>
+      <c r="I3" s="157"/>
+      <c r="J3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="158" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+    </row>
+    <row r="7" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="102" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="104" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" s="105" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="106">
+        <v>14030302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="108" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" s="109" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="110" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="111">
+        <v>1</v>
+      </c>
+      <c r="B10" s="112">
+        <v>14030428</v>
+      </c>
+      <c r="C10" s="112">
+        <v>14030503</v>
+      </c>
+      <c r="D10" s="113" t="e">
+        <f ca="1">(Diff($E$7,C10))+30</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="114"/>
+      <c r="G10" s="159" t="s">
+        <v>305</v>
+      </c>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+    </row>
+    <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="111">
+        <v>2</v>
+      </c>
+      <c r="B11" s="112">
+        <v>14030429</v>
+      </c>
+      <c r="C11" s="112">
+        <v>14030431</v>
+      </c>
+      <c r="D11" s="113" t="e">
+        <f ca="1">(Diff($E$2,C11))+30</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" s="114"/>
+    </row>
+    <row r="12" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="111"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="114"/>
+    </row>
+    <row r="13" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="111"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
+    </row>
+    <row r="14" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="111"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
+    </row>
+    <row r="15" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="111"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
+    </row>
+    <row r="16" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="111"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="111"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="114"/>
+    </row>
+    <row r="18" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="111"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="114"/>
+    </row>
+    <row r="19" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="111"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="114"/>
+    </row>
+    <row r="20" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="111"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="114"/>
+    </row>
+    <row r="21" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="111"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="114"/>
+    </row>
+    <row r="22" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="111"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="114"/>
+    </row>
+    <row r="23" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="115"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="114"/>
+    </row>
+    <row r="24" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="116"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="119"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G10:I10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{5F86CD0C-3EB4-448B-91D8-84638F732456}"/>
+    <hyperlink ref="H2:I2" location="'زونکن یک N1'!A1" display="زونکن شماره دو" xr:uid="{F9257ED5-3024-4D58-9025-13C2EE112160}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2048FEE-3399-40DE-A28A-5C279080E45C}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
@@ -16338,10 +17449,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="135" t="s">
+      <c r="K2" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="136"/>
+      <c r="L2" s="161"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -16392,483 +17503,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2DB39D-3131-4E2F-B906-B453417A2FF8}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:O28"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="27" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="9" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="6"/>
-    <col min="12" max="12" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="I2" s="137" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="138"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="I3" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="J3" s="138"/>
-      <c r="K3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="I4" s="139" t="s">
-        <v>143</v>
-      </c>
-      <c r="J4" s="140"/>
-      <c r="K4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
-        <v>1</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="21">
-        <v>450</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
-        <v>2</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" s="21">
-        <v>100</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
-        <v>3</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="21">
-        <v>100</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
-        <v>4</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="E12" s="21">
-        <v>100</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
-        <v>5</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="E13" s="21">
-        <v>100</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
-        <v>6</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="E14" s="39">
-        <v>600</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
-        <v>7</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="E15" s="39">
-        <v>100</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
-        <v>8</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="E16" s="39">
-        <v>600</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
-        <v>9</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="E17" s="39">
-        <v>100</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
-        <v>10</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-    </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
-        <v>11</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-    </row>
-    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
-        <v>12</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-    </row>
-    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
-        <v>13</v>
-      </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-    </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A22" s="39">
-        <v>14</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-    </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A23" s="39">
-        <v>15</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-    </row>
-    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
-        <v>16</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-    </row>
-    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A25" s="39">
-        <v>17</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-    </row>
-    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="39">
-        <v>18</v>
-      </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-    </row>
-    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
-        <v>19</v>
-      </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-    </row>
-    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A28" s="39">
-        <v>20</v>
-      </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A7:E7"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="L2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{646D7D3D-BFDF-4DDD-9D6A-1A131F6BC3F2}"/>
-    <hyperlink ref="I2:J2" location="'مدیریت زونکن دو'!A1" display="زونکن شماره دو" xr:uid="{E2DA4D76-2DD8-468F-BC85-1193DCE6296C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D925E60-8167-4B97-B250-97719147CF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE937D4-4FBA-4569-B787-0FD2B65F24B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="308">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -984,6 +984,9 @@
   </si>
   <si>
     <t>1404/02/10</t>
+  </si>
+  <si>
+    <t>1404/02/11</t>
   </si>
 </sst>
 </file>
@@ -5960,8 +5963,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -6283,9 +6286,15 @@
       <c r="A17" s="39">
         <v>9</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="39">
+        <v>200</v>
+      </c>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
     </row>
@@ -6293,9 +6302,15 @@
       <c r="A18" s="39">
         <v>10</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="39">
+        <v>400</v>
+      </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
     </row>
@@ -7306,7 +7321,7 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F16" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE937D4-4FBA-4569-B787-0FD2B65F24B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6471933-5E77-4925-B869-79290FE9D1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="309">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -987,6 +987,9 @@
   </si>
   <si>
     <t>1404/02/11</t>
+  </si>
+  <si>
+    <t>1404/02/12</t>
   </si>
 </sst>
 </file>
@@ -5963,7 +5966,7 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -6438,8 +6441,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -6698,30 +6701,54 @@
       <c r="A15" s="39">
         <v>7</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
+      <c r="B15" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" s="39">
+        <v>3</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>136</v>
+      </c>
       <c r="F15" s="39"/>
     </row>
     <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>8</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
+      <c r="B16" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="39">
+        <v>3</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>136</v>
+      </c>
       <c r="F16" s="39"/>
     </row>
     <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>9</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="B17" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="39">
+        <v>3</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>136</v>
+      </c>
       <c r="F17" s="39"/>
     </row>
     <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -6729,7 +6756,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
@@ -6841,6 +6868,7 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="A7:E7"/>
   </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{63FAB3B5-BDDE-475A-B405-B3A904B2124C}"/>
     <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{222970F7-877D-4191-B67C-78F0AA6BFC47}"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6471933-5E77-4925-B869-79290FE9D1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9673979-4481-4018-B3AC-DD95D57DD225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -5966,7 +5966,7 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -6312,7 +6312,7 @@
         <v>148</v>
       </c>
       <c r="D18" s="39">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
@@ -6441,7 +6441,7 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -16897,11 +16897,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="A204:F204"/>
     <mergeCell ref="A179:E179"/>
@@ -16909,6 +16904,11 @@
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A130:H130"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{9E228265-015F-4ED7-804E-491796425E13}"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9673979-4481-4018-B3AC-DD95D57DD225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD5909C-41B3-4ECF-90F1-FE1BCDBBB480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="309">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -923,9 +923,6 @@
     <t>خرید شوینده و سایر وسایل</t>
   </si>
   <si>
-    <t>فروتن</t>
-  </si>
-  <si>
     <t>کود اوره مرکبات</t>
   </si>
   <si>
@@ -990,6 +987,9 @@
   </si>
   <si>
     <t>1404/02/12</t>
+  </si>
+  <si>
+    <t>1404/02/13</t>
   </si>
 </sst>
 </file>
@@ -4693,7 +4693,7 @@
   <dimension ref="D2:L8"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5283,7 +5283,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5703,7 +5703,7 @@
         <v>8000000</v>
       </c>
       <c r="G11" s="76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="27" x14ac:dyDescent="0.25">
@@ -5966,7 +5966,7 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -6290,7 +6290,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C17" s="39" t="s">
         <v>148</v>
@@ -6306,7 +6306,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C18" s="39" t="s">
         <v>148</v>
@@ -6631,7 +6631,7 @@
         <v>246</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D11" s="39">
         <v>2</v>
@@ -6651,7 +6651,7 @@
         <v>249</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D12" s="39">
         <v>2</v>
@@ -6684,7 +6684,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>282</v>
@@ -6693,7 +6693,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F14" s="39"/>
     </row>
@@ -6702,7 +6702,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>282</v>
@@ -6720,7 +6720,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>282</v>
@@ -6738,7 +6738,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>282</v>
@@ -7349,8 +7349,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F17"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -7657,7 +7657,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="85" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C17" s="39" t="s">
         <v>265</v>
@@ -7675,21 +7675,39 @@
       <c r="A18" s="39">
         <v>10</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
+      <c r="B18" s="85" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>265</v>
+      </c>
       <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="E18" s="39">
+        <v>745000</v>
+      </c>
+      <c r="F18" s="39">
+        <f t="shared" ref="F18:F19" si="1">(F17+D18)-E18</f>
+        <v>1118000</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>11</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
+      <c r="B19" s="85" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>281</v>
+      </c>
       <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
+      <c r="E19" s="39">
+        <v>822000</v>
+      </c>
+      <c r="F19" s="39">
+        <f t="shared" si="1"/>
+        <v>296000</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
@@ -13172,9 +13190,9 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:H2"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13347,7 +13365,7 @@
       <c r="F6" s="83"/>
       <c r="G6" s="83"/>
       <c r="H6" s="83">
-        <f t="shared" ref="H6:H30" si="0">(H5+F6)-G6</f>
+        <f t="shared" ref="H6:H32" si="0">(H5+F6)-G6</f>
         <v>0</v>
       </c>
       <c r="I6" s="84"/>
@@ -14013,10 +14031,10 @@
         <v>-11565000</v>
       </c>
       <c r="L28" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="M28" s="85" t="s">
         <v>287</v>
-      </c>
-      <c r="M28" s="85" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.25">
@@ -14046,16 +14064,14 @@
       <c r="L29" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="M29" s="85" t="s">
-        <v>286</v>
-      </c>
+      <c r="M29" s="85"/>
     </row>
     <row r="30" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <v>27</v>
       </c>
       <c r="B30" s="85" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C30" s="82"/>
       <c r="D30" s="82"/>
@@ -14074,42 +14090,58 @@
       <c r="L30" s="85" t="s">
         <v>266</v>
       </c>
-      <c r="M30" s="85" t="s">
-        <v>286</v>
-      </c>
+      <c r="M30" s="85"/>
     </row>
     <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>28</v>
       </c>
-      <c r="B31" s="85"/>
+      <c r="B31" s="85" t="s">
+        <v>308</v>
+      </c>
       <c r="C31" s="82"/>
       <c r="D31" s="82"/>
       <c r="E31" s="82"/>
       <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
+      <c r="G31" s="83">
+        <v>745000</v>
+      </c>
+      <c r="H31" s="83">
+        <f t="shared" si="0"/>
+        <v>1118000</v>
+      </c>
       <c r="I31" s="84"/>
       <c r="J31" s="84"/>
       <c r="K31" s="84"/>
-      <c r="L31" s="85"/>
+      <c r="L31" s="85" t="s">
+        <v>266</v>
+      </c>
       <c r="M31" s="85"/>
     </row>
     <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>29</v>
       </c>
-      <c r="B32" s="85"/>
+      <c r="B32" s="85" t="s">
+        <v>308</v>
+      </c>
       <c r="C32" s="82"/>
       <c r="D32" s="82"/>
       <c r="E32" s="82"/>
       <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
+      <c r="G32" s="83">
+        <v>822000</v>
+      </c>
+      <c r="H32" s="83">
+        <f t="shared" si="0"/>
+        <v>296000</v>
+      </c>
       <c r="I32" s="84"/>
       <c r="J32" s="84"/>
       <c r="K32" s="84"/>
-      <c r="L32" s="85"/>
+      <c r="L32" s="85" t="s">
+        <v>281</v>
+      </c>
       <c r="M32" s="85"/>
     </row>
     <row r="33" spans="1:13" ht="27" x14ac:dyDescent="0.25">
@@ -16897,6 +16929,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="A204:F204"/>
     <mergeCell ref="A179:E179"/>
@@ -16904,11 +16941,6 @@
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A130:H130"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{9E228265-015F-4ED7-804E-491796425E13}"/>
@@ -17147,25 +17179,25 @@
     </row>
     <row r="5" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K5" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K6" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K7" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K8" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L8" s="2"/>
     </row>
@@ -17241,7 +17273,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="H3" s="156" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I3" s="157"/>
       <c r="J3" s="3"/>
@@ -17273,7 +17305,7 @@
     </row>
     <row r="6" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="158" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" s="158"/>
       <c r="C6" s="158"/>
@@ -17282,16 +17314,16 @@
     </row>
     <row r="7" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="103" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="104" t="s">
         <v>303</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="D7" s="105" t="s">
         <v>296</v>
-      </c>
-      <c r="C7" s="104" t="s">
-        <v>304</v>
-      </c>
-      <c r="D7" s="105" t="s">
-        <v>297</v>
       </c>
       <c r="E7" s="106">
         <v>14030302</v>
@@ -17306,19 +17338,19 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="108" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="109" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="109" t="s">
         <v>298</v>
       </c>
-      <c r="B9" s="109" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" s="109" t="s">
+      <c r="D9" s="109" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="E9" s="110" t="s">
         <v>300</v>
-      </c>
-      <c r="E9" s="110" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
@@ -17337,7 +17369,7 @@
       </c>
       <c r="E10" s="114"/>
       <c r="G10" s="159" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H10" s="159"/>
       <c r="I10" s="159"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD5909C-41B3-4ECF-90F1-FE1BCDBBB480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DA3809-8A9D-4246-A6A9-92770CA631AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="309">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -6441,8 +6441,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -6755,10 +6755,18 @@
       <c r="A18" s="39">
         <v>10</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" s="39">
+        <v>3</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>136</v>
+      </c>
       <c r="F18" s="39"/>
     </row>
     <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -13190,7 +13198,7 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DA3809-8A9D-4246-A6A9-92770CA631AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B712623F-15D3-4000-8CA1-222D5B1272F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="312">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -990,6 +990,15 @@
   </si>
   <si>
     <t>1404/02/13</t>
+  </si>
+  <si>
+    <t>1404/02/14</t>
+  </si>
+  <si>
+    <t>خرید کود اوره</t>
+  </si>
+  <si>
+    <t>قبض برق</t>
   </si>
 </sst>
 </file>
@@ -2175,15 +2184,6 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2321,6 +2321,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4839,10 +4848,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="162" t="s">
+      <c r="I2" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="163"/>
+      <c r="J2" s="160"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -4859,10 +4868,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="162" t="s">
+      <c r="I3" s="159" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="163"/>
+      <c r="J3" s="160"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -4876,10 +4885,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="164" t="s">
+      <c r="I4" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="165"/>
+      <c r="J4" s="162"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5305,11 +5314,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="166" t="s">
+      <c r="G2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="167"/>
-      <c r="I2" s="168"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="165"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -5317,11 +5326,11 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="166" t="s">
+      <c r="G3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="167"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="165"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -5330,12 +5339,12 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="166" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="171"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="168"/>
       <c r="G5" s="5" t="s">
         <v>212</v>
       </c>
@@ -5540,10 +5549,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="166" t="s">
+      <c r="H2" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="168"/>
+      <c r="I2" s="165"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -5559,8 +5568,8 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="165"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -5573,10 +5582,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="172" t="s">
+      <c r="H4" s="169" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="173"/>
+      <c r="I4" s="170"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -6003,10 +6012,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="168"/>
+      <c r="J2" s="165"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6023,10 +6032,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="166" t="s">
+      <c r="I3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="168"/>
+      <c r="J3" s="165"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6040,10 +6049,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="172" t="s">
+      <c r="I4" s="169" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="173"/>
+      <c r="J4" s="170"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6084,11 +6093,11 @@
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="174" t="s">
+      <c r="I7" s="171" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="174"/>
-      <c r="K7" s="174"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="171"/>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -6441,8 +6450,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:E18"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -6478,10 +6487,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="168"/>
+      <c r="J2" s="165"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6498,10 +6507,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="166" t="s">
+      <c r="I3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="168"/>
+      <c r="J3" s="165"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6515,10 +6524,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="172" t="s">
+      <c r="I4" s="169" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="173"/>
+      <c r="J4" s="170"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6893,8 +6902,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -6930,10 +6939,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="168"/>
+      <c r="J2" s="165"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6950,10 +6959,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="166" t="s">
+      <c r="I3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="168"/>
+      <c r="J3" s="165"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6967,10 +6976,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="172" t="s">
+      <c r="I4" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="173"/>
+      <c r="J4" s="170"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -7094,7 +7103,7 @@
         <v>352000</v>
       </c>
       <c r="F11" s="39">
-        <f t="shared" ref="F11:F18" si="0">F10-E11</f>
+        <f t="shared" ref="F11:F21" si="0">F10-E11</f>
         <v>7749000</v>
       </c>
       <c r="G11" s="9"/>
@@ -7237,31 +7246,58 @@
       <c r="A19" s="39">
         <v>11</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
+      <c r="B19" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>310</v>
+      </c>
       <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
+      <c r="E19" s="39">
+        <v>8000000</v>
+      </c>
+      <c r="F19" s="39">
+        <f t="shared" si="0"/>
+        <v>-13832000</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>12</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>311</v>
+      </c>
       <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
+      <c r="E20" s="39">
+        <v>4899000</v>
+      </c>
+      <c r="F20" s="39">
+        <f t="shared" si="0"/>
+        <v>-18731000</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>13</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>121</v>
+      </c>
       <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
+      <c r="E21" s="39">
+        <v>3000000</v>
+      </c>
+      <c r="F21" s="39">
+        <f t="shared" si="0"/>
+        <v>-21731000</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
@@ -7398,10 +7434,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="168"/>
+      <c r="J2" s="165"/>
       <c r="K2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -7415,10 +7451,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="166" t="s">
+      <c r="I3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="168"/>
+      <c r="J3" s="165"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -7432,10 +7468,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="172" t="s">
+      <c r="I4" s="169" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="173"/>
+      <c r="J4" s="170"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -7832,7 +7868,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -7865,10 +7901,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="166" t="s">
+      <c r="H2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="168"/>
+      <c r="I2" s="165"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -7884,10 +7920,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="166" t="s">
+      <c r="H3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="168"/>
+      <c r="I3" s="165"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -7900,10 +7936,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="172" t="s">
+      <c r="H4" s="169" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="173"/>
+      <c r="I4" s="170"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -8096,10 +8132,10 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="F2" s="166" t="s">
+      <c r="F2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="168"/>
+      <c r="G2" s="165"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
         <v>10</v>
@@ -8113,10 +8149,10 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="F3" s="166" t="s">
+      <c r="F3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="168"/>
+      <c r="G3" s="165"/>
       <c r="H3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -8127,10 +8163,10 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="F4" s="172" t="s">
+      <c r="F4" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="173"/>
+      <c r="G4" s="170"/>
       <c r="H4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -8224,10 +8260,10 @@
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="175" t="s">
+      <c r="A13" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="176"/>
+      <c r="B13" s="173"/>
       <c r="C13" s="24">
         <f>SUM(C9:C12)</f>
         <v>0</v>
@@ -8292,10 +8328,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="168"/>
+      <c r="J2" s="165"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -8312,10 +8348,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="166" t="s">
+      <c r="I3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="168"/>
+      <c r="J3" s="165"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -8329,10 +8365,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="172" t="s">
+      <c r="I4" s="169" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="173"/>
+      <c r="J4" s="170"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -8829,7 +8865,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="B9" sqref="B9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -8874,10 +8910,10 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="166" t="s">
+      <c r="L2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="168"/>
+      <c r="M2" s="165"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4" t="s">
         <v>10</v>
@@ -8897,10 +8933,10 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="L3" s="166" t="s">
+      <c r="L3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="168"/>
+      <c r="M3" s="165"/>
       <c r="N3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -8917,10 +8953,10 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="L4" s="172" t="s">
+      <c r="L4" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="173"/>
+      <c r="M4" s="170"/>
       <c r="N4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -8937,10 +8973,10 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="L5" s="177" t="s">
+      <c r="L5" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="178"/>
+      <c r="M5" s="175"/>
       <c r="N5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -9018,19 +9054,6 @@
       <c r="A9" s="39">
         <v>1</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39">
-        <v>3000000</v>
-      </c>
       <c r="I9" s="67" t="s">
         <v>206</v>
       </c>
@@ -9303,24 +9326,24 @@
         <v>28</v>
       </c>
       <c r="D29" s="40">
-        <f>SUM(D9:D28)</f>
+        <f>SUM(D10:D28)</f>
         <v>0</v>
       </c>
       <c r="E29" s="44">
-        <f>SUM(E9:E28)</f>
+        <f>SUM(E10:E28)</f>
         <v>0</v>
       </c>
       <c r="F29" s="44">
-        <f>SUM(F9:F28)</f>
+        <f>SUM(F10:F28)</f>
         <v>0</v>
       </c>
       <c r="G29" s="44">
-        <f>SUM(G9:G28)</f>
+        <f>SUM(G10:G28)</f>
         <v>0</v>
       </c>
       <c r="H29" s="44">
-        <f>SUM(H9:H28)</f>
-        <v>3000000</v>
+        <f>SUM(H10:H28)</f>
+        <v>0</v>
       </c>
       <c r="I29" s="44"/>
     </row>
@@ -9390,10 +9413,10 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="K2" s="166" t="s">
+      <c r="K2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="168"/>
+      <c r="L2" s="165"/>
       <c r="M2" s="3"/>
       <c r="N2" s="4" t="s">
         <v>10</v>
@@ -9412,10 +9435,10 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="K3" s="166" t="s">
+      <c r="K3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="168"/>
+      <c r="L3" s="165"/>
       <c r="M3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -9431,10 +9454,10 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="K4" s="172" t="s">
+      <c r="K4" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="173"/>
+      <c r="L4" s="170"/>
       <c r="M4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -9450,10 +9473,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="K5" s="177" t="s">
+      <c r="K5" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="178"/>
+      <c r="L5" s="175"/>
       <c r="M5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -9861,10 +9884,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="166" t="s">
+      <c r="H2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="168"/>
+      <c r="I2" s="165"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -9880,10 +9903,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="166" t="s">
+      <c r="H3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="168"/>
+      <c r="I3" s="165"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -9896,10 +9919,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="172" t="s">
+      <c r="H4" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="173"/>
+      <c r="I4" s="170"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -9912,10 +9935,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="177" t="s">
+      <c r="H5" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="178"/>
+      <c r="I5" s="175"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -10466,10 +10489,10 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="J2" s="166" t="s">
+      <c r="J2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="168"/>
+      <c r="K2" s="165"/>
       <c r="L2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -10484,10 +10507,10 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="J3" s="166" t="s">
+      <c r="J3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="168"/>
+      <c r="K3" s="165"/>
       <c r="L3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -10502,10 +10525,10 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="J4" s="172" t="s">
+      <c r="J4" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="173"/>
+      <c r="K4" s="170"/>
       <c r="L4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -10520,10 +10543,10 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="J5" s="177" t="s">
+      <c r="J5" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="178"/>
+      <c r="K5" s="175"/>
       <c r="L5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -10895,10 +10918,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="166" t="s">
+      <c r="H2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="168"/>
+      <c r="I2" s="165"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10911,10 +10934,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="166" t="s">
+      <c r="H3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="168"/>
+      <c r="I3" s="165"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10927,10 +10950,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="177" t="s">
+      <c r="H4" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="178"/>
+      <c r="I4" s="175"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -10943,10 +10966,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="172" t="s">
+      <c r="H5" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="173"/>
+      <c r="I5" s="170"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -11313,10 +11336,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="179" t="s">
+      <c r="K2" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="180"/>
+      <c r="L2" s="177"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -11406,10 +11429,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="149"/>
+      <c r="I2" s="146"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -11422,10 +11445,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="179" t="s">
+      <c r="H3" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="180"/>
+      <c r="I3" s="177"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -11804,10 +11827,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="149"/>
+      <c r="I2" s="146"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -11819,10 +11842,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="179" t="s">
+      <c r="H3" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="180"/>
+      <c r="I3" s="177"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -11836,20 +11859,20 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="B5" s="182" t="s">
+      <c r="B5" s="179" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
     </row>
     <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="183" t="s">
+      <c r="A6" s="180" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="183"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
       <c r="E6" s="72"/>
       <c r="F6" s="72"/>
       <c r="G6" s="72"/>
@@ -11895,11 +11918,11 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="181" t="s">
+      <c r="B10" s="178" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="181"/>
-      <c r="D10" s="181"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="71"/>
@@ -12048,11 +12071,11 @@
       <c r="J20" s="72"/>
     </row>
     <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="181" t="s">
+      <c r="B21" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="181"/>
-      <c r="D21" s="181"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="178"/>
       <c r="E21" s="72"/>
       <c r="F21" s="72"/>
       <c r="G21" s="72"/>
@@ -12094,20 +12117,20 @@
       <c r="J24" s="68"/>
     </row>
     <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B25" s="182" t="s">
+      <c r="B25" s="179" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="182"/>
-      <c r="D25" s="182"/>
-      <c r="E25" s="182"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="179"/>
     </row>
     <row r="26" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="183" t="s">
+      <c r="A26" s="180" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="183"/>
-      <c r="C26" s="183"/>
-      <c r="D26" s="183"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="180"/>
+      <c r="D26" s="180"/>
     </row>
     <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="B27"/>
@@ -12131,11 +12154,11 @@
       <c r="D29"/>
     </row>
     <row r="30" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="181" t="s">
+      <c r="B30" s="178" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="181"/>
-      <c r="D30" s="181"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
       <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
@@ -12229,11 +12252,11 @@
       <c r="D40" s="72"/>
     </row>
     <row r="41" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="181" t="s">
+      <c r="B41" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="181"/>
-      <c r="D41" s="181"/>
+      <c r="C41" s="178"/>
+      <c r="D41" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12296,10 +12319,10 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="149"/>
+      <c r="H2" s="146"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
         <v>10</v>
@@ -12314,10 +12337,10 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="179" t="s">
+      <c r="G3" s="176" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="180"/>
+      <c r="H3" s="177"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -13198,9 +13221,9 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13240,10 +13263,10 @@
       <c r="M1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="135" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="129" t="s">
@@ -13256,11 +13279,11 @@
       </c>
       <c r="G2" s="133"/>
       <c r="H2" s="134"/>
-      <c r="I2" s="135" t="s">
+      <c r="I2" s="181" t="s">
         <v>269</v>
       </c>
-      <c r="J2" s="136"/>
-      <c r="K2" s="137"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="183"/>
       <c r="L2" s="124" t="s">
         <v>22</v>
       </c>
@@ -13269,8 +13292,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="141"/>
-      <c r="B3" s="139"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="136"/>
       <c r="C3" s="91" t="s">
         <v>270</v>
       </c>
@@ -13381,7 +13404,7 @@
         <v>15500000</v>
       </c>
       <c r="K6" s="84">
-        <f t="shared" ref="K6:K29" si="1">(K5+I6)-J6</f>
+        <f t="shared" ref="K6:K30" si="1">(K5+I6)-J6</f>
         <v>-18500000</v>
       </c>
       <c r="L6" s="85" t="s">
@@ -14093,8 +14116,13 @@
         <v>1863000</v>
       </c>
       <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
+      <c r="J30" s="84">
+        <v>4899000</v>
+      </c>
+      <c r="K30" s="84">
+        <f t="shared" si="1"/>
+        <v>-21731000</v>
+      </c>
       <c r="L30" s="85" t="s">
         <v>266</v>
       </c>
@@ -14156,7 +14184,9 @@
       <c r="A33" s="39">
         <v>30</v>
       </c>
-      <c r="B33" s="85"/>
+      <c r="B33" s="85" t="s">
+        <v>309</v>
+      </c>
       <c r="C33" s="82"/>
       <c r="D33" s="82"/>
       <c r="E33" s="82"/>
@@ -14404,6 +14434,7 @@
   <hyperlinks>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{C9A86160-01A7-4FFF-AE85-83614874BA51}"/>
     <hyperlink ref="F2:H2" location="'N.35 تنخواه پیمانکاری دیوارکشی'!A1" display="تنخواه دیوارکشی آقای سعیدی" xr:uid="{1B951EA9-90AF-4C68-B11E-FE74F818619A}"/>
+    <hyperlink ref="I2:K2" location="'N.34 علی الحساب موقت'!A1" display="تنخواه علی الحساب آقای جعفری" xr:uid="{BA773F72-4537-40EA-B8BF-19F26EF594A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14437,10 +14468,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="143"/>
+      <c r="B1" s="140"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -14453,10 +14484,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="144" t="s">
+      <c r="H2" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="145"/>
+      <c r="I2" s="142"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -14469,10 +14500,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="146" t="s">
+      <c r="H3" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="147"/>
+      <c r="I3" s="144"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -16937,11 +16968,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="A204:F204"/>
     <mergeCell ref="A179:E179"/>
@@ -16949,6 +16975,11 @@
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A130:H130"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{9E228265-015F-4ED7-804E-491796425E13}"/>
@@ -16982,16 +17013,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="143"/>
+      <c r="B1" s="140"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="148" t="s">
+      <c r="J2" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="149"/>
+      <c r="K2" s="146"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -17031,10 +17062,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="148" t="s">
+      <c r="J12" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="149"/>
+      <c r="K12" s="146"/>
     </row>
     <row r="13" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J13" s="2">
@@ -17105,7 +17136,7 @@
       </c>
     </row>
     <row r="24" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="150" t="s">
+      <c r="I24" s="147" t="s">
         <v>76</v>
       </c>
       <c r="J24" s="2">
@@ -17116,7 +17147,7 @@
       </c>
     </row>
     <row r="25" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="151"/>
+      <c r="I25" s="148"/>
       <c r="J25" s="2" t="s">
         <v>74</v>
       </c>
@@ -17147,9 +17178,7 @@
   </sheetPr>
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17168,10 +17197,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="152" t="s">
+      <c r="K2" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="153"/>
+      <c r="L2" s="150"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -17228,7 +17257,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -17261,10 +17290,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="154" t="s">
+      <c r="H2" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="155"/>
+      <c r="I2" s="152"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -17280,10 +17309,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="156" t="s">
+      <c r="H3" s="153" t="s">
         <v>291</v>
       </c>
-      <c r="I3" s="157"/>
+      <c r="I3" s="154"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -17312,13 +17341,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="155" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="158"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
@@ -17376,11 +17405,11 @@
         <v>#NAME?</v>
       </c>
       <c r="E10" s="114"/>
-      <c r="G10" s="159" t="s">
+      <c r="G10" s="156" t="s">
         <v>304</v>
       </c>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="111">
@@ -17532,10 +17561,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="160" t="s">
+      <c r="K2" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="161"/>
+      <c r="L2" s="158"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B712623F-15D3-4000-8CA1-222D5B1272F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91CD57A-6052-4CB8-B781-85947FD5AE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="314">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -999,6 +999,12 @@
   </si>
   <si>
     <t>قبض برق</t>
+  </si>
+  <si>
+    <t>پرداخت قبض برق</t>
+  </si>
+  <si>
+    <t>فروتن</t>
   </si>
 </sst>
 </file>
@@ -2184,6 +2190,15 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2321,15 +2336,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4848,10 +4854,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="159" t="s">
+      <c r="I2" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="160"/>
+      <c r="J2" s="163"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -4868,10 +4874,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="159" t="s">
+      <c r="I3" s="162" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="160"/>
+      <c r="J3" s="163"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -4885,10 +4891,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="161" t="s">
+      <c r="I4" s="164" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="162"/>
+      <c r="J4" s="165"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5314,11 +5320,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="163" t="s">
+      <c r="G2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="164"/>
-      <c r="I2" s="165"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -5326,11 +5332,11 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="163" t="s">
+      <c r="G3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="164"/>
-      <c r="I3" s="165"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -5339,12 +5345,12 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="168"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="171"/>
       <c r="G5" s="5" t="s">
         <v>212</v>
       </c>
@@ -5549,10 +5555,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="163" t="s">
+      <c r="H2" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="165"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -5568,8 +5574,8 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="165"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -5582,10 +5588,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="169" t="s">
+      <c r="H4" s="172" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="170"/>
+      <c r="I4" s="173"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -6012,10 +6018,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="163" t="s">
+      <c r="I2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="165"/>
+      <c r="J2" s="168"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6032,10 +6038,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="163" t="s">
+      <c r="I3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="165"/>
+      <c r="J3" s="168"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6049,10 +6055,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="169" t="s">
+      <c r="I4" s="172" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="170"/>
+      <c r="J4" s="173"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6093,11 +6099,11 @@
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="171" t="s">
+      <c r="I7" s="174" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="171"/>
-      <c r="K7" s="171"/>
+      <c r="J7" s="174"/>
+      <c r="K7" s="174"/>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -6487,10 +6493,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="163" t="s">
+      <c r="I2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="165"/>
+      <c r="J2" s="168"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6507,10 +6513,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="163" t="s">
+      <c r="I3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="165"/>
+      <c r="J3" s="168"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6524,10 +6530,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="169" t="s">
+      <c r="I4" s="172" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="170"/>
+      <c r="J4" s="173"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6902,8 +6908,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -6939,10 +6945,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="163" t="s">
+      <c r="I2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="165"/>
+      <c r="J2" s="168"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6959,10 +6965,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="163" t="s">
+      <c r="I3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="165"/>
+      <c r="J3" s="168"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6976,10 +6982,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="169" t="s">
+      <c r="I4" s="172" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="170"/>
+      <c r="J4" s="173"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -7082,7 +7088,7 @@
         <v>1899000</v>
       </c>
       <c r="F10" s="39">
-        <f>F9-E10</f>
+        <f>(F9+D10)-E10</f>
         <v>8101000</v>
       </c>
       <c r="G10" s="9"/>
@@ -7103,7 +7109,7 @@
         <v>352000</v>
       </c>
       <c r="F11" s="39">
-        <f t="shared" ref="F11:F21" si="0">F10-E11</f>
+        <f t="shared" ref="F11:F22" si="0">(F10+D11)-E11</f>
         <v>7749000</v>
       </c>
       <c r="G11" s="9"/>
@@ -7303,11 +7309,20 @@
       <c r="A22" s="39">
         <v>14</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="39">
+        <v>30000000</v>
+      </c>
       <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
+      <c r="F22" s="39">
+        <f t="shared" si="0"/>
+        <v>8269000</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
@@ -7434,10 +7449,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="163" t="s">
+      <c r="I2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="165"/>
+      <c r="J2" s="168"/>
       <c r="K2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -7451,10 +7466,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="163" t="s">
+      <c r="I3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="165"/>
+      <c r="J3" s="168"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -7468,10 +7483,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="169" t="s">
+      <c r="I4" s="172" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="170"/>
+      <c r="J4" s="173"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -7901,10 +7916,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="163" t="s">
+      <c r="H2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="165"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -7920,10 +7935,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="163" t="s">
+      <c r="H3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="165"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -7936,10 +7951,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="169" t="s">
+      <c r="H4" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="170"/>
+      <c r="I4" s="173"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -8132,10 +8147,10 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="F2" s="163" t="s">
+      <c r="F2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="165"/>
+      <c r="G2" s="168"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
         <v>10</v>
@@ -8149,10 +8164,10 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="F3" s="163" t="s">
+      <c r="F3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="165"/>
+      <c r="G3" s="168"/>
       <c r="H3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -8163,10 +8178,10 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="F4" s="169" t="s">
+      <c r="F4" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="170"/>
+      <c r="G4" s="173"/>
       <c r="H4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -8260,10 +8275,10 @@
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="172" t="s">
+      <c r="A13" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="173"/>
+      <c r="B13" s="176"/>
       <c r="C13" s="24">
         <f>SUM(C9:C12)</f>
         <v>0</v>
@@ -8328,10 +8343,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="163" t="s">
+      <c r="I2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="165"/>
+      <c r="J2" s="168"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -8348,10 +8363,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="163" t="s">
+      <c r="I3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="165"/>
+      <c r="J3" s="168"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -8365,10 +8380,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="169" t="s">
+      <c r="I4" s="172" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="170"/>
+      <c r="J4" s="173"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -8910,10 +8925,10 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="163" t="s">
+      <c r="L2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="165"/>
+      <c r="M2" s="168"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4" t="s">
         <v>10</v>
@@ -8933,10 +8948,10 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="L3" s="163" t="s">
+      <c r="L3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="165"/>
+      <c r="M3" s="168"/>
       <c r="N3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -8953,10 +8968,10 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="L4" s="169" t="s">
+      <c r="L4" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="170"/>
+      <c r="M4" s="173"/>
       <c r="N4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -8973,10 +8988,10 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="L5" s="174" t="s">
+      <c r="L5" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="175"/>
+      <c r="M5" s="178"/>
       <c r="N5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -9413,10 +9428,10 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="K2" s="163" t="s">
+      <c r="K2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="165"/>
+      <c r="L2" s="168"/>
       <c r="M2" s="3"/>
       <c r="N2" s="4" t="s">
         <v>10</v>
@@ -9435,10 +9450,10 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="K3" s="163" t="s">
+      <c r="K3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="165"/>
+      <c r="L3" s="168"/>
       <c r="M3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -9454,10 +9469,10 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="K4" s="169" t="s">
+      <c r="K4" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="170"/>
+      <c r="L4" s="173"/>
       <c r="M4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -9473,10 +9488,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="K5" s="174" t="s">
+      <c r="K5" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="175"/>
+      <c r="L5" s="178"/>
       <c r="M5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -9884,10 +9899,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="163" t="s">
+      <c r="H2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="165"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -9903,10 +9918,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="163" t="s">
+      <c r="H3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="165"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -9919,10 +9934,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="169" t="s">
+      <c r="H4" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="170"/>
+      <c r="I4" s="173"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -9935,10 +9950,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="174" t="s">
+      <c r="H5" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="175"/>
+      <c r="I5" s="178"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -10489,10 +10504,10 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="J2" s="163" t="s">
+      <c r="J2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="165"/>
+      <c r="K2" s="168"/>
       <c r="L2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -10507,10 +10522,10 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="J3" s="163" t="s">
+      <c r="J3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="165"/>
+      <c r="K3" s="168"/>
       <c r="L3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -10525,10 +10540,10 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="J4" s="169" t="s">
+      <c r="J4" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="170"/>
+      <c r="K4" s="173"/>
       <c r="L4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -10543,10 +10558,10 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="J5" s="174" t="s">
+      <c r="J5" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="175"/>
+      <c r="K5" s="178"/>
       <c r="L5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -10918,10 +10933,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="163" t="s">
+      <c r="H2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="165"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10934,10 +10949,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="163" t="s">
+      <c r="H3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="165"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10950,10 +10965,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="174" t="s">
+      <c r="H4" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="175"/>
+      <c r="I4" s="178"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -10966,10 +10981,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="169" t="s">
+      <c r="H5" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="170"/>
+      <c r="I5" s="173"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -11336,10 +11351,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="176" t="s">
+      <c r="K2" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="177"/>
+      <c r="L2" s="180"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -11429,10 +11444,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="145" t="s">
+      <c r="H2" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="146"/>
+      <c r="I2" s="149"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -11445,10 +11460,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="176" t="s">
+      <c r="H3" s="179" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="177"/>
+      <c r="I3" s="180"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -11827,10 +11842,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="145" t="s">
+      <c r="H2" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="146"/>
+      <c r="I2" s="149"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -11842,10 +11857,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="176" t="s">
+      <c r="H3" s="179" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="177"/>
+      <c r="I3" s="180"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -11859,20 +11874,20 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="B5" s="179" t="s">
+      <c r="B5" s="182" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
     </row>
     <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="180" t="s">
+      <c r="A6" s="183" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
+      <c r="B6" s="183"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
       <c r="E6" s="72"/>
       <c r="F6" s="72"/>
       <c r="G6" s="72"/>
@@ -11918,11 +11933,11 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="178" t="s">
+      <c r="B10" s="181" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="178"/>
-      <c r="D10" s="178"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="71"/>
@@ -12071,11 +12086,11 @@
       <c r="J20" s="72"/>
     </row>
     <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="178" t="s">
+      <c r="B21" s="181" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="178"/>
-      <c r="D21" s="178"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="181"/>
       <c r="E21" s="72"/>
       <c r="F21" s="72"/>
       <c r="G21" s="72"/>
@@ -12117,20 +12132,20 @@
       <c r="J24" s="68"/>
     </row>
     <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B25" s="179" t="s">
+      <c r="B25" s="182" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="179"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="179"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
     </row>
     <row r="26" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="180" t="s">
+      <c r="A26" s="183" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="180"/>
-      <c r="C26" s="180"/>
-      <c r="D26" s="180"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="183"/>
     </row>
     <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="B27"/>
@@ -12154,11 +12169,11 @@
       <c r="D29"/>
     </row>
     <row r="30" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="178" t="s">
+      <c r="B30" s="181" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="181"/>
       <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
@@ -12252,11 +12267,11 @@
       <c r="D40" s="72"/>
     </row>
     <row r="41" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="178" t="s">
+      <c r="B41" s="181" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="178"/>
-      <c r="D41" s="178"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12319,10 +12334,10 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="G2" s="145" t="s">
+      <c r="G2" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="146"/>
+      <c r="H2" s="149"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
         <v>10</v>
@@ -12337,10 +12352,10 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="176" t="s">
+      <c r="G3" s="179" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="177"/>
+      <c r="H3" s="180"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -13221,9 +13236,9 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+    <sheetView showGridLines="0" rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13263,10 +13278,10 @@
       <c r="M1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="138" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="129" t="s">
@@ -13279,11 +13294,11 @@
       </c>
       <c r="G2" s="133"/>
       <c r="H2" s="134"/>
-      <c r="I2" s="181" t="s">
+      <c r="I2" s="135" t="s">
         <v>269</v>
       </c>
-      <c r="J2" s="182"/>
-      <c r="K2" s="183"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
       <c r="L2" s="124" t="s">
         <v>22</v>
       </c>
@@ -13292,8 +13307,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="138"/>
-      <c r="B3" s="136"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="139"/>
       <c r="C3" s="91" t="s">
         <v>270</v>
       </c>
@@ -13404,7 +13419,7 @@
         <v>15500000</v>
       </c>
       <c r="K6" s="84">
-        <f t="shared" ref="K6:K30" si="1">(K5+I6)-J6</f>
+        <f t="shared" ref="K6:K34" si="1">(K5+I6)-J6</f>
         <v>-18500000</v>
       </c>
       <c r="L6" s="85" t="s">
@@ -14116,12 +14131,9 @@
         <v>1863000</v>
       </c>
       <c r="I30" s="84"/>
-      <c r="J30" s="84">
-        <v>4899000</v>
-      </c>
       <c r="K30" s="84">
         <f t="shared" si="1"/>
-        <v>-21731000</v>
+        <v>-16832000</v>
       </c>
       <c r="L30" s="85" t="s">
         <v>266</v>
@@ -14148,7 +14160,10 @@
       </c>
       <c r="I31" s="84"/>
       <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
+      <c r="K31" s="84">
+        <f t="shared" si="1"/>
+        <v>-16832000</v>
+      </c>
       <c r="L31" s="85" t="s">
         <v>266</v>
       </c>
@@ -14174,7 +14189,10 @@
       </c>
       <c r="I32" s="84"/>
       <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
+      <c r="K32" s="84">
+        <f t="shared" si="1"/>
+        <v>-16832000</v>
+      </c>
       <c r="L32" s="85" t="s">
         <v>281</v>
       </c>
@@ -14194,26 +14212,44 @@
       <c r="G33" s="83"/>
       <c r="H33" s="83"/>
       <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
+      <c r="J33" s="84">
+        <v>4899000</v>
+      </c>
+      <c r="K33" s="84">
+        <f t="shared" si="1"/>
+        <v>-21731000</v>
+      </c>
+      <c r="L33" s="85" t="s">
+        <v>312</v>
+      </c>
+      <c r="M33" s="85" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>31</v>
       </c>
-      <c r="B34" s="85"/>
+      <c r="B34" s="85" t="s">
+        <v>309</v>
+      </c>
       <c r="C34" s="82"/>
       <c r="D34" s="82"/>
       <c r="E34" s="82"/>
       <c r="F34" s="83"/>
       <c r="G34" s="83"/>
       <c r="H34" s="83"/>
-      <c r="I34" s="84"/>
+      <c r="I34" s="84">
+        <v>30000000</v>
+      </c>
       <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="85"/>
+      <c r="K34" s="84">
+        <f t="shared" si="1"/>
+        <v>8269000</v>
+      </c>
+      <c r="L34" s="85" t="s">
+        <v>53</v>
+      </c>
       <c r="M34" s="85"/>
     </row>
     <row r="35" spans="1:13" ht="27" x14ac:dyDescent="0.25">
@@ -14468,10 +14504,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="140"/>
+      <c r="B1" s="143"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -14484,10 +14520,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="141" t="s">
+      <c r="H2" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="142"/>
+      <c r="I2" s="145"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -14500,10 +14536,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="143" t="s">
+      <c r="H3" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="144"/>
+      <c r="I3" s="147"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -16968,6 +17004,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="A204:F204"/>
     <mergeCell ref="A179:E179"/>
@@ -16975,11 +17016,6 @@
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A130:H130"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{9E228265-015F-4ED7-804E-491796425E13}"/>
@@ -17013,16 +17049,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="140"/>
+      <c r="B1" s="143"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="145" t="s">
+      <c r="J2" s="148" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="146"/>
+      <c r="K2" s="149"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -17062,10 +17098,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="145" t="s">
+      <c r="J12" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="146"/>
+      <c r="K12" s="149"/>
     </row>
     <row r="13" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J13" s="2">
@@ -17136,7 +17172,7 @@
       </c>
     </row>
     <row r="24" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="147" t="s">
+      <c r="I24" s="150" t="s">
         <v>76</v>
       </c>
       <c r="J24" s="2">
@@ -17147,7 +17183,7 @@
       </c>
     </row>
     <row r="25" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="148"/>
+      <c r="I25" s="151"/>
       <c r="J25" s="2" t="s">
         <v>74</v>
       </c>
@@ -17197,10 +17233,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="149" t="s">
+      <c r="K2" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="150"/>
+      <c r="L2" s="153"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -17290,10 +17326,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="151" t="s">
+      <c r="H2" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="152"/>
+      <c r="I2" s="155"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -17309,10 +17345,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="153" t="s">
+      <c r="H3" s="156" t="s">
         <v>291</v>
       </c>
-      <c r="I3" s="154"/>
+      <c r="I3" s="157"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -17341,13 +17377,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="158" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
@@ -17405,11 +17441,11 @@
         <v>#NAME?</v>
       </c>
       <c r="E10" s="114"/>
-      <c r="G10" s="156" t="s">
+      <c r="G10" s="159" t="s">
         <v>304</v>
       </c>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="111">
@@ -17561,10 +17597,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="157" t="s">
+      <c r="K2" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="158"/>
+      <c r="L2" s="161"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91CD57A-6052-4CB8-B781-85947FD5AE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01BF488-0715-45D4-84D3-A4B9FCE3708C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="313">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -1002,9 +1002,6 @@
   </si>
   <si>
     <t>پرداخت قبض برق</t>
-  </si>
-  <si>
-    <t>فروتن</t>
   </si>
 </sst>
 </file>
@@ -2190,15 +2187,6 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2336,6 +2324,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4854,10 +4851,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="162" t="s">
+      <c r="I2" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="163"/>
+      <c r="J2" s="160"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -4874,10 +4871,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="162" t="s">
+      <c r="I3" s="159" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="163"/>
+      <c r="J3" s="160"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -4891,10 +4888,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="164" t="s">
+      <c r="I4" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="165"/>
+      <c r="J4" s="162"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5320,11 +5317,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="166" t="s">
+      <c r="G2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="167"/>
-      <c r="I2" s="168"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="165"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -5332,11 +5329,11 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="166" t="s">
+      <c r="G3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="167"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="165"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -5345,12 +5342,12 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="166" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="171"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="168"/>
       <c r="G5" s="5" t="s">
         <v>212</v>
       </c>
@@ -5555,10 +5552,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="166" t="s">
+      <c r="H2" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="168"/>
+      <c r="I2" s="165"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -5574,8 +5571,8 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="165"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -5588,10 +5585,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="172" t="s">
+      <c r="H4" s="169" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="173"/>
+      <c r="I4" s="170"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -6018,10 +6015,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="168"/>
+      <c r="J2" s="165"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6038,10 +6035,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="166" t="s">
+      <c r="I3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="168"/>
+      <c r="J3" s="165"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6055,10 +6052,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="172" t="s">
+      <c r="I4" s="169" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="173"/>
+      <c r="J4" s="170"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6099,11 +6096,11 @@
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="174" t="s">
+      <c r="I7" s="171" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="174"/>
-      <c r="K7" s="174"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="171"/>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -6493,10 +6490,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="168"/>
+      <c r="J2" s="165"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6513,10 +6510,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="166" t="s">
+      <c r="I3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="168"/>
+      <c r="J3" s="165"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6530,10 +6527,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="172" t="s">
+      <c r="I4" s="169" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="173"/>
+      <c r="J4" s="170"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6908,7 +6905,7 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -6945,10 +6942,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="168"/>
+      <c r="J2" s="165"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6965,10 +6962,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="166" t="s">
+      <c r="I3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="168"/>
+      <c r="J3" s="165"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6982,10 +6979,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="172" t="s">
+      <c r="I4" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="173"/>
+      <c r="J4" s="170"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -7449,10 +7446,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="168"/>
+      <c r="J2" s="165"/>
       <c r="K2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -7466,10 +7463,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="166" t="s">
+      <c r="I3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="168"/>
+      <c r="J3" s="165"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -7483,10 +7480,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="172" t="s">
+      <c r="I4" s="169" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="173"/>
+      <c r="J4" s="170"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -7916,10 +7913,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="166" t="s">
+      <c r="H2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="168"/>
+      <c r="I2" s="165"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -7935,10 +7932,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="166" t="s">
+      <c r="H3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="168"/>
+      <c r="I3" s="165"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -7951,10 +7948,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="172" t="s">
+      <c r="H4" s="169" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="173"/>
+      <c r="I4" s="170"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -8147,10 +8144,10 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="F2" s="166" t="s">
+      <c r="F2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="168"/>
+      <c r="G2" s="165"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
         <v>10</v>
@@ -8164,10 +8161,10 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="F3" s="166" t="s">
+      <c r="F3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="168"/>
+      <c r="G3" s="165"/>
       <c r="H3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -8178,10 +8175,10 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="F4" s="172" t="s">
+      <c r="F4" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="173"/>
+      <c r="G4" s="170"/>
       <c r="H4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -8275,10 +8272,10 @@
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="175" t="s">
+      <c r="A13" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="176"/>
+      <c r="B13" s="173"/>
       <c r="C13" s="24">
         <f>SUM(C9:C12)</f>
         <v>0</v>
@@ -8343,10 +8340,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="168"/>
+      <c r="J2" s="165"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -8363,10 +8360,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="166" t="s">
+      <c r="I3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="168"/>
+      <c r="J3" s="165"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -8380,10 +8377,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="172" t="s">
+      <c r="I4" s="169" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="173"/>
+      <c r="J4" s="170"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -8925,10 +8922,10 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="166" t="s">
+      <c r="L2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="168"/>
+      <c r="M2" s="165"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4" t="s">
         <v>10</v>
@@ -8948,10 +8945,10 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="L3" s="166" t="s">
+      <c r="L3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="168"/>
+      <c r="M3" s="165"/>
       <c r="N3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -8968,10 +8965,10 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="L4" s="172" t="s">
+      <c r="L4" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="173"/>
+      <c r="M4" s="170"/>
       <c r="N4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -8988,10 +8985,10 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="L5" s="177" t="s">
+      <c r="L5" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="178"/>
+      <c r="M5" s="175"/>
       <c r="N5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -9428,10 +9425,10 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="K2" s="166" t="s">
+      <c r="K2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="168"/>
+      <c r="L2" s="165"/>
       <c r="M2" s="3"/>
       <c r="N2" s="4" t="s">
         <v>10</v>
@@ -9450,10 +9447,10 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="K3" s="166" t="s">
+      <c r="K3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="168"/>
+      <c r="L3" s="165"/>
       <c r="M3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -9469,10 +9466,10 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="K4" s="172" t="s">
+      <c r="K4" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="173"/>
+      <c r="L4" s="170"/>
       <c r="M4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -9488,10 +9485,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="K5" s="177" t="s">
+      <c r="K5" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="178"/>
+      <c r="L5" s="175"/>
       <c r="M5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -9899,10 +9896,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="166" t="s">
+      <c r="H2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="168"/>
+      <c r="I2" s="165"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -9918,10 +9915,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="166" t="s">
+      <c r="H3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="168"/>
+      <c r="I3" s="165"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -9934,10 +9931,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="172" t="s">
+      <c r="H4" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="173"/>
+      <c r="I4" s="170"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -9950,10 +9947,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="177" t="s">
+      <c r="H5" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="178"/>
+      <c r="I5" s="175"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -10504,10 +10501,10 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="J2" s="166" t="s">
+      <c r="J2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="168"/>
+      <c r="K2" s="165"/>
       <c r="L2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -10522,10 +10519,10 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="J3" s="166" t="s">
+      <c r="J3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="168"/>
+      <c r="K3" s="165"/>
       <c r="L3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -10540,10 +10537,10 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="J4" s="172" t="s">
+      <c r="J4" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="173"/>
+      <c r="K4" s="170"/>
       <c r="L4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -10558,10 +10555,10 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="J5" s="177" t="s">
+      <c r="J5" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="178"/>
+      <c r="K5" s="175"/>
       <c r="L5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -10933,10 +10930,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="166" t="s">
+      <c r="H2" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="168"/>
+      <c r="I2" s="165"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10949,10 +10946,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="166" t="s">
+      <c r="H3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="168"/>
+      <c r="I3" s="165"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10965,10 +10962,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="177" t="s">
+      <c r="H4" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="178"/>
+      <c r="I4" s="175"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -10981,10 +10978,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="172" t="s">
+      <c r="H5" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="173"/>
+      <c r="I5" s="170"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -11351,10 +11348,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="179" t="s">
+      <c r="K2" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="180"/>
+      <c r="L2" s="177"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -11444,10 +11441,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="149"/>
+      <c r="I2" s="146"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -11460,10 +11457,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="179" t="s">
+      <c r="H3" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="180"/>
+      <c r="I3" s="177"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -11842,10 +11839,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="149"/>
+      <c r="I2" s="146"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -11857,10 +11854,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="179" t="s">
+      <c r="H3" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="180"/>
+      <c r="I3" s="177"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -11874,20 +11871,20 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="B5" s="182" t="s">
+      <c r="B5" s="179" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
     </row>
     <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="183" t="s">
+      <c r="A6" s="180" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="183"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
       <c r="E6" s="72"/>
       <c r="F6" s="72"/>
       <c r="G6" s="72"/>
@@ -11933,11 +11930,11 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="181" t="s">
+      <c r="B10" s="178" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="181"/>
-      <c r="D10" s="181"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="71"/>
@@ -12086,11 +12083,11 @@
       <c r="J20" s="72"/>
     </row>
     <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="181" t="s">
+      <c r="B21" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="181"/>
-      <c r="D21" s="181"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="178"/>
       <c r="E21" s="72"/>
       <c r="F21" s="72"/>
       <c r="G21" s="72"/>
@@ -12132,20 +12129,20 @@
       <c r="J24" s="68"/>
     </row>
     <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B25" s="182" t="s">
+      <c r="B25" s="179" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="182"/>
-      <c r="D25" s="182"/>
-      <c r="E25" s="182"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="179"/>
     </row>
     <row r="26" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="183" t="s">
+      <c r="A26" s="180" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="183"/>
-      <c r="C26" s="183"/>
-      <c r="D26" s="183"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="180"/>
+      <c r="D26" s="180"/>
     </row>
     <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="B27"/>
@@ -12169,11 +12166,11 @@
       <c r="D29"/>
     </row>
     <row r="30" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="181" t="s">
+      <c r="B30" s="178" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="181"/>
-      <c r="D30" s="181"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
       <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
@@ -12267,11 +12264,11 @@
       <c r="D40" s="72"/>
     </row>
     <row r="41" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="181" t="s">
+      <c r="B41" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="181"/>
-      <c r="D41" s="181"/>
+      <c r="C41" s="178"/>
+      <c r="D41" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12334,10 +12331,10 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="149"/>
+      <c r="H2" s="146"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
         <v>10</v>
@@ -12352,10 +12349,10 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="179" t="s">
+      <c r="G3" s="176" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="180"/>
+      <c r="H3" s="177"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -13236,9 +13233,9 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2:K2"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13278,10 +13275,10 @@
       <c r="M1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="135" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="129" t="s">
@@ -13294,11 +13291,11 @@
       </c>
       <c r="G2" s="133"/>
       <c r="H2" s="134"/>
-      <c r="I2" s="135" t="s">
+      <c r="I2" s="181" t="s">
         <v>269</v>
       </c>
-      <c r="J2" s="136"/>
-      <c r="K2" s="137"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="183"/>
       <c r="L2" s="124" t="s">
         <v>22</v>
       </c>
@@ -13307,8 +13304,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="141"/>
-      <c r="B3" s="139"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="136"/>
       <c r="C3" s="91" t="s">
         <v>270</v>
       </c>
@@ -13394,9 +13391,7 @@
       <c r="L5" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="M5" s="85" t="s">
-        <v>224</v>
-      </c>
+      <c r="M5" s="85"/>
     </row>
     <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
@@ -13425,9 +13420,7 @@
       <c r="L6" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="M6" s="85" t="s">
-        <v>224</v>
-      </c>
+      <c r="M6" s="85"/>
     </row>
     <row r="7" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
@@ -13725,9 +13718,7 @@
       <c r="L16" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="M16" s="85" t="s">
-        <v>224</v>
-      </c>
+      <c r="M16" s="85"/>
     </row>
     <row r="17" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
@@ -13785,9 +13776,7 @@
       <c r="L18" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="M18" s="85" t="s">
-        <v>229</v>
-      </c>
+      <c r="M18" s="85"/>
     </row>
     <row r="19" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
@@ -14079,9 +14068,7 @@
       <c r="L28" s="85" t="s">
         <v>286</v>
       </c>
-      <c r="M28" s="85" t="s">
-        <v>287</v>
-      </c>
+      <c r="M28" s="85"/>
     </row>
     <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
@@ -14222,9 +14209,7 @@
       <c r="L33" s="85" t="s">
         <v>312</v>
       </c>
-      <c r="M33" s="85" t="s">
-        <v>313</v>
-      </c>
+      <c r="M33" s="85"/>
     </row>
     <row r="34" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
@@ -14470,7 +14455,6 @@
   <hyperlinks>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{C9A86160-01A7-4FFF-AE85-83614874BA51}"/>
     <hyperlink ref="F2:H2" location="'N.35 تنخواه پیمانکاری دیوارکشی'!A1" display="تنخواه دیوارکشی آقای سعیدی" xr:uid="{1B951EA9-90AF-4C68-B11E-FE74F818619A}"/>
-    <hyperlink ref="I2:K2" location="'N.34 علی الحساب موقت'!A1" display="تنخواه علی الحساب آقای جعفری" xr:uid="{BA773F72-4537-40EA-B8BF-19F26EF594A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14504,10 +14488,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="143"/>
+      <c r="B1" s="140"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -14520,10 +14504,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="144" t="s">
+      <c r="H2" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="145"/>
+      <c r="I2" s="142"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -14536,10 +14520,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="146" t="s">
+      <c r="H3" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="147"/>
+      <c r="I3" s="144"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -17049,16 +17033,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="143"/>
+      <c r="B1" s="140"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="148" t="s">
+      <c r="J2" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="149"/>
+      <c r="K2" s="146"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -17098,10 +17082,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="148" t="s">
+      <c r="J12" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="149"/>
+      <c r="K12" s="146"/>
     </row>
     <row r="13" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J13" s="2">
@@ -17172,7 +17156,7 @@
       </c>
     </row>
     <row r="24" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="150" t="s">
+      <c r="I24" s="147" t="s">
         <v>76</v>
       </c>
       <c r="J24" s="2">
@@ -17183,7 +17167,7 @@
       </c>
     </row>
     <row r="25" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="151"/>
+      <c r="I25" s="148"/>
       <c r="J25" s="2" t="s">
         <v>74</v>
       </c>
@@ -17233,10 +17217,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="152" t="s">
+      <c r="K2" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="153"/>
+      <c r="L2" s="150"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -17326,10 +17310,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="154" t="s">
+      <c r="H2" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="155"/>
+      <c r="I2" s="152"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -17345,10 +17329,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="156" t="s">
+      <c r="H3" s="153" t="s">
         <v>291</v>
       </c>
-      <c r="I3" s="157"/>
+      <c r="I3" s="154"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -17377,13 +17361,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="155" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="158"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
@@ -17441,11 +17425,11 @@
         <v>#NAME?</v>
       </c>
       <c r="E10" s="114"/>
-      <c r="G10" s="159" t="s">
+      <c r="G10" s="156" t="s">
         <v>304</v>
       </c>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="111">
@@ -17597,10 +17581,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="160" t="s">
+      <c r="K2" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="161"/>
+      <c r="L2" s="158"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01BF488-0715-45D4-84D3-A4B9FCE3708C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4325F3A8-658C-4975-B8E2-BF23704EC5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="315">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -1002,6 +1002,12 @@
   </si>
   <si>
     <t>پرداخت قبض برق</t>
+  </si>
+  <si>
+    <t>1404/02/20</t>
+  </si>
+  <si>
+    <t>آب معدنی</t>
   </si>
 </sst>
 </file>
@@ -2187,6 +2193,15 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2324,15 +2339,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4851,10 +4857,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="159" t="s">
+      <c r="I2" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="160"/>
+      <c r="J2" s="163"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -4871,10 +4877,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="159" t="s">
+      <c r="I3" s="162" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="160"/>
+      <c r="J3" s="163"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -4888,10 +4894,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="161" t="s">
+      <c r="I4" s="164" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="162"/>
+      <c r="J4" s="165"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5317,11 +5323,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="163" t="s">
+      <c r="G2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="164"/>
-      <c r="I2" s="165"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -5329,11 +5335,11 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="163" t="s">
+      <c r="G3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="164"/>
-      <c r="I3" s="165"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -5342,12 +5348,12 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="168"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="171"/>
       <c r="G5" s="5" t="s">
         <v>212</v>
       </c>
@@ -5552,10 +5558,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="163" t="s">
+      <c r="H2" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="165"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -5571,8 +5577,8 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="165"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -5585,10 +5591,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="169" t="s">
+      <c r="H4" s="172" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="170"/>
+      <c r="I4" s="173"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -6015,10 +6021,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="163" t="s">
+      <c r="I2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="165"/>
+      <c r="J2" s="168"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6035,10 +6041,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="163" t="s">
+      <c r="I3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="165"/>
+      <c r="J3" s="168"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6052,10 +6058,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="169" t="s">
+      <c r="I4" s="172" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="170"/>
+      <c r="J4" s="173"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6096,11 +6102,11 @@
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="171" t="s">
+      <c r="I7" s="174" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="171"/>
-      <c r="K7" s="171"/>
+      <c r="J7" s="174"/>
+      <c r="K7" s="174"/>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -6490,10 +6496,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="163" t="s">
+      <c r="I2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="165"/>
+      <c r="J2" s="168"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6510,10 +6516,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="163" t="s">
+      <c r="I3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="165"/>
+      <c r="J3" s="168"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6527,10 +6533,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="169" t="s">
+      <c r="I4" s="172" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="170"/>
+      <c r="J4" s="173"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6942,10 +6948,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="163" t="s">
+      <c r="I2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="165"/>
+      <c r="J2" s="168"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6962,10 +6968,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="163" t="s">
+      <c r="I3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="165"/>
+      <c r="J3" s="168"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6979,10 +6985,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="169" t="s">
+      <c r="I4" s="172" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="170"/>
+      <c r="J4" s="173"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -7405,8 +7411,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -7446,10 +7452,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="163" t="s">
+      <c r="I2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="165"/>
+      <c r="J2" s="168"/>
       <c r="K2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -7463,10 +7469,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="163" t="s">
+      <c r="I3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="165"/>
+      <c r="J3" s="168"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -7480,10 +7486,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="169" t="s">
+      <c r="I4" s="172" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="170"/>
+      <c r="J4" s="173"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -7742,7 +7748,7 @@
         <v>745000</v>
       </c>
       <c r="F18" s="39">
-        <f t="shared" ref="F18:F19" si="1">(F17+D18)-E18</f>
+        <f t="shared" ref="F18:F20" si="1">(F17+D18)-E18</f>
         <v>1118000</v>
       </c>
     </row>
@@ -7769,11 +7775,20 @@
       <c r="A20" s="39">
         <v>12</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="85" t="s">
+        <v>313</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>314</v>
+      </c>
       <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
+      <c r="E20" s="39">
+        <v>330000</v>
+      </c>
+      <c r="F20" s="39">
+        <f t="shared" si="1"/>
+        <v>-34000</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
@@ -7913,10 +7928,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="163" t="s">
+      <c r="H2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="165"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -7932,10 +7947,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="163" t="s">
+      <c r="H3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="165"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -7948,10 +7963,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="169" t="s">
+      <c r="H4" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="170"/>
+      <c r="I4" s="173"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -8144,10 +8159,10 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="F2" s="163" t="s">
+      <c r="F2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="165"/>
+      <c r="G2" s="168"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
         <v>10</v>
@@ -8161,10 +8176,10 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="F3" s="163" t="s">
+      <c r="F3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="165"/>
+      <c r="G3" s="168"/>
       <c r="H3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -8175,10 +8190,10 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="F4" s="169" t="s">
+      <c r="F4" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="170"/>
+      <c r="G4" s="173"/>
       <c r="H4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -8272,10 +8287,10 @@
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="172" t="s">
+      <c r="A13" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="173"/>
+      <c r="B13" s="176"/>
       <c r="C13" s="24">
         <f>SUM(C9:C12)</f>
         <v>0</v>
@@ -8340,10 +8355,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="163" t="s">
+      <c r="I2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="165"/>
+      <c r="J2" s="168"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -8360,10 +8375,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="163" t="s">
+      <c r="I3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="165"/>
+      <c r="J3" s="168"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -8377,10 +8392,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="169" t="s">
+      <c r="I4" s="172" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="170"/>
+      <c r="J4" s="173"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -8922,10 +8937,10 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="163" t="s">
+      <c r="L2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="165"/>
+      <c r="M2" s="168"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4" t="s">
         <v>10</v>
@@ -8945,10 +8960,10 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="L3" s="163" t="s">
+      <c r="L3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="165"/>
+      <c r="M3" s="168"/>
       <c r="N3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -8965,10 +8980,10 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="L4" s="169" t="s">
+      <c r="L4" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="170"/>
+      <c r="M4" s="173"/>
       <c r="N4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -8985,10 +9000,10 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="L5" s="174" t="s">
+      <c r="L5" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="175"/>
+      <c r="M5" s="178"/>
       <c r="N5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -9425,10 +9440,10 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="K2" s="163" t="s">
+      <c r="K2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="165"/>
+      <c r="L2" s="168"/>
       <c r="M2" s="3"/>
       <c r="N2" s="4" t="s">
         <v>10</v>
@@ -9447,10 +9462,10 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="K3" s="163" t="s">
+      <c r="K3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="165"/>
+      <c r="L3" s="168"/>
       <c r="M3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -9466,10 +9481,10 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="K4" s="169" t="s">
+      <c r="K4" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="170"/>
+      <c r="L4" s="173"/>
       <c r="M4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -9485,10 +9500,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="K5" s="174" t="s">
+      <c r="K5" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="175"/>
+      <c r="L5" s="178"/>
       <c r="M5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -9896,10 +9911,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="163" t="s">
+      <c r="H2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="165"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -9915,10 +9930,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="163" t="s">
+      <c r="H3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="165"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -9931,10 +9946,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="169" t="s">
+      <c r="H4" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="170"/>
+      <c r="I4" s="173"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -9947,10 +9962,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="174" t="s">
+      <c r="H5" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="175"/>
+      <c r="I5" s="178"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -10501,10 +10516,10 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="J2" s="163" t="s">
+      <c r="J2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="165"/>
+      <c r="K2" s="168"/>
       <c r="L2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -10519,10 +10534,10 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="J3" s="163" t="s">
+      <c r="J3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="165"/>
+      <c r="K3" s="168"/>
       <c r="L3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -10537,10 +10552,10 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="J4" s="169" t="s">
+      <c r="J4" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="170"/>
+      <c r="K4" s="173"/>
       <c r="L4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -10555,10 +10570,10 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="J5" s="174" t="s">
+      <c r="J5" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="175"/>
+      <c r="K5" s="178"/>
       <c r="L5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -10930,10 +10945,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="163" t="s">
+      <c r="H2" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="165"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10946,10 +10961,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="163" t="s">
+      <c r="H3" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="165"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10962,10 +10977,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="174" t="s">
+      <c r="H4" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="175"/>
+      <c r="I4" s="178"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -10978,10 +10993,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="169" t="s">
+      <c r="H5" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="170"/>
+      <c r="I5" s="173"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -11348,10 +11363,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="176" t="s">
+      <c r="K2" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="177"/>
+      <c r="L2" s="180"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -11441,10 +11456,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="145" t="s">
+      <c r="H2" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="146"/>
+      <c r="I2" s="149"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -11457,10 +11472,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="176" t="s">
+      <c r="H3" s="179" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="177"/>
+      <c r="I3" s="180"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -11839,10 +11854,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="145" t="s">
+      <c r="H2" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="146"/>
+      <c r="I2" s="149"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -11854,10 +11869,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="176" t="s">
+      <c r="H3" s="179" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="177"/>
+      <c r="I3" s="180"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -11871,20 +11886,20 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="B5" s="179" t="s">
+      <c r="B5" s="182" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
     </row>
     <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="180" t="s">
+      <c r="A6" s="183" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
+      <c r="B6" s="183"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
       <c r="E6" s="72"/>
       <c r="F6" s="72"/>
       <c r="G6" s="72"/>
@@ -11930,11 +11945,11 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="178" t="s">
+      <c r="B10" s="181" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="178"/>
-      <c r="D10" s="178"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="71"/>
@@ -12083,11 +12098,11 @@
       <c r="J20" s="72"/>
     </row>
     <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="178" t="s">
+      <c r="B21" s="181" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="178"/>
-      <c r="D21" s="178"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="181"/>
       <c r="E21" s="72"/>
       <c r="F21" s="72"/>
       <c r="G21" s="72"/>
@@ -12129,20 +12144,20 @@
       <c r="J24" s="68"/>
     </row>
     <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B25" s="179" t="s">
+      <c r="B25" s="182" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="179"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="179"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
     </row>
     <row r="26" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="180" t="s">
+      <c r="A26" s="183" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="180"/>
-      <c r="C26" s="180"/>
-      <c r="D26" s="180"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="183"/>
     </row>
     <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="B27"/>
@@ -12166,11 +12181,11 @@
       <c r="D29"/>
     </row>
     <row r="30" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="178" t="s">
+      <c r="B30" s="181" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="181"/>
       <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
@@ -12264,11 +12279,11 @@
       <c r="D40" s="72"/>
     </row>
     <row r="41" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="178" t="s">
+      <c r="B41" s="181" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="178"/>
-      <c r="D41" s="178"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12331,10 +12346,10 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="G2" s="145" t="s">
+      <c r="G2" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="146"/>
+      <c r="H2" s="149"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
         <v>10</v>
@@ -12349,10 +12364,10 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="176" t="s">
+      <c r="G3" s="179" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="177"/>
+      <c r="H3" s="180"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -13233,9 +13248,9 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+    <sheetView showGridLines="0" rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13275,10 +13290,10 @@
       <c r="M1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="138" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="129" t="s">
@@ -13291,11 +13306,11 @@
       </c>
       <c r="G2" s="133"/>
       <c r="H2" s="134"/>
-      <c r="I2" s="181" t="s">
+      <c r="I2" s="135" t="s">
         <v>269</v>
       </c>
-      <c r="J2" s="182"/>
-      <c r="K2" s="183"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
       <c r="L2" s="124" t="s">
         <v>22</v>
       </c>
@@ -13304,8 +13319,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="138"/>
-      <c r="B3" s="136"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="139"/>
       <c r="C3" s="91" t="s">
         <v>270</v>
       </c>
@@ -13406,7 +13421,7 @@
       <c r="F6" s="83"/>
       <c r="G6" s="83"/>
       <c r="H6" s="83">
-        <f t="shared" ref="H6:H32" si="0">(H5+F6)-G6</f>
+        <f t="shared" ref="H6:H35" si="0">(H5+F6)-G6</f>
         <v>0</v>
       </c>
       <c r="I6" s="84"/>
@@ -14197,7 +14212,10 @@
       <c r="E33" s="82"/>
       <c r="F33" s="83"/>
       <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
+      <c r="H33" s="83">
+        <f t="shared" si="0"/>
+        <v>296000</v>
+      </c>
       <c r="I33" s="84"/>
       <c r="J33" s="84">
         <v>4899000</v>
@@ -14223,7 +14241,10 @@
       <c r="E34" s="82"/>
       <c r="F34" s="83"/>
       <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
+      <c r="H34" s="83">
+        <f t="shared" si="0"/>
+        <v>296000</v>
+      </c>
       <c r="I34" s="84">
         <v>30000000</v>
       </c>
@@ -14241,13 +14262,20 @@
       <c r="A35" s="39">
         <v>32</v>
       </c>
-      <c r="B35" s="85"/>
+      <c r="B35" s="85" t="s">
+        <v>313</v>
+      </c>
       <c r="C35" s="82"/>
       <c r="D35" s="82"/>
       <c r="E35" s="82"/>
       <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
+      <c r="G35" s="83">
+        <v>330000</v>
+      </c>
+      <c r="H35" s="83">
+        <f t="shared" si="0"/>
+        <v>-34000</v>
+      </c>
       <c r="I35" s="84"/>
       <c r="J35" s="84"/>
       <c r="K35" s="84"/>
@@ -14488,10 +14516,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="140"/>
+      <c r="B1" s="143"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -14504,10 +14532,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="141" t="s">
+      <c r="H2" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="142"/>
+      <c r="I2" s="145"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -14520,10 +14548,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="143" t="s">
+      <c r="H3" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="144"/>
+      <c r="I3" s="147"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -16988,11 +17016,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="A204:F204"/>
     <mergeCell ref="A179:E179"/>
@@ -17000,6 +17023,11 @@
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A130:H130"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{9E228265-015F-4ED7-804E-491796425E13}"/>
@@ -17033,16 +17061,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="140"/>
+      <c r="B1" s="143"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="145" t="s">
+      <c r="J2" s="148" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="146"/>
+      <c r="K2" s="149"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -17082,10 +17110,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="145" t="s">
+      <c r="J12" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="146"/>
+      <c r="K12" s="149"/>
     </row>
     <row r="13" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J13" s="2">
@@ -17156,7 +17184,7 @@
       </c>
     </row>
     <row r="24" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="147" t="s">
+      <c r="I24" s="150" t="s">
         <v>76</v>
       </c>
       <c r="J24" s="2">
@@ -17167,7 +17195,7 @@
       </c>
     </row>
     <row r="25" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="148"/>
+      <c r="I25" s="151"/>
       <c r="J25" s="2" t="s">
         <v>74</v>
       </c>
@@ -17217,10 +17245,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="149" t="s">
+      <c r="K2" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="150"/>
+      <c r="L2" s="153"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -17310,10 +17338,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="151" t="s">
+      <c r="H2" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="152"/>
+      <c r="I2" s="155"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -17329,10 +17357,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="153" t="s">
+      <c r="H3" s="156" t="s">
         <v>291</v>
       </c>
-      <c r="I3" s="154"/>
+      <c r="I3" s="157"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -17361,13 +17389,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="158" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
@@ -17425,11 +17453,11 @@
         <v>#NAME?</v>
       </c>
       <c r="E10" s="114"/>
-      <c r="G10" s="156" t="s">
+      <c r="G10" s="159" t="s">
         <v>304</v>
       </c>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="111">
@@ -17581,10 +17609,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="157" t="s">
+      <c r="K2" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="158"/>
+      <c r="L2" s="161"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4325F3A8-658C-4975-B8E2-BF23704EC5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54004E8-650C-45CB-B6F1-108C7542E48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="318">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -1008,6 +1008,15 @@
   </si>
   <si>
     <t>آب معدنی</t>
+  </si>
+  <si>
+    <t>1404/02/15</t>
+  </si>
+  <si>
+    <t>1404/02/18</t>
+  </si>
+  <si>
+    <t>1404/02/19</t>
   </si>
 </sst>
 </file>
@@ -5984,8 +5993,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -6339,9 +6348,15 @@
       <c r="A19" s="39">
         <v>11</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="39">
+        <v>400</v>
+      </c>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
     </row>
@@ -6349,9 +6364,15 @@
       <c r="A20" s="39">
         <v>12</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
+      <c r="B20" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="39">
+        <v>200</v>
+      </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
     </row>
@@ -6359,9 +6380,15 @@
       <c r="A21" s="39">
         <v>13</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
+      <c r="B21" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="39">
+        <v>200</v>
+      </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
     </row>
@@ -6369,9 +6396,15 @@
       <c r="A22" s="39">
         <v>14</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="39">
+        <v>400</v>
+      </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
     </row>
@@ -6443,6 +6476,7 @@
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="I7:K7"/>
   </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L2" location="'صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{453BD70F-20B0-4E58-A176-FC25C3AE90C8}"/>
     <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{B0FD323F-2076-4EAB-A5C0-74D9B40EE584}"/>
@@ -7411,8 +7445,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F20"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -13249,8 +13283,8 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:H2"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14279,7 +14313,9 @@
       <c r="I35" s="84"/>
       <c r="J35" s="84"/>
       <c r="K35" s="84"/>
-      <c r="L35" s="85"/>
+      <c r="L35" s="39" t="s">
+        <v>314</v>
+      </c>
       <c r="M35" s="85"/>
     </row>
     <row r="36" spans="1:13" ht="27" x14ac:dyDescent="0.25">

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54004E8-650C-45CB-B6F1-108C7542E48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F8CCDF-1D22-4882-936F-DD3BCAD4BC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,6 +42,9 @@
     <sheet name="لیست فعالیت ماهانه همکاران شرکت" sheetId="30" r:id="rId27"/>
     <sheet name="زونکن سه - لیست مرخص ساعتی" sheetId="29" r:id="rId28"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'لیست مصالح دیوارکشیN.32'!$C$1:$C$28</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -63,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="321">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -1017,6 +1020,15 @@
   </si>
   <si>
     <t>1404/02/19</t>
+  </si>
+  <si>
+    <t>جمع سیمان</t>
+  </si>
+  <si>
+    <t>جمع بلوک</t>
+  </si>
+  <si>
+    <t>جمع شن و ماسه</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1190,7 @@
       <charset val="178"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1308,6 +1320,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1806,7 +1824,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1998,9 +2016,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2348,6 +2363,21 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="23" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4734,16 +4764,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4754,7 +4784,7 @@
       <c r="G4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="97" t="s">
+      <c r="I4" s="96" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4765,7 +4795,7 @@
       <c r="G5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="98" t="s">
+      <c r="I5" s="97" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4776,7 +4806,7 @@
       <c r="G6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="80" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4866,10 +4896,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="162" t="s">
+      <c r="I2" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="163"/>
+      <c r="J2" s="162"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -4886,10 +4916,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="162" t="s">
+      <c r="I3" s="161" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="163"/>
+      <c r="J3" s="162"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -4903,10 +4933,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="164" t="s">
+      <c r="I4" s="163" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="165"/>
+      <c r="J4" s="164"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -4937,13 +4967,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -5332,11 +5362,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="166" t="s">
+      <c r="G2" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="167"/>
-      <c r="I2" s="168"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="167"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -5344,11 +5374,11 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="166" t="s">
+      <c r="G3" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="167"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="167"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -5357,12 +5387,12 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="168" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="171"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="170"/>
       <c r="G5" s="5" t="s">
         <v>212</v>
       </c>
@@ -5488,7 +5518,7 @@
       <c r="G10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="75"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G11" s="2" t="s">
@@ -5567,10 +5597,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="166" t="s">
+      <c r="H2" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="168"/>
+      <c r="I2" s="167"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -5586,8 +5616,8 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="167"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -5600,10 +5630,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="172" t="s">
+      <c r="H4" s="171" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="173"/>
+      <c r="I4" s="172"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -5632,13 +5662,13 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="121" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="73"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="9"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -5664,7 +5694,7 @@
       <c r="F8" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="G8" s="74" t="s">
+      <c r="G8" s="73" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5687,7 +5717,7 @@
       <c r="F9" s="39">
         <v>6100000</v>
       </c>
-      <c r="G9" s="76"/>
+      <c r="G9" s="75"/>
     </row>
     <row r="10" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
@@ -5708,7 +5738,7 @@
       <c r="F10" s="39">
         <v>15000000</v>
       </c>
-      <c r="G10" s="76"/>
+      <c r="G10" s="75"/>
     </row>
     <row r="11" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
@@ -5729,7 +5759,7 @@
       <c r="F11" s="39">
         <v>8000000</v>
       </c>
-      <c r="G11" s="76" t="s">
+      <c r="G11" s="75" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5742,7 +5772,7 @@
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
-      <c r="G12" s="76"/>
+      <c r="G12" s="75"/>
     </row>
     <row r="13" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
@@ -5753,7 +5783,7 @@
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
-      <c r="G13" s="76"/>
+      <c r="G13" s="75"/>
     </row>
     <row r="14" spans="1:14" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
@@ -5764,7 +5794,7 @@
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
-      <c r="G14" s="76"/>
+      <c r="G14" s="75"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -5782,7 +5812,7 @@
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
-      <c r="G15" s="76"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -5993,8 +6023,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -6005,11 +6035,11 @@
     <col min="4" max="4" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13" style="9" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
@@ -6030,10 +6060,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="168"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6050,10 +6080,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="166" t="s">
+      <c r="I3" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="168"/>
+      <c r="J3" s="167"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6067,10 +6097,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="172" t="s">
+      <c r="I4" s="171" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="173"/>
+      <c r="J4" s="172"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6101,21 +6131,21 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="121" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="174" t="s">
+      <c r="I7" s="173" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="174"/>
-      <c r="K7" s="174"/>
+      <c r="J7" s="173"/>
+      <c r="K7" s="173"/>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -6133,18 +6163,24 @@
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="39" t="s">
+      <c r="G8" s="183" t="s">
         <v>152</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="H8" s="183" t="s">
         <v>153</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="I8" s="183" t="s">
         <v>154</v>
       </c>
-      <c r="L8" s="64"/>
+      <c r="J8" s="183" t="s">
+        <v>318</v>
+      </c>
+      <c r="K8" s="183" t="s">
+        <v>319</v>
+      </c>
+      <c r="L8" s="183" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="9" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
@@ -6153,7 +6189,7 @@
       <c r="B9" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="185" t="s">
         <v>147</v>
       </c>
       <c r="D9" s="39">
@@ -6161,11 +6197,14 @@
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="184">
+        <f>SUM(D13:D22,D11)</f>
+        <v>4100</v>
+      </c>
       <c r="L9" s="64"/>
     </row>
     <row r="10" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -6175,7 +6214,7 @@
       <c r="B10" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="186" t="s">
         <v>150</v>
       </c>
       <c r="D10" s="39">
@@ -6183,11 +6222,11 @@
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
       <c r="L10" s="64"/>
     </row>
     <row r="11" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -6197,7 +6236,7 @@
       <c r="B11" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="187" t="s">
         <v>148</v>
       </c>
       <c r="D11" s="39">
@@ -6205,11 +6244,11 @@
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="184"/>
       <c r="L11" s="64"/>
     </row>
     <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
@@ -6219,7 +6258,7 @@
       <c r="B12" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="186" t="s">
         <v>150</v>
       </c>
       <c r="D12" s="39">
@@ -6227,10 +6266,12 @@
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="65"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
     </row>
     <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
@@ -6239,7 +6280,7 @@
       <c r="B13" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="187" t="s">
         <v>148</v>
       </c>
       <c r="D13" s="39">
@@ -6247,10 +6288,12 @@
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
     </row>
     <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
@@ -6259,7 +6302,7 @@
       <c r="B14" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="187" t="s">
         <v>148</v>
       </c>
       <c r="D14" s="39">
@@ -6267,10 +6310,12 @@
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
     </row>
     <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
@@ -6279,7 +6324,7 @@
       <c r="B15" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="187" t="s">
         <v>148</v>
       </c>
       <c r="D15" s="39">
@@ -6287,10 +6332,12 @@
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
     </row>
     <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
@@ -6299,7 +6346,7 @@
       <c r="B16" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="187" t="s">
         <v>148</v>
       </c>
       <c r="D16" s="39">
@@ -6307,19 +6354,20 @@
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-    </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="H16" s="7"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+    </row>
+    <row r="17" spans="1:12" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>9</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="187" t="s">
         <v>148</v>
       </c>
       <c r="D17" s="39">
@@ -6327,15 +6375,20 @@
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
-    </row>
-    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>10</v>
       </c>
       <c r="B18" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="187" t="s">
         <v>148</v>
       </c>
       <c r="D18" s="39">
@@ -6343,15 +6396,20 @@
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
-    </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>11</v>
       </c>
       <c r="B19" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="187" t="s">
         <v>148</v>
       </c>
       <c r="D19" s="39">
@@ -6359,15 +6417,20 @@
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
-    </row>
-    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>12</v>
       </c>
       <c r="B20" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="187" t="s">
         <v>148</v>
       </c>
       <c r="D20" s="39">
@@ -6376,14 +6439,14 @@
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
     </row>
-    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>13</v>
       </c>
       <c r="B21" s="39" t="s">
         <v>316</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="187" t="s">
         <v>148</v>
       </c>
       <c r="D21" s="39">
@@ -6392,14 +6455,14 @@
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
     </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>14</v>
       </c>
       <c r="B22" s="39" t="s">
         <v>317</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="187" t="s">
         <v>148</v>
       </c>
       <c r="D22" s="39">
@@ -6408,7 +6471,7 @@
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
     </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>15</v>
       </c>
@@ -6418,7 +6481,7 @@
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
     </row>
-    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>16</v>
       </c>
@@ -6428,7 +6491,7 @@
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
     </row>
-    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="27" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>17</v>
       </c>
@@ -6438,7 +6501,7 @@
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
     </row>
-    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>18</v>
       </c>
@@ -6448,7 +6511,7 @@
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
     </row>
-    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="27" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>19</v>
       </c>
@@ -6458,7 +6521,7 @@
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
     </row>
-    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>20</v>
       </c>
@@ -6530,10 +6593,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="168"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6550,10 +6613,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="166" t="s">
+      <c r="I3" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="168"/>
+      <c r="J3" s="167"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6567,10 +6630,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="172" t="s">
+      <c r="I4" s="171" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="173"/>
+      <c r="J4" s="172"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6601,13 +6664,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
       <c r="F7" s="60"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -6982,10 +7045,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="168"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -7002,10 +7065,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="166" t="s">
+      <c r="I3" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="168"/>
+      <c r="J3" s="167"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -7019,10 +7082,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="172" t="s">
+      <c r="I4" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="173"/>
+      <c r="J4" s="172"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -7053,13 +7116,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
       <c r="F7" s="17"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -7467,10 +7530,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A1" s="8"/>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="99" t="s">
         <v>241</v>
       </c>
       <c r="D1" s="8"/>
@@ -7486,10 +7549,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="168"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -7503,10 +7566,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="166" t="s">
+      <c r="I3" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="168"/>
+      <c r="J3" s="167"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -7520,10 +7583,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="172" t="s">
+      <c r="I4" s="171" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="173"/>
+      <c r="J4" s="172"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -7554,13 +7617,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="121" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
       <c r="F7" s="49"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -7714,7 +7777,7 @@
       <c r="A15" s="39">
         <v>7</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="84" t="s">
         <v>249</v>
       </c>
       <c r="C15" s="39" t="s">
@@ -7733,7 +7796,7 @@
       <c r="A16" s="39">
         <v>8</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="84" t="s">
         <v>280</v>
       </c>
       <c r="C16" s="39" t="s">
@@ -7752,7 +7815,7 @@
       <c r="A17" s="39">
         <v>9</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="84" t="s">
         <v>305</v>
       </c>
       <c r="C17" s="39" t="s">
@@ -7771,7 +7834,7 @@
       <c r="A18" s="39">
         <v>10</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="84" t="s">
         <v>308</v>
       </c>
       <c r="C18" s="39" t="s">
@@ -7790,7 +7853,7 @@
       <c r="A19" s="39">
         <v>11</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="84" t="s">
         <v>308</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -7809,7 +7872,7 @@
       <c r="A20" s="39">
         <v>12</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="84" t="s">
         <v>313</v>
       </c>
       <c r="C20" s="39" t="s">
@@ -7962,10 +8025,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="166" t="s">
+      <c r="H2" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="168"/>
+      <c r="I2" s="167"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -7981,10 +8044,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="166" t="s">
+      <c r="H3" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="168"/>
+      <c r="I3" s="167"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -7997,10 +8060,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="172" t="s">
+      <c r="H4" s="171" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="173"/>
+      <c r="I4" s="172"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -8015,13 +8078,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -8193,10 +8256,10 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="F2" s="166" t="s">
+      <c r="F2" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="168"/>
+      <c r="G2" s="167"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
         <v>10</v>
@@ -8210,10 +8273,10 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="F3" s="166" t="s">
+      <c r="F3" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="168"/>
+      <c r="G3" s="167"/>
       <c r="H3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -8224,10 +8287,10 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="F4" s="172" t="s">
+      <c r="F4" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="173"/>
+      <c r="G4" s="172"/>
       <c r="H4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -8240,11 +8303,11 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:12" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:12" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -8321,10 +8384,10 @@
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="175" t="s">
+      <c r="A13" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="176"/>
+      <c r="B13" s="175"/>
       <c r="C13" s="24">
         <f>SUM(C9:C12)</f>
         <v>0</v>
@@ -8389,10 +8452,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="168"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -8409,10 +8472,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="166" t="s">
+      <c r="I3" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="168"/>
+      <c r="J3" s="167"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -8426,10 +8489,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="172" t="s">
+      <c r="I4" s="171" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="173"/>
+      <c r="J4" s="172"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -8460,13 +8523,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
       <c r="F7" s="27"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -8776,7 +8839,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="95" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8794,16 +8857,16 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="120" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
     </row>
     <row r="4" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
@@ -8830,7 +8893,7 @@
       <c r="I4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="95" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -8850,7 +8913,7 @@
       <c r="I5" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="K5" s="97" t="s">
+      <c r="K5" s="96" t="s">
         <v>232</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -8861,7 +8924,7 @@
       <c r="E6" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="K6" s="98" t="s">
+      <c r="K6" s="97" t="s">
         <v>276</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -8872,7 +8935,7 @@
       <c r="E7" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="K7" s="81" t="s">
+      <c r="K7" s="80" t="s">
         <v>241</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -8971,10 +9034,10 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="166" t="s">
+      <c r="L2" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="168"/>
+      <c r="M2" s="167"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4" t="s">
         <v>10</v>
@@ -8994,10 +9057,10 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="L3" s="166" t="s">
+      <c r="L3" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="168"/>
+      <c r="M3" s="167"/>
       <c r="N3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -9014,10 +9077,10 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="L4" s="172" t="s">
+      <c r="L4" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="173"/>
+      <c r="M4" s="172"/>
       <c r="N4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -9034,10 +9097,10 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="L5" s="177" t="s">
+      <c r="L5" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="178"/>
+      <c r="M5" s="177"/>
       <c r="N5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -9056,17 +9119,17 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:18" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="74" t="s">
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="73" t="s">
         <v>207</v>
       </c>
       <c r="J7" s="9"/>
@@ -9096,7 +9159,7 @@
       <c r="H8" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="I8" s="74" t="s">
+      <c r="I8" s="73" t="s">
         <v>205</v>
       </c>
       <c r="J8" s="9"/>
@@ -9115,7 +9178,7 @@
       <c r="A9" s="39">
         <v>1</v>
       </c>
-      <c r="I9" s="67" t="s">
+      <c r="I9" s="66" t="s">
         <v>206</v>
       </c>
       <c r="J9" s="9"/>
@@ -9474,10 +9537,10 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="K2" s="166" t="s">
+      <c r="K2" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="168"/>
+      <c r="L2" s="167"/>
       <c r="M2" s="3"/>
       <c r="N2" s="4" t="s">
         <v>10</v>
@@ -9496,10 +9559,10 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="K3" s="166" t="s">
+      <c r="K3" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="168"/>
+      <c r="L3" s="167"/>
       <c r="M3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -9515,10 +9578,10 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="K4" s="172" t="s">
+      <c r="K4" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="173"/>
+      <c r="L4" s="172"/>
       <c r="M4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -9534,10 +9597,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="K5" s="177" t="s">
+      <c r="K5" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="178"/>
+      <c r="L5" s="177"/>
       <c r="M5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -9555,16 +9618,16 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:17" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:17" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -9945,10 +10008,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="166" t="s">
+      <c r="H2" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="168"/>
+      <c r="I2" s="167"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -9964,10 +10027,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="166" t="s">
+      <c r="H3" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="168"/>
+      <c r="I3" s="167"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -9980,10 +10043,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="172" t="s">
+      <c r="H4" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="173"/>
+      <c r="I4" s="172"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -9996,10 +10059,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="177" t="s">
+      <c r="H5" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="178"/>
+      <c r="I5" s="177"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -10014,13 +10077,13 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -10264,13 +10327,13 @@
       <c r="E29" s="16"/>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A41" s="122" t="s">
+      <c r="A41" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="122"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="122"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="121"/>
     </row>
     <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -10550,10 +10613,10 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="J2" s="166" t="s">
+      <c r="J2" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="168"/>
+      <c r="K2" s="167"/>
       <c r="L2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -10568,10 +10631,10 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="J3" s="166" t="s">
+      <c r="J3" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="168"/>
+      <c r="K3" s="167"/>
       <c r="L3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -10586,10 +10649,10 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="J4" s="172" t="s">
+      <c r="J4" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="173"/>
+      <c r="K4" s="172"/>
       <c r="L4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -10604,10 +10667,10 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="J5" s="177" t="s">
+      <c r="J5" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="178"/>
+      <c r="K5" s="177"/>
       <c r="L5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -10624,15 +10687,15 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -10979,10 +11042,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="166" t="s">
+      <c r="H2" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="168"/>
+      <c r="I2" s="167"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10995,10 +11058,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="166" t="s">
+      <c r="H3" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="168"/>
+      <c r="I3" s="167"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -11011,10 +11074,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="177" t="s">
+      <c r="H4" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="178"/>
+      <c r="I4" s="177"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -11027,10 +11090,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="172" t="s">
+      <c r="H5" s="171" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="173"/>
+      <c r="I5" s="172"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -11054,13 +11117,13 @@
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -11397,10 +11460,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="179" t="s">
+      <c r="K2" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="180"/>
+      <c r="L2" s="179"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -11490,10 +11553,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="149"/>
+      <c r="I2" s="148"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -11506,10 +11569,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="179" t="s">
+      <c r="H3" s="178" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="180"/>
+      <c r="I3" s="179"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -11524,13 +11587,13 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="121" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -11888,10 +11951,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="149"/>
+      <c r="I2" s="148"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -11903,10 +11966,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="179" t="s">
+      <c r="H3" s="178" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="180"/>
+      <c r="I3" s="179"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -11920,30 +11983,30 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="B5" s="182" t="s">
+      <c r="B5" s="181" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
     </row>
     <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="183" t="s">
+      <c r="A6" s="182" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="183"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="B7"/>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="67" t="s">
         <v>177</v>
       </c>
       <c r="D7"/>
@@ -11956,7 +12019,7 @@
     </row>
     <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="B8"/>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="67" t="s">
         <v>178</v>
       </c>
       <c r="D8"/>
@@ -11968,7 +12031,7 @@
     </row>
     <row r="9" spans="1:14" ht="27" x14ac:dyDescent="0.25">
       <c r="B9"/>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="68" t="s">
         <v>179</v>
       </c>
       <c r="D9"/>
@@ -11979,345 +12042,345 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="181" t="s">
+      <c r="B10" s="180" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="181"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:14" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="70">
+      <c r="B11" s="69">
         <v>1</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
     </row>
     <row r="12" spans="1:14" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="70">
+      <c r="B12" s="69">
         <v>2</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
     </row>
     <row r="13" spans="1:14" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="70">
+      <c r="B13" s="69">
         <v>3</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
     </row>
     <row r="14" spans="1:14" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="70">
+      <c r="B14" s="69">
         <v>4</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
     </row>
     <row r="15" spans="1:14" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="70">
+      <c r="B15" s="69">
         <v>5</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
     </row>
     <row r="16" spans="1:14" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="70">
+      <c r="B16" s="69">
         <v>6</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
     </row>
     <row r="17" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="70">
+      <c r="B17" s="69">
         <v>7</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
     </row>
     <row r="18" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="70">
+      <c r="B18" s="69">
         <v>8</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
     </row>
     <row r="19" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="70">
+      <c r="B19" s="69">
         <v>9</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
     </row>
     <row r="20" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="70">
+      <c r="B20" s="69">
         <v>10</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
     </row>
     <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="181" t="s">
+      <c r="B21" s="180" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="181"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
     </row>
     <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
     </row>
     <row r="23" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
     </row>
     <row r="24" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
     </row>
     <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B25" s="182" t="s">
+      <c r="B25" s="181" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="182"/>
-      <c r="D25" s="182"/>
-      <c r="E25" s="182"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
     </row>
     <row r="26" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="183" t="s">
+      <c r="A26" s="182" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="183"/>
-      <c r="C26" s="183"/>
-      <c r="D26" s="183"/>
+      <c r="B26" s="182"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="182"/>
     </row>
     <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="B27"/>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="67" t="s">
         <v>177</v>
       </c>
       <c r="D27"/>
     </row>
     <row r="28" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="B28"/>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="67" t="s">
         <v>178</v>
       </c>
       <c r="D28"/>
     </row>
     <row r="29" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="B29"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="68" t="s">
         <v>179</v>
       </c>
       <c r="D29"/>
     </row>
     <row r="30" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="181" t="s">
+      <c r="B30" s="180" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="181"/>
-      <c r="D30" s="181"/>
-      <c r="H30" s="72"/>
+      <c r="C30" s="180"/>
+      <c r="D30" s="180"/>
+      <c r="H30" s="71"/>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="70">
+      <c r="B31" s="69">
         <v>1</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="D31" s="72"/>
+      <c r="D31" s="71"/>
     </row>
     <row r="32" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="70">
+      <c r="B32" s="69">
         <v>2</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="D32" s="72"/>
+      <c r="D32" s="71"/>
     </row>
     <row r="33" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="70">
+      <c r="B33" s="69">
         <v>3</v>
       </c>
-      <c r="C33" s="72" t="s">
+      <c r="C33" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="D33" s="72"/>
+      <c r="D33" s="71"/>
     </row>
     <row r="34" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="70">
+      <c r="B34" s="69">
         <v>4</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="D34" s="72"/>
+      <c r="D34" s="71"/>
     </row>
     <row r="35" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="70">
+      <c r="B35" s="69">
         <v>5</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="D35" s="72"/>
+      <c r="D35" s="71"/>
     </row>
     <row r="36" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="70">
+      <c r="B36" s="69">
         <v>6</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="D36" s="72"/>
+      <c r="D36" s="71"/>
     </row>
     <row r="37" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="70">
+      <c r="B37" s="69">
         <v>7</v>
       </c>
-      <c r="C37" s="72" t="s">
+      <c r="C37" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="D37" s="72"/>
+      <c r="D37" s="71"/>
     </row>
     <row r="38" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="70">
+      <c r="B38" s="69">
         <v>8</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="D38" s="72"/>
+      <c r="D38" s="71"/>
     </row>
     <row r="39" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="70">
+      <c r="B39" s="69">
         <v>9</v>
       </c>
-      <c r="C39" s="72" t="s">
+      <c r="C39" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="D39" s="72"/>
+      <c r="D39" s="71"/>
     </row>
     <row r="40" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="70">
+      <c r="B40" s="69">
         <v>10</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="72"/>
+      <c r="D40" s="71"/>
     </row>
     <row r="41" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="181" t="s">
+      <c r="B41" s="180" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="181"/>
-      <c r="D41" s="181"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12380,10 +12443,10 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="149"/>
+      <c r="H2" s="148"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
         <v>10</v>
@@ -12398,10 +12461,10 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="179" t="s">
+      <c r="G3" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="180"/>
+      <c r="H3" s="179"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -12415,12 +12478,12 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="121" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -12732,18 +12795,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="95" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
     </row>
     <row r="4" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -12789,13 +12852,13 @@
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13170,8 +13233,8 @@
       <c r="A122" s="20"/>
     </row>
     <row r="125" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A125" s="122"/>
-      <c r="B125" s="122"/>
+      <c r="A125" s="121"/>
+      <c r="B125" s="121"/>
     </row>
     <row r="126" spans="1:2" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
@@ -13291,99 +13354,99 @@
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="87" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="87" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="88" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="89" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="89" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="89" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="86" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="86" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="87" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="87" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="87" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="88" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="88" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="45" customWidth="1"/>
     <col min="13" max="13" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="126" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="125" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="128" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="132" t="s">
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131" t="s">
         <v>268</v>
       </c>
-      <c r="G2" s="133"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="135" t="s">
+      <c r="G2" s="132"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="134" t="s">
         <v>269</v>
       </c>
-      <c r="J2" s="136"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="124" t="s">
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="90" t="s">
+      <c r="M2" s="89" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="141"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="91" t="s">
+      <c r="A3" s="140"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="90" t="s">
         <v>270</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="90" t="s">
         <v>271</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="E3" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="93" t="s">
+      <c r="F3" s="92" t="s">
         <v>270</v>
       </c>
-      <c r="G3" s="93" t="s">
+      <c r="G3" s="92" t="s">
         <v>271</v>
       </c>
-      <c r="H3" s="94" t="s">
+      <c r="H3" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="95" t="s">
+      <c r="I3" s="94" t="s">
         <v>270</v>
       </c>
-      <c r="J3" s="95" t="s">
+      <c r="J3" s="94" t="s">
         <v>271</v>
       </c>
-      <c r="K3" s="95" t="s">
+      <c r="K3" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="125"/>
-      <c r="M3" s="90" t="s">
+      <c r="L3" s="124"/>
+      <c r="M3" s="89" t="s">
         <v>274</v>
       </c>
     </row>
@@ -13391,114 +13454,114 @@
       <c r="A4" s="39">
         <v>1</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="82">
         <v>0</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83">
+      <c r="G4" s="82"/>
+      <c r="H4" s="82">
         <f>F4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="84">
+      <c r="I4" s="83">
         <v>0</v>
       </c>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84">
+      <c r="J4" s="83"/>
+      <c r="K4" s="83">
         <f>I4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
     </row>
     <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>2</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82">
         <f>(H4+F5)-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84">
+      <c r="I5" s="83"/>
+      <c r="J5" s="83">
         <v>3000000</v>
       </c>
-      <c r="K5" s="84">
+      <c r="K5" s="83">
         <f>(K4+I5)-J5</f>
         <v>-3000000</v>
       </c>
-      <c r="L5" s="86" t="s">
+      <c r="L5" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="M5" s="85"/>
+      <c r="M5" s="84"/>
     </row>
     <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>3</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83">
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82">
         <f t="shared" ref="H6:H35" si="0">(H5+F6)-G6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84">
+      <c r="I6" s="83"/>
+      <c r="J6" s="83">
         <v>15500000</v>
       </c>
-      <c r="K6" s="84">
+      <c r="K6" s="83">
         <f t="shared" ref="K6:K34" si="1">(K5+I6)-J6</f>
         <v>-18500000</v>
       </c>
-      <c r="L6" s="85" t="s">
+      <c r="L6" s="84" t="s">
         <v>222</v>
       </c>
-      <c r="M6" s="85"/>
+      <c r="M6" s="84"/>
     </row>
     <row r="7" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>4</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83">
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="84">
+      <c r="I7" s="83">
         <v>15500000</v>
       </c>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84">
+      <c r="J7" s="83"/>
+      <c r="K7" s="83">
         <f t="shared" si="1"/>
         <v>-3000000</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="84" t="s">
         <v>226</v>
       </c>
-      <c r="M7" s="85" t="s">
+      <c r="M7" s="84" t="s">
         <v>96</v>
       </c>
     </row>
@@ -13506,30 +13569,30 @@
       <c r="A8" s="39">
         <v>5</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83">
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="84">
+      <c r="I8" s="83">
         <v>10000000</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84">
+      <c r="J8" s="83"/>
+      <c r="K8" s="83">
         <f t="shared" si="1"/>
         <v>7000000</v>
       </c>
-      <c r="L8" s="85" t="s">
+      <c r="L8" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="M8" s="85" t="s">
+      <c r="M8" s="84" t="s">
         <v>96</v>
       </c>
     </row>
@@ -13537,30 +13600,30 @@
       <c r="A9" s="39">
         <v>6</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83">
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84">
+      <c r="I9" s="83"/>
+      <c r="J9" s="83">
         <v>1899000</v>
       </c>
-      <c r="K9" s="84">
+      <c r="K9" s="83">
         <f t="shared" si="1"/>
         <v>5101000</v>
       </c>
-      <c r="L9" s="85" t="s">
+      <c r="L9" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="85" t="s">
+      <c r="M9" s="84" t="s">
         <v>272</v>
       </c>
     </row>
@@ -13568,88 +13631,88 @@
       <c r="A10" s="39">
         <v>7</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83">
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84">
+      <c r="I10" s="83"/>
+      <c r="J10" s="83">
         <v>352000</v>
       </c>
-      <c r="K10" s="84">
+      <c r="K10" s="83">
         <f t="shared" si="1"/>
         <v>4749000</v>
       </c>
-      <c r="L10" s="85" t="s">
+      <c r="L10" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="M10" s="85"/>
+      <c r="M10" s="84"/>
     </row>
     <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>8</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83">
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84">
+      <c r="I11" s="83"/>
+      <c r="J11" s="83">
         <v>3352000</v>
       </c>
-      <c r="K11" s="84">
+      <c r="K11" s="83">
         <f t="shared" si="1"/>
         <v>1397000</v>
       </c>
-      <c r="L11" s="85" t="s">
+      <c r="L11" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="M11" s="85"/>
+      <c r="M11" s="84"/>
     </row>
     <row r="12" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>9</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="83">
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82">
         <v>5000000</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83">
+      <c r="G12" s="82"/>
+      <c r="H12" s="82">
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84">
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83">
         <f t="shared" si="1"/>
         <v>1397000</v>
       </c>
-      <c r="L12" s="85" t="s">
+      <c r="L12" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="M12" s="85" t="s">
+      <c r="M12" s="84" t="s">
         <v>225</v>
       </c>
     </row>
@@ -13657,204 +13720,204 @@
       <c r="A13" s="39">
         <v>10</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83">
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82">
         <v>1974000</v>
       </c>
-      <c r="H13" s="83">
+      <c r="H13" s="82">
         <f t="shared" si="0"/>
         <v>3026000</v>
       </c>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84">
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83">
         <f t="shared" si="1"/>
         <v>1397000</v>
       </c>
-      <c r="L13" s="85" t="s">
+      <c r="L13" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="M13" s="85"/>
+      <c r="M13" s="84"/>
     </row>
     <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>11</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83">
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82">
         <v>106000</v>
       </c>
-      <c r="H14" s="83">
+      <c r="H14" s="82">
         <f t="shared" si="0"/>
         <v>2920000</v>
       </c>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84">
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83">
         <f t="shared" si="1"/>
         <v>1397000</v>
       </c>
-      <c r="L14" s="85" t="s">
+      <c r="L14" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="M14" s="85"/>
+      <c r="M14" s="84"/>
     </row>
     <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>12</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83">
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82">
         <v>2800000</v>
       </c>
-      <c r="H15" s="83">
+      <c r="H15" s="82">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84">
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83">
         <f t="shared" si="1"/>
         <v>1397000</v>
       </c>
-      <c r="L15" s="85" t="s">
+      <c r="L15" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="M15" s="85"/>
+      <c r="M15" s="84"/>
     </row>
     <row r="16" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>13</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83">
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84">
+      <c r="I16" s="83"/>
+      <c r="J16" s="83">
         <v>6100000</v>
       </c>
-      <c r="K16" s="84">
+      <c r="K16" s="83">
         <f t="shared" si="1"/>
         <v>-4703000</v>
       </c>
-      <c r="L16" s="85" t="s">
+      <c r="L16" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="M16" s="85"/>
+      <c r="M16" s="84"/>
     </row>
     <row r="17" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>14</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83">
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82">
         <f>(H16+F17)-G17</f>
         <v>120000</v>
       </c>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84">
+      <c r="I17" s="83"/>
+      <c r="J17" s="83">
         <v>1000000</v>
       </c>
-      <c r="K17" s="84">
+      <c r="K17" s="83">
         <f t="shared" si="1"/>
         <v>-5703000</v>
       </c>
-      <c r="L17" s="85" t="s">
+      <c r="L17" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="M17" s="85"/>
+      <c r="M17" s="84"/>
     </row>
     <row r="18" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>15</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83">
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84">
+      <c r="I18" s="83"/>
+      <c r="J18" s="83">
         <v>15000000</v>
       </c>
-      <c r="K18" s="84">
+      <c r="K18" s="83">
         <f t="shared" si="1"/>
         <v>-20703000</v>
       </c>
-      <c r="L18" s="85" t="s">
+      <c r="L18" s="84" t="s">
         <v>228</v>
       </c>
-      <c r="M18" s="85"/>
+      <c r="M18" s="84"/>
     </row>
     <row r="19" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>16</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83">
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I19" s="84">
+      <c r="I19" s="83">
         <v>21100000</v>
       </c>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84">
+      <c r="J19" s="83"/>
+      <c r="K19" s="83">
         <f t="shared" si="1"/>
         <v>397000</v>
       </c>
-      <c r="L19" s="85" t="s">
+      <c r="L19" s="84" t="s">
         <v>273</v>
       </c>
-      <c r="M19" s="85" t="s">
+      <c r="M19" s="84" t="s">
         <v>96</v>
       </c>
     </row>
@@ -13862,204 +13925,204 @@
       <c r="A20" s="39">
         <v>17</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83">
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84">
+      <c r="I20" s="83"/>
+      <c r="J20" s="83">
         <v>2960000</v>
       </c>
-      <c r="K20" s="84">
+      <c r="K20" s="83">
         <f t="shared" si="1"/>
         <v>-2563000</v>
       </c>
-      <c r="L20" s="85" t="s">
+      <c r="L20" s="84" t="s">
         <v>263</v>
       </c>
-      <c r="M20" s="85"/>
+      <c r="M20" s="84"/>
     </row>
     <row r="21" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>18</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83">
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84">
+      <c r="I21" s="83"/>
+      <c r="J21" s="83">
         <v>334000</v>
       </c>
-      <c r="K21" s="84">
+      <c r="K21" s="83">
         <f t="shared" si="1"/>
         <v>-2897000</v>
       </c>
-      <c r="L21" s="85" t="s">
+      <c r="L21" s="84" t="s">
         <v>264</v>
       </c>
-      <c r="M21" s="85"/>
+      <c r="M21" s="84"/>
     </row>
     <row r="22" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>19</v>
       </c>
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83">
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84">
+      <c r="I22" s="83"/>
+      <c r="J22" s="83">
         <v>334000</v>
       </c>
-      <c r="K22" s="84">
+      <c r="K22" s="83">
         <f t="shared" si="1"/>
         <v>-3231000</v>
       </c>
-      <c r="L22" s="85" t="s">
+      <c r="L22" s="84" t="s">
         <v>264</v>
       </c>
-      <c r="M22" s="85"/>
+      <c r="M22" s="84"/>
     </row>
     <row r="23" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>20</v>
       </c>
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83">
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84">
+      <c r="I23" s="83"/>
+      <c r="J23" s="83">
         <v>334000</v>
       </c>
-      <c r="K23" s="84">
+      <c r="K23" s="83">
         <f t="shared" si="1"/>
         <v>-3565000</v>
       </c>
-      <c r="L23" s="85" t="s">
+      <c r="L23" s="84" t="s">
         <v>264</v>
       </c>
-      <c r="M23" s="85"/>
+      <c r="M23" s="84"/>
     </row>
     <row r="24" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>22</v>
       </c>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83">
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82">
         <v>90000</v>
       </c>
-      <c r="H24" s="83">
+      <c r="H24" s="82">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84">
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83">
         <f t="shared" si="1"/>
         <v>-3565000</v>
       </c>
-      <c r="L24" s="85" t="s">
+      <c r="L24" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="M24" s="85"/>
+      <c r="M24" s="84"/>
     </row>
     <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>23</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83">
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82">
         <v>1060000</v>
       </c>
-      <c r="H25" s="83">
+      <c r="H25" s="82">
         <f t="shared" si="0"/>
         <v>-1030000</v>
       </c>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84">
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83">
         <f t="shared" si="1"/>
         <v>-3565000</v>
       </c>
-      <c r="L25" s="85" t="s">
+      <c r="L25" s="84" t="s">
         <v>266</v>
       </c>
-      <c r="M25" s="85"/>
+      <c r="M25" s="84"/>
     </row>
     <row r="26" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>24</v>
       </c>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="83">
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="82">
         <v>5000000</v>
       </c>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83">
+      <c r="G26" s="82"/>
+      <c r="H26" s="82">
         <f t="shared" si="0"/>
         <v>3970000</v>
       </c>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84">
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83">
         <f t="shared" si="1"/>
         <v>-3565000</v>
       </c>
-      <c r="L26" s="85" t="s">
+      <c r="L26" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="M26" s="85" t="s">
+      <c r="M26" s="84" t="s">
         <v>225</v>
       </c>
     </row>
@@ -14067,443 +14130,443 @@
       <c r="A27" s="39">
         <v>25</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="84" t="s">
         <v>280</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83">
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82">
         <v>1200000</v>
       </c>
-      <c r="H27" s="83">
+      <c r="H27" s="82">
         <f t="shared" si="0"/>
         <v>2770000</v>
       </c>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84">
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83">
         <f t="shared" si="1"/>
         <v>-3565000</v>
       </c>
-      <c r="L27" s="85" t="s">
+      <c r="L27" s="84" t="s">
         <v>281</v>
       </c>
-      <c r="M27" s="85"/>
+      <c r="M27" s="84"/>
     </row>
     <row r="28" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="84" t="s">
         <v>280</v>
       </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83">
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82">
         <f t="shared" si="0"/>
         <v>2770000</v>
       </c>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84">
+      <c r="I28" s="83"/>
+      <c r="J28" s="83">
         <v>8000000</v>
       </c>
-      <c r="K28" s="84">
+      <c r="K28" s="83">
         <f t="shared" si="1"/>
         <v>-11565000</v>
       </c>
-      <c r="L28" s="85" t="s">
+      <c r="L28" s="84" t="s">
         <v>286</v>
       </c>
-      <c r="M28" s="85"/>
+      <c r="M28" s="84"/>
     </row>
     <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>26</v>
       </c>
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="84" t="s">
         <v>280</v>
       </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83">
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82">
         <f t="shared" si="0"/>
         <v>2770000</v>
       </c>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84">
+      <c r="I29" s="83"/>
+      <c r="J29" s="83">
         <v>5267000</v>
       </c>
-      <c r="K29" s="84">
+      <c r="K29" s="83">
         <f t="shared" si="1"/>
         <v>-16832000</v>
       </c>
-      <c r="L29" s="85" t="s">
+      <c r="L29" s="84" t="s">
         <v>285</v>
       </c>
-      <c r="M29" s="85"/>
+      <c r="M29" s="84"/>
     </row>
     <row r="30" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <v>27</v>
       </c>
-      <c r="B30" s="85" t="s">
+      <c r="B30" s="84" t="s">
         <v>305</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83">
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82">
         <v>907000</v>
       </c>
-      <c r="H30" s="83">
+      <c r="H30" s="82">
         <f t="shared" si="0"/>
         <v>1863000</v>
       </c>
-      <c r="I30" s="84"/>
-      <c r="K30" s="84">
+      <c r="I30" s="83"/>
+      <c r="K30" s="83">
         <f t="shared" si="1"/>
         <v>-16832000</v>
       </c>
-      <c r="L30" s="85" t="s">
+      <c r="L30" s="84" t="s">
         <v>266</v>
       </c>
-      <c r="M30" s="85"/>
+      <c r="M30" s="84"/>
     </row>
     <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>28</v>
       </c>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="84" t="s">
         <v>308</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83">
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82">
         <v>745000</v>
       </c>
-      <c r="H31" s="83">
+      <c r="H31" s="82">
         <f t="shared" si="0"/>
         <v>1118000</v>
       </c>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84">
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83">
         <f t="shared" si="1"/>
         <v>-16832000</v>
       </c>
-      <c r="L31" s="85" t="s">
+      <c r="L31" s="84" t="s">
         <v>266</v>
       </c>
-      <c r="M31" s="85"/>
+      <c r="M31" s="84"/>
     </row>
     <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>29</v>
       </c>
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="84" t="s">
         <v>308</v>
       </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83">
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82">
         <v>822000</v>
       </c>
-      <c r="H32" s="83">
+      <c r="H32" s="82">
         <f t="shared" si="0"/>
         <v>296000</v>
       </c>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84">
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83">
         <f t="shared" si="1"/>
         <v>-16832000</v>
       </c>
-      <c r="L32" s="85" t="s">
+      <c r="L32" s="84" t="s">
         <v>281</v>
       </c>
-      <c r="M32" s="85"/>
+      <c r="M32" s="84"/>
     </row>
     <row r="33" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <v>30</v>
       </c>
-      <c r="B33" s="85" t="s">
+      <c r="B33" s="84" t="s">
         <v>309</v>
       </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83">
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82">
         <f t="shared" si="0"/>
         <v>296000</v>
       </c>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84">
+      <c r="I33" s="83"/>
+      <c r="J33" s="83">
         <v>4899000</v>
       </c>
-      <c r="K33" s="84">
+      <c r="K33" s="83">
         <f t="shared" si="1"/>
         <v>-21731000</v>
       </c>
-      <c r="L33" s="85" t="s">
+      <c r="L33" s="84" t="s">
         <v>312</v>
       </c>
-      <c r="M33" s="85"/>
+      <c r="M33" s="84"/>
     </row>
     <row r="34" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>31</v>
       </c>
-      <c r="B34" s="85" t="s">
+      <c r="B34" s="84" t="s">
         <v>309</v>
       </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83">
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82">
         <f t="shared" si="0"/>
         <v>296000</v>
       </c>
-      <c r="I34" s="84">
+      <c r="I34" s="83">
         <v>30000000</v>
       </c>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84">
+      <c r="J34" s="83"/>
+      <c r="K34" s="83">
         <f t="shared" si="1"/>
         <v>8269000</v>
       </c>
-      <c r="L34" s="85" t="s">
+      <c r="L34" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="M34" s="85"/>
+      <c r="M34" s="84"/>
     </row>
     <row r="35" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>32</v>
       </c>
-      <c r="B35" s="85" t="s">
+      <c r="B35" s="84" t="s">
         <v>313</v>
       </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83">
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82">
         <v>330000</v>
       </c>
-      <c r="H35" s="83">
+      <c r="H35" s="82">
         <f t="shared" si="0"/>
         <v>-34000</v>
       </c>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="83"/>
       <c r="L35" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="M35" s="85"/>
+      <c r="M35" s="84"/>
     </row>
     <row r="36" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>33</v>
       </c>
-      <c r="B36" s="85"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
     </row>
     <row r="37" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <v>34</v>
       </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="84"/>
     </row>
     <row r="38" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>35</v>
       </c>
-      <c r="B38" s="85"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="84"/>
     </row>
     <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <v>36</v>
       </c>
-      <c r="B39" s="85"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="84"/>
     </row>
     <row r="40" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <v>37</v>
       </c>
-      <c r="B40" s="85"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="84"/>
     </row>
     <row r="41" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <v>38</v>
       </c>
-      <c r="B41" s="85"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="84"/>
     </row>
     <row r="42" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <v>39</v>
       </c>
-      <c r="B42" s="85"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="84"/>
     </row>
     <row r="43" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <v>40</v>
       </c>
-      <c r="B43" s="85"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
     </row>
     <row r="44" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <v>41</v>
       </c>
-      <c r="B44" s="85"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="84"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="84"/>
+      <c r="M44" s="84"/>
     </row>
     <row r="45" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <v>42</v>
       </c>
-      <c r="B45" s="85"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="84"/>
     </row>
     <row r="46" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
         <v>43</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="84"/>
+      <c r="M46" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14552,10 +14615,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="143"/>
+      <c r="B1" s="142"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -14568,10 +14631,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="144" t="s">
+      <c r="H2" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="145"/>
+      <c r="I2" s="144"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -14584,10 +14647,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="146" t="s">
+      <c r="H3" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="147"/>
+      <c r="I3" s="146"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -14616,13 +14679,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -14891,13 +14954,13 @@
       <c r="M30" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A33" s="122" t="s">
+      <c r="A33" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="122"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -15121,14 +15184,14 @@
       <c r="F54" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A57" s="123" t="s">
+      <c r="A57" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="123"/>
-      <c r="C57" s="123"/>
-      <c r="D57" s="123"/>
-      <c r="E57" s="123"/>
-      <c r="F57" s="123"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="122"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
     </row>
     <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -15350,12 +15413,12 @@
       <c r="F78" s="20"/>
     </row>
     <row r="82" spans="1:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="A82" s="123" t="s">
+      <c r="A82" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="123"/>
-      <c r="C82" s="123"/>
-      <c r="D82" s="123"/>
+      <c r="B82" s="122"/>
+      <c r="C82" s="122"/>
+      <c r="D82" s="122"/>
     </row>
     <row r="83" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
@@ -15532,15 +15595,15 @@
       <c r="D103" s="22"/>
     </row>
     <row r="106" spans="1:7" ht="27" x14ac:dyDescent="0.25">
-      <c r="A106" s="122" t="s">
+      <c r="A106" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="122"/>
-      <c r="C106" s="122"/>
-      <c r="D106" s="122"/>
-      <c r="E106" s="122"/>
-      <c r="F106" s="122"/>
-      <c r="G106" s="122"/>
+      <c r="B106" s="121"/>
+      <c r="C106" s="121"/>
+      <c r="D106" s="121"/>
+      <c r="E106" s="121"/>
+      <c r="F106" s="121"/>
+      <c r="G106" s="121"/>
     </row>
     <row r="107" spans="1:7" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
@@ -15790,16 +15853,16 @@
       <c r="G127" s="20"/>
     </row>
     <row r="130" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A130" s="122" t="s">
+      <c r="A130" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="B130" s="122"/>
-      <c r="C130" s="122"/>
-      <c r="D130" s="122"/>
-      <c r="E130" s="122"/>
-      <c r="F130" s="122"/>
-      <c r="G130" s="122"/>
-      <c r="H130" s="122"/>
+      <c r="B130" s="121"/>
+      <c r="C130" s="121"/>
+      <c r="D130" s="121"/>
+      <c r="E130" s="121"/>
+      <c r="F130" s="121"/>
+      <c r="G130" s="121"/>
+      <c r="H130" s="121"/>
     </row>
     <row r="131" spans="1:8" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
@@ -16068,13 +16131,13 @@
       <c r="H151" s="10"/>
     </row>
     <row r="155" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A155" s="122" t="s">
+      <c r="A155" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="B155" s="122"/>
-      <c r="C155" s="122"/>
-      <c r="D155" s="122"/>
-      <c r="E155" s="122"/>
+      <c r="B155" s="121"/>
+      <c r="C155" s="121"/>
+      <c r="D155" s="121"/>
+      <c r="E155" s="121"/>
       <c r="F155" s="63"/>
     </row>
     <row r="156" spans="1:8" ht="27" x14ac:dyDescent="0.25">
@@ -16298,14 +16361,14 @@
       <c r="F176" s="39"/>
     </row>
     <row r="179" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A179" s="122" t="s">
+      <c r="A179" s="121" t="s">
         <v>145</v>
       </c>
-      <c r="B179" s="122"/>
-      <c r="C179" s="122"/>
-      <c r="D179" s="122"/>
-      <c r="E179" s="122"/>
-      <c r="F179" s="66"/>
+      <c r="B179" s="121"/>
+      <c r="C179" s="121"/>
+      <c r="D179" s="121"/>
+      <c r="E179" s="121"/>
+      <c r="F179" s="65"/>
     </row>
     <row r="180" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
@@ -16524,32 +16587,32 @@
       <c r="F200" s="39"/>
     </row>
     <row r="204" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A204" s="123" t="s">
+      <c r="A204" s="122" t="s">
         <v>219</v>
       </c>
-      <c r="B204" s="123"/>
-      <c r="C204" s="123"/>
-      <c r="D204" s="123"/>
-      <c r="E204" s="123"/>
-      <c r="F204" s="123"/>
+      <c r="B204" s="122"/>
+      <c r="C204" s="122"/>
+      <c r="D204" s="122"/>
+      <c r="E204" s="122"/>
+      <c r="F204" s="122"/>
     </row>
     <row r="205" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A205" s="78" t="s">
+      <c r="A205" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B205" s="78" t="s">
+      <c r="B205" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C205" s="78" t="s">
+      <c r="C205" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="D205" s="79" t="s">
+      <c r="D205" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="E205" s="80" t="s">
+      <c r="E205" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="F205" s="80" t="s">
+      <c r="F205" s="79" t="s">
         <v>127</v>
       </c>
     </row>
@@ -16567,7 +16630,7 @@
         <v>224</v>
       </c>
       <c r="E206" s="19"/>
-      <c r="F206" s="77">
+      <c r="F206" s="76">
         <v>3000000</v>
       </c>
     </row>
@@ -16752,7 +16815,7 @@
         <v>224</v>
       </c>
       <c r="E217" s="39"/>
-      <c r="F217" s="77">
+      <c r="F217" s="76">
         <v>6100000</v>
       </c>
     </row>
@@ -16786,7 +16849,7 @@
         <v>229</v>
       </c>
       <c r="E219" s="39"/>
-      <c r="F219" s="77">
+      <c r="F219" s="76">
         <v>15000000</v>
       </c>
     </row>
@@ -17097,16 +17160,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="143"/>
+      <c r="B1" s="142"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="148" t="s">
+      <c r="J2" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="149"/>
+      <c r="K2" s="148"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -17146,10 +17209,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="148" t="s">
+      <c r="J12" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="149"/>
+      <c r="K12" s="148"/>
     </row>
     <row r="13" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J13" s="2">
@@ -17220,7 +17283,7 @@
       </c>
     </row>
     <row r="24" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="150" t="s">
+      <c r="I24" s="149" t="s">
         <v>76</v>
       </c>
       <c r="J24" s="2">
@@ -17231,7 +17294,7 @@
       </c>
     </row>
     <row r="25" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="151"/>
+      <c r="I25" s="150"/>
       <c r="J25" s="2" t="s">
         <v>74</v>
       </c>
@@ -17281,10 +17344,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="152" t="s">
+      <c r="K2" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="153"/>
+      <c r="L2" s="152"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -17293,7 +17356,7 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="100" t="s">
         <v>47</v>
       </c>
       <c r="L4" s="2"/>
@@ -17374,10 +17437,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="154" t="s">
+      <c r="H2" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="155"/>
+      <c r="I2" s="154"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -17393,10 +17456,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="156" t="s">
+      <c r="H3" s="155" t="s">
         <v>291</v>
       </c>
-      <c r="I3" s="157"/>
+      <c r="I3" s="156"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -17425,182 +17488,182 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="157" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="158"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="101" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="102" t="s">
         <v>295</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="103" t="s">
         <v>303</v>
       </c>
-      <c r="D7" s="105" t="s">
+      <c r="D7" s="104" t="s">
         <v>296</v>
       </c>
-      <c r="E7" s="106">
+      <c r="E7" s="105">
         <v>14030302</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="107" t="s">
         <v>297</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="108" t="s">
         <v>291</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="108" t="s">
         <v>298</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="108" t="s">
         <v>299</v>
       </c>
-      <c r="E9" s="110" t="s">
+      <c r="E9" s="109" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="111">
+      <c r="A10" s="110">
         <v>1</v>
       </c>
-      <c r="B10" s="112">
+      <c r="B10" s="111">
         <v>14030428</v>
       </c>
-      <c r="C10" s="112">
+      <c r="C10" s="111">
         <v>14030503</v>
       </c>
-      <c r="D10" s="113" t="e">
+      <c r="D10" s="112" t="e">
         <f ca="1">(Diff($E$7,C10))+30</f>
         <v>#NAME?</v>
       </c>
-      <c r="E10" s="114"/>
-      <c r="G10" s="159" t="s">
+      <c r="E10" s="113"/>
+      <c r="G10" s="158" t="s">
         <v>304</v>
       </c>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="111">
+      <c r="A11" s="110">
         <v>2</v>
       </c>
-      <c r="B11" s="112">
+      <c r="B11" s="111">
         <v>14030429</v>
       </c>
-      <c r="C11" s="112">
+      <c r="C11" s="111">
         <v>14030431</v>
       </c>
-      <c r="D11" s="113" t="e">
+      <c r="D11" s="112" t="e">
         <f ca="1">(Diff($E$2,C11))+30</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="114"/>
+      <c r="E11" s="113"/>
     </row>
     <row r="12" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="114"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
     </row>
     <row r="13" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
     </row>
     <row r="14" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="111"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="113"/>
     </row>
     <row r="15" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
     </row>
     <row r="16" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="111"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="113"/>
     </row>
     <row r="17" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="111"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="114"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="113"/>
     </row>
     <row r="18" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="111"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
     </row>
     <row r="19" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="111"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="113"/>
     </row>
     <row r="20" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="111"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="114"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="113"/>
     </row>
     <row r="21" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="111"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="114"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="113"/>
     </row>
     <row r="22" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="111"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="114"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="113"/>
     </row>
     <row r="23" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="115"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="114"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="113"/>
     </row>
     <row r="24" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="116"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="119"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -17645,10 +17708,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="160" t="s">
+      <c r="K2" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="161"/>
+      <c r="L2" s="160"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F8CCDF-1D22-4882-936F-DD3BCAD4BC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E52131-EF47-4781-8DE6-BAAA955E073F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="323">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -1029,6 +1029,12 @@
   </si>
   <si>
     <t>جمع شن و ماسه</t>
+  </si>
+  <si>
+    <t>1404/02/21</t>
+  </si>
+  <si>
+    <t>خرید تخم مرغ پنیر آب</t>
   </si>
 </sst>
 </file>
@@ -2172,6 +2178,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="23" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2363,21 +2384,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="23" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4764,16 +4770,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4896,10 +4902,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="161" t="s">
+      <c r="I2" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="162"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -4916,10 +4922,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="161" t="s">
+      <c r="I3" s="166" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="162"/>
+      <c r="J3" s="167"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -4933,10 +4939,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="163" t="s">
+      <c r="I4" s="168" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="164"/>
+      <c r="J4" s="169"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -4967,13 +4973,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="126" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -5362,11 +5368,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="165" t="s">
+      <c r="G2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="166"/>
-      <c r="I2" s="167"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="172"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -5374,11 +5380,11 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="165" t="s">
+      <c r="G3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="166"/>
-      <c r="I3" s="167"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="172"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -5387,12 +5393,12 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="168" t="s">
+      <c r="B5" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="170"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="175"/>
       <c r="G5" s="5" t="s">
         <v>212</v>
       </c>
@@ -5597,10 +5603,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="165" t="s">
+      <c r="H2" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="167"/>
+      <c r="I2" s="172"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -5616,8 +5622,8 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="167"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="172"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -5630,10 +5636,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="171" t="s">
+      <c r="H4" s="176" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="172"/>
+      <c r="I4" s="177"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -5662,12 +5668,12 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="126" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="72"/>
       <c r="F7" s="9"/>
       <c r="G7" s="6"/>
@@ -6023,7 +6029,7 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -6060,10 +6066,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="165" t="s">
+      <c r="I2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="167"/>
+      <c r="J2" s="172"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6080,10 +6086,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="165" t="s">
+      <c r="I3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="167"/>
+      <c r="J3" s="172"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6097,10 +6103,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="171" t="s">
+      <c r="I4" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="172"/>
+      <c r="J4" s="177"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6131,21 +6137,21 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="126" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="61"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="173" t="s">
+      <c r="I7" s="178" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="178"/>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -6163,22 +6169,22 @@
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="183" t="s">
+      <c r="G8" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="H8" s="183" t="s">
+      <c r="H8" s="119" t="s">
         <v>153</v>
       </c>
-      <c r="I8" s="183" t="s">
+      <c r="I8" s="119" t="s">
         <v>154</v>
       </c>
-      <c r="J8" s="183" t="s">
+      <c r="J8" s="119" t="s">
         <v>318</v>
       </c>
-      <c r="K8" s="183" t="s">
+      <c r="K8" s="119" t="s">
         <v>319</v>
       </c>
-      <c r="L8" s="183" t="s">
+      <c r="L8" s="119" t="s">
         <v>320</v>
       </c>
     </row>
@@ -6189,7 +6195,7 @@
       <c r="B9" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="185" t="s">
+      <c r="C9" s="121" t="s">
         <v>147</v>
       </c>
       <c r="D9" s="39">
@@ -6201,7 +6207,7 @@
       <c r="H9" s="64"/>
       <c r="I9" s="64"/>
       <c r="J9" s="64"/>
-      <c r="K9" s="184">
+      <c r="K9" s="120">
         <f>SUM(D13:D22,D11)</f>
         <v>4100</v>
       </c>
@@ -6214,7 +6220,7 @@
       <c r="B10" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="186" t="s">
+      <c r="C10" s="122" t="s">
         <v>150</v>
       </c>
       <c r="D10" s="39">
@@ -6236,7 +6242,7 @@
       <c r="B11" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="187" t="s">
+      <c r="C11" s="123" t="s">
         <v>148</v>
       </c>
       <c r="D11" s="39">
@@ -6248,7 +6254,7 @@
       <c r="H11" s="64"/>
       <c r="I11" s="64"/>
       <c r="J11" s="64"/>
-      <c r="K11" s="184"/>
+      <c r="K11" s="120"/>
       <c r="L11" s="64"/>
     </row>
     <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
@@ -6258,7 +6264,7 @@
       <c r="B12" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="186" t="s">
+      <c r="C12" s="122" t="s">
         <v>150</v>
       </c>
       <c r="D12" s="39">
@@ -6280,7 +6286,7 @@
       <c r="B13" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="187" t="s">
+      <c r="C13" s="123" t="s">
         <v>148</v>
       </c>
       <c r="D13" s="39">
@@ -6302,7 +6308,7 @@
       <c r="B14" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="187" t="s">
+      <c r="C14" s="123" t="s">
         <v>148</v>
       </c>
       <c r="D14" s="39">
@@ -6324,7 +6330,7 @@
       <c r="B15" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="C15" s="187" t="s">
+      <c r="C15" s="123" t="s">
         <v>148</v>
       </c>
       <c r="D15" s="39">
@@ -6346,7 +6352,7 @@
       <c r="B16" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="C16" s="187" t="s">
+      <c r="C16" s="123" t="s">
         <v>148</v>
       </c>
       <c r="D16" s="39">
@@ -6367,7 +6373,7 @@
       <c r="B17" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="C17" s="187" t="s">
+      <c r="C17" s="123" t="s">
         <v>148</v>
       </c>
       <c r="D17" s="39">
@@ -6388,7 +6394,7 @@
       <c r="B18" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="C18" s="187" t="s">
+      <c r="C18" s="123" t="s">
         <v>148</v>
       </c>
       <c r="D18" s="39">
@@ -6409,7 +6415,7 @@
       <c r="B19" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="123" t="s">
         <v>148</v>
       </c>
       <c r="D19" s="39">
@@ -6430,7 +6436,7 @@
       <c r="B20" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="C20" s="187" t="s">
+      <c r="C20" s="123" t="s">
         <v>148</v>
       </c>
       <c r="D20" s="39">
@@ -6446,7 +6452,7 @@
       <c r="B21" s="39" t="s">
         <v>316</v>
       </c>
-      <c r="C21" s="187" t="s">
+      <c r="C21" s="123" t="s">
         <v>148</v>
       </c>
       <c r="D21" s="39">
@@ -6462,7 +6468,7 @@
       <c r="B22" s="39" t="s">
         <v>317</v>
       </c>
-      <c r="C22" s="187" t="s">
+      <c r="C22" s="123" t="s">
         <v>148</v>
       </c>
       <c r="D22" s="39">
@@ -6593,10 +6599,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="165" t="s">
+      <c r="I2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="167"/>
+      <c r="J2" s="172"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -6613,10 +6619,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="165" t="s">
+      <c r="I3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="167"/>
+      <c r="J3" s="172"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6630,10 +6636,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="171" t="s">
+      <c r="I4" s="176" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="172"/>
+      <c r="J4" s="177"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6664,13 +6670,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="60"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -7045,10 +7051,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="165" t="s">
+      <c r="I2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="167"/>
+      <c r="J2" s="172"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -7065,10 +7071,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="165" t="s">
+      <c r="I3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="167"/>
+      <c r="J3" s="172"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -7082,10 +7088,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="171" t="s">
+      <c r="I4" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="172"/>
+      <c r="J4" s="177"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -7116,13 +7122,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="17"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -7508,8 +7514,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -7549,10 +7555,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="165" t="s">
+      <c r="I2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="167"/>
+      <c r="J2" s="172"/>
       <c r="K2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -7566,10 +7572,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="165" t="s">
+      <c r="I3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="167"/>
+      <c r="J3" s="172"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -7583,10 +7589,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="171" t="s">
+      <c r="I4" s="176" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="172"/>
+      <c r="J4" s="177"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -7617,13 +7623,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="49"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -7845,7 +7851,7 @@
         <v>745000</v>
       </c>
       <c r="F18" s="39">
-        <f t="shared" ref="F18:F20" si="1">(F17+D18)-E18</f>
+        <f t="shared" ref="F18:F21" si="1">(F17+D18)-E18</f>
         <v>1118000</v>
       </c>
     </row>
@@ -7891,11 +7897,20 @@
       <c r="A21" s="39">
         <v>13</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="84" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>322</v>
+      </c>
       <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
+      <c r="E21" s="39">
+        <v>1480000</v>
+      </c>
+      <c r="F21" s="39">
+        <f t="shared" si="1"/>
+        <v>-1514000</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
@@ -8025,10 +8040,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="165" t="s">
+      <c r="H2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="167"/>
+      <c r="I2" s="172"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -8044,10 +8059,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="165" t="s">
+      <c r="H3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="167"/>
+      <c r="I3" s="172"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -8060,10 +8075,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="171" t="s">
+      <c r="H4" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="172"/>
+      <c r="I4" s="177"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -8078,13 +8093,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -8256,10 +8271,10 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="F2" s="165" t="s">
+      <c r="F2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="167"/>
+      <c r="G2" s="172"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
         <v>10</v>
@@ -8273,10 +8288,10 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="F3" s="165" t="s">
+      <c r="F3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="167"/>
+      <c r="G3" s="172"/>
       <c r="H3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -8287,10 +8302,10 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="F4" s="171" t="s">
+      <c r="F4" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="172"/>
+      <c r="G4" s="177"/>
       <c r="H4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -8303,11 +8318,11 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:12" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:12" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -8384,10 +8399,10 @@
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="175"/>
+      <c r="B13" s="180"/>
       <c r="C13" s="24">
         <f>SUM(C9:C12)</f>
         <v>0</v>
@@ -8452,10 +8467,10 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="I2" s="165" t="s">
+      <c r="I2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="167"/>
+      <c r="J2" s="172"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>10</v>
@@ -8472,10 +8487,10 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="I3" s="165" t="s">
+      <c r="I3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="167"/>
+      <c r="J3" s="172"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -8489,10 +8504,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="I4" s="171" t="s">
+      <c r="I4" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="172"/>
+      <c r="J4" s="177"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -8523,13 +8538,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="27"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
@@ -8857,16 +8872,16 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="125" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
     </row>
     <row r="4" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
@@ -9034,10 +9049,10 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="L2" s="165" t="s">
+      <c r="L2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="167"/>
+      <c r="M2" s="172"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4" t="s">
         <v>10</v>
@@ -9057,10 +9072,10 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="L3" s="165" t="s">
+      <c r="L3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="167"/>
+      <c r="M3" s="172"/>
       <c r="N3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -9077,10 +9092,10 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="L4" s="171" t="s">
+      <c r="L4" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="172"/>
+      <c r="M4" s="177"/>
       <c r="N4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -9097,10 +9112,10 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="L5" s="176" t="s">
+      <c r="L5" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="177"/>
+      <c r="M5" s="182"/>
       <c r="N5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -9119,16 +9134,16 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:18" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
       <c r="I7" s="73" t="s">
         <v>207</v>
       </c>
@@ -9537,10 +9552,10 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="K2" s="165" t="s">
+      <c r="K2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="167"/>
+      <c r="L2" s="172"/>
       <c r="M2" s="3"/>
       <c r="N2" s="4" t="s">
         <v>10</v>
@@ -9559,10 +9574,10 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="K3" s="165" t="s">
+      <c r="K3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="167"/>
+      <c r="L3" s="172"/>
       <c r="M3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -9578,10 +9593,10 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="K4" s="171" t="s">
+      <c r="K4" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="172"/>
+      <c r="L4" s="177"/>
       <c r="M4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -9597,10 +9612,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="K5" s="176" t="s">
+      <c r="K5" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="177"/>
+      <c r="L5" s="182"/>
       <c r="M5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -9618,16 +9633,16 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:17" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:17" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -10008,10 +10023,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="165" t="s">
+      <c r="H2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="167"/>
+      <c r="I2" s="172"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -10027,10 +10042,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="165" t="s">
+      <c r="H3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="167"/>
+      <c r="I3" s="172"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10043,10 +10058,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="171" t="s">
+      <c r="H4" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="172"/>
+      <c r="I4" s="177"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -10059,10 +10074,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="176" t="s">
+      <c r="H5" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="177"/>
+      <c r="I5" s="182"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -10077,13 +10092,13 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -10327,13 +10342,13 @@
       <c r="E29" s="16"/>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A41" s="121" t="s">
+      <c r="A41" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="121"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="121"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
     </row>
     <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -10613,10 +10628,10 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="J2" s="165" t="s">
+      <c r="J2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="167"/>
+      <c r="K2" s="172"/>
       <c r="L2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -10631,10 +10646,10 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="J3" s="165" t="s">
+      <c r="J3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="167"/>
+      <c r="K3" s="172"/>
       <c r="L3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -10649,10 +10664,10 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="J4" s="171" t="s">
+      <c r="J4" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="172"/>
+      <c r="K4" s="177"/>
       <c r="L4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -10667,10 +10682,10 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="J5" s="176" t="s">
+      <c r="J5" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="177"/>
+      <c r="K5" s="182"/>
       <c r="L5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -10687,15 +10702,15 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -11042,10 +11057,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="165" t="s">
+      <c r="H2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="167"/>
+      <c r="I2" s="172"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -11058,10 +11073,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="165" t="s">
+      <c r="H3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="167"/>
+      <c r="I3" s="172"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -11074,10 +11089,10 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="176" t="s">
+      <c r="H4" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="177"/>
+      <c r="I4" s="182"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -11090,10 +11105,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="171" t="s">
+      <c r="H5" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="172"/>
+      <c r="I5" s="177"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -11117,13 +11132,13 @@
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -11460,10 +11475,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="178" t="s">
+      <c r="K2" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="179"/>
+      <c r="L2" s="184"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -11553,10 +11568,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="148"/>
+      <c r="I2" s="153"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -11569,10 +11584,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="178" t="s">
+      <c r="H3" s="183" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="179"/>
+      <c r="I3" s="184"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -11587,13 +11602,13 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="126" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -11951,10 +11966,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="148"/>
+      <c r="I2" s="153"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -11966,10 +11981,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="178" t="s">
+      <c r="H3" s="183" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="179"/>
+      <c r="I3" s="184"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -11983,20 +11998,20 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="B5" s="181" t="s">
+      <c r="B5" s="186" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
     </row>
     <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="187" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
       <c r="E6" s="71"/>
       <c r="F6" s="71"/>
       <c r="G6" s="71"/>
@@ -12042,11 +12057,11 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="180" t="s">
+      <c r="B10" s="185" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="180"/>
-      <c r="D10" s="180"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="185"/>
       <c r="E10" s="70"/>
       <c r="F10" s="70"/>
       <c r="G10" s="70"/>
@@ -12195,11 +12210,11 @@
       <c r="J20" s="71"/>
     </row>
     <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="180" t="s">
+      <c r="B21" s="185" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="180"/>
-      <c r="D21" s="180"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="185"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="71"/>
@@ -12241,20 +12256,20 @@
       <c r="J24" s="67"/>
     </row>
     <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B25" s="181" t="s">
+      <c r="B25" s="186" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="181"/>
-      <c r="D25" s="181"/>
-      <c r="E25" s="181"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
     </row>
     <row r="26" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="182" t="s">
+      <c r="A26" s="187" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="182"/>
-      <c r="C26" s="182"/>
-      <c r="D26" s="182"/>
+      <c r="B26" s="187"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="187"/>
     </row>
     <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="B27"/>
@@ -12278,11 +12293,11 @@
       <c r="D29"/>
     </row>
     <row r="30" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="180" t="s">
+      <c r="B30" s="185" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="180"/>
-      <c r="D30" s="180"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
       <c r="H30" s="71"/>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
@@ -12376,11 +12391,11 @@
       <c r="D40" s="71"/>
     </row>
     <row r="41" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="180" t="s">
+      <c r="B41" s="185" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="180"/>
-      <c r="D41" s="180"/>
+      <c r="C41" s="185"/>
+      <c r="D41" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12443,10 +12458,10 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="148"/>
+      <c r="H2" s="153"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
         <v>10</v>
@@ -12461,10 +12476,10 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="178" t="s">
+      <c r="G3" s="183" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="179"/>
+      <c r="H3" s="184"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -12478,12 +12493,12 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="126" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -12801,12 +12816,12 @@
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
     </row>
     <row r="4" spans="1:6" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -12852,13 +12867,13 @@
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="126" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13233,8 +13248,8 @@
       <c r="A122" s="20"/>
     </row>
     <row r="125" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A125" s="121"/>
-      <c r="B125" s="121"/>
+      <c r="A125" s="126"/>
+      <c r="B125" s="126"/>
     </row>
     <row r="126" spans="1:2" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
@@ -13347,7 +13362,7 @@
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13368,47 +13383,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="125" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="130" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="133" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="131" t="s">
+      <c r="D2" s="134"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="136" t="s">
         <v>268</v>
       </c>
-      <c r="G2" s="132"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="134" t="s">
+      <c r="G2" s="137"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="139" t="s">
         <v>269</v>
       </c>
-      <c r="J2" s="135"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="123" t="s">
+      <c r="J2" s="140"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="128" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="89" t="s">
@@ -13416,8 +13431,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="140"/>
-      <c r="B3" s="138"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="143"/>
       <c r="C3" s="90" t="s">
         <v>270</v>
       </c>
@@ -13445,7 +13460,7 @@
       <c r="K3" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="124"/>
+      <c r="L3" s="129"/>
       <c r="M3" s="89" t="s">
         <v>274</v>
       </c>
@@ -13518,7 +13533,7 @@
       <c r="F6" s="82"/>
       <c r="G6" s="82"/>
       <c r="H6" s="82">
-        <f t="shared" ref="H6:H35" si="0">(H5+F6)-G6</f>
+        <f t="shared" ref="H6:H36" si="0">(H5+F6)-G6</f>
         <v>0</v>
       </c>
       <c r="I6" s="83"/>
@@ -14385,17 +14400,26 @@
       <c r="A36" s="39">
         <v>33</v>
       </c>
-      <c r="B36" s="84"/>
+      <c r="B36" s="84" t="s">
+        <v>321</v>
+      </c>
       <c r="C36" s="81"/>
       <c r="D36" s="81"/>
       <c r="E36" s="81"/>
       <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
+      <c r="G36" s="82">
+        <v>1480000</v>
+      </c>
+      <c r="H36" s="82">
+        <f t="shared" si="0"/>
+        <v>-1514000</v>
+      </c>
       <c r="I36" s="83"/>
       <c r="J36" s="83"/>
       <c r="K36" s="83"/>
-      <c r="L36" s="84"/>
+      <c r="L36" s="84" t="s">
+        <v>322</v>
+      </c>
       <c r="M36" s="84"/>
     </row>
     <row r="37" spans="1:13" ht="27" x14ac:dyDescent="0.25">
@@ -14615,10 +14639,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="142"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -14631,10 +14655,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="143" t="s">
+      <c r="H2" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="144"/>
+      <c r="I2" s="149"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -14647,10 +14671,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="145" t="s">
+      <c r="H3" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="146"/>
+      <c r="I3" s="151"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -14679,13 +14703,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -14954,13 +14978,13 @@
       <c r="M30" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A33" s="121" t="s">
+      <c r="A33" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -15184,14 +15208,14 @@
       <c r="F54" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A57" s="122" t="s">
+      <c r="A57" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="122"/>
-      <c r="C57" s="122"/>
-      <c r="D57" s="122"/>
-      <c r="E57" s="122"/>
-      <c r="F57" s="122"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="127"/>
     </row>
     <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -15413,12 +15437,12 @@
       <c r="F78" s="20"/>
     </row>
     <row r="82" spans="1:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="A82" s="122" t="s">
+      <c r="A82" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="122"/>
-      <c r="C82" s="122"/>
-      <c r="D82" s="122"/>
+      <c r="B82" s="127"/>
+      <c r="C82" s="127"/>
+      <c r="D82" s="127"/>
     </row>
     <row r="83" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
@@ -15595,15 +15619,15 @@
       <c r="D103" s="22"/>
     </row>
     <row r="106" spans="1:7" ht="27" x14ac:dyDescent="0.25">
-      <c r="A106" s="121" t="s">
+      <c r="A106" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="121"/>
-      <c r="C106" s="121"/>
-      <c r="D106" s="121"/>
-      <c r="E106" s="121"/>
-      <c r="F106" s="121"/>
-      <c r="G106" s="121"/>
+      <c r="B106" s="126"/>
+      <c r="C106" s="126"/>
+      <c r="D106" s="126"/>
+      <c r="E106" s="126"/>
+      <c r="F106" s="126"/>
+      <c r="G106" s="126"/>
     </row>
     <row r="107" spans="1:7" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
@@ -15853,16 +15877,16 @@
       <c r="G127" s="20"/>
     </row>
     <row r="130" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A130" s="121" t="s">
+      <c r="A130" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="B130" s="121"/>
-      <c r="C130" s="121"/>
-      <c r="D130" s="121"/>
-      <c r="E130" s="121"/>
-      <c r="F130" s="121"/>
-      <c r="G130" s="121"/>
-      <c r="H130" s="121"/>
+      <c r="B130" s="126"/>
+      <c r="C130" s="126"/>
+      <c r="D130" s="126"/>
+      <c r="E130" s="126"/>
+      <c r="F130" s="126"/>
+      <c r="G130" s="126"/>
+      <c r="H130" s="126"/>
     </row>
     <row r="131" spans="1:8" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
@@ -16131,13 +16155,13 @@
       <c r="H151" s="10"/>
     </row>
     <row r="155" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A155" s="121" t="s">
+      <c r="A155" s="126" t="s">
         <v>143</v>
       </c>
-      <c r="B155" s="121"/>
-      <c r="C155" s="121"/>
-      <c r="D155" s="121"/>
-      <c r="E155" s="121"/>
+      <c r="B155" s="126"/>
+      <c r="C155" s="126"/>
+      <c r="D155" s="126"/>
+      <c r="E155" s="126"/>
       <c r="F155" s="63"/>
     </row>
     <row r="156" spans="1:8" ht="27" x14ac:dyDescent="0.25">
@@ -16361,13 +16385,13 @@
       <c r="F176" s="39"/>
     </row>
     <row r="179" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A179" s="121" t="s">
+      <c r="A179" s="126" t="s">
         <v>145</v>
       </c>
-      <c r="B179" s="121"/>
-      <c r="C179" s="121"/>
-      <c r="D179" s="121"/>
-      <c r="E179" s="121"/>
+      <c r="B179" s="126"/>
+      <c r="C179" s="126"/>
+      <c r="D179" s="126"/>
+      <c r="E179" s="126"/>
       <c r="F179" s="65"/>
     </row>
     <row r="180" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -16587,14 +16611,14 @@
       <c r="F200" s="39"/>
     </row>
     <row r="204" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A204" s="122" t="s">
+      <c r="A204" s="127" t="s">
         <v>219</v>
       </c>
-      <c r="B204" s="122"/>
-      <c r="C204" s="122"/>
-      <c r="D204" s="122"/>
-      <c r="E204" s="122"/>
-      <c r="F204" s="122"/>
+      <c r="B204" s="127"/>
+      <c r="C204" s="127"/>
+      <c r="D204" s="127"/>
+      <c r="E204" s="127"/>
+      <c r="F204" s="127"/>
     </row>
     <row r="205" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A205" s="77" t="s">
@@ -17115,6 +17139,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="A204:F204"/>
     <mergeCell ref="A179:E179"/>
@@ -17122,11 +17151,6 @@
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A130:H130"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{9E228265-015F-4ED7-804E-491796425E13}"/>
@@ -17160,16 +17184,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="142"/>
+      <c r="B1" s="147"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="147" t="s">
+      <c r="J2" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="148"/>
+      <c r="K2" s="153"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -17209,10 +17233,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="147" t="s">
+      <c r="J12" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="148"/>
+      <c r="K12" s="153"/>
     </row>
     <row r="13" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J13" s="2">
@@ -17283,7 +17307,7 @@
       </c>
     </row>
     <row r="24" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="149" t="s">
+      <c r="I24" s="154" t="s">
         <v>76</v>
       </c>
       <c r="J24" s="2">
@@ -17294,7 +17318,7 @@
       </c>
     </row>
     <row r="25" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="150"/>
+      <c r="I25" s="155"/>
       <c r="J25" s="2" t="s">
         <v>74</v>
       </c>
@@ -17344,10 +17368,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="151" t="s">
+      <c r="K2" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="152"/>
+      <c r="L2" s="157"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -17437,10 +17461,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="H2" s="153" t="s">
+      <c r="H2" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="154"/>
+      <c r="I2" s="159"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -17456,10 +17480,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="155" t="s">
+      <c r="H3" s="160" t="s">
         <v>291</v>
       </c>
-      <c r="I3" s="156"/>
+      <c r="I3" s="161"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -17488,13 +17512,13 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="157" t="s">
+      <c r="A6" s="162" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="157"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="101" t="s">
@@ -17552,11 +17576,11 @@
         <v>#NAME?</v>
       </c>
       <c r="E10" s="113"/>
-      <c r="G10" s="158" t="s">
+      <c r="G10" s="163" t="s">
         <v>304</v>
       </c>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="110">
@@ -17708,10 +17732,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="159" t="s">
+      <c r="K2" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="160"/>
+      <c r="L2" s="165"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E52131-EF47-4781-8DE6-BAAA955E073F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BEF7AE-4C2C-44EE-AB8F-4D9F4D9E41BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="323">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -6029,8 +6029,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -6481,9 +6481,15 @@
       <c r="A23" s="39">
         <v>15</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="C23" s="123" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="39">
+        <v>200</v>
+      </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
     </row>
@@ -7514,7 +7520,7 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -17139,11 +17145,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="A204:F204"/>
     <mergeCell ref="A179:E179"/>
@@ -17151,6 +17152,11 @@
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A130:H130"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{9E228265-015F-4ED7-804E-491796425E13}"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BEF7AE-4C2C-44EE-AB8F-4D9F4D9E41BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29CB87B-A380-40D1-826E-9A792A05FC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="324">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -1035,6 +1035,9 @@
   </si>
   <si>
     <t>خرید تخم مرغ پنیر آب</t>
+  </si>
+  <si>
+    <t>1404/02/22</t>
   </si>
 </sst>
 </file>
@@ -6029,7 +6032,7 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -6568,8 +6571,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -6900,37 +6903,63 @@
       <c r="A19" s="39">
         <v>11</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="B19" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D19" s="39">
+        <v>3</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>136</v>
+      </c>
       <c r="F19" s="39"/>
     </row>
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>12</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="B20" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" s="39">
+        <v>3</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>247</v>
+      </c>
       <c r="F20" s="39"/>
     </row>
     <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>13</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
+      <c r="B21" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="D21" s="39">
+        <v>2</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>289</v>
+      </c>
       <c r="F21" s="39"/>
     </row>
     <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>14</v>
       </c>
-      <c r="B22" s="39"/>
+      <c r="B22" s="39" t="s">
+        <v>323</v>
+      </c>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29CB87B-A380-40D1-826E-9A792A05FC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2723E59-248A-4B22-AECB-2FE842EE08EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="324">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -6571,7 +6571,7 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -7549,9 +7549,7 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7886,7 +7884,7 @@
         <v>745000</v>
       </c>
       <c r="F18" s="39">
-        <f t="shared" ref="F18:F21" si="1">(F17+D18)-E18</f>
+        <f t="shared" ref="F18:F22" si="1">(F17+D18)-E18</f>
         <v>1118000</v>
       </c>
     </row>
@@ -7951,11 +7949,19 @@
       <c r="A22" s="39">
         <v>14</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
+      <c r="B22" s="84" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="39">
+        <v>5000000</v>
+      </c>
+      <c r="F22" s="39">
+        <f t="shared" si="1"/>
+        <v>3486000</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
@@ -13395,8 +13401,8 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
@@ -13568,7 +13574,7 @@
       <c r="F6" s="82"/>
       <c r="G6" s="82"/>
       <c r="H6" s="82">
-        <f t="shared" ref="H6:H36" si="0">(H5+F6)-G6</f>
+        <f t="shared" ref="H6:H37" si="0">(H5+F6)-G6</f>
         <v>0</v>
       </c>
       <c r="I6" s="83"/>
@@ -14461,18 +14467,29 @@
       <c r="A37" s="39">
         <v>34</v>
       </c>
-      <c r="B37" s="84"/>
+      <c r="B37" s="84" t="s">
+        <v>323</v>
+      </c>
       <c r="C37" s="81"/>
       <c r="D37" s="81"/>
       <c r="E37" s="81"/>
-      <c r="F37" s="82"/>
+      <c r="F37" s="82">
+        <v>5000000</v>
+      </c>
       <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
+      <c r="H37" s="82">
+        <f t="shared" si="0"/>
+        <v>3486000</v>
+      </c>
       <c r="I37" s="83"/>
       <c r="J37" s="83"/>
       <c r="K37" s="83"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
+      <c r="L37" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="M37" s="84" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
@@ -17174,6 +17191,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="A204:F204"/>
     <mergeCell ref="A179:E179"/>
@@ -17181,11 +17203,6 @@
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A130:H130"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{9E228265-015F-4ED7-804E-491796425E13}"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2723E59-248A-4B22-AECB-2FE842EE08EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11A832C-0C50-4061-A12A-50C33DA1571B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="325">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -1038,6 +1038,9 @@
   </si>
   <si>
     <t>1404/02/22</t>
+  </si>
+  <si>
+    <t>تخم مرغ آب نوشیدنی</t>
   </si>
 </sst>
 </file>
@@ -7549,7 +7552,9 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7884,7 +7889,7 @@
         <v>745000</v>
       </c>
       <c r="F18" s="39">
-        <f t="shared" ref="F18:F22" si="1">(F17+D18)-E18</f>
+        <f t="shared" ref="F18:F23" si="1">(F17+D18)-E18</f>
         <v>1118000</v>
       </c>
     </row>
@@ -7967,11 +7972,20 @@
       <c r="A23" s="39">
         <v>15</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="84" t="s">
+        <v>323</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>324</v>
+      </c>
       <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
+      <c r="E23" s="39">
+        <v>2670000</v>
+      </c>
+      <c r="F23" s="39">
+        <f t="shared" si="1"/>
+        <v>816000</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
@@ -13401,8 +13415,8 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
@@ -13574,7 +13588,7 @@
       <c r="F6" s="82"/>
       <c r="G6" s="82"/>
       <c r="H6" s="82">
-        <f t="shared" ref="H6:H37" si="0">(H5+F6)-G6</f>
+        <f t="shared" ref="H6:H38" si="0">(H5+F6)-G6</f>
         <v>0</v>
       </c>
       <c r="I6" s="83"/>
@@ -14495,17 +14509,26 @@
       <c r="A38" s="39">
         <v>35</v>
       </c>
-      <c r="B38" s="84"/>
+      <c r="B38" s="84" t="s">
+        <v>323</v>
+      </c>
       <c r="C38" s="81"/>
       <c r="D38" s="81"/>
       <c r="E38" s="81"/>
       <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
+      <c r="G38" s="82">
+        <v>2670000</v>
+      </c>
+      <c r="H38" s="82">
+        <f t="shared" si="0"/>
+        <v>816000</v>
+      </c>
       <c r="I38" s="83"/>
       <c r="J38" s="83"/>
       <c r="K38" s="83"/>
-      <c r="L38" s="84"/>
+      <c r="L38" s="39" t="s">
+        <v>324</v>
+      </c>
       <c r="M38" s="84"/>
     </row>
     <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.25">
@@ -17191,11 +17214,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="A204:F204"/>
     <mergeCell ref="A179:E179"/>
@@ -17203,6 +17221,11 @@
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A130:H130"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{9E228265-015F-4ED7-804E-491796425E13}"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885B26EB-6C2C-4E8F-97A3-07766CECF3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD1D779-5E76-4743-8BBB-502322130F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -20,30 +20,33 @@
     <sheet name="فرم های خام N.05" sheetId="11" r:id="rId5"/>
     <sheet name="اطلاعات حساب های ایستگاه N.06" sheetId="14" r:id="rId6"/>
     <sheet name="زونکن یک N1" sheetId="5" r:id="rId7"/>
-    <sheet name="ظهور خوشه N.11" sheetId="34" r:id="rId8"/>
-    <sheet name="مدیریت زونکن دو" sheetId="6" r:id="rId9"/>
-    <sheet name="N.21 حواله کود مزرعه و باغ" sheetId="25" r:id="rId10"/>
-    <sheet name="N3 زونکن سه" sheetId="8" r:id="rId11"/>
-    <sheet name="N.31 خرید کود باغ مرکبات" sheetId="31" r:id="rId12"/>
-    <sheet name="لیست مصالح دیوارکشیN.32" sheetId="24" r:id="rId13"/>
-    <sheet name="لیست کارگری دیوارکشیN.33" sheetId="23" r:id="rId14"/>
-    <sheet name="N.34 علی الحساب موقت" sheetId="13" r:id="rId15"/>
-    <sheet name="N.35 تنخواه پیمانکاری دیوارکشی" sheetId="22" r:id="rId16"/>
-    <sheet name="سایر فاکتورهای پرداخت شده" sheetId="16" r:id="rId17"/>
-    <sheet name="خلاصه وضعیت" sheetId="12" r:id="rId18"/>
-    <sheet name="دفتر تنخواه" sheetId="15" r:id="rId19"/>
-    <sheet name="زونکن سه - تنخواه - اداری" sheetId="20" r:id="rId20"/>
-    <sheet name="زونکن سه - تنخواه - قبوض" sheetId="19" r:id="rId21"/>
-    <sheet name="زونکن سه - تنخواه - فرم پذیرایی" sheetId="9" r:id="rId22"/>
-    <sheet name="زونکن سه - تنخواه - سوخت" sheetId="18" r:id="rId23"/>
-    <sheet name="زونکن سه - بایگانی - پذیرایی" sheetId="10" r:id="rId24"/>
-    <sheet name="مدیریت زونکن چهار" sheetId="7" r:id="rId25"/>
-    <sheet name="زونکن چهار - لیست مرخص روزانه" sheetId="28" r:id="rId26"/>
-    <sheet name="لیست فعالیت ماهانه همکاران شرکت" sheetId="30" r:id="rId27"/>
-    <sheet name="زونکن سه - لیست مرخص ساعتی" sheetId="29" r:id="rId28"/>
+    <sheet name="ظهور خوشه N.11" sheetId="37" r:id="rId8"/>
+    <sheet name="وزن درصدرطوبت N.12" sheetId="34" r:id="rId9"/>
+    <sheet name="ارتفاع بوته تعداد پنجه  N.13 " sheetId="36" r:id="rId10"/>
+    <sheet name="وزن هزاردانه N.14 " sheetId="35" r:id="rId11"/>
+    <sheet name="مدیریت زونکن دو" sheetId="6" r:id="rId12"/>
+    <sheet name="N.21 حواله کود مزرعه و باغ" sheetId="25" r:id="rId13"/>
+    <sheet name="N3 زونکن سه" sheetId="8" r:id="rId14"/>
+    <sheet name="N.31 خرید کود باغ مرکبات" sheetId="31" r:id="rId15"/>
+    <sheet name="لیست مصالح دیوارکشیN.32" sheetId="24" r:id="rId16"/>
+    <sheet name="لیست کارگری دیوارکشیN.33" sheetId="23" r:id="rId17"/>
+    <sheet name="N.34 علی الحساب موقت" sheetId="13" r:id="rId18"/>
+    <sheet name="N.35 تنخواه پیمانکاری دیوارکشی" sheetId="22" r:id="rId19"/>
+    <sheet name="سایر فاکتورهای پرداخت شده" sheetId="16" r:id="rId20"/>
+    <sheet name="خلاصه وضعیت" sheetId="12" r:id="rId21"/>
+    <sheet name="دفتر تنخواه" sheetId="15" r:id="rId22"/>
+    <sheet name="زونکن سه - تنخواه - اداری" sheetId="20" r:id="rId23"/>
+    <sheet name="زونکن سه - تنخواه - قبوض" sheetId="19" r:id="rId24"/>
+    <sheet name="زونکن سه - تنخواه - فرم پذیرایی" sheetId="9" r:id="rId25"/>
+    <sheet name="زونکن سه - تنخواه - سوخت" sheetId="18" r:id="rId26"/>
+    <sheet name="زونکن سه - بایگانی - پذیرایی" sheetId="10" r:id="rId27"/>
+    <sheet name="مدیریت زونکن چهار" sheetId="7" r:id="rId28"/>
+    <sheet name="زونکن چهار - لیست مرخص روزانه" sheetId="28" r:id="rId29"/>
+    <sheet name="لیست فعالیت ماهانه همکاران شرکت" sheetId="30" r:id="rId30"/>
+    <sheet name="زونکن سه - لیست مرخص ساعتی" sheetId="29" r:id="rId31"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'لیست مصالح دیوارکشیN.32'!$C$1:$C$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'لیست مصالح دیوارکشیN.32'!$C$1:$C$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="326">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -1041,6 +1044,9 @@
   </si>
   <si>
     <t>تخم مرغ آب نوشیدنی</t>
+  </si>
+  <si>
+    <t>وزن درصدرطوبت</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1058,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0000\/00\/00"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1200,6 +1206,12 @@
       <color theme="1"/>
       <name val="B Zar"/>
       <charset val="178"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="24">
@@ -1836,7 +1848,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2387,6 +2399,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4758,8 +4773,8 @@
   </sheetPr>
   <dimension ref="D2:L8"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" rightToLeft="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4798,7 +4813,7 @@
       </c>
     </row>
     <row r="5" spans="4:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="55" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="55" t="s">
@@ -4846,7 +4861,7 @@
     <mergeCell ref="D2:K2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F5" location="'مدیریت زونکن یک'!A1" display="یک" xr:uid="{3E765EC4-2BB2-45F9-9F1F-3B66E97DA67E}"/>
+    <hyperlink ref="F5" location="'زونکن یک N1'!A1" display="یک" xr:uid="{3E765EC4-2BB2-45F9-9F1F-3B66E97DA67E}"/>
     <hyperlink ref="F6" location="'مدیریت زونکن دو'!A1" display="دو" xr:uid="{A9175444-BF3F-4E7B-8687-221910F7B689}"/>
     <hyperlink ref="F7" location="'زونکن سه - تنخواه'!A1" display="سه" xr:uid="{5CA2A2DE-CDB1-40D0-87A2-07B581620A56}"/>
     <hyperlink ref="F8" location="'مدیریت زونکن چهار'!A1" display="چهار" xr:uid="{659D1C56-70FE-44A1-B4A3-CA285C86F75E}"/>
@@ -4857,12 +4872,678 @@
     <hyperlink ref="I4" location="'N.02 شماره گذاری شیت ها'!A1" display="شماره گذاری شیت ها" xr:uid="{26410F45-F7AA-4002-A4E6-B13A0D8E8691}"/>
     <hyperlink ref="I5" location="'  پرینت موقت N.03'!A1" display=" پرینت موقت" xr:uid="{4D08E541-A9D3-4A6E-9B59-F8FACFAEA18D}"/>
     <hyperlink ref="I6" location="'N.04 دفتر روزانه'!A1" display="دفتر روزانه" xr:uid="{2F15208A-110D-43A6-88F8-BA510B6F22E1}"/>
+    <hyperlink ref="G5" location="'زونکن یک N1'!A1" display="آزمایشات" xr:uid="{C1357ADE-1D91-439F-8AB3-10C6EA29A05A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B58D10B-7C11-49D9-A6D7-A065D88E0B08}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="25.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="H2" s="157" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="158"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="159" t="s">
+        <v>292</v>
+      </c>
+      <c r="I3" s="160"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="161" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+    </row>
+    <row r="7" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="100" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="101" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="104">
+        <v>14030302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="H8" s="187"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="106" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="107" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="108" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="109">
+        <v>1</v>
+      </c>
+      <c r="B10" s="110">
+        <v>14030428</v>
+      </c>
+      <c r="C10" s="110">
+        <v>14030503</v>
+      </c>
+      <c r="D10" s="111" t="e">
+        <f ca="1">(Diff($E$7,C10))+30</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="112"/>
+      <c r="G10" s="162" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+    </row>
+    <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="109">
+        <v>2</v>
+      </c>
+      <c r="B11" s="110">
+        <v>14030429</v>
+      </c>
+      <c r="C11" s="110">
+        <v>14030431</v>
+      </c>
+      <c r="D11" s="111" t="e">
+        <f ca="1">(Diff($E$2,C11))+30</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" s="112"/>
+    </row>
+    <row r="12" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="112"/>
+    </row>
+    <row r="13" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="109"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="112"/>
+    </row>
+    <row r="14" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="109"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="112"/>
+    </row>
+    <row r="15" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="109"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="112"/>
+    </row>
+    <row r="16" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="109"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="112"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="109"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
+    </row>
+    <row r="18" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="109"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="112"/>
+    </row>
+    <row r="19" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="109"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="112"/>
+    </row>
+    <row r="20" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="109"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+    </row>
+    <row r="21" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="109"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+    </row>
+    <row r="22" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="109"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="112"/>
+    </row>
+    <row r="23" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="113"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="112"/>
+    </row>
+    <row r="24" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="114"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="117"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G10:I10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H2:I2" location="'زونکن یک N1'!A1" display="زونکن شماره دو" xr:uid="{2E5EF4DB-9985-4726-84D1-F2770BC8B913}"/>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{A2106D19-893D-4B3B-BFD5-7E9C74490D54}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CE7A2A-0C4A-4066-A8F5-38136E758C67}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="25.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="H2" s="157" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="158"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="159" t="s">
+        <v>294</v>
+      </c>
+      <c r="I3" s="160"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="161" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+    </row>
+    <row r="7" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="100" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="101" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="104">
+        <v>14030302</v>
+      </c>
+      <c r="H7" s="187"/>
+    </row>
+    <row r="8" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="106" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="107" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="108" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="109">
+        <v>1</v>
+      </c>
+      <c r="B10" s="110">
+        <v>14030428</v>
+      </c>
+      <c r="C10" s="110">
+        <v>14030503</v>
+      </c>
+      <c r="D10" s="111" t="e">
+        <f ca="1">(Diff($E$7,C10))+30</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="112"/>
+      <c r="G10" s="162" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+    </row>
+    <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="109">
+        <v>2</v>
+      </c>
+      <c r="B11" s="110">
+        <v>14030429</v>
+      </c>
+      <c r="C11" s="110">
+        <v>14030431</v>
+      </c>
+      <c r="D11" s="111" t="e">
+        <f ca="1">(Diff($E$2,C11))+30</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" s="112"/>
+    </row>
+    <row r="12" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="112"/>
+    </row>
+    <row r="13" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="109"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="112"/>
+    </row>
+    <row r="14" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="109"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="112"/>
+    </row>
+    <row r="15" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="109"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="112"/>
+    </row>
+    <row r="16" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="109"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="112"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="109"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
+    </row>
+    <row r="18" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="109"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="112"/>
+    </row>
+    <row r="19" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="109"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="112"/>
+    </row>
+    <row r="20" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="109"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+    </row>
+    <row r="21" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="109"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+    </row>
+    <row r="22" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="109"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="112"/>
+    </row>
+    <row r="23" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="113"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="112"/>
+    </row>
+    <row r="24" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="114"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="117"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G10:I10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H2:I2" location="'زونکن یک N1'!A1" display="زونکن شماره دو" xr:uid="{4D7EB60B-C6E4-4ADB-A70E-191A398EEE37}"/>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{B4250678-7139-4532-8C31-582234902091}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2048FEE-3399-40DE-A28A-5C279080E45C}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="9.140625" style="1"/>
+    <col min="11" max="12" width="25.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="146"/>
+    </row>
+    <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="163" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="164"/>
+      <c r="M2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" s="61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M5" location="'حواله کود مزرعه و باغ'!A1" display="حواله کود مزرعه و باغ" xr:uid="{D5B3795F-B5E1-4DC0-AB3E-EE391F264B0E}"/>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{82C25BBA-04AE-45B7-B7E1-F76B9E6E5BA3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2DB39D-3131-4E2F-B906-B453417A2FF8}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -5341,7 +6022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57F183A-3386-450D-AE91-F3DA30B67E25}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -5567,7 +6248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23092EF-9DF4-42EA-9EF2-6FB21114714F}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
@@ -6030,7 +6711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23F2A4A-1ADA-42DA-84DF-FB5510BE189F}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -6571,7 +7252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECC67F4-E01F-456A-965C-D1525789CDAC}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -7052,7 +7733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A001D87-B52D-4BBB-825A-A2D9C74DF962}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -7555,7 +8236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7AE76D-6966-4BB9-B043-ED2E5C3B6D23}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -8058,842 +8739,6 @@
     <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{0F6CCBB5-3572-4C33-90EB-64EB5F24F7E3}"/>
     <hyperlink ref="B1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{0E937C88-4427-4DB9-911F-9ECF29C8B6E1}"/>
     <hyperlink ref="C1" location="'N.04 دفتر روزانه'!A1" display="دفتر روزانه" xr:uid="{996220C2-EF8C-477F-949C-9BA170C46597}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03590E6F-F524-4F8C-ACD9-635A648ABCF8}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:N16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" style="8" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="25.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="5"/>
-    <col min="11" max="11" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="H2" s="169" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="171"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="H3" s="169" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="171"/>
-      <c r="J3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="H4" s="175" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" s="176"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="126" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="24"/>
-    </row>
-    <row r="7" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>1</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="38">
-        <v>12000000</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>2</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="38">
-        <v>3500000</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>3</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="E10" s="38">
-        <v>6100000</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>4</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="E11" s="38">
-        <v>15000000</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="H2:I2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{FC3DEBD9-C77E-418F-928F-295C349969DF}"/>
-    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{66B279A8-FAAD-49ED-98C3-48C47A08E71B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C5079D-A085-4F31-926D-1D8B6D498E67}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:L13"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="44.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="25.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="5"/>
-    <col min="9" max="9" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="F2" s="169" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="171"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="F3" s="169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="171"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="F4" s="175" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="176"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="126" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="24"/>
-    </row>
-    <row r="7" spans="1:12" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="8" spans="1:12" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" s="6" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>1</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" s="6" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>2</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" s="6" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>3</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>4</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="21"/>
-    </row>
-    <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="178" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="179"/>
-      <c r="C13" s="23">
-        <f>SUM(C9:C12)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F2:G2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{89C90042-C79A-41AC-9BD4-AD1186E029C2}"/>
-    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{0318C501-6850-42B4-856A-D55553D12674}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397A8150-4C95-4F03-85CC-EA5E0B56188A}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:O28"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5"/>
-    <col min="12" max="12" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="I2" s="169" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="171"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="I3" s="169" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="171"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="I4" s="175" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="176"/>
-      <c r="K4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
-        <v>1</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38">
-        <f>D9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
-        <v>2</v>
-      </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38">
-        <f>(F9+D10)-E10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
-        <v>3</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38">
-        <f>(F10+D11)-E11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
-        <v>4</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38">
-        <f>(F11+D12)-E12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
-        <v>5</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38">
-        <f>(F12+D13)-E13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
-        <v>6</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-    </row>
-    <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
-        <v>7</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-    </row>
-    <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
-        <v>8</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-    </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
-        <v>9</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-    </row>
-    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
-        <v>10</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-    </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
-        <v>11</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-    </row>
-    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
-        <v>12</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-    </row>
-    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
-        <v>13</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-    </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
-        <v>14</v>
-      </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-    </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
-        <v>15</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-    </row>
-    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
-        <v>16</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-    </row>
-    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
-        <v>17</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-    </row>
-    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
-        <v>18</v>
-      </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-    </row>
-    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
-        <v>19</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-    </row>
-    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
-        <v>20</v>
-      </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{85F4E13A-52D5-4F5F-BB3E-4250FCAED43E}"/>
-    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{B57AFCB4-1EEC-4981-AD2C-88405A229BA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9070,6 +8915,842 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03590E6F-F524-4F8C-ACD9-635A648ABCF8}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="8" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="25.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="H2" s="169" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="171"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="169" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="171"/>
+      <c r="J3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="176"/>
+      <c r="J4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="126" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>1</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="38">
+        <v>12000000</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>2</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="38">
+        <v>3500000</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>3</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" s="38">
+        <v>6100000</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>4</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="38">
+        <v>15000000</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H2:I2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{FC3DEBD9-C77E-418F-928F-295C349969DF}"/>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{66B279A8-FAAD-49ED-98C3-48C47A08E71B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C5079D-A085-4F31-926D-1D8B6D498E67}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="44.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="25.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="5"/>
+    <col min="9" max="9" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="169" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="171"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="F3" s="169" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="171"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="175" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="176"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:12" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" s="6" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>1</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" s="6" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>2</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" s="6" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>3</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>4</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="21"/>
+    </row>
+    <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="178" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="179"/>
+      <c r="C13" s="23">
+        <f>SUM(C9:C12)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F2:G2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{89C90042-C79A-41AC-9BD4-AD1186E029C2}"/>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{0318C501-6850-42B4-856A-D55553D12674}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397A8150-4C95-4F03-85CC-EA5E0B56188A}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="I2" s="169" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="171"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="I3" s="169" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="171"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="I4" s="175" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="176"/>
+      <c r="K4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="125" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
+        <v>1</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38">
+        <f>D9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
+        <v>2</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38">
+        <f>(F9+D10)-E10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <v>3</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38">
+        <f>(F10+D11)-E11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <v>4</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38">
+        <f>(F11+D12)-E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
+        <v>5</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38">
+        <f>(F12+D13)-E13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
+        <v>6</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+    </row>
+    <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
+        <v>7</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+    </row>
+    <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
+        <v>8</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+    </row>
+    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
+        <v>9</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+    </row>
+    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <v>10</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+    </row>
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
+        <v>11</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+    </row>
+    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
+        <v>12</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+    </row>
+    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
+        <v>13</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+    </row>
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
+        <v>14</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+    </row>
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
+        <v>15</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+    </row>
+    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A24" s="38">
+        <v>16</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+    </row>
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A25" s="38">
+        <v>17</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+    </row>
+    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A26" s="38">
+        <v>18</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+    </row>
+    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="38">
+        <v>19</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+    </row>
+    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A28" s="38">
+        <v>20</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{85F4E13A-52D5-4F5F-BB3E-4250FCAED43E}"/>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{B57AFCB4-1EEC-4981-AD2C-88405A229BA9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AF6ECC-C25D-4AE4-9D51-65D2BBBC0054}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -9579,7 +10260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611E4142-FA06-4F8C-8479-92BC84077D6A}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -10059,7 +10740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74664C7B-AF9D-4AAA-84CE-5A79A28E0748}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -10659,7 +11340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E05E92-F6C6-4B7D-8902-B6A7A2B70891}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -11095,7 +11776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4824894-99A7-468B-A8A6-2B99A48AF766}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -11531,7 +12212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F6B1EE-0CDB-40D5-AA97-407B3D9B5EAB}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -11611,7 +12292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306C899E-EDF2-4E78-9E17-5B8A229DB2C4}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -12004,874 +12685,6 @@
   <hyperlinks>
     <hyperlink ref="H2:I2" location="'مدیریت زونکن چهار'!A1" display="زونکن شماره چهار" xr:uid="{615BA136-837F-407A-9312-37B860CE5A59}"/>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{83B331C3-5428-43B8-9E16-C6F44F6C1E5C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930F3AE4-F05A-41F7-94FE-13D5DDEE4B2A}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:N41"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="39" style="8" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="5"/>
-    <col min="8" max="9" width="25.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="5"/>
-    <col min="11" max="11" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="145" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="H2" s="151" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="152"/>
-      <c r="J2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="H3" s="182" t="s">
-        <v>175</v>
-      </c>
-      <c r="I3" s="183"/>
-      <c r="J3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="B5" s="185" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-    </row>
-    <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="186" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-    </row>
-    <row r="7" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="B7"/>
-      <c r="C7" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-    </row>
-    <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="B8"/>
-      <c r="C8" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="B9"/>
-      <c r="C9" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="184" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="184"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-    </row>
-    <row r="11" spans="1:14" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="68">
-        <v>1</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-    </row>
-    <row r="12" spans="1:14" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="68">
-        <v>2</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-    </row>
-    <row r="13" spans="1:14" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="68">
-        <v>3</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-    </row>
-    <row r="14" spans="1:14" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="68">
-        <v>4</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-    </row>
-    <row r="15" spans="1:14" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="68">
-        <v>5</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-    </row>
-    <row r="16" spans="1:14" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="68">
-        <v>6</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-    </row>
-    <row r="17" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="68">
-        <v>7</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-    </row>
-    <row r="18" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="68">
-        <v>8</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-    </row>
-    <row r="19" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="68">
-        <v>9</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>185</v>
-      </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-    </row>
-    <row r="20" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="68">
-        <v>10</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-    </row>
-    <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="184" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="184"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-    </row>
-    <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-    </row>
-    <row r="23" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-    </row>
-    <row r="24" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-    </row>
-    <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B25" s="185" t="s">
-        <v>199</v>
-      </c>
-      <c r="C25" s="185"/>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-    </row>
-    <row r="26" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="186" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" s="186"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="186"/>
-    </row>
-    <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B27"/>
-      <c r="C27" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B28"/>
-      <c r="C28" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B29"/>
-      <c r="C29" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="184" t="s">
-        <v>201</v>
-      </c>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="H30" s="70"/>
-    </row>
-    <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="68">
-        <v>1</v>
-      </c>
-      <c r="C31" s="70" t="s">
-        <v>195</v>
-      </c>
-      <c r="D31" s="70"/>
-    </row>
-    <row r="32" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="68">
-        <v>2</v>
-      </c>
-      <c r="C32" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="D32" s="70"/>
-    </row>
-    <row r="33" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="68">
-        <v>3</v>
-      </c>
-      <c r="C33" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="D33" s="70"/>
-    </row>
-    <row r="34" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="68">
-        <v>4</v>
-      </c>
-      <c r="C34" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="70"/>
-    </row>
-    <row r="35" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="68">
-        <v>5</v>
-      </c>
-      <c r="C35" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="D35" s="70"/>
-    </row>
-    <row r="36" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="68">
-        <v>6</v>
-      </c>
-      <c r="C36" s="70" t="s">
-        <v>194</v>
-      </c>
-      <c r="D36" s="70"/>
-    </row>
-    <row r="37" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="68">
-        <v>7</v>
-      </c>
-      <c r="C37" s="70" t="s">
-        <v>204</v>
-      </c>
-      <c r="D37" s="70"/>
-    </row>
-    <row r="38" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="68">
-        <v>8</v>
-      </c>
-      <c r="C38" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="D38" s="70"/>
-    </row>
-    <row r="39" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="68">
-        <v>9</v>
-      </c>
-      <c r="C39" s="70" t="s">
-        <v>191</v>
-      </c>
-      <c r="D39" s="70"/>
-    </row>
-    <row r="40" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="68">
-        <v>10</v>
-      </c>
-      <c r="C40" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="D40" s="70"/>
-    </row>
-    <row r="41" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="184" t="s">
-        <v>188</v>
-      </c>
-      <c r="C41" s="184"/>
-      <c r="D41" s="184"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A6:D6"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="H2:I2" location="'مدیریت زونکن چهار'!A1" display="زونکن شماره چهار" xr:uid="{C44AEBAE-9A88-4A30-A531-069BADC660E9}"/>
-    <hyperlink ref="B1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{4E038B18-7652-46D1-A7BB-0A49F34C5768}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="11" scale="27" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F82A5-E35F-4FD7-BC9C-13B5DFE62BF2}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:M26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="12.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="5"/>
-    <col min="7" max="8" width="25.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="5"/>
-    <col min="10" max="10" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="G2" s="151" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="152"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="G3" s="182" t="s">
-        <v>172</v>
-      </c>
-      <c r="H3" s="183"/>
-      <c r="I3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="125" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>1</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="20">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>2</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>3</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>4</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-    </row>
-    <row r="11" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>5</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>6</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>7</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-    </row>
-    <row r="14" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>8</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>9</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16" spans="1:13" s="8" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>10</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>11</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>12</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>13</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>14</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>15</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>16</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>17</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>18</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>19</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>20</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G2:H2" location="'مدیریت زونکن چهار'!A1" display="زونکن شماره چهار" xr:uid="{7C697A61-F46C-49F5-9242-2AECBCAEBEE2}"/>
-    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{F1999709-3F14-4CD6-AEF6-E7044C41CADC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13440,6 +13253,874 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930F3AE4-F05A-41F7-94FE-13D5DDEE4B2A}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="39" style="8" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="5"/>
+    <col min="8" max="9" width="25.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="146"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="H2" s="151" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="152"/>
+      <c r="J2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="182" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="183"/>
+      <c r="J3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="B5" s="185" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+    </row>
+    <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="186" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="186"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+    </row>
+    <row r="7" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="B7"/>
+      <c r="C7" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="B8"/>
+      <c r="C8" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="B9"/>
+      <c r="C9" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="184" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="184"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+    </row>
+    <row r="11" spans="1:14" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="68">
+        <v>1</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+    </row>
+    <row r="12" spans="1:14" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="68">
+        <v>2</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+    </row>
+    <row r="13" spans="1:14" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="68">
+        <v>3</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+    </row>
+    <row r="14" spans="1:14" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="68">
+        <v>4</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+    </row>
+    <row r="15" spans="1:14" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="68">
+        <v>5</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+    </row>
+    <row r="16" spans="1:14" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="68">
+        <v>6</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+    </row>
+    <row r="17" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="68">
+        <v>7</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+    </row>
+    <row r="18" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="68">
+        <v>8</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+    </row>
+    <row r="19" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="68">
+        <v>9</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+    </row>
+    <row r="20" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="68">
+        <v>10</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+    </row>
+    <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="184" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="184"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+    </row>
+    <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.25">
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+    </row>
+    <row r="23" spans="1:10" ht="27" x14ac:dyDescent="0.25">
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+    </row>
+    <row r="24" spans="1:10" ht="27" x14ac:dyDescent="0.25">
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+    </row>
+    <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.25">
+      <c r="B25" s="185" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="185"/>
+      <c r="D25" s="185"/>
+      <c r="E25" s="185"/>
+    </row>
+    <row r="26" spans="1:10" ht="27" x14ac:dyDescent="0.25">
+      <c r="A26" s="186" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+    </row>
+    <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+      <c r="C27" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:10" ht="27" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+      <c r="C28" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:10" ht="27" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+      <c r="C29" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="184" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="184"/>
+      <c r="D30" s="184"/>
+      <c r="H30" s="70"/>
+    </row>
+    <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="68">
+        <v>1</v>
+      </c>
+      <c r="C31" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="70"/>
+    </row>
+    <row r="32" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="68">
+        <v>2</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="70"/>
+    </row>
+    <row r="33" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="68">
+        <v>3</v>
+      </c>
+      <c r="C33" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="70"/>
+    </row>
+    <row r="34" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="68">
+        <v>4</v>
+      </c>
+      <c r="C34" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" s="70"/>
+    </row>
+    <row r="35" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="68">
+        <v>5</v>
+      </c>
+      <c r="C35" s="70" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="70"/>
+    </row>
+    <row r="36" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="68">
+        <v>6</v>
+      </c>
+      <c r="C36" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="70"/>
+    </row>
+    <row r="37" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="68">
+        <v>7</v>
+      </c>
+      <c r="C37" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="70"/>
+    </row>
+    <row r="38" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="68">
+        <v>8</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="70"/>
+    </row>
+    <row r="39" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="68">
+        <v>9</v>
+      </c>
+      <c r="C39" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="70"/>
+    </row>
+    <row r="40" spans="2:4" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="68">
+        <v>10</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="70"/>
+    </row>
+    <row r="41" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="184" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="184"/>
+      <c r="D41" s="184"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H2:I2" location="'مدیریت زونکن چهار'!A1" display="زونکن شماره چهار" xr:uid="{C44AEBAE-9A88-4A30-A531-069BADC660E9}"/>
+    <hyperlink ref="B1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{4E038B18-7652-46D1-A7BB-0A49F34C5768}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="11" scale="27" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F82A5-E35F-4FD7-BC9C-13B5DFE62BF2}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="12.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
+    <col min="7" max="8" width="25.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="5"/>
+    <col min="10" max="10" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="G2" s="151" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="152"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="G3" s="182" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="183"/>
+      <c r="I3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A5" s="125" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>1</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>2</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>3</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>4</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>6</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>7</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>8</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>9</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:13" s="8" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>10</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>11</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>12</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>13</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>17</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>18</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>19</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>20</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G2:H2" location="'مدیریت زونکن چهار'!A1" display="زونکن شماره چهار" xr:uid="{7C697A61-F46C-49F5-9242-2AECBCAEBEE2}"/>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{F1999709-3F14-4CD6-AEF6-E7044C41CADC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17460,7 +18141,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17500,27 +18181,23 @@
     </row>
     <row r="5" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K5" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="L5" s="2"/>
+        <v>291</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K6" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="L6" s="2"/>
+        <v>293</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K7" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="L7" s="2"/>
+        <v>292</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K8" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="L8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17535,7 +18212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F697B8F-1EC9-4454-8B53-8BF8C96D3EB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489BAAFD-4770-4946-9DF5-B2AF7CC58883}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -17736,6 +18413,296 @@
       <c r="D14" s="111"/>
       <c r="E14" s="112"/>
     </row>
+    <row r="15" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="109"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="112"/>
+    </row>
+    <row r="16" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="109"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="112"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="109"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
+    </row>
+    <row r="18" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="109"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="112"/>
+    </row>
+    <row r="19" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="109"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="112"/>
+    </row>
+    <row r="20" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="109"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+    </row>
+    <row r="21" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="109"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+    </row>
+    <row r="22" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="109"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="112"/>
+    </row>
+    <row r="23" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="113"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="112"/>
+    </row>
+    <row r="24" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="114"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="117"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G10:I10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H2:I2" location="'زونکن یک N1'!A1" display="زونکن شماره دو" xr:uid="{9679CC2A-20EE-47C5-81D6-3417C400455E}"/>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{F1C42A96-6BCD-4DC2-BBDD-6E8E0ACEF938}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F697B8F-1EC9-4454-8B53-8BF8C96D3EB4}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="25.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="H2" s="157" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="158"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="159" t="s">
+        <v>325</v>
+      </c>
+      <c r="I3" s="160"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="161" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+    </row>
+    <row r="7" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="100" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="101" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="104">
+        <v>14030302</v>
+      </c>
+      <c r="H7" s="187"/>
+    </row>
+    <row r="8" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="106" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="107" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="108" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="109">
+        <v>1</v>
+      </c>
+      <c r="B10" s="110">
+        <v>14030428</v>
+      </c>
+      <c r="C10" s="110">
+        <v>14030503</v>
+      </c>
+      <c r="D10" s="111" t="e">
+        <f ca="1">(Diff($E$7,C10))+30</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="112"/>
+      <c r="G10" s="162" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+    </row>
+    <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="109">
+        <v>2</v>
+      </c>
+      <c r="B11" s="110">
+        <v>14030429</v>
+      </c>
+      <c r="C11" s="110">
+        <v>14030431</v>
+      </c>
+      <c r="D11" s="111" t="e">
+        <f ca="1">(Diff($E$2,C11))+30</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" s="112"/>
+    </row>
+    <row r="12" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="112"/>
+    </row>
+    <row r="13" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="109"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="112"/>
+    </row>
+    <row r="14" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="109"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="112"/>
+    </row>
     <row r="15" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="109"/>
       <c r="B15" s="110"/>
@@ -17821,89 +18788,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2048FEE-3399-40DE-A28A-5C279080E45C}">
-  <sheetPr>
-    <tabColor theme="7" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:R8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="9.140625" style="1"/>
-    <col min="11" max="12" width="25.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="146"/>
-    </row>
-    <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="163" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="164"/>
-      <c r="M2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K4" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="M4" s="61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="M5" location="'حواله کود مزرعه و باغ'!A1" display="حواله کود مزرعه و باغ" xr:uid="{D5B3795F-B5E1-4DC0-AB3E-EE391F264B0E}"/>
-    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{82C25BBA-04AE-45B7-B7E1-F76B9E6E5BA3}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD1D779-5E76-4743-8BBB-502322130F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872B9C61-B59C-4C29-8EE5-AB56510CBF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="327">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -1047,6 +1047,9 @@
   </si>
   <si>
     <t>وزن درصدرطوبت</t>
+  </si>
+  <si>
+    <t>روغن</t>
   </si>
 </sst>
 </file>
@@ -2208,6 +2211,9 @@
     <xf numFmtId="164" fontId="6" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2399,9 +2405,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4788,16 +4791,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4905,10 +4908,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -4922,10 +4925,10 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="157" t="s">
+      <c r="H2" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="158"/>
+      <c r="I2" s="159"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -4939,10 +4942,10 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="159" t="s">
+      <c r="H3" s="160" t="s">
         <v>292</v>
       </c>
-      <c r="I3" s="160"/>
+      <c r="I3" s="161"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -4973,13 +4976,13 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="162" t="s">
         <v>292</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="100" t="s">
@@ -5004,7 +5007,7 @@
       <c r="C8" s="105"/>
       <c r="D8" s="105"/>
       <c r="E8" s="105"/>
-      <c r="H8" s="187"/>
+      <c r="H8" s="123"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
@@ -5038,11 +5041,11 @@
         <v>#NAME?</v>
       </c>
       <c r="E10" s="112"/>
-      <c r="G10" s="162" t="s">
+      <c r="G10" s="163" t="s">
         <v>304</v>
       </c>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="109">
@@ -5175,7 +5178,7 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -5195,10 +5198,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -5212,10 +5215,10 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="157" t="s">
+      <c r="H2" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="158"/>
+      <c r="I2" s="159"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -5229,10 +5232,10 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="159" t="s">
+      <c r="H3" s="160" t="s">
         <v>294</v>
       </c>
-      <c r="I3" s="160"/>
+      <c r="I3" s="161"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -5263,13 +5266,13 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="162" t="s">
         <v>294</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="100" t="s">
@@ -5287,7 +5290,7 @@
       <c r="E7" s="104">
         <v>14030302</v>
       </c>
-      <c r="H7" s="187"/>
+      <c r="H7" s="123"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="105"/>
@@ -5328,11 +5331,11 @@
         <v>#NAME?</v>
       </c>
       <c r="E10" s="112"/>
-      <c r="G10" s="162" t="s">
+      <c r="G10" s="163" t="s">
         <v>304</v>
       </c>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="109">
@@ -5480,16 +5483,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="163" t="s">
+      <c r="K2" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="164"/>
+      <c r="L2" s="165"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -5570,10 +5573,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -5588,10 +5591,10 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="I2" s="165" t="s">
+      <c r="I2" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="166"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -5605,10 +5608,10 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="I3" s="165" t="s">
+      <c r="I3" s="166" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="166"/>
+      <c r="J3" s="167"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -5622,10 +5625,10 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="I4" s="167" t="s">
+      <c r="I4" s="168" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="168"/>
+      <c r="J4" s="169"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5656,13 +5659,13 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="126" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="60"/>
       <c r="G7" s="8"/>
       <c r="H7" s="5"/>
@@ -6047,17 +6050,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
     </row>
     <row r="2" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="169" t="s">
+      <c r="G2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="170"/>
-      <c r="I2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="172"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -6065,11 +6068,11 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="169" t="s">
+      <c r="G3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="170"/>
-      <c r="I3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="172"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -6078,12 +6081,12 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="175"/>
       <c r="G5" s="4" t="s">
         <v>212</v>
       </c>
@@ -6275,10 +6278,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -6292,10 +6295,10 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="169" t="s">
+      <c r="H2" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="171"/>
+      <c r="I2" s="172"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -6309,8 +6312,8 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="171"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="172"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -6324,10 +6327,10 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="H4" s="175" t="s">
+      <c r="H4" s="176" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="176"/>
+      <c r="I4" s="177"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -6356,12 +6359,12 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="126" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="71"/>
       <c r="F7" s="8"/>
       <c r="G7" s="5"/>
@@ -6739,10 +6742,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -6758,10 +6761,10 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="I2" s="169" t="s">
+      <c r="I2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="171"/>
+      <c r="J2" s="172"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -6776,10 +6779,10 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="I3" s="169" t="s">
+      <c r="I3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="171"/>
+      <c r="J3" s="172"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6793,10 +6796,10 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="I4" s="175" t="s">
+      <c r="I4" s="176" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="176"/>
+      <c r="J4" s="177"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6827,21 +6830,21 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="126" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="60"/>
       <c r="G7" s="8"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="177" t="s">
+      <c r="I7" s="178" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="178"/>
       <c r="L7" s="27"/>
     </row>
     <row r="8" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -7280,10 +7283,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -7299,10 +7302,10 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="I2" s="169" t="s">
+      <c r="I2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="171"/>
+      <c r="J2" s="172"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -7317,10 +7320,10 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="I3" s="169" t="s">
+      <c r="I3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="171"/>
+      <c r="J3" s="172"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -7335,10 +7338,10 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="I4" s="175" t="s">
+      <c r="I4" s="176" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="176"/>
+      <c r="J4" s="177"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -7369,13 +7372,13 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="59"/>
       <c r="G7" s="8"/>
       <c r="H7" s="5"/>
@@ -7761,10 +7764,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -7780,10 +7783,10 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="I2" s="169" t="s">
+      <c r="I2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="171"/>
+      <c r="J2" s="172"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -7798,10 +7801,10 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="I3" s="169" t="s">
+      <c r="I3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="171"/>
+      <c r="J3" s="172"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -7816,10 +7819,10 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="I4" s="175" t="s">
+      <c r="I4" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="176"/>
+      <c r="J4" s="177"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -7850,13 +7853,13 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="16"/>
       <c r="G7" s="8"/>
       <c r="H7" s="5"/>
@@ -8243,8 +8246,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -8284,10 +8287,10 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="I2" s="169" t="s">
+      <c r="I2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="171"/>
+      <c r="J2" s="172"/>
       <c r="K2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -8301,10 +8304,10 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="I3" s="169" t="s">
+      <c r="I3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="171"/>
+      <c r="J3" s="172"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -8318,10 +8321,10 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="I4" s="175" t="s">
+      <c r="I4" s="176" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="176"/>
+      <c r="J4" s="177"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -8352,13 +8355,13 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="48"/>
       <c r="G7" s="8"/>
       <c r="H7" s="5"/>
@@ -8580,7 +8583,7 @@
         <v>745000</v>
       </c>
       <c r="F18" s="38">
-        <f t="shared" ref="F18:F23" si="1">(F17+D18)-E18</f>
+        <f t="shared" ref="F18:F24" si="1">(F17+D18)-E18</f>
         <v>1118000</v>
       </c>
     </row>
@@ -8682,11 +8685,20 @@
       <c r="A24" s="38">
         <v>16</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
+      <c r="B24" s="83" t="s">
+        <v>323</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>326</v>
+      </c>
       <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
+      <c r="E24" s="38">
+        <v>579000</v>
+      </c>
+      <c r="F24" s="38">
+        <f t="shared" si="1"/>
+        <v>237000</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
@@ -8791,16 +8803,16 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="125" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
     </row>
     <row r="4" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="52" t="s">
@@ -8941,10 +8953,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -8957,10 +8969,10 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="169" t="s">
+      <c r="H2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="171"/>
+      <c r="I2" s="172"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -8974,10 +8986,10 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="169" t="s">
+      <c r="H3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="171"/>
+      <c r="I3" s="172"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -8990,10 +9002,10 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="H4" s="175" t="s">
+      <c r="H4" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="176"/>
+      <c r="I4" s="177"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -9008,13 +9020,13 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:14" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
       <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -9177,10 +9189,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="I1" s="3"/>
@@ -9190,10 +9202,10 @@
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="F2" s="169" t="s">
+      <c r="F2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="171"/>
+      <c r="G2" s="172"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -9205,10 +9217,10 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="F3" s="169" t="s">
+      <c r="F3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="171"/>
+      <c r="G3" s="172"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -9220,10 +9232,10 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="F4" s="175" t="s">
+      <c r="F4" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="176"/>
+      <c r="G4" s="177"/>
       <c r="H4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -9236,11 +9248,11 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:12" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
       <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:12" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -9317,10 +9329,10 @@
       <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="178" t="s">
+      <c r="A13" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="179"/>
+      <c r="B13" s="180"/>
       <c r="C13" s="23">
         <f>SUM(C9:C12)</f>
         <v>0</v>
@@ -9372,10 +9384,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -9391,10 +9403,10 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="I2" s="169" t="s">
+      <c r="I2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="171"/>
+      <c r="J2" s="172"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -9409,10 +9421,10 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="I3" s="169" t="s">
+      <c r="I3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="171"/>
+      <c r="J3" s="172"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -9427,10 +9439,10 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="I4" s="175" t="s">
+      <c r="I4" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="176"/>
+      <c r="J4" s="177"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -9461,13 +9473,13 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="26"/>
       <c r="G7" s="8"/>
       <c r="H7" s="5"/>
@@ -9782,10 +9794,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -9806,10 +9818,10 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="L2" s="169" t="s">
+      <c r="L2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="171"/>
+      <c r="M2" s="172"/>
       <c r="N2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -9826,10 +9838,10 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="L3" s="169" t="s">
+      <c r="L3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="171"/>
+      <c r="M3" s="172"/>
       <c r="N3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -9846,10 +9858,10 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="L4" s="175" t="s">
+      <c r="L4" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="176"/>
+      <c r="M4" s="177"/>
       <c r="N4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -9866,10 +9878,10 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="L5" s="180" t="s">
+      <c r="L5" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="181"/>
+      <c r="M5" s="182"/>
       <c r="N5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -9888,16 +9900,16 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:18" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
       <c r="I7" s="72" t="s">
         <v>207</v>
       </c>
@@ -10242,12 +10254,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A7:H7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A7:H7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L2:M2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{7E88DE58-A38E-43B1-A5AF-5E5FBF790A05}"/>
@@ -10287,10 +10299,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -10310,10 +10322,10 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="K2" s="169" t="s">
+      <c r="K2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="171"/>
+      <c r="L2" s="172"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -10330,10 +10342,10 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="K3" s="169" t="s">
+      <c r="K3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="171"/>
+      <c r="L3" s="172"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -10350,10 +10362,10 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="K4" s="175" t="s">
+      <c r="K4" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="176"/>
+      <c r="L4" s="177"/>
       <c r="M4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -10369,10 +10381,10 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="K5" s="180" t="s">
+      <c r="K5" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="181"/>
+      <c r="L5" s="182"/>
       <c r="M5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -10390,16 +10402,16 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:17" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:17" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -10722,12 +10734,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A7:H7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A7:H7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K2:L2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{96600D6E-99CC-492D-9886-EB6D57234D8A}"/>
@@ -10767,10 +10779,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -10784,10 +10796,10 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="169" t="s">
+      <c r="H2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="171"/>
+      <c r="I2" s="172"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -10801,10 +10813,10 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="169" t="s">
+      <c r="H3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="171"/>
+      <c r="I3" s="172"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -10818,10 +10830,10 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="H4" s="175" t="s">
+      <c r="H4" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="176"/>
+      <c r="I4" s="177"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -10834,10 +10846,10 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="H5" s="180" t="s">
+      <c r="H5" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="181"/>
+      <c r="I5" s="182"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -10852,13 +10864,13 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -11102,13 +11114,13 @@
       <c r="E29" s="15"/>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A41" s="125" t="s">
+      <c r="A41" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="125"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
     </row>
     <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
@@ -11321,13 +11333,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2:I2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{61AB9484-2EB2-4CA4-A998-647013800F5F}"/>
@@ -11369,10 +11381,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -11389,10 +11401,10 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="J2" s="169" t="s">
+      <c r="J2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="171"/>
+      <c r="K2" s="172"/>
       <c r="L2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -11407,10 +11419,10 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="J3" s="169" t="s">
+      <c r="J3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="171"/>
+      <c r="K3" s="172"/>
       <c r="L3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -11425,10 +11437,10 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="J4" s="175" t="s">
+      <c r="J4" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="176"/>
+      <c r="K4" s="177"/>
       <c r="L4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -11443,10 +11455,10 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="J5" s="180" t="s">
+      <c r="J5" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="181"/>
+      <c r="K5" s="182"/>
       <c r="L5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -11463,15 +11475,15 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:16" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:16" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -11758,12 +11770,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A7:G7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J2:K2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{AE8D250A-4E70-4693-8F14-A81EC5AE2FC0}"/>
@@ -11803,10 +11815,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -11819,10 +11831,10 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="169" t="s">
+      <c r="H2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="171"/>
+      <c r="I2" s="172"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -11835,10 +11847,10 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="169" t="s">
+      <c r="H3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="171"/>
+      <c r="I3" s="172"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -11851,10 +11863,10 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="H4" s="180" t="s">
+      <c r="H4" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="181"/>
+      <c r="I4" s="182"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -11867,10 +11879,10 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="H5" s="175" t="s">
+      <c r="H5" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="176"/>
+      <c r="I5" s="177"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -11894,13 +11906,13 @@
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -12235,16 +12247,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
     </row>
     <row r="2" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="182" t="s">
+      <c r="K2" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="183"/>
+      <c r="L2" s="184"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -12319,10 +12331,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -12335,10 +12347,10 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="151" t="s">
+      <c r="H2" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="152"/>
+      <c r="I2" s="153"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -12351,10 +12363,10 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="182" t="s">
+      <c r="H3" s="183" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="183"/>
+      <c r="I3" s="184"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -12369,13 +12381,13 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="126" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -12719,12 +12731,12 @@
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -12770,13 +12782,13 @@
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="126" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="42"/>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13151,8 +13163,8 @@
       <c r="A122" s="19"/>
     </row>
     <row r="125" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A125" s="125"/>
-      <c r="B125" s="125"/>
+      <c r="A125" s="126"/>
+      <c r="B125" s="126"/>
     </row>
     <row r="126" spans="1:2" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
@@ -13284,10 +13296,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="146"/>
+      <c r="C1" s="147"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -13298,10 +13310,10 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="151" t="s">
+      <c r="H2" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="152"/>
+      <c r="I2" s="153"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -13313,10 +13325,10 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="182" t="s">
+      <c r="H3" s="183" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="183"/>
+      <c r="I3" s="184"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -13330,20 +13342,20 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="B5" s="185" t="s">
+      <c r="B5" s="186" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
     </row>
     <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="187" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
       <c r="E6" s="70"/>
       <c r="F6" s="70"/>
       <c r="G6" s="70"/>
@@ -13389,11 +13401,11 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="184" t="s">
+      <c r="B10" s="185" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="184"/>
-      <c r="D10" s="184"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="185"/>
       <c r="E10" s="69"/>
       <c r="F10" s="69"/>
       <c r="G10" s="69"/>
@@ -13542,11 +13554,11 @@
       <c r="J20" s="70"/>
     </row>
     <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="184" t="s">
+      <c r="B21" s="185" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="184"/>
-      <c r="D21" s="184"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="185"/>
       <c r="E21" s="70"/>
       <c r="F21" s="70"/>
       <c r="G21" s="70"/>
@@ -13588,20 +13600,20 @@
       <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B25" s="185" t="s">
+      <c r="B25" s="186" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="185"/>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
     </row>
     <row r="26" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="186" t="s">
+      <c r="A26" s="187" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="186"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="186"/>
+      <c r="B26" s="187"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="187"/>
     </row>
     <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="B27"/>
@@ -13625,11 +13637,11 @@
       <c r="D29"/>
     </row>
     <row r="30" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="184" t="s">
+      <c r="B30" s="185" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
       <c r="H30" s="70"/>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
@@ -13723,25 +13735,25 @@
       <c r="D40" s="70"/>
     </row>
     <row r="41" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="184" t="s">
+      <c r="B41" s="185" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="184"/>
-      <c r="D41" s="184"/>
+      <c r="C41" s="185"/>
+      <c r="D41" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="A26:D26"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2:I2" location="'مدیریت زونکن چهار'!A1" display="زونکن شماره چهار" xr:uid="{C44AEBAE-9A88-4A30-A531-069BADC660E9}"/>
@@ -13779,10 +13791,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -13794,10 +13806,10 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="G2" s="151" t="s">
+      <c r="G2" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="152"/>
+      <c r="H2" s="153"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -13810,10 +13822,10 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="G3" s="182" t="s">
+      <c r="G3" s="183" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="183"/>
+      <c r="H3" s="184"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -13827,12 +13839,12 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="126" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -14154,47 +14166,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="129" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="130" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="133" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135" t="s">
+      <c r="D2" s="134"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="136" t="s">
         <v>268</v>
       </c>
-      <c r="G2" s="136"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="138" t="s">
+      <c r="G2" s="137"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="139" t="s">
         <v>269</v>
       </c>
-      <c r="J2" s="139"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="127" t="s">
+      <c r="J2" s="140"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="128" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="88" t="s">
@@ -14202,8 +14214,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="144"/>
-      <c r="B3" s="142"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="143"/>
       <c r="C3" s="89" t="s">
         <v>270</v>
       </c>
@@ -14231,7 +14243,7 @@
       <c r="K3" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="128"/>
+      <c r="L3" s="129"/>
       <c r="M3" s="88" t="s">
         <v>274</v>
       </c>
@@ -14304,7 +14316,7 @@
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
       <c r="H6" s="81">
-        <f t="shared" ref="H6:H38" si="0">(H5+F6)-G6</f>
+        <f t="shared" ref="H6:H39" si="0">(H5+F6)-G6</f>
         <v>0</v>
       </c>
       <c r="I6" s="82"/>
@@ -15251,17 +15263,26 @@
       <c r="A39" s="38">
         <v>36</v>
       </c>
-      <c r="B39" s="83"/>
+      <c r="B39" s="83" t="s">
+        <v>323</v>
+      </c>
       <c r="C39" s="80"/>
       <c r="D39" s="80"/>
       <c r="E39" s="80"/>
       <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
+      <c r="G39" s="81">
+        <v>579000</v>
+      </c>
+      <c r="H39" s="81">
+        <f t="shared" si="0"/>
+        <v>237000</v>
+      </c>
       <c r="I39" s="82"/>
       <c r="J39" s="82"/>
       <c r="K39" s="82"/>
-      <c r="L39" s="83"/>
+      <c r="L39" s="83" t="s">
+        <v>326</v>
+      </c>
       <c r="M39" s="83"/>
     </row>
     <row r="40" spans="1:13" ht="27" x14ac:dyDescent="0.25">
@@ -15430,10 +15451,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -15446,10 +15467,10 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="148"/>
+      <c r="I2" s="149"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -15462,10 +15483,10 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="149" t="s">
+      <c r="H3" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="150"/>
+      <c r="I3" s="151"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -15494,13 +15515,13 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -15769,13 +15790,13 @@
       <c r="M30" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A33" s="125" t="s">
+      <c r="A33" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="125"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
       <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -15999,14 +16020,14 @@
       <c r="F54" s="20"/>
     </row>
     <row r="57" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A57" s="126" t="s">
+      <c r="A57" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="126"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="127"/>
     </row>
     <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
@@ -16228,12 +16249,12 @@
       <c r="F78" s="19"/>
     </row>
     <row r="82" spans="1:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="A82" s="126" t="s">
+      <c r="A82" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="126"/>
-      <c r="C82" s="126"/>
-      <c r="D82" s="126"/>
+      <c r="B82" s="127"/>
+      <c r="C82" s="127"/>
+      <c r="D82" s="127"/>
     </row>
     <row r="83" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
@@ -16410,15 +16431,15 @@
       <c r="D103" s="21"/>
     </row>
     <row r="106" spans="1:7" ht="27" x14ac:dyDescent="0.25">
-      <c r="A106" s="125" t="s">
+      <c r="A106" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="125"/>
-      <c r="C106" s="125"/>
-      <c r="D106" s="125"/>
-      <c r="E106" s="125"/>
-      <c r="F106" s="125"/>
-      <c r="G106" s="125"/>
+      <c r="B106" s="126"/>
+      <c r="C106" s="126"/>
+      <c r="D106" s="126"/>
+      <c r="E106" s="126"/>
+      <c r="F106" s="126"/>
+      <c r="G106" s="126"/>
     </row>
     <row r="107" spans="1:7" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
@@ -16668,16 +16689,16 @@
       <c r="G127" s="19"/>
     </row>
     <row r="130" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A130" s="125" t="s">
+      <c r="A130" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="B130" s="125"/>
-      <c r="C130" s="125"/>
-      <c r="D130" s="125"/>
-      <c r="E130" s="125"/>
-      <c r="F130" s="125"/>
-      <c r="G130" s="125"/>
-      <c r="H130" s="125"/>
+      <c r="B130" s="126"/>
+      <c r="C130" s="126"/>
+      <c r="D130" s="126"/>
+      <c r="E130" s="126"/>
+      <c r="F130" s="126"/>
+      <c r="G130" s="126"/>
+      <c r="H130" s="126"/>
     </row>
     <row r="131" spans="1:8" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
@@ -16946,13 +16967,13 @@
       <c r="H151" s="9"/>
     </row>
     <row r="155" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A155" s="125" t="s">
+      <c r="A155" s="126" t="s">
         <v>143</v>
       </c>
-      <c r="B155" s="125"/>
-      <c r="C155" s="125"/>
-      <c r="D155" s="125"/>
-      <c r="E155" s="125"/>
+      <c r="B155" s="126"/>
+      <c r="C155" s="126"/>
+      <c r="D155" s="126"/>
+      <c r="E155" s="126"/>
       <c r="F155" s="62"/>
     </row>
     <row r="156" spans="1:8" ht="27" x14ac:dyDescent="0.25">
@@ -17176,13 +17197,13 @@
       <c r="F176" s="38"/>
     </row>
     <row r="179" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A179" s="125" t="s">
+      <c r="A179" s="126" t="s">
         <v>145</v>
       </c>
-      <c r="B179" s="125"/>
-      <c r="C179" s="125"/>
-      <c r="D179" s="125"/>
-      <c r="E179" s="125"/>
+      <c r="B179" s="126"/>
+      <c r="C179" s="126"/>
+      <c r="D179" s="126"/>
+      <c r="E179" s="126"/>
       <c r="F179" s="64"/>
     </row>
     <row r="180" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -17402,14 +17423,14 @@
       <c r="F200" s="38"/>
     </row>
     <row r="204" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A204" s="126" t="s">
+      <c r="A204" s="127" t="s">
         <v>219</v>
       </c>
-      <c r="B204" s="126"/>
-      <c r="C204" s="126"/>
-      <c r="D204" s="126"/>
-      <c r="E204" s="126"/>
-      <c r="F204" s="126"/>
+      <c r="B204" s="127"/>
+      <c r="C204" s="127"/>
+      <c r="D204" s="127"/>
+      <c r="E204" s="127"/>
+      <c r="F204" s="127"/>
     </row>
     <row r="205" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A205" s="76" t="s">
@@ -17930,6 +17951,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="A204:F204"/>
     <mergeCell ref="A179:E179"/>
@@ -17937,11 +17963,6 @@
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A130:H130"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{9E228265-015F-4ED7-804E-491796425E13}"/>
@@ -17975,16 +17996,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="151" t="s">
+      <c r="J2" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="152"/>
+      <c r="K2" s="153"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -18024,10 +18045,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="151" t="s">
+      <c r="J12" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="152"/>
+      <c r="K12" s="153"/>
     </row>
     <row r="13" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J13" s="2">
@@ -18098,7 +18119,7 @@
       </c>
     </row>
     <row r="24" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="153" t="s">
+      <c r="I24" s="154" t="s">
         <v>76</v>
       </c>
       <c r="J24" s="2">
@@ -18109,7 +18130,7 @@
       </c>
     </row>
     <row r="25" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="154"/>
+      <c r="I25" s="155"/>
       <c r="J25" s="2" t="s">
         <v>74</v>
       </c>
@@ -18156,16 +18177,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="155" t="s">
+      <c r="K2" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="156"/>
+      <c r="L2" s="157"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -18238,10 +18259,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -18255,10 +18276,10 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="157" t="s">
+      <c r="H2" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="158"/>
+      <c r="I2" s="159"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -18272,10 +18293,10 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="159" t="s">
+      <c r="H3" s="160" t="s">
         <v>291</v>
       </c>
-      <c r="I3" s="160"/>
+      <c r="I3" s="161"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -18306,13 +18327,13 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="162" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="100" t="s">
@@ -18370,11 +18391,11 @@
         <v>#NAME?</v>
       </c>
       <c r="E10" s="112"/>
-      <c r="G10" s="162" t="s">
+      <c r="G10" s="163" t="s">
         <v>304</v>
       </c>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="109">
@@ -18527,10 +18548,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -18544,10 +18565,10 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="157" t="s">
+      <c r="H2" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="158"/>
+      <c r="I2" s="159"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -18561,10 +18582,10 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="159" t="s">
+      <c r="H3" s="160" t="s">
         <v>325</v>
       </c>
-      <c r="I3" s="160"/>
+      <c r="I3" s="161"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -18595,13 +18616,13 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="162" t="s">
         <v>325</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="100" t="s">
@@ -18619,7 +18640,7 @@
       <c r="E7" s="104">
         <v>14030302</v>
       </c>
-      <c r="H7" s="187"/>
+      <c r="H7" s="123"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="105"/>
@@ -18660,11 +18681,11 @@
         <v>#NAME?</v>
       </c>
       <c r="E10" s="112"/>
-      <c r="G10" s="162" t="s">
+      <c r="G10" s="163" t="s">
         <v>304</v>
       </c>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="109">

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872B9C61-B59C-4C29-8EE5-AB56510CBF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2AE4AF-910F-48FA-8624-6441E930FE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -19,34 +19,37 @@
     <sheet name="N.04 دفتر روزانه" sheetId="32" r:id="rId4"/>
     <sheet name="فرم های خام N.05" sheetId="11" r:id="rId5"/>
     <sheet name="اطلاعات حساب های ایستگاه N.06" sheetId="14" r:id="rId6"/>
-    <sheet name="زونکن یک N1" sheetId="5" r:id="rId7"/>
+    <sheet name="زونکن یک N.1" sheetId="5" r:id="rId7"/>
     <sheet name="ظهور خوشه N.11" sheetId="37" r:id="rId8"/>
     <sheet name="وزن درصدرطوبت N.12" sheetId="34" r:id="rId9"/>
     <sheet name="ارتفاع بوته تعداد پنجه  N.13 " sheetId="36" r:id="rId10"/>
     <sheet name="وزن هزاردانه N.14 " sheetId="35" r:id="rId11"/>
-    <sheet name="مدیریت زونکن دو" sheetId="6" r:id="rId12"/>
-    <sheet name="N.21 حواله کود مزرعه و باغ" sheetId="25" r:id="rId13"/>
-    <sheet name="N3 زونکن سه" sheetId="8" r:id="rId14"/>
-    <sheet name="N.31 خرید کود باغ مرکبات" sheetId="31" r:id="rId15"/>
-    <sheet name="لیست مصالح دیوارکشیN.32" sheetId="24" r:id="rId16"/>
-    <sheet name="لیست کارگری دیوارکشیN.33" sheetId="23" r:id="rId17"/>
-    <sheet name="N.34 علی الحساب موقت" sheetId="13" r:id="rId18"/>
-    <sheet name="N.35 تنخواه پیمانکاری دیوارکشی" sheetId="22" r:id="rId19"/>
-    <sheet name="سایر فاکتورهای پرداخت شده" sheetId="16" r:id="rId20"/>
-    <sheet name="خلاصه وضعیت" sheetId="12" r:id="rId21"/>
-    <sheet name="دفتر تنخواه" sheetId="15" r:id="rId22"/>
-    <sheet name="زونکن سه - تنخواه - اداری" sheetId="20" r:id="rId23"/>
-    <sheet name="زونکن سه - تنخواه - قبوض" sheetId="19" r:id="rId24"/>
-    <sheet name="زونکن سه - تنخواه - فرم پذیرایی" sheetId="9" r:id="rId25"/>
-    <sheet name="زونکن سه - تنخواه - سوخت" sheetId="18" r:id="rId26"/>
-    <sheet name="زونکن سه - بایگانی - پذیرایی" sheetId="10" r:id="rId27"/>
-    <sheet name="مدیریت زونکن چهار" sheetId="7" r:id="rId28"/>
-    <sheet name="زونکن چهار - لیست مرخص روزانه" sheetId="28" r:id="rId29"/>
-    <sheet name="لیست فعالیت ماهانه همکاران شرکت" sheetId="30" r:id="rId30"/>
-    <sheet name="زونکن سه - لیست مرخص ساعتی" sheetId="29" r:id="rId31"/>
+    <sheet name="دکتر نصیری نمایشی N.15" sheetId="38" r:id="rId12"/>
+    <sheet name=" دکتر نبی پور سازگاری  N.16 S " sheetId="39" r:id="rId13"/>
+    <sheet name=" دکتر نبی پور سازگاری  N.17 M " sheetId="41" r:id="rId14"/>
+    <sheet name="مدیریت زونکن دو" sheetId="6" r:id="rId15"/>
+    <sheet name="N.21 حواله کود مزرعه و باغ" sheetId="25" r:id="rId16"/>
+    <sheet name="N3 زونکن سه" sheetId="8" r:id="rId17"/>
+    <sheet name="N.31 خرید کود باغ مرکبات" sheetId="31" r:id="rId18"/>
+    <sheet name="لیست مصالح دیوارکشیN.32" sheetId="24" r:id="rId19"/>
+    <sheet name="لیست کارگری دیوارکشیN.33" sheetId="23" r:id="rId20"/>
+    <sheet name="N.34 علی الحساب موقت" sheetId="13" r:id="rId21"/>
+    <sheet name="N.35 تنخواه پیمانکاری دیوارکشی" sheetId="22" r:id="rId22"/>
+    <sheet name="سایر فاکتورهای پرداخت شده" sheetId="16" r:id="rId23"/>
+    <sheet name="خلاصه وضعیت" sheetId="12" r:id="rId24"/>
+    <sheet name="دفتر تنخواه" sheetId="15" r:id="rId25"/>
+    <sheet name="زونکن سه - تنخواه - اداری" sheetId="20" r:id="rId26"/>
+    <sheet name="زونکن سه - تنخواه - قبوض" sheetId="19" r:id="rId27"/>
+    <sheet name="زونکن سه - تنخواه - فرم پذیرایی" sheetId="9" r:id="rId28"/>
+    <sheet name="زونکن سه - تنخواه - سوخت" sheetId="18" r:id="rId29"/>
+    <sheet name="زونکن سه - بایگانی - پذیرایی" sheetId="10" r:id="rId30"/>
+    <sheet name="مدیریت زونکن چهار" sheetId="7" r:id="rId31"/>
+    <sheet name="زونکن چهار - لیست مرخص روزانه" sheetId="28" r:id="rId32"/>
+    <sheet name="لیست فعالیت ماهانه همکاران شرکت" sheetId="30" r:id="rId33"/>
+    <sheet name="زونکن سه - لیست مرخص ساعتی" sheetId="29" r:id="rId34"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'لیست مصالح دیوارکشیN.32'!$C$1:$C$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'لیست مصالح دیوارکشیN.32'!$C$1:$C$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="357">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -1050,18 +1053,109 @@
   </si>
   <si>
     <t>روغن</t>
+  </si>
+  <si>
+    <t>دکتر نصیری نمایشی</t>
+  </si>
+  <si>
+    <t>دکتر نبی پور سازگاری M</t>
+  </si>
+  <si>
+    <t>دکتر نبی پور سازگاری S</t>
+  </si>
+  <si>
+    <t>آزمایش دکتر نصیری نمایشی</t>
+  </si>
+  <si>
+    <t>جدول راهنما</t>
+  </si>
+  <si>
+    <t>تعداد ردیف کشت</t>
+  </si>
+  <si>
+    <t>تعداد ستون کشت</t>
+  </si>
+  <si>
+    <t>تعداد تکرار</t>
+  </si>
+  <si>
+    <t>تعداد ارقام</t>
+  </si>
+  <si>
+    <t>شماره کرت کشت شده</t>
+  </si>
+  <si>
+    <t>مساحت کرت</t>
+  </si>
+  <si>
+    <t>450 m2</t>
+  </si>
+  <si>
+    <t>تاریخ کشت</t>
+  </si>
+  <si>
+    <t>نقطه شروع</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>شمال</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>جنوب</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>کل خط ستون</t>
+  </si>
+  <si>
+    <t>کل خط ردیف</t>
+  </si>
+  <si>
+    <t>دکتر نصیری</t>
+  </si>
+  <si>
+    <t>آمل - نمایشی</t>
+  </si>
+  <si>
+    <t>بدون تکرار</t>
+  </si>
+  <si>
+    <t>نقشه کشت</t>
+  </si>
+  <si>
+    <t>تعداد ردیف نشا کشت شده</t>
+  </si>
+  <si>
+    <t>آزمایش دکتر نبی پور سازگاری S</t>
+  </si>
+  <si>
+    <t>آزمایش دکتر نبی پور سازگاری M</t>
+  </si>
+  <si>
+    <t>آمل - سازگاری</t>
+  </si>
+  <si>
+    <t>1404/02/23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0000\/00\/00"/>
+    <numFmt numFmtId="166" formatCode="[$-30C0000]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1216,8 +1310,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1353,6 +1460,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1851,7 +1976,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2214,6 +2339,40 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2316,10 +2475,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2332,6 +2491,15 @@
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4777,7 +4945,7 @@
   <dimension ref="D2:L8"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4791,16 +4959,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4889,7 +5057,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -4908,10 +5076,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -4925,10 +5093,10 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="158" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="159"/>
+      <c r="H2" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="171"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -4942,10 +5110,10 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="160" t="s">
+      <c r="H3" s="172" t="s">
         <v>292</v>
       </c>
-      <c r="I3" s="161"/>
+      <c r="I3" s="173"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -4976,13 +5144,13 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="162" t="s">
+      <c r="A6" s="174" t="s">
         <v>292</v>
       </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="100" t="s">
@@ -5041,11 +5209,11 @@
         <v>#NAME?</v>
       </c>
       <c r="E10" s="112"/>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="175" t="s">
         <v>304</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="109">
@@ -5163,8 +5331,8 @@
     <mergeCell ref="G10:I10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H2:I2" location="'زونکن یک N1'!A1" display="زونکن شماره دو" xr:uid="{2E5EF4DB-9985-4726-84D1-F2770BC8B913}"/>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{A2106D19-893D-4B3B-BFD5-7E9C74490D54}"/>
+    <hyperlink ref="H2:I2" location="'زونکن یک N1'!A1" display="زونکن شماره دو" xr:uid="{9B68A8E6-7C06-4564-81B9-AC347604FEA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5179,7 +5347,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -5198,10 +5366,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -5215,10 +5383,10 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="158" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="159"/>
+      <c r="H2" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="171"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -5232,10 +5400,10 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="160" t="s">
+      <c r="H3" s="172" t="s">
         <v>294</v>
       </c>
-      <c r="I3" s="161"/>
+      <c r="I3" s="173"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -5266,13 +5434,13 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="162" t="s">
+      <c r="A6" s="174" t="s">
         <v>294</v>
       </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="100" t="s">
@@ -5331,11 +5499,11 @@
         <v>#NAME?</v>
       </c>
       <c r="E10" s="112"/>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="175" t="s">
         <v>304</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="109">
@@ -5453,8 +5621,8 @@
     <mergeCell ref="G10:I10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H2:I2" location="'زونکن یک N1'!A1" display="زونکن شماره دو" xr:uid="{4D7EB60B-C6E4-4ADB-A70E-191A398EEE37}"/>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{B4250678-7139-4532-8C31-582234902091}"/>
+    <hyperlink ref="H2:I2" location="'زونکن یک N1'!A1" display="زونکن شماره دو" xr:uid="{C26870AB-EBF3-42C1-A6E1-EBE5E555DECD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5462,6 +5630,1068 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C564B476-7CBD-4AEE-B9B6-DACA0A40102B}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="25.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="H2" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="171"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="172" t="s">
+        <v>330</v>
+      </c>
+      <c r="I3" s="173"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="177" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="124"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="178" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="178"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="127" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" s="127" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="B11" s="128" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" s="129"/>
+      <c r="G11" s="126"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="128" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="129"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="128" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" s="129" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="128" t="s">
+        <v>335</v>
+      </c>
+      <c r="C14" s="129">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="128" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="129"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="128" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" s="129" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="128" t="s">
+        <v>339</v>
+      </c>
+      <c r="C17" s="130"/>
+    </row>
+    <row r="18" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="131" t="s">
+        <v>340</v>
+      </c>
+      <c r="C18" s="132" t="s">
+        <v>341</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="128" t="s">
+        <v>342</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>343</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="128" t="s">
+        <v>344</v>
+      </c>
+      <c r="C20" s="134" t="s">
+        <v>345</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="128" t="s">
+        <v>346</v>
+      </c>
+      <c r="C21" s="135">
+        <v>66</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="128" t="s">
+        <v>347</v>
+      </c>
+      <c r="C22" s="135">
+        <v>135</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="176" t="s">
+        <v>351</v>
+      </c>
+      <c r="C25" s="176"/>
+      <c r="D25" s="15"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="176" t="s">
+        <v>352</v>
+      </c>
+      <c r="C29" s="176"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H2:I2" location="'زونکن یک N1'!A1" display="زونکن شماره دو" xr:uid="{10355E37-13A7-4908-824B-296CF83258D6}"/>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{7CB0835F-BB1F-4264-951C-F1CB10D8C2F7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFCB628-FAB7-4A73-87E8-9F1A762534D9}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="25.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="H2" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="171"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="172" t="s">
+        <v>353</v>
+      </c>
+      <c r="I3" s="173"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="177" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="124"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="178" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="178"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="127" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" s="127" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="B11" s="128" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" s="129"/>
+      <c r="G11" s="126"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="128" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="129"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="128" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" s="129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="128" t="s">
+        <v>335</v>
+      </c>
+      <c r="C14" s="129">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="128" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="129"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="128" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" s="129" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="128" t="s">
+        <v>339</v>
+      </c>
+      <c r="C17" s="130"/>
+    </row>
+    <row r="18" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="131" t="s">
+        <v>340</v>
+      </c>
+      <c r="C18" s="132" t="s">
+        <v>341</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="128" t="s">
+        <v>342</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>343</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="128" t="s">
+        <v>344</v>
+      </c>
+      <c r="C20" s="134" t="s">
+        <v>345</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="128" t="s">
+        <v>346</v>
+      </c>
+      <c r="C21" s="135">
+        <v>66</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="128" t="s">
+        <v>347</v>
+      </c>
+      <c r="C22" s="135">
+        <v>135</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="176" t="s">
+        <v>351</v>
+      </c>
+      <c r="C25" s="176"/>
+      <c r="D25" s="15"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="176" t="s">
+        <v>352</v>
+      </c>
+      <c r="C29" s="176"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B25:C25"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H2:I2" location="'زونکن یک N1'!A1" display="زونکن شماره دو" xr:uid="{7842EA63-FA6E-4374-B2E9-C69F8B658A96}"/>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{17131B33-0534-49B0-8CAD-2F50C084100F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0A3E1C-8D8A-402C-B3E0-B250E51C2BA0}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="25.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="H2" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="171"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="172" t="s">
+        <v>354</v>
+      </c>
+      <c r="I3" s="173"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="177" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="124"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="178" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="178"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="127" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" s="127" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="B11" s="128" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" s="129"/>
+      <c r="G11" s="126"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="128" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="129"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="128" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" s="129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="128" t="s">
+        <v>335</v>
+      </c>
+      <c r="C14" s="129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="128" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="129"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="128" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" s="129" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="128" t="s">
+        <v>339</v>
+      </c>
+      <c r="C17" s="130"/>
+    </row>
+    <row r="18" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="131" t="s">
+        <v>340</v>
+      </c>
+      <c r="C18" s="132" t="s">
+        <v>341</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="128" t="s">
+        <v>342</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>343</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="128" t="s">
+        <v>344</v>
+      </c>
+      <c r="C20" s="134" t="s">
+        <v>345</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="128" t="s">
+        <v>346</v>
+      </c>
+      <c r="C21" s="135">
+        <v>66</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="128" t="s">
+        <v>347</v>
+      </c>
+      <c r="C22" s="135">
+        <v>135</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="176" t="s">
+        <v>351</v>
+      </c>
+      <c r="C25" s="176"/>
+      <c r="D25" s="15"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="176" t="s">
+        <v>352</v>
+      </c>
+      <c r="C29" s="176"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B25:C25"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H2:I2" location="'زونکن یک N1'!A1" display="زونکن شماره دو" xr:uid="{C63DFDF9-6717-4F25-A6E1-CE9E796636F6}"/>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{CE1F446C-198B-40F5-9064-CEDD96761947}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2048FEE-3399-40DE-A28A-5C279080E45C}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
@@ -5483,16 +6713,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="159"/>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="164" t="s">
+      <c r="K2" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="165"/>
+      <c r="L2" s="180"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -5546,7 +6776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2DB39D-3131-4E2F-B906-B453417A2FF8}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -5573,10 +6803,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -5591,10 +6821,10 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="167"/>
+      <c r="J2" s="182"/>
       <c r="K2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -5608,10 +6838,10 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="I3" s="166" t="s">
+      <c r="I3" s="181" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="167"/>
+      <c r="J3" s="182"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -5625,10 +6855,10 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="I4" s="168" t="s">
+      <c r="I4" s="183" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="169"/>
+      <c r="J4" s="184"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5659,13 +6889,13 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
       <c r="F7" s="60"/>
       <c r="G7" s="8"/>
       <c r="H7" s="5"/>
@@ -6025,7 +7255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57F183A-3386-450D-AE91-F3DA30B67E25}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -6033,7 +7263,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6050,17 +7280,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="159"/>
     </row>
     <row r="2" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="170" t="s">
+      <c r="G2" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="171"/>
-      <c r="I2" s="172"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="187"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -6068,11 +7298,11 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="170" t="s">
+      <c r="G3" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="171"/>
-      <c r="I3" s="172"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="187"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -6081,12 +7311,12 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="173" t="s">
+      <c r="B5" s="188" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="175"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="190"/>
       <c r="G5" s="4" t="s">
         <v>212</v>
       </c>
@@ -6242,8 +7472,8 @@
     <hyperlink ref="G8" location="'زونکن سه - تنخواه - قبوض'!A1" display="قبوض" xr:uid="{08369DEC-AF8D-495C-BDB3-6DFF654C0686}"/>
     <hyperlink ref="G9" location="'زونکن سه - تنخواه - اداری'!A1" display="اداری" xr:uid="{EA6B824F-3FBF-4C45-90AE-C11D35EE63E9}"/>
     <hyperlink ref="J6" location="'تنخواه پیمانکاری دیوارکشی'!A1" display="تنخواه پیمانکاری دیوارکشی" xr:uid="{7189A019-C564-4F98-8A47-D8BC4D474623}"/>
-    <hyperlink ref="J7" location="'لیست کارگری دیوارکشی'!A1" display="لیست کارگری دیوارکشی" xr:uid="{53206997-9BBF-4503-9D4C-FCB0240C1499}"/>
-    <hyperlink ref="J8" location="'لیست مصالح دیوارکشی'!A1" display="لیست مصالح دیوارکشی" xr:uid="{7BCB0872-1E5C-415F-9F83-433D278358AF}"/>
+    <hyperlink ref="J7" location="'لیست کارگری دیوارکشیN.33'!A1" display="لیست کارگری دیوارکشی" xr:uid="{53206997-9BBF-4503-9D4C-FCB0240C1499}"/>
+    <hyperlink ref="J8" location="'لیست مصالح دیوارکشیN.32'!A1" display="لیست مصالح دیوارکشی" xr:uid="{7BCB0872-1E5C-415F-9F83-433D278358AF}"/>
     <hyperlink ref="I8" location="'خرید کود باغ مرکبات'!A1" display="خرید کود باغ مرکبات" xr:uid="{8A27CE52-3082-4A16-97D2-191C7523B1E2}"/>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{B6407D15-524F-4FB2-9698-FB15B890A558}"/>
   </hyperlinks>
@@ -6251,7 +7481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23092EF-9DF4-42EA-9EF2-6FB21114714F}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
@@ -6278,10 +7508,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -6295,10 +7525,10 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="170" t="s">
+      <c r="H2" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="172"/>
+      <c r="I2" s="187"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -6312,8 +7542,8 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="172"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="187"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -6327,10 +7557,10 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="H4" s="176" t="s">
+      <c r="H4" s="191" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="177"/>
+      <c r="I4" s="192"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -6359,12 +7589,12 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="138" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
       <c r="E7" s="71"/>
       <c r="F7" s="8"/>
       <c r="G7" s="5"/>
@@ -6714,7 +7944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23F2A4A-1ADA-42DA-84DF-FB5510BE189F}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -6742,10 +7972,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -6761,10 +7991,10 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="I2" s="170" t="s">
+      <c r="I2" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="172"/>
+      <c r="J2" s="187"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -6779,10 +8009,10 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="I3" s="170" t="s">
+      <c r="I3" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="172"/>
+      <c r="J3" s="187"/>
       <c r="K3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6796,10 +8026,10 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="I4" s="176" t="s">
+      <c r="I4" s="191" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="177"/>
+      <c r="J4" s="192"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6830,21 +8060,21 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
       <c r="F7" s="60"/>
       <c r="G7" s="8"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="178" t="s">
+      <c r="I7" s="193" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="178"/>
-      <c r="K7" s="178"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="193"/>
       <c r="L7" s="27"/>
     </row>
     <row r="8" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -7249,1508 +8479,6 @@
   <hyperlinks>
     <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{B0FD323F-2076-4EAB-A5C0-74D9B40EE584}"/>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{BF48CFC8-656B-4342-809D-12DD43CE1D68}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECC67F4-E01F-456A-965C-D1525789CDAC}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:O28"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="27" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5"/>
-    <col min="12" max="12" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="I2" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="172"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="I3" s="170" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="172"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="I4" s="176" t="s">
-        <v>133</v>
-      </c>
-      <c r="J4" s="177"/>
-      <c r="K4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
-        <v>1</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="38">
-        <v>2</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
-        <v>2</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="38">
-        <v>2</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
-        <v>3</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="D11" s="38">
-        <v>2</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
-        <v>4</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="D12" s="38">
-        <v>2</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="38"/>
-    </row>
-    <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
-        <v>5</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D13" s="38">
-        <v>3</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="F13" s="38"/>
-    </row>
-    <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
-        <v>6</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D14" s="38">
-        <v>3</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="F14" s="38"/>
-    </row>
-    <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
-        <v>7</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D15" s="38">
-        <v>3</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="38"/>
-    </row>
-    <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
-        <v>8</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D16" s="38">
-        <v>3</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="38"/>
-    </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
-        <v>9</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D17" s="38">
-        <v>3</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" s="38"/>
-    </row>
-    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
-        <v>10</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D18" s="38">
-        <v>3</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" s="38"/>
-    </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
-        <v>11</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>313</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D19" s="38">
-        <v>3</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" s="38"/>
-    </row>
-    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
-        <v>12</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D20" s="38">
-        <v>3</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="F20" s="38"/>
-    </row>
-    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
-        <v>13</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="D21" s="38">
-        <v>2</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="F21" s="38"/>
-    </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
-        <v>14</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-    </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
-        <v>15</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-    </row>
-    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
-        <v>16</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-    </row>
-    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
-        <v>17</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-    </row>
-    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
-        <v>18</v>
-      </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-    </row>
-    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
-        <v>19</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-    </row>
-    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
-        <v>20</v>
-      </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{222970F7-877D-4191-B67C-78F0AA6BFC47}"/>
-    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{2F7EC349-6EB5-4394-A4D0-FF3EBEF8A8AD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A001D87-B52D-4BBB-825A-A2D9C74DF962}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:O28"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5"/>
-    <col min="12" max="12" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="I2" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="172"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="I3" s="170" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="172"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="I4" s="176" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="177"/>
-      <c r="K4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
-        <v>1</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="38">
-        <v>10000000</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38">
-        <f>D9</f>
-        <v>10000000</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
-        <v>2</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38">
-        <v>1899000</v>
-      </c>
-      <c r="F10" s="38">
-        <f>(F9+D10)-E10</f>
-        <v>8101000</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
-        <v>3</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38">
-        <v>352000</v>
-      </c>
-      <c r="F11" s="38">
-        <f t="shared" ref="F11:F22" si="0">(F10+D11)-E11</f>
-        <v>7749000</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
-        <v>4</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38">
-        <v>3352000</v>
-      </c>
-      <c r="F12" s="38">
-        <f t="shared" si="0"/>
-        <v>4397000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
-        <v>5</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38">
-        <v>1000000</v>
-      </c>
-      <c r="F13" s="38">
-        <f t="shared" si="0"/>
-        <v>3397000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
-        <v>6</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38">
-        <v>2960000</v>
-      </c>
-      <c r="F14" s="38">
-        <f t="shared" si="0"/>
-        <v>437000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
-        <v>7</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38">
-        <v>334000</v>
-      </c>
-      <c r="F15" s="38">
-        <f t="shared" si="0"/>
-        <v>103000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
-        <v>8</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38">
-        <v>334000</v>
-      </c>
-      <c r="F16" s="38">
-        <f t="shared" si="0"/>
-        <v>-231000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
-        <v>9</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38">
-        <v>334000</v>
-      </c>
-      <c r="F17" s="38">
-        <f t="shared" si="0"/>
-        <v>-565000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
-        <v>10</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38">
-        <v>5267000</v>
-      </c>
-      <c r="F18" s="38">
-        <f t="shared" si="0"/>
-        <v>-5832000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
-        <v>11</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38">
-        <v>8000000</v>
-      </c>
-      <c r="F19" s="38">
-        <f t="shared" si="0"/>
-        <v>-13832000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
-        <v>12</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>311</v>
-      </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38">
-        <v>4899000</v>
-      </c>
-      <c r="F20" s="38">
-        <f t="shared" si="0"/>
-        <v>-18731000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
-        <v>13</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38">
-        <v>3000000</v>
-      </c>
-      <c r="F21" s="38">
-        <f t="shared" si="0"/>
-        <v>-21731000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
-        <v>14</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="38">
-        <v>30000000</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38">
-        <f t="shared" si="0"/>
-        <v>8269000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
-        <v>15</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-    </row>
-    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
-        <v>16</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-    </row>
-    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
-        <v>17</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-    </row>
-    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
-        <v>18</v>
-      </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-    </row>
-    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
-        <v>19</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-    </row>
-    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
-        <v>20</v>
-      </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{CD3FC5BE-D291-4EE9-BD24-4A249B0FBE7C}"/>
-    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{56019AFD-8239-4232-BC40-87A8C315A85E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7AE76D-6966-4BB9-B043-ED2E5C3B6D23}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:O28"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5"/>
-    <col min="12" max="12" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="7"/>
-      <c r="B1" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="98" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="I2" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="172"/>
-      <c r="K2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="I3" s="170" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="172"/>
-      <c r="K3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="I4" s="176" t="s">
-        <v>129</v>
-      </c>
-      <c r="J4" s="177"/>
-      <c r="K4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
-        <v>1</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="38">
-        <v>5000000</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38">
-        <f>D9</f>
-        <v>5000000</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
-        <v>2</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38">
-        <v>1974000</v>
-      </c>
-      <c r="F10" s="38">
-        <f>(F9+D10)-E10</f>
-        <v>3026000</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
-        <v>3</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38">
-        <v>106000</v>
-      </c>
-      <c r="F11" s="38">
-        <f>(F10+D11)-E11</f>
-        <v>2920000</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
-        <v>4</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38">
-        <v>2800000</v>
-      </c>
-      <c r="F12" s="38">
-        <f t="shared" ref="F12:F14" si="0">(F11+D12)-E12</f>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
-        <v>5</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38">
-        <v>90000</v>
-      </c>
-      <c r="F13" s="38">
-        <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
-        <v>6</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38">
-        <v>1060000</v>
-      </c>
-      <c r="F14" s="38">
-        <f t="shared" si="0"/>
-        <v>-1030000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
-        <v>7</v>
-      </c>
-      <c r="B15" s="83" t="s">
-        <v>249</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="38">
-        <v>5000000</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38">
-        <f>(F14+D15)-E15</f>
-        <v>3970000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
-        <v>8</v>
-      </c>
-      <c r="B16" s="83" t="s">
-        <v>280</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38">
-        <v>1200000</v>
-      </c>
-      <c r="F16" s="38">
-        <f>(F15+D16)-E16</f>
-        <v>2770000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
-        <v>9</v>
-      </c>
-      <c r="B17" s="83" t="s">
-        <v>305</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38">
-        <v>907000</v>
-      </c>
-      <c r="F17" s="38">
-        <f>(F16+D17)-E17</f>
-        <v>1863000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
-        <v>10</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>308</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38">
-        <v>745000</v>
-      </c>
-      <c r="F18" s="38">
-        <f t="shared" ref="F18:F24" si="1">(F17+D18)-E18</f>
-        <v>1118000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
-        <v>11</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>308</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38">
-        <v>822000</v>
-      </c>
-      <c r="F19" s="38">
-        <f t="shared" si="1"/>
-        <v>296000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
-        <v>12</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>313</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38">
-        <v>330000</v>
-      </c>
-      <c r="F20" s="38">
-        <f t="shared" si="1"/>
-        <v>-34000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
-        <v>13</v>
-      </c>
-      <c r="B21" s="83" t="s">
-        <v>321</v>
-      </c>
-      <c r="C21" s="83" t="s">
-        <v>322</v>
-      </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38">
-        <v>1480000</v>
-      </c>
-      <c r="F21" s="38">
-        <f t="shared" si="1"/>
-        <v>-1514000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
-        <v>14</v>
-      </c>
-      <c r="B22" s="83" t="s">
-        <v>323</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="38">
-        <v>5000000</v>
-      </c>
-      <c r="F22" s="38">
-        <f t="shared" si="1"/>
-        <v>3486000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
-        <v>15</v>
-      </c>
-      <c r="B23" s="83" t="s">
-        <v>323</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38">
-        <v>2670000</v>
-      </c>
-      <c r="F23" s="38">
-        <f t="shared" si="1"/>
-        <v>816000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
-        <v>16</v>
-      </c>
-      <c r="B24" s="83" t="s">
-        <v>323</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38">
-        <v>579000</v>
-      </c>
-      <c r="F24" s="38">
-        <f t="shared" si="1"/>
-        <v>237000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
-        <v>17</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-    </row>
-    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
-        <v>18</v>
-      </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-    </row>
-    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
-        <v>19</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-    </row>
-    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
-        <v>20</v>
-      </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A7:E7"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{0F6CCBB5-3572-4C33-90EB-64EB5F24F7E3}"/>
-    <hyperlink ref="B1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{0E937C88-4427-4DB9-911F-9ECF29C8B6E1}"/>
-    <hyperlink ref="C1" location="'N.04 دفتر روزانه'!A1" display="دفتر روزانه" xr:uid="{996220C2-EF8C-477F-949C-9BA170C46597}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8803,16 +8531,16 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="137" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
     </row>
     <row r="4" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="52" t="s">
@@ -8927,6 +8655,1522 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECC67F4-E01F-456A-965C-D1525789CDAC}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="27" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="I2" s="185" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="187"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="I3" s="185" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="187"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="I4" s="191" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" s="192"/>
+      <c r="K4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="138" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
+        <v>1</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="38">
+        <v>2</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
+        <v>2</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="38">
+        <v>2</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <v>3</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="38">
+        <v>2</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <v>4</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="38">
+        <v>2</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="38"/>
+    </row>
+    <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
+        <v>5</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D13" s="38">
+        <v>3</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" s="38"/>
+    </row>
+    <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
+        <v>6</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" s="38">
+        <v>3</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" s="38"/>
+    </row>
+    <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
+        <v>7</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" s="38">
+        <v>3</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="38"/>
+    </row>
+    <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
+        <v>8</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="38">
+        <v>3</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="38"/>
+    </row>
+    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
+        <v>9</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="38">
+        <v>3</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="38"/>
+    </row>
+    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <v>10</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" s="38">
+        <v>3</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="38"/>
+    </row>
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
+        <v>11</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D19" s="38">
+        <v>3</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="38"/>
+    </row>
+    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
+        <v>12</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" s="38">
+        <v>3</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" s="38"/>
+    </row>
+    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
+        <v>13</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D21" s="38">
+        <v>2</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="F21" s="38"/>
+    </row>
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
+        <v>14</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D22" s="38">
+        <v>3</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="38"/>
+    </row>
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
+        <v>15</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" s="38">
+        <v>3</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="38"/>
+    </row>
+    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A24" s="38">
+        <v>16</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+    </row>
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A25" s="38">
+        <v>17</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+    </row>
+    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A26" s="38">
+        <v>18</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+    </row>
+    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="38">
+        <v>19</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+    </row>
+    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A28" s="38">
+        <v>20</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{222970F7-877D-4191-B67C-78F0AA6BFC47}"/>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{2F7EC349-6EB5-4394-A4D0-FF3EBEF8A8AD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A001D87-B52D-4BBB-825A-A2D9C74DF962}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="I2" s="185" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="187"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="I3" s="185" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="187"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="I4" s="191" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="192"/>
+      <c r="K4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="138" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
+        <v>1</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="38">
+        <v>10000000</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38">
+        <f>D9</f>
+        <v>10000000</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
+        <v>2</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38">
+        <v>1899000</v>
+      </c>
+      <c r="F10" s="38">
+        <f>(F9+D10)-E10</f>
+        <v>8101000</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <v>3</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38">
+        <v>352000</v>
+      </c>
+      <c r="F11" s="38">
+        <f t="shared" ref="F11:F22" si="0">(F10+D11)-E11</f>
+        <v>7749000</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <v>4</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38">
+        <v>3352000</v>
+      </c>
+      <c r="F12" s="38">
+        <f t="shared" si="0"/>
+        <v>4397000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
+        <v>5</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="F13" s="38">
+        <f t="shared" si="0"/>
+        <v>3397000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
+        <v>6</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38">
+        <v>2960000</v>
+      </c>
+      <c r="F14" s="38">
+        <f t="shared" si="0"/>
+        <v>437000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
+        <v>7</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38">
+        <v>334000</v>
+      </c>
+      <c r="F15" s="38">
+        <f t="shared" si="0"/>
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
+        <v>8</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38">
+        <v>334000</v>
+      </c>
+      <c r="F16" s="38">
+        <f t="shared" si="0"/>
+        <v>-231000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
+        <v>9</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38">
+        <v>334000</v>
+      </c>
+      <c r="F17" s="38">
+        <f t="shared" si="0"/>
+        <v>-565000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <v>10</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38">
+        <v>5267000</v>
+      </c>
+      <c r="F18" s="38">
+        <f t="shared" si="0"/>
+        <v>-5832000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
+        <v>11</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38">
+        <v>8000000</v>
+      </c>
+      <c r="F19" s="38">
+        <f t="shared" si="0"/>
+        <v>-13832000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
+        <v>12</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38">
+        <v>4899000</v>
+      </c>
+      <c r="F20" s="38">
+        <f t="shared" si="0"/>
+        <v>-18731000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
+        <v>13</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38">
+        <v>3000000</v>
+      </c>
+      <c r="F21" s="38">
+        <f t="shared" si="0"/>
+        <v>-21731000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
+        <v>14</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="38">
+        <v>30000000</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38">
+        <f t="shared" si="0"/>
+        <v>8269000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
+        <v>15</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+    </row>
+    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A24" s="38">
+        <v>16</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+    </row>
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A25" s="38">
+        <v>17</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+    </row>
+    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A26" s="38">
+        <v>18</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+    </row>
+    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="38">
+        <v>19</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+    </row>
+    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A28" s="38">
+        <v>20</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{CD3FC5BE-D291-4EE9-BD24-4A249B0FBE7C}"/>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{56019AFD-8239-4232-BC40-87A8C315A85E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7AE76D-6966-4BB9-B043-ED2E5C3B6D23}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A1" s="7"/>
+      <c r="B1" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="98" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="I2" s="185" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="187"/>
+      <c r="K2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="I3" s="185" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="187"/>
+      <c r="K3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="I4" s="191" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" s="192"/>
+      <c r="K4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="138" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
+        <v>1</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="38">
+        <v>5000000</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38">
+        <f>D9</f>
+        <v>5000000</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
+        <v>2</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38">
+        <v>1974000</v>
+      </c>
+      <c r="F10" s="38">
+        <f>(F9+D10)-E10</f>
+        <v>3026000</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <v>3</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38">
+        <v>106000</v>
+      </c>
+      <c r="F11" s="38">
+        <f>(F10+D11)-E11</f>
+        <v>2920000</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <v>4</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38">
+        <v>2800000</v>
+      </c>
+      <c r="F12" s="38">
+        <f t="shared" ref="F12:F14" si="0">(F11+D12)-E12</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
+        <v>5</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38">
+        <v>90000</v>
+      </c>
+      <c r="F13" s="38">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
+        <v>6</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38">
+        <v>1060000</v>
+      </c>
+      <c r="F14" s="38">
+        <f t="shared" si="0"/>
+        <v>-1030000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
+        <v>7</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="38">
+        <v>5000000</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38">
+        <f>(F14+D15)-E15</f>
+        <v>3970000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
+        <v>8</v>
+      </c>
+      <c r="B16" s="83" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38">
+        <v>1200000</v>
+      </c>
+      <c r="F16" s="38">
+        <f>(F15+D16)-E16</f>
+        <v>2770000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
+        <v>9</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38">
+        <v>907000</v>
+      </c>
+      <c r="F17" s="38">
+        <f>(F16+D17)-E17</f>
+        <v>1863000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <v>10</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38">
+        <v>745000</v>
+      </c>
+      <c r="F18" s="38">
+        <f t="shared" ref="F18:F24" si="1">(F17+D18)-E18</f>
+        <v>1118000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
+        <v>11</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38">
+        <v>822000</v>
+      </c>
+      <c r="F19" s="38">
+        <f t="shared" si="1"/>
+        <v>296000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
+        <v>12</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>313</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38">
+        <v>330000</v>
+      </c>
+      <c r="F20" s="38">
+        <f t="shared" si="1"/>
+        <v>-34000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
+        <v>13</v>
+      </c>
+      <c r="B21" s="83" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="83" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38">
+        <v>1480000</v>
+      </c>
+      <c r="F21" s="38">
+        <f t="shared" si="1"/>
+        <v>-1514000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
+        <v>14</v>
+      </c>
+      <c r="B22" s="83" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="38">
+        <v>5000000</v>
+      </c>
+      <c r="F22" s="38">
+        <f t="shared" si="1"/>
+        <v>3486000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
+        <v>15</v>
+      </c>
+      <c r="B23" s="83" t="s">
+        <v>323</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38">
+        <v>2670000</v>
+      </c>
+      <c r="F23" s="38">
+        <f>(F22+D23)-E23</f>
+        <v>816000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A24" s="38">
+        <v>16</v>
+      </c>
+      <c r="B24" s="83" t="s">
+        <v>323</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38">
+        <v>579000</v>
+      </c>
+      <c r="F24" s="38">
+        <f t="shared" si="1"/>
+        <v>237000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A25" s="38">
+        <v>17</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+    </row>
+    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A26" s="38">
+        <v>18</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+    </row>
+    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="38">
+        <v>19</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+    </row>
+    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A28" s="38">
+        <v>20</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{0F6CCBB5-3572-4C33-90EB-64EB5F24F7E3}"/>
+    <hyperlink ref="B1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{0E937C88-4427-4DB9-911F-9ECF29C8B6E1}"/>
+    <hyperlink ref="C1" location="'N.04 دفتر روزانه'!A1" display="دفتر روزانه" xr:uid="{996220C2-EF8C-477F-949C-9BA170C46597}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03590E6F-F524-4F8C-ACD9-635A648ABCF8}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -8953,10 +10197,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -8969,10 +10213,10 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="170" t="s">
+      <c r="H2" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="172"/>
+      <c r="I2" s="187"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -8986,10 +10230,10 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="170" t="s">
+      <c r="H3" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="172"/>
+      <c r="I3" s="187"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -9002,10 +10246,10 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="H4" s="176" t="s">
+      <c r="H4" s="191" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="177"/>
+      <c r="I4" s="192"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -9020,13 +10264,13 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:14" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="139" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
       <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -9164,7 +10408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C5079D-A085-4F31-926D-1D8B6D498E67}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -9189,10 +10433,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="I1" s="3"/>
@@ -9202,10 +10446,10 @@
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="F2" s="170" t="s">
+      <c r="F2" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="172"/>
+      <c r="G2" s="187"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -9217,10 +10461,10 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="F3" s="170" t="s">
+      <c r="F3" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="172"/>
+      <c r="G3" s="187"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -9232,10 +10476,10 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="F4" s="176" t="s">
+      <c r="F4" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="177"/>
+      <c r="G4" s="192"/>
       <c r="H4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -9248,11 +10492,11 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:12" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
       <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:12" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -9329,10 +10573,10 @@
       <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="179" t="s">
+      <c r="A13" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="180"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="23">
         <f>SUM(C9:C12)</f>
         <v>0</v>
@@ -9356,7 +10600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397A8150-4C95-4F03-85CC-EA5E0B56188A}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -9384,10 +10628,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -9403,10 +10647,10 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="I2" s="170" t="s">
+      <c r="I2" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="172"/>
+      <c r="J2" s="187"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -9421,10 +10665,10 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="I3" s="170" t="s">
+      <c r="I3" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="172"/>
+      <c r="J3" s="187"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -9439,10 +10683,10 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="I4" s="176" t="s">
+      <c r="I4" s="191" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="177"/>
+      <c r="J4" s="192"/>
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -9473,13 +10717,13 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
       <c r="F7" s="26"/>
       <c r="G7" s="8"/>
       <c r="H7" s="5"/>
@@ -9762,7 +11006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AF6ECC-C25D-4AE4-9D51-65D2BBBC0054}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -9794,10 +11038,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -9818,10 +11062,10 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="L2" s="170" t="s">
+      <c r="L2" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="172"/>
+      <c r="M2" s="187"/>
       <c r="N2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -9838,10 +11082,10 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="L3" s="170" t="s">
+      <c r="L3" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="172"/>
+      <c r="M3" s="187"/>
       <c r="N3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -9858,10 +11102,10 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="L4" s="176" t="s">
+      <c r="L4" s="191" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="177"/>
+      <c r="M4" s="192"/>
       <c r="N4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -9878,10 +11122,10 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="L5" s="181" t="s">
+      <c r="L5" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="182"/>
+      <c r="M5" s="197"/>
       <c r="N5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -9900,16 +11144,16 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:18" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
       <c r="I7" s="72" t="s">
         <v>207</v>
       </c>
@@ -10272,7 +11516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611E4142-FA06-4F8C-8479-92BC84077D6A}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -10299,10 +11543,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -10322,10 +11566,10 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="K2" s="170" t="s">
+      <c r="K2" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="172"/>
+      <c r="L2" s="187"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -10342,10 +11586,10 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="K3" s="170" t="s">
+      <c r="K3" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="172"/>
+      <c r="L3" s="187"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -10362,10 +11606,10 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="K4" s="176" t="s">
+      <c r="K4" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="177"/>
+      <c r="L4" s="192"/>
       <c r="M4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -10381,10 +11625,10 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="K5" s="181" t="s">
+      <c r="K5" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="182"/>
+      <c r="L5" s="197"/>
       <c r="M5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -10402,16 +11646,16 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:17" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:17" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -10752,7 +11996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74664C7B-AF9D-4AAA-84CE-5A79A28E0748}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -10779,10 +12023,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -10796,10 +12040,10 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="170" t="s">
+      <c r="H2" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="172"/>
+      <c r="I2" s="187"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -10813,10 +12057,10 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="170" t="s">
+      <c r="H3" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="172"/>
+      <c r="I3" s="187"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -10830,10 +12074,10 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="H4" s="176" t="s">
+      <c r="H4" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="177"/>
+      <c r="I4" s="192"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -10846,10 +12090,10 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="H5" s="181" t="s">
+      <c r="H5" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="182"/>
+      <c r="I5" s="197"/>
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -10864,13 +12108,13 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -11114,13 +12358,13 @@
       <c r="E29" s="15"/>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A41" s="126" t="s">
+      <c r="A41" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="126"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="138"/>
     </row>
     <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
@@ -11352,7 +12596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E05E92-F6C6-4B7D-8902-B6A7A2B70891}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -11381,10 +12625,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -11401,10 +12645,10 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="J2" s="170" t="s">
+      <c r="J2" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="172"/>
+      <c r="K2" s="187"/>
       <c r="L2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -11419,10 +12663,10 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="J3" s="170" t="s">
+      <c r="J3" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="172"/>
+      <c r="K3" s="187"/>
       <c r="L3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -11437,10 +12681,10 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="J4" s="176" t="s">
+      <c r="J4" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="177"/>
+      <c r="K4" s="192"/>
       <c r="L4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -11455,10 +12699,10 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="J5" s="181" t="s">
+      <c r="J5" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="182"/>
+      <c r="K5" s="197"/>
       <c r="L5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -11475,15 +12719,15 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:16" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="138" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:16" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -11781,922 +13025,6 @@
     <hyperlink ref="J2:K2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{AE8D250A-4E70-4693-8F14-A81EC5AE2FC0}"/>
     <hyperlink ref="J5:K5" location="'زونکن سه - بایگانی - پذیرایی'!A1" display="بایگانی" xr:uid="{08BFA6A0-9B63-4204-B008-EEFA0FF08306}"/>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{BE3B5C3D-D737-43C9-98DC-B843568A1CEE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4824894-99A7-468B-A8A6-2B99A48AF766}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:N29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="12.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="31" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="5"/>
-    <col min="8" max="9" width="25.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="5"/>
-    <col min="11" max="11" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="H2" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="172"/>
-      <c r="J2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="H3" s="170" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="172"/>
-      <c r="J3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="H4" s="181" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="182"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="H5" s="176" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="177"/>
-      <c r="J5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>1</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>3</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>4</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>5</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>6</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>7</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>8</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>9</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>10</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>11</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>12</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>13</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>14</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>15</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>16</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>17</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
-        <v>18</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>19</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>20</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="H5:I5"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="H2:I2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{A9E87F5B-9FCC-48E7-863D-B121466A6669}"/>
-    <hyperlink ref="H4:I4" location="'زونکن سه - تنخواه - فرم پذیرایی'!A1" display="فرم پذیرایی" xr:uid="{C3ED0488-8404-4ABF-A690-CF5B39C1A8BA}"/>
-    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{9B8F2BD3-2B0C-4B5B-9E25-2E7C511C12A4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F6B1EE-0CDB-40D5-AA97-407B3D9B5EAB}">
-  <sheetPr>
-    <tabColor theme="9" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:Q8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="147"/>
-    </row>
-    <row r="2" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="183" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="184"/>
-      <c r="M2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K5" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K6" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K7" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="K5" location="'زونکن سه - لیست مرخص روزانه'!A1" display="لیست مرخص روزانه" xr:uid="{03604C70-DE50-43D1-A89C-743D343C4D62}"/>
-    <hyperlink ref="K6" location="'زونکن سه - لیست مرخص ساعتی'!A1" display="لیست مرخصی ساعتی" xr:uid="{22A0AC1E-4132-49C3-8F26-2283D1F89D71}"/>
-    <hyperlink ref="K7" location="'لیست فعالیت ماهانه همکاران شرکت'!A1" display="لیست فعالیت ماهانه همکاران شرکتی" xr:uid="{9C15BC85-580F-4ADE-8B0F-93B3CC82F315}"/>
-    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{1ABA7489-346C-4E9B-98EC-FBA9E38E0738}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306C899E-EDF2-4E78-9E17-5B8A229DB2C4}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:N26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="12.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="5"/>
-    <col min="8" max="9" width="25.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="5"/>
-    <col min="11" max="11" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="H2" s="152" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="153"/>
-      <c r="J2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="H3" s="183" t="s">
-        <v>165</v>
-      </c>
-      <c r="I3" s="184"/>
-      <c r="J3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="126" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" s="6" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>1</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="20">
-        <v>2</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" s="6" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>2</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:14" s="6" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>3</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>4</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>5</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>6</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>7</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>8</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>9</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="1:14" s="8" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>10</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>11</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>12</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>13</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>14</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>15</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>16</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>17</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>18</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>19</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>20</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="H2:I2" location="'مدیریت زونکن چهار'!A1" display="زونکن شماره چهار" xr:uid="{615BA136-837F-407A-9312-37B860CE5A59}"/>
-    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{83B331C3-5428-43B8-9E16-C6F44F6C1E5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12731,12 +13059,12 @@
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="139" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -12782,13 +13110,13 @@
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
       <c r="F8" s="42"/>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13163,8 +13491,8 @@
       <c r="A122" s="19"/>
     </row>
     <row r="125" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A125" s="126"/>
-      <c r="B125" s="126"/>
+      <c r="A125" s="138"/>
+      <c r="B125" s="138"/>
     </row>
     <row r="126" spans="1:2" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
@@ -13269,6 +13597,922 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4824894-99A7-468B-A8A6-2B99A48AF766}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="12.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="31" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="5"/>
+    <col min="8" max="9" width="25.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="H2" s="185" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="187"/>
+      <c r="J2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="185" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="187"/>
+      <c r="J3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="196" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="197"/>
+      <c r="J4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="H5" s="191" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="192"/>
+      <c r="J5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>3</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>4</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>5</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>6</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>7</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>8</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>9</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>10</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>11</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>12</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>13</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>14</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>15</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>16</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>17</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>18</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>19</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>20</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="H5:I5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H2:I2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{A9E87F5B-9FCC-48E7-863D-B121466A6669}"/>
+    <hyperlink ref="H4:I4" location="'زونکن سه - تنخواه - فرم پذیرایی'!A1" display="فرم پذیرایی" xr:uid="{C3ED0488-8404-4ABF-A690-CF5B39C1A8BA}"/>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{9B8F2BD3-2B0C-4B5B-9E25-2E7C511C12A4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F6B1EE-0CDB-40D5-AA97-407B3D9B5EAB}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="159"/>
+    </row>
+    <row r="2" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="198" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="199"/>
+      <c r="M2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K5" location="'زونکن سه - لیست مرخص روزانه'!A1" display="لیست مرخص روزانه" xr:uid="{03604C70-DE50-43D1-A89C-743D343C4D62}"/>
+    <hyperlink ref="K6" location="'زونکن سه - لیست مرخص ساعتی'!A1" display="لیست مرخصی ساعتی" xr:uid="{22A0AC1E-4132-49C3-8F26-2283D1F89D71}"/>
+    <hyperlink ref="K7" location="'لیست فعالیت ماهانه همکاران شرکت'!A1" display="لیست فعالیت ماهانه همکاران شرکتی" xr:uid="{9C15BC85-580F-4ADE-8B0F-93B3CC82F315}"/>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{1ABA7489-346C-4E9B-98EC-FBA9E38E0738}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306C899E-EDF2-4E78-9E17-5B8A229DB2C4}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="12.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="5"/>
+    <col min="8" max="9" width="25.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="H2" s="164" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="165"/>
+      <c r="J2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="198" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="199"/>
+      <c r="J3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A5" s="138" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" s="6" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>1</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="20">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" s="6" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>2</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" s="6" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>3</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>4</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>6</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>7</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>8</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>9</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:14" s="8" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>10</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>11</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>12</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>13</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>17</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>18</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>19</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>20</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H2:I2" location="'مدیریت زونکن چهار'!A1" display="زونکن شماره چهار" xr:uid="{615BA136-837F-407A-9312-37B860CE5A59}"/>
+    <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{83B331C3-5428-43B8-9E16-C6F44F6C1E5C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930F3AE4-F05A-41F7-94FE-13D5DDEE4B2A}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -13296,10 +14540,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="147"/>
+      <c r="C1" s="159"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -13310,10 +14554,10 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="152" t="s">
+      <c r="H2" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="153"/>
+      <c r="I2" s="165"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -13325,10 +14569,10 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="183" t="s">
+      <c r="H3" s="198" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="184"/>
+      <c r="I3" s="199"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -13342,20 +14586,20 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="B5" s="186" t="s">
+      <c r="B5" s="201" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
     </row>
     <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="202" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="70"/>
       <c r="F6" s="70"/>
       <c r="G6" s="70"/>
@@ -13401,11 +14645,11 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="185" t="s">
+      <c r="B10" s="200" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="185"/>
-      <c r="D10" s="185"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
       <c r="E10" s="69"/>
       <c r="F10" s="69"/>
       <c r="G10" s="69"/>
@@ -13554,11 +14798,11 @@
       <c r="J20" s="70"/>
     </row>
     <row r="21" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="185" t="s">
+      <c r="B21" s="200" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="185"/>
-      <c r="D21" s="185"/>
+      <c r="C21" s="200"/>
+      <c r="D21" s="200"/>
       <c r="E21" s="70"/>
       <c r="F21" s="70"/>
       <c r="G21" s="70"/>
@@ -13600,20 +14844,20 @@
       <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="B25" s="186" t="s">
+      <c r="B25" s="201" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="186"/>
-      <c r="D25" s="186"/>
-      <c r="E25" s="186"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="201"/>
+      <c r="E25" s="201"/>
     </row>
     <row r="26" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="187" t="s">
+      <c r="A26" s="202" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="187"/>
-      <c r="C26" s="187"/>
-      <c r="D26" s="187"/>
+      <c r="B26" s="202"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="202"/>
     </row>
     <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="B27"/>
@@ -13637,11 +14881,11 @@
       <c r="D29"/>
     </row>
     <row r="30" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="185" t="s">
+      <c r="B30" s="200" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="185"/>
-      <c r="D30" s="185"/>
+      <c r="C30" s="200"/>
+      <c r="D30" s="200"/>
       <c r="H30" s="70"/>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.55000000000000004">
@@ -13735,11 +14979,11 @@
       <c r="D40" s="70"/>
     </row>
     <row r="41" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="185" t="s">
+      <c r="B41" s="200" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="185"/>
-      <c r="D41" s="185"/>
+      <c r="C41" s="200"/>
+      <c r="D41" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13765,7 +15009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F82A5-E35F-4FD7-BC9C-13B5DFE62BF2}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -13791,10 +15035,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -13806,10 +15050,10 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="G2" s="152" t="s">
+      <c r="G2" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="153"/>
+      <c r="H2" s="165"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -13822,10 +15066,10 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="G3" s="183" t="s">
+      <c r="G3" s="198" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="184"/>
+      <c r="H3" s="199"/>
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -13839,12 +15083,12 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="138" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -14166,47 +15410,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="144"/>
+      <c r="C1" s="142" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="145" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="136" t="s">
+      <c r="D2" s="146"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148" t="s">
         <v>268</v>
       </c>
-      <c r="G2" s="137"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="139" t="s">
+      <c r="G2" s="149"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="151" t="s">
         <v>269</v>
       </c>
-      <c r="J2" s="140"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="128" t="s">
+      <c r="J2" s="152"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="140" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="88" t="s">
@@ -14214,8 +15458,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="145"/>
-      <c r="B3" s="143"/>
+      <c r="A3" s="157"/>
+      <c r="B3" s="155"/>
       <c r="C3" s="89" t="s">
         <v>270</v>
       </c>
@@ -14243,7 +15487,7 @@
       <c r="K3" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="129"/>
+      <c r="L3" s="141"/>
       <c r="M3" s="88" t="s">
         <v>274</v>
       </c>
@@ -15451,10 +16695,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -15467,10 +16711,10 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="149"/>
+      <c r="I2" s="161"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -15483,10 +16727,10 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="150" t="s">
+      <c r="H3" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="151"/>
+      <c r="I3" s="163"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -15515,13 +16759,13 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -15790,13 +17034,13 @@
       <c r="M30" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A33" s="126" t="s">
+      <c r="A33" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="126"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
       <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -16020,14 +17264,14 @@
       <c r="F54" s="20"/>
     </row>
     <row r="57" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A57" s="127" t="s">
+      <c r="A57" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="127"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="127"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="127"/>
+      <c r="B57" s="139"/>
+      <c r="C57" s="139"/>
+      <c r="D57" s="139"/>
+      <c r="E57" s="139"/>
+      <c r="F57" s="139"/>
     </row>
     <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
@@ -16249,12 +17493,12 @@
       <c r="F78" s="19"/>
     </row>
     <row r="82" spans="1:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="A82" s="127" t="s">
+      <c r="A82" s="139" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="127"/>
-      <c r="C82" s="127"/>
-      <c r="D82" s="127"/>
+      <c r="B82" s="139"/>
+      <c r="C82" s="139"/>
+      <c r="D82" s="139"/>
     </row>
     <row r="83" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
@@ -16431,15 +17675,15 @@
       <c r="D103" s="21"/>
     </row>
     <row r="106" spans="1:7" ht="27" x14ac:dyDescent="0.25">
-      <c r="A106" s="126" t="s">
+      <c r="A106" s="138" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="126"/>
-      <c r="C106" s="126"/>
-      <c r="D106" s="126"/>
-      <c r="E106" s="126"/>
-      <c r="F106" s="126"/>
-      <c r="G106" s="126"/>
+      <c r="B106" s="138"/>
+      <c r="C106" s="138"/>
+      <c r="D106" s="138"/>
+      <c r="E106" s="138"/>
+      <c r="F106" s="138"/>
+      <c r="G106" s="138"/>
     </row>
     <row r="107" spans="1:7" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
@@ -16689,16 +17933,16 @@
       <c r="G127" s="19"/>
     </row>
     <row r="130" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A130" s="126" t="s">
+      <c r="A130" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="B130" s="126"/>
-      <c r="C130" s="126"/>
-      <c r="D130" s="126"/>
-      <c r="E130" s="126"/>
-      <c r="F130" s="126"/>
-      <c r="G130" s="126"/>
-      <c r="H130" s="126"/>
+      <c r="B130" s="138"/>
+      <c r="C130" s="138"/>
+      <c r="D130" s="138"/>
+      <c r="E130" s="138"/>
+      <c r="F130" s="138"/>
+      <c r="G130" s="138"/>
+      <c r="H130" s="138"/>
     </row>
     <row r="131" spans="1:8" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
@@ -16967,13 +18211,13 @@
       <c r="H151" s="9"/>
     </row>
     <row r="155" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A155" s="126" t="s">
+      <c r="A155" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="B155" s="126"/>
-      <c r="C155" s="126"/>
-      <c r="D155" s="126"/>
-      <c r="E155" s="126"/>
+      <c r="B155" s="138"/>
+      <c r="C155" s="138"/>
+      <c r="D155" s="138"/>
+      <c r="E155" s="138"/>
       <c r="F155" s="62"/>
     </row>
     <row r="156" spans="1:8" ht="27" x14ac:dyDescent="0.25">
@@ -17197,13 +18441,13 @@
       <c r="F176" s="38"/>
     </row>
     <row r="179" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A179" s="126" t="s">
+      <c r="A179" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="B179" s="126"/>
-      <c r="C179" s="126"/>
-      <c r="D179" s="126"/>
-      <c r="E179" s="126"/>
+      <c r="B179" s="138"/>
+      <c r="C179" s="138"/>
+      <c r="D179" s="138"/>
+      <c r="E179" s="138"/>
       <c r="F179" s="64"/>
     </row>
     <row r="180" spans="1:6" ht="27" x14ac:dyDescent="0.25">
@@ -17423,14 +18667,14 @@
       <c r="F200" s="38"/>
     </row>
     <row r="204" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A204" s="127" t="s">
+      <c r="A204" s="139" t="s">
         <v>219</v>
       </c>
-      <c r="B204" s="127"/>
-      <c r="C204" s="127"/>
-      <c r="D204" s="127"/>
-      <c r="E204" s="127"/>
-      <c r="F204" s="127"/>
+      <c r="B204" s="139"/>
+      <c r="C204" s="139"/>
+      <c r="D204" s="139"/>
+      <c r="E204" s="139"/>
+      <c r="F204" s="139"/>
     </row>
     <row r="205" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A205" s="76" t="s">
@@ -17996,16 +19240,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="159"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="152" t="s">
+      <c r="J2" s="164" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="153"/>
+      <c r="K2" s="165"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -18045,10 +19289,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="152" t="s">
+      <c r="J12" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="153"/>
+      <c r="K12" s="165"/>
     </row>
     <row r="13" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J13" s="2">
@@ -18119,7 +19363,7 @@
       </c>
     </row>
     <row r="24" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="154" t="s">
+      <c r="I24" s="166" t="s">
         <v>76</v>
       </c>
       <c r="J24" s="2">
@@ -18130,7 +19374,7 @@
       </c>
     </row>
     <row r="25" spans="9:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="155"/>
+      <c r="I25" s="167"/>
       <c r="J25" s="2" t="s">
         <v>74</v>
       </c>
@@ -18162,7 +19406,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18177,16 +19421,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="159"/>
     </row>
     <row r="2" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="156" t="s">
+      <c r="K2" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="157"/>
+      <c r="L2" s="169"/>
       <c r="M2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -18198,21 +19442,32 @@
       <c r="K4" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="125" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K5" s="2" t="s">
         <v>291</v>
       </c>
+      <c r="L5" s="2" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K6" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="L6" s="2" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K7" s="2" t="s">
         <v>292</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -18227,6 +19482,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{B2B83D90-EFF8-49C1-9671-F4AF78134671}"/>
+    <hyperlink ref="L5" location="'دکتر نصیری نمایشی N.15'!A1" display="دکتر نصیری نمایشی" xr:uid="{95050127-1C83-43E7-9E05-DF2FE5B8D7BE}"/>
+    <hyperlink ref="L6" location="' دکتر نبی پور سازگاری  N.16 S '!A1" display="دکتر نبی پور سازگاری S" xr:uid="{B1DBCF51-C1D7-41F9-A54B-F5CF89BFE954}"/>
+    <hyperlink ref="L7" location="' دکتر نبی پور سازگاری  N.17 M '!A1" display="دکتر نبی پور سازگاری M" xr:uid="{8FC95CD7-D447-4E4A-832E-33B76610F7AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18240,7 +19498,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -18259,10 +19517,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -18276,10 +19534,10 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="158" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="159"/>
+      <c r="H2" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="171"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -18293,10 +19551,10 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="160" t="s">
+      <c r="H3" s="172" t="s">
         <v>291</v>
       </c>
-      <c r="I3" s="161"/>
+      <c r="I3" s="173"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -18327,13 +19585,13 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="162" t="s">
+      <c r="A6" s="174" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="100" t="s">
@@ -18391,11 +19649,11 @@
         <v>#NAME?</v>
       </c>
       <c r="E10" s="112"/>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="175" t="s">
         <v>304</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="109">
@@ -18513,8 +19771,8 @@
     <mergeCell ref="G10:I10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H2:I2" location="'زونکن یک N1'!A1" display="زونکن شماره دو" xr:uid="{9679CC2A-20EE-47C5-81D6-3417C400455E}"/>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{F1C42A96-6BCD-4DC2-BBDD-6E8E0ACEF938}"/>
+    <hyperlink ref="H2:I2" location="'زونکن یک N1'!A1" display="زونکن شماره دو" xr:uid="{A674E843-5EAA-47A9-B226-3CBE34F8F705}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18529,7 +19787,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -18548,10 +19806,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -18565,10 +19823,10 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="158" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="159"/>
+      <c r="H2" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="171"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -18582,10 +19840,10 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="160" t="s">
+      <c r="H3" s="172" t="s">
         <v>325</v>
       </c>
-      <c r="I3" s="161"/>
+      <c r="I3" s="173"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -18616,13 +19874,13 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="162" t="s">
+      <c r="A6" s="174" t="s">
         <v>325</v>
       </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="100" t="s">
@@ -18681,11 +19939,11 @@
         <v>#NAME?</v>
       </c>
       <c r="E10" s="112"/>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="175" t="s">
         <v>304</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="109">
@@ -18803,8 +20061,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H2:I2" location="'زونکن یک N1'!A1" display="زونکن شماره دو" xr:uid="{F9257ED5-3024-4D58-9025-13C2EE112160}"/>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{7AE84110-D5BD-425D-96B8-BFCB2834E2C3}"/>
+    <hyperlink ref="H2:I2" location="'زونکن یک N1'!A1" display="زونکن شماره دو" xr:uid="{041E6949-7F26-4D17-A13D-9783EDA4B0EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2AE4AF-910F-48FA-8624-6441E930FE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667B3079-E2B0-48B0-870A-77E90FE2E41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="357">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -7263,7 +7263,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7951,8 +7951,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -8131,8 +8131,8 @@
       <c r="I9" s="63"/>
       <c r="J9" s="63"/>
       <c r="K9" s="119">
-        <f>SUM(D13:D22,D11)</f>
-        <v>4100</v>
+        <f>SUM(D13:D24,D11)</f>
+        <v>4900</v>
       </c>
       <c r="L9" s="63"/>
     </row>
@@ -8420,9 +8420,15 @@
       <c r="A24" s="38">
         <v>16</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="B24" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="C24" s="122" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="38">
+        <v>600</v>
+      </c>
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
     </row>
@@ -8661,8 +8667,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:D24"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -9141,7 +9147,7 @@
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{222970F7-877D-4191-B67C-78F0AA6BFC47}"/>
+    <hyperlink ref="I2:J2" location="'N3 زونکن سه'!A1" display="زونکن شماره سه" xr:uid="{222970F7-877D-4191-B67C-78F0AA6BFC47}"/>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{2F7EC349-6EB5-4394-A4D0-FF3EBEF8A8AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10608,7 +10614,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L3"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>

--- a/1404.xlsx
+++ b/1404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chaparsar.RRS\1404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667B3079-E2B0-48B0-870A-77E90FE2E41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F120A7-52F9-4B1B-AD89-202E454AF177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="902" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N.01 صفحه اصلی" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="363">
   <si>
     <t>اکسل مدیریتی ایستگاه تحقیقات برنج شهید شیرودی تنکابن سال 1404</t>
   </si>
@@ -1143,17 +1143,36 @@
   </si>
   <si>
     <t>1404/02/23</t>
+  </si>
+  <si>
+    <t>1404/02/24</t>
+  </si>
+  <si>
+    <t>هوشنگ</t>
+  </si>
+  <si>
+    <t>داوود</t>
+  </si>
+  <si>
+    <t>بهرام</t>
+  </si>
+  <si>
+    <t>محاسبه تعداد کل روز هر کارگر</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0000\/00\/00"/>
     <numFmt numFmtId="166" formatCode="[$-30C0000]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1324,7 +1343,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1478,6 +1497,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1976,7 +2001,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2573,6 +2598,54 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="14" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="14" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="14" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="24" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="24" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="24" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="16" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="27" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7263,7 +7336,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7951,8 +8024,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -8483,7 +8556,7 @@
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2:J2" location="'زونکن سه - تنخواه'!A1" display="زونکن شماره سه" xr:uid="{B0FD323F-2076-4EAB-A5C0-74D9B40EE584}"/>
+    <hyperlink ref="I2:J2" location="'N3 زونکن سه'!A1" display="زونکن شماره سه" xr:uid="{B0FD323F-2076-4EAB-A5C0-74D9B40EE584}"/>
     <hyperlink ref="A1" location="'N.01 صفحه اصلی'!A1" display="صفحه اصلی" xr:uid="{BF48CFC8-656B-4342-809D-12DD43CE1D68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8664,11 +8737,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECC67F4-E01F-456A-965C-D1525789CDAC}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J2"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L14" sqref="J14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -8681,13 +8755,17 @@
     <col min="6" max="6" width="15.42578125" style="8" customWidth="1"/>
     <col min="7" max="7" width="13" style="8" customWidth="1"/>
     <col min="8" max="8" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5"/>
-    <col min="12" max="12" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
+    <col min="9" max="9" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="158" t="s">
         <v>10</v>
       </c>
@@ -8697,9 +8775,9 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -8707,17 +8785,17 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="I2" s="185" t="s">
+      <c r="J2" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="187"/>
-      <c r="K2" s="3"/>
+      <c r="K2" s="187"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -8725,17 +8803,17 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="I3" s="185" t="s">
+      <c r="J3" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="187"/>
-      <c r="K3" s="3"/>
+      <c r="K3" s="187"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -8743,16 +8821,16 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="I4" s="191" t="s">
+      <c r="J4" s="191" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="192"/>
-      <c r="K4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
